--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1790A17-5CF9-4D77-8F58-B7D888B0440F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8495D2D-7E56-45A7-A5FA-88A7BAA8FFE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Veda" sheetId="1" r:id="rId1"/>
@@ -33,8 +33,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="65">
   <si>
     <t>bioenergy</t>
   </si>
@@ -181,13 +203,71 @@
   </si>
   <si>
     <t>EMBER</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>~UC_Sets: R_E: AllRegions</t>
+  </si>
+  <si>
+    <t>UC_N</t>
+  </si>
+  <si>
+    <t>UC_ACT</t>
+  </si>
+  <si>
+    <t>UC_CAP</t>
+  </si>
+  <si>
+    <t>UCE_max coal fleet utilization</t>
+  </si>
+  <si>
+    <t>UCE_min coal fleet utilization</t>
+  </si>
+  <si>
+    <t>UCE_max gas fleet utilization</t>
+  </si>
+  <si>
+    <t>UCE_min gas fleet utilization</t>
+  </si>
+  <si>
+    <t>~UC_T: UC_CAP~UP</t>
+  </si>
+  <si>
+    <t>~UC_T: UC_CAP~LO</t>
+  </si>
+  <si>
+    <t>UC_RHSRT</t>
+  </si>
+  <si>
+    <t>UC_RHSRT~0</t>
+  </si>
+  <si>
+    <t>pset_co</t>
+  </si>
+  <si>
+    <t>-CO2Captured</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.00000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,18 +293,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -556,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:L27"/>
+  <dimension ref="B1:AJ27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -571,14 +656,58 @@
     <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.86328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.06640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.19921875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.73046875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.19921875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.73046875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.33203125" customWidth="1"/>
+    <col min="24" max="24" width="7" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.86328125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.73046875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="23.73046875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="7.86328125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="4.73046875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:36" x14ac:dyDescent="0.45">
+      <c r="Q1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="S1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="Q3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R3">
+        <v>2050</v>
+      </c>
+      <c r="S3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T3">
+        <v>2050</v>
+      </c>
+      <c r="V3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>18</v>
       </c>
@@ -588,8 +717,23 @@
       <c r="D4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="O4" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="4" cm="1">
+        <f t="array" ref="Q4">MAX(_xlfn._xlws.FILTER(_xlfn.BYROW(historical_data!$D$24:$AA$30, _xlfn.LAMBDA(_xlpm.r, MAX(_xlpm.r))), historical_data!$C$24:$C$30=$P4))</f>
+        <v>0.62231700981598448</v>
+      </c>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4" cm="1">
+        <f t="array" ref="S4">MIN(_xlfn._xlws.FILTER(_xlfn.BYROW(historical_data!$D$24:$AA$30, _xlfn.LAMBDA(_xlpm.r, MIN(_xlpm.r))), historical_data!$C$24:$C$30=$P4))</f>
+        <v>0.19733814732221869</v>
+      </c>
+    </row>
+    <row r="5" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -603,8 +747,23 @@
       <c r="J5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="O5" t="s">
+        <v>48</v>
+      </c>
+      <c r="P5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="4" cm="1">
+        <f t="array" ref="Q5">MAX(_xlfn._xlws.FILTER(_xlfn.BYROW(historical_data!$D$24:$AA$30, _xlfn.LAMBDA(_xlpm.r, MAX(_xlpm.r))), historical_data!$C$24:$C$30=$P5))</f>
+        <v>0.2955149688458561</v>
+      </c>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4" cm="1">
+        <f t="array" ref="S5">MIN(_xlfn._xlws.FILTER(_xlfn.BYROW(historical_data!$D$24:$AA$30, _xlfn.LAMBDA(_xlpm.r, MIN(_xlpm.r))), historical_data!$C$24:$C$30=$P5))</f>
+        <v>0.15844369919854487</v>
+      </c>
+    </row>
+    <row r="6" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>15</v>
       </c>
@@ -618,8 +777,14 @@
       <c r="J6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="U6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>16</v>
       </c>
@@ -633,8 +798,53 @@
       <c r="J7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="U7" t="s">
+        <v>52</v>
+      </c>
+      <c r="V7" t="s">
+        <v>18</v>
+      </c>
+      <c r="W7" t="s">
+        <v>63</v>
+      </c>
+      <c r="X7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y7">
+        <v>2022</v>
+      </c>
+      <c r="Z7">
+        <v>2050</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH7">
+        <v>2050</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>14</v>
       </c>
@@ -648,15 +858,99 @@
       <c r="J8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="2:12" ht="14.65" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="11" spans="2:12" ht="14.65" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="U8" t="s">
+        <v>55</v>
+      </c>
+      <c r="V8" t="s">
+        <v>1</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="5">
+        <f>-Q4*$Q$1/8.76</f>
+        <v>-7.814482999972408E-2</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>3</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF8">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="5">
+        <f>-S4*$S$1/8.76</f>
+        <v>-2.0274467190638908E-2</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:36" x14ac:dyDescent="0.45">
+      <c r="U9" t="s">
+        <v>57</v>
+      </c>
+      <c r="V9" t="s">
+        <v>2</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="5">
+        <f>-Q5*$Q$1/8.76</f>
+        <v>-3.710804403315545E-2</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>-1</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF9">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="5">
+        <f>-S5*$S$1/8.76</f>
+        <v>-1.6278462246425842E-2</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:36" ht="14.65" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="11" spans="2:36" ht="14.65" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="13" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>23</v>
       </c>
@@ -667,7 +961,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>24</v>
       </c>
@@ -682,7 +976,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:36" x14ac:dyDescent="0.45">
       <c r="L16" t="s">
         <v>27</v>
       </c>
@@ -814,19 +1108,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="19.1328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.86328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="27" width="4.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.45">
@@ -1131,73 +1427,73 @@
       <c r="C14" t="s">
         <v>0</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <v>0.29387335196920444</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="3">
         <v>0.36119588962232163</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="3">
         <v>0.44005793825548695</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="3">
         <v>0.44668870313278031</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="3">
         <v>0.54898593711379096</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="3">
         <v>0.61000284572266994</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="3">
         <v>0.64753472829655767</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="3">
         <v>0.62752567747232946</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="3">
         <v>0.58888908630393622</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="3">
         <v>0.5673952378959225</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="3">
         <v>0.59031104308580318</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="3">
         <v>0.54674259382098878</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="3">
         <v>0.44853889899451427</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="3">
         <v>0.58350948198641062</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="3">
         <v>0.63667296066860524</v>
       </c>
-      <c r="S14">
+      <c r="S14" s="3">
         <v>0.65763867133730136</v>
       </c>
-      <c r="T14">
+      <c r="T14" s="3">
         <v>0.64758790186698112</v>
       </c>
-      <c r="U14">
+      <c r="U14" s="3">
         <v>0.64110341340216126</v>
       </c>
-      <c r="V14">
+      <c r="V14" s="3">
         <v>0.62627406907580729</v>
       </c>
-      <c r="W14">
+      <c r="W14" s="3">
         <v>0.64651878707642696</v>
       </c>
-      <c r="X14">
+      <c r="X14" s="3">
         <v>0.65169312541193969</v>
       </c>
-      <c r="Y14">
+      <c r="Y14" s="3">
         <v>0.63648704525812538</v>
       </c>
-      <c r="Z14">
+      <c r="Z14" s="3">
         <v>0.59277106311612904</v>
       </c>
     </row>
@@ -1211,73 +1507,73 @@
       <c r="C15" t="s">
         <v>12</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
         <v>0.91033975698475367</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="3">
         <v>0.89790177468582399</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="3">
         <v>0.79908675799086759</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="3">
         <v>0.86238075862380759</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="3">
         <v>0.96681069431997602</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="3">
         <v>0.90583467733703538</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="3">
         <v>0.94035447672321693</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="3">
         <v>0.94745932262213428</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="3">
         <v>0.93915491088745062</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="3">
         <v>0.87740580138628832</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="3">
         <v>0.84297945205479452</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="3">
         <v>0.88662611646344525</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="3">
         <v>0.87681346906518143</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="3">
         <v>0.88618737120343749</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="3">
         <v>0.87940166595319624</v>
       </c>
-      <c r="S15">
+      <c r="S15" s="3">
         <v>0.91933192422945187</v>
       </c>
-      <c r="T15">
+      <c r="T15" s="3">
         <v>0.93594997410298097</v>
       </c>
-      <c r="U15">
+      <c r="U15" s="3">
         <v>0.922711274930198</v>
       </c>
-      <c r="V15">
+      <c r="V15" s="3">
         <v>0.90846117489425482</v>
       </c>
-      <c r="W15">
+      <c r="W15" s="3">
         <v>0.90391841519020266</v>
       </c>
-      <c r="X15">
+      <c r="X15" s="3">
         <v>0.89132060374858879</v>
       </c>
-      <c r="Y15">
+      <c r="Y15" s="3">
         <v>0.87470664323539882</v>
       </c>
-      <c r="Z15">
+      <c r="Z15" s="3">
         <v>0.86333726595725613</v>
       </c>
     </row>
@@ -1291,73 +1587,73 @@
       <c r="C16" t="s">
         <v>13</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3">
         <v>0.28558245436146446</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="3">
         <v>0.30125755131902554</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="3">
         <v>0.26300120576970937</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="3">
         <v>0.24464788133158288</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="3">
         <v>0.27464620897146697</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="3">
         <v>0.23342690659878584</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="3">
         <v>0.23524997898052519</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="3">
         <v>0.20802424867929775</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="3">
         <v>0.25339148834066899</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="3">
         <v>0.2854692026001181</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="3">
         <v>0.28860623970905264</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="3">
         <v>0.25080291521537151</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="3">
         <v>0.22880093682435534</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="3">
         <v>0.28356807022282915</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="3">
         <v>0.31127604163438005</v>
       </c>
-      <c r="S16">
+      <c r="S16" s="3">
         <v>0.24130564426305645</v>
       </c>
-      <c r="T16">
+      <c r="T16" s="3">
         <v>0.22657477726978403</v>
       </c>
-      <c r="U16">
+      <c r="U16" s="3">
         <v>0.19355715910404311</v>
       </c>
-      <c r="V16">
+      <c r="V16" s="3">
         <v>0.25624516880745851</v>
       </c>
-      <c r="W16">
+      <c r="W16" s="3">
         <v>0.24386476819833647</v>
       </c>
-      <c r="X16">
+      <c r="X16" s="3">
         <v>0.24895999115400089</v>
       </c>
-      <c r="Y16">
+      <c r="Y16" s="3">
         <v>0.23824110380502575</v>
       </c>
-      <c r="Z16">
+      <c r="Z16" s="3">
         <v>0.15125668935897063</v>
       </c>
     </row>
@@ -1371,73 +1667,73 @@
       <c r="C17" t="s">
         <v>3</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="3">
         <v>0.18549363909037686</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="3">
         <v>0.16242780220674277</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="3">
         <v>0.18947752518915301</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="3">
         <v>0.16134275900234468</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="3">
         <v>0.12074365174832007</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="3">
         <v>9.2604874927729272E-2</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="3">
         <v>8.5383142670290207E-2</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="3">
         <v>6.3942571567428885E-2</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="3">
         <v>5.4351971653901113E-2</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="3">
         <v>4.5120373132528896E-2</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="3">
         <v>3.8445903076430775E-2</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="3">
         <v>3.5465642257402952E-2</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="3">
         <v>3.3828410664150516E-2</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" s="3">
         <v>2.9497986896519491E-2</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="3">
         <v>2.8898030899281432E-2</v>
       </c>
-      <c r="S17">
+      <c r="S17" s="3">
         <v>2.9934943675673939E-2</v>
       </c>
-      <c r="T17">
+      <c r="T17" s="3">
         <v>2.9741012269575366E-2</v>
       </c>
-      <c r="U17">
+      <c r="U17" s="3">
         <v>2.8767224001894291E-2</v>
       </c>
-      <c r="V17">
+      <c r="V17" s="3">
         <v>2.7660265219492469E-2</v>
       </c>
-      <c r="W17">
+      <c r="W17" s="3">
         <v>2.5984909288337733E-2</v>
       </c>
-      <c r="X17">
+      <c r="X17" s="3">
         <v>2.5949170525979785E-2</v>
       </c>
-      <c r="Y17">
+      <c r="Y17" s="3">
         <v>2.1681649145671975E-2</v>
       </c>
-      <c r="Z17">
+      <c r="Z17" s="3">
         <v>3.1944135901513453E-2</v>
       </c>
     </row>
@@ -1451,73 +1747,73 @@
       <c r="C18" t="s">
         <v>15</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="3">
         <v>0.10814708002883922</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="3">
         <v>0.10844748858447488</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="3">
         <v>0.10896637608966378</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="3">
         <v>0.10537407797681771</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="3">
         <v>0.1067903962291943</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="3">
         <v>0.10408272898200376</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="3">
         <v>8.8787417554540851E-2</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="3">
         <v>4.0424449979244499E-2</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="3">
         <v>4.5606559081841996E-2</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="3">
         <v>6.1094824721114389E-2</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="3">
         <v>6.0783945108384398E-2</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="3">
         <v>9.457878955568752E-2</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="3">
         <v>0.12931650057322672</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" s="3">
         <v>0.13673327820166969</v>
       </c>
-      <c r="R18">
+      <c r="R18" s="3">
         <v>0.13816232692585365</v>
       </c>
-      <c r="S18">
+      <c r="S18" s="3">
         <v>0.13981618422725917</v>
       </c>
-      <c r="T18">
+      <c r="T18" s="3">
         <v>0.132076705674749</v>
       </c>
-      <c r="U18">
+      <c r="U18" s="3">
         <v>0.14275360852558924</v>
       </c>
-      <c r="V18">
+      <c r="V18" s="3">
         <v>0.12991755316197512</v>
       </c>
-      <c r="W18">
+      <c r="W18" s="3">
         <v>0.13118242254470275</v>
       </c>
-      <c r="X18">
+      <c r="X18" s="3">
         <v>0.13337047062172605</v>
       </c>
-      <c r="Y18">
+      <c r="Y18" s="3">
         <v>0.12832090743979691</v>
       </c>
-      <c r="Z18">
+      <c r="Z18" s="3">
         <v>0.13076711146608011</v>
       </c>
     </row>
@@ -1531,73 +1827,73 @@
       <c r="C19" t="s">
         <v>16</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="3">
         <v>0.17705070631596159</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="3">
         <v>0.20269433899983494</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="3">
         <v>0.20547945205479451</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="3">
         <v>0.19043290178991254</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="3">
         <v>0.1867689303237674</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="3">
         <v>0.1634194908745619</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="3">
         <v>0.1781260653289736</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="3">
         <v>0.17044532377504912</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="3">
         <v>0.15732740697561451</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="3">
         <v>0.15299618343829349</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="3">
         <v>0.17972438028317755</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="3">
         <v>0.16251183135517033</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="3">
         <v>0.18890322756994438</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="3">
         <v>0.19908293588810169</v>
       </c>
-      <c r="R19">
+      <c r="R19" s="3">
         <v>0.19954897961008153</v>
       </c>
-      <c r="S19">
+      <c r="S19" s="3">
         <v>0.18545551905719279</v>
       </c>
-      <c r="T19">
+      <c r="T19" s="3">
         <v>0.21518058037191448</v>
       </c>
-      <c r="U19">
+      <c r="U19" s="3">
         <v>0.20801272044711919</v>
       </c>
-      <c r="V19">
+      <c r="V19" s="3">
         <v>0.19769064914008325</v>
       </c>
-      <c r="W19">
+      <c r="W19" s="3">
         <v>0.21594436217582091</v>
       </c>
-      <c r="X19">
+      <c r="X19" s="3">
         <v>0.19702002802981769</v>
       </c>
-      <c r="Y19">
+      <c r="Y19" s="3">
         <v>0.21228169618742199</v>
       </c>
-      <c r="Z19">
+      <c r="Z19" s="3">
         <v>0.19792026167823587</v>
       </c>
     </row>
@@ -1699,76 +1995,76 @@
       <c r="C24" t="s">
         <v>0</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="3">
         <v>0.61522608801066792</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="3">
         <v>0.62934286281516771</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="3">
         <v>0.61410525614105249</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="3">
         <v>0.63330715760695699</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="3">
         <v>0.72548666186012989</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="3">
         <v>0.74052659669098031</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="3">
         <v>0.77363813512491642</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="3">
         <v>0.75846709807546864</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="3">
         <v>0.71674526536417393</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="3">
         <v>0.66333456744415642</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="3">
         <v>0.66085188356164382</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="3">
         <v>0.62919014676012885</v>
       </c>
-      <c r="P24">
+      <c r="P24" s="3">
         <v>0.52921203606135103</v>
       </c>
-      <c r="Q24">
+      <c r="Q24" s="3">
         <v>0.63624764974482939</v>
       </c>
-      <c r="R24">
+      <c r="R24" s="3">
         <v>0.68106183731909309</v>
       </c>
-      <c r="S24">
+      <c r="S24" s="3">
         <v>0.70676749919842574</v>
       </c>
-      <c r="T24">
+      <c r="T24" s="3">
         <v>0.69930259547283602</v>
       </c>
-      <c r="U24">
+      <c r="U24" s="3">
         <v>0.69169425869419376</v>
       </c>
-      <c r="V24">
+      <c r="V24" s="3">
         <v>0.67662443458314581</v>
       </c>
-      <c r="W24">
+      <c r="W24" s="3">
         <v>0.69304680906316962</v>
       </c>
-      <c r="X24">
+      <c r="X24" s="3">
         <v>0.69550645885530227</v>
       </c>
-      <c r="Y24">
+      <c r="Y24" s="3">
         <v>0.68029990954762931</v>
       </c>
-      <c r="Z24">
+      <c r="Z24" s="3">
         <v>0.64195219167132056</v>
       </c>
-      <c r="AA24">
+      <c r="AA24" s="3">
         <v>0.60575494311218137</v>
       </c>
     </row>
@@ -1782,76 +2078,76 @@
       <c r="C25" t="s">
         <v>1</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="3">
         <v>0.34602076124567482</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="3">
         <v>0.42117978124668154</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="3">
         <v>0.47055856429860893</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="3">
         <v>0.51515875544228529</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="3">
         <v>0.62231700981598448</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="3">
         <v>0.57221959796357535</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="3">
         <v>0.58009237390437207</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="3">
         <v>0.57878024458090593</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="3">
         <v>0.61000827129859381</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="3">
         <v>0.52024422939968995</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="3">
         <v>0.45490352335545442</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="3">
         <v>0.51215289704730615</v>
       </c>
-      <c r="P25">
+      <c r="P25" s="3">
         <v>0.56264684464351955</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" s="3">
         <v>0.51638935070050329</v>
       </c>
-      <c r="R25">
+      <c r="R25" s="3">
         <v>0.50458246816891728</v>
       </c>
-      <c r="S25">
+      <c r="S25" s="3">
         <v>0.50892743542983165</v>
       </c>
-      <c r="T25">
+      <c r="T25" s="3">
         <v>0.46671280059135295</v>
       </c>
-      <c r="U25">
+      <c r="U25" s="3">
         <v>0.43565916312852143</v>
       </c>
-      <c r="V25">
+      <c r="V25" s="3">
         <v>0.38011695906432741</v>
       </c>
-      <c r="W25">
+      <c r="W25" s="3">
         <v>0.25154209725226306</v>
       </c>
-      <c r="X25">
+      <c r="X25" s="3">
         <v>0.19733814732221869</v>
       </c>
-      <c r="Y25">
+      <c r="Y25" s="3">
         <v>0.23501565653517861</v>
       </c>
-      <c r="Z25">
+      <c r="Z25" s="3">
         <v>0.37900884409845853</v>
       </c>
-      <c r="AA25">
+      <c r="AA25" s="3">
         <v>0.25717309414385414</v>
       </c>
     </row>
@@ -1865,76 +2161,76 @@
       <c r="C26" t="s">
         <v>2</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="3">
         <v>0.21688427845750258</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="3">
         <v>0.22202418548512892</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="3">
         <v>0.21195692035826924</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="3">
         <v>0.2444397765407833</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="3">
         <v>0.25723564401629956</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="3">
         <v>0.28042118198664318</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="3">
         <v>0.28071079794005777</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="3">
         <v>0.2922584260992816</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="3">
         <v>0.2779788969658355</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="3">
         <v>0.23646215642703375</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="3">
         <v>0.24074060070301742</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="3">
         <v>0.22510363173419468</v>
       </c>
-      <c r="P26">
+      <c r="P26" s="3">
         <v>0.20133855684813015</v>
       </c>
-      <c r="Q26">
+      <c r="Q26" s="3">
         <v>0.17523112617091591</v>
       </c>
-      <c r="R26">
+      <c r="R26" s="3">
         <v>0.15844369919854487</v>
       </c>
-      <c r="S26">
+      <c r="S26" s="3">
         <v>0.20478133387114289</v>
       </c>
-      <c r="T26">
+      <c r="T26" s="3">
         <v>0.24738866431689593</v>
       </c>
-      <c r="U26">
+      <c r="U26" s="3">
         <v>0.2791433980876013</v>
       </c>
-      <c r="V26">
+      <c r="V26" s="3">
         <v>0.25589885068453339</v>
       </c>
-      <c r="W26">
+      <c r="W26" s="3">
         <v>0.28175925948019492</v>
       </c>
-      <c r="X26">
+      <c r="X26" s="3">
         <v>0.27138259384113744</v>
       </c>
-      <c r="Y26">
+      <c r="Y26" s="3">
         <v>0.2955149688458561</v>
       </c>
-      <c r="Z26">
+      <c r="Z26" s="3">
         <v>0.2867461537463678</v>
       </c>
-      <c r="AA26">
+      <c r="AA26" s="3">
         <v>0.23584379225019769</v>
       </c>
     </row>
@@ -1948,76 +2244,76 @@
       <c r="C27" t="s">
         <v>13</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="3">
         <v>0.30785003663554733</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="3">
         <v>0.3246419991455694</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="3">
         <v>0.27242847373877754</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="3">
         <v>0.25066305744675033</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="3">
         <v>0.2878697637482629</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="3">
         <v>0.24164201341994127</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="3">
         <v>0.24679151021192447</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="3">
         <v>0.21833189641408821</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="3">
         <v>0.27431533213114406</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="3">
         <v>0.32220499948856351</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="3">
         <v>0.33232439853964491</v>
       </c>
-      <c r="O27">
+      <c r="O27" s="3">
         <v>0.29418411739628436</v>
       </c>
-      <c r="P27">
+      <c r="P27" s="3">
         <v>0.26672323467058051</v>
       </c>
-      <c r="Q27">
+      <c r="Q27" s="3">
         <v>0.33373809433461088</v>
       </c>
-      <c r="R27">
+      <c r="R27" s="3">
         <v>0.36886258026147345</v>
       </c>
-      <c r="S27">
+      <c r="S27" s="3">
         <v>0.28501261715933668</v>
       </c>
-      <c r="T27">
+      <c r="T27" s="3">
         <v>0.26438904508384675</v>
       </c>
-      <c r="U27">
+      <c r="U27" s="3">
         <v>0.22349486702672805</v>
       </c>
-      <c r="V27">
+      <c r="V27" s="3">
         <v>0.3000880766808377</v>
       </c>
-      <c r="W27">
+      <c r="W27" s="3">
         <v>0.28428339961702753</v>
       </c>
-      <c r="X27">
+      <c r="X27" s="3">
         <v>0.28949771689497716</v>
       </c>
-      <c r="Y27">
+      <c r="Y27" s="3">
         <v>0.27546554222833963</v>
       </c>
-      <c r="Z27">
+      <c r="Z27" s="3">
         <v>0.1712630286539932</v>
       </c>
-      <c r="AA27">
+      <c r="AA27" s="3">
         <v>0.22976393784140595</v>
       </c>
     </row>
@@ -2031,76 +2327,76 @@
       <c r="C28" t="s">
         <v>3</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="3">
         <v>8.2835036602159899</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="3">
         <v>6.8518331990330372</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="3">
         <v>7.9203599247918337</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="3">
         <v>6.9920091324200904</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="3">
         <v>5.4123019070641956</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="3">
         <v>4.2221588026382548</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="3">
         <v>4.1714231354642308</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="3">
         <v>3.3001966007102994</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="3">
         <v>2.9783422120750886</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="3">
         <v>2.378234398782344</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="3">
         <v>2.1499238964992391</v>
       </c>
-      <c r="O28">
+      <c r="O28" s="3">
         <v>2.0682711821410451</v>
       </c>
-      <c r="P28">
+      <c r="P28" s="3">
         <v>1.9620433789954339</v>
       </c>
-      <c r="Q28">
+      <c r="Q28" s="3">
         <v>1.5862823439878235</v>
       </c>
-      <c r="R28">
+      <c r="R28" s="3">
         <v>1.4856037544393708</v>
       </c>
-      <c r="S28">
+      <c r="S28" s="3">
         <v>1.3262620497209539</v>
       </c>
-      <c r="T28">
+      <c r="T28" s="3">
         <v>1.2810755961440894</v>
       </c>
-      <c r="U28">
+      <c r="U28" s="3">
         <v>1.2057648401826484</v>
       </c>
-      <c r="V28">
+      <c r="V28" s="3">
         <v>1.1589928970065957</v>
       </c>
-      <c r="W28">
+      <c r="W28" s="3">
         <v>1.0797184170471841</v>
       </c>
-      <c r="X28">
+      <c r="X28" s="3">
         <v>1.0170915778792491</v>
       </c>
-      <c r="Y28">
+      <c r="Y28" s="3">
         <v>0.88232496194824972</v>
       </c>
-      <c r="Z28">
+      <c r="Z28" s="3">
         <v>1.2390601217656012</v>
       </c>
-      <c r="AA28">
+      <c r="AA28" s="3">
         <v>1.2319254185692541</v>
       </c>
     </row>
@@ -2114,76 +2410,76 @@
       <c r="C29" t="s">
         <v>15</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="3">
         <v>0.11415525114155252</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="3">
         <v>0.11415525114155252</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="3">
         <v>0.11415525114155252</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="3">
         <v>7.6103500761035017E-2</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="3">
         <v>0.11415525114155252</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="3">
         <v>0.11415525114155252</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="3">
         <v>9.1324200913242004E-2</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="3">
         <v>4.1511000415110001E-2</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="3">
         <v>4.5186453576864537E-2</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="3">
         <v>6.1607595854171207E-2</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="3">
         <v>6.0565702688990357E-2</v>
       </c>
-      <c r="O29">
+      <c r="O29" s="3">
         <v>9.3826233814974666E-2</v>
       </c>
-      <c r="P29">
+      <c r="P29" s="3">
         <v>0.12822918621379872</v>
       </c>
-      <c r="Q29">
+      <c r="Q29" s="3">
         <v>0.13549268126146885</v>
       </c>
-      <c r="R29">
+      <c r="R29" s="3">
         <v>0.13692492757892669</v>
       </c>
-      <c r="S29">
+      <c r="S29" s="3">
         <v>0.13848341941762107</v>
       </c>
-      <c r="T29">
+      <c r="T29" s="3">
         <v>0.13078439866398708</v>
       </c>
-      <c r="U29">
+      <c r="U29" s="3">
         <v>0.14134611593860083</v>
       </c>
-      <c r="V29">
+      <c r="V29" s="3">
         <v>0.12857366675067947</v>
       </c>
-      <c r="W29">
+      <c r="W29" s="3">
         <v>0.12958015809982651</v>
       </c>
-      <c r="X29">
+      <c r="X29" s="3">
         <v>0.1314419189044469</v>
       </c>
-      <c r="Y29">
+      <c r="Y29" s="3">
         <v>0.12647997737099445</v>
       </c>
-      <c r="Z29">
+      <c r="Z29" s="3">
         <v>0.1307021849389437</v>
       </c>
-      <c r="AA29">
+      <c r="AA29" s="3">
         <v>0.11879041402347462</v>
       </c>
     </row>
@@ -2197,76 +2493,76 @@
       <c r="C30" t="s">
         <v>16</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="3">
         <v>0.1775748351090817</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="3">
         <v>0.20409575204095751</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="3">
         <v>0.20489404051047885</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="3">
         <v>0.19157088122605365</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="3">
         <v>0.18588111690305897</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="3">
         <v>0.16387931758971341</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="3">
         <v>0.17844268204758473</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="3">
         <v>0.17038728225942837</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="3">
         <v>0.15716558655749158</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="3">
         <v>0.15298675050527735</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="3">
         <v>0.17980930749757493</v>
       </c>
-      <c r="O30">
+      <c r="O30" s="3">
         <v>0.16248977221738325</v>
       </c>
-      <c r="P30">
+      <c r="P30" s="3">
         <v>0.18899036022323698</v>
       </c>
-      <c r="Q30">
+      <c r="Q30" s="3">
         <v>0.19917016885352842</v>
       </c>
-      <c r="R30">
+      <c r="R30" s="3">
         <v>0.19964017423142477</v>
       </c>
-      <c r="S30">
+      <c r="S30" s="3">
         <v>0.18534616268497148</v>
       </c>
-      <c r="T30">
+      <c r="T30" s="3">
         <v>0.21528852800576376</v>
       </c>
-      <c r="U30">
+      <c r="U30" s="3">
         <v>0.20791726439950117</v>
       </c>
-      <c r="V30">
+      <c r="V30" s="3">
         <v>0.19773519552573904</v>
       </c>
-      <c r="W30">
+      <c r="W30" s="3">
         <v>0.21591161732765551</v>
       </c>
-      <c r="X30">
+      <c r="X30" s="3">
         <v>0.19701495045221024</v>
       </c>
-      <c r="Y30">
+      <c r="Y30" s="3">
         <v>0.21237950279046169</v>
       </c>
-      <c r="Z30">
+      <c r="Z30" s="3">
         <v>0.19586027860834898</v>
       </c>
-      <c r="AA30">
+      <c r="AA30" s="3">
         <v>0.21801705559203086</v>
       </c>
     </row>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8495D2D-7E56-45A7-A5FA-88A7BAA8FFE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA4294F-ABB4-41E2-8FBB-5BCFF5232911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -257,9 +257,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.00000"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -297,7 +294,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -305,7 +302,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -644,7 +640,7 @@
   <dimension ref="B1:AJ27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+      <selection activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -666,8 +662,7 @@
     <col min="22" max="22" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="6.33203125" customWidth="1"/>
     <col min="24" max="24" width="7" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.86328125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.73046875" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="7.86328125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="9.19921875" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="11.19921875" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="23.73046875" bestFit="1" customWidth="1"/>
@@ -757,7 +752,10 @@
         <f t="array" ref="Q5">MAX(_xlfn._xlws.FILTER(_xlfn.BYROW(historical_data!$D$24:$AA$30, _xlfn.LAMBDA(_xlpm.r, MAX(_xlpm.r))), historical_data!$C$24:$C$30=$P5))</f>
         <v>0.2955149688458561</v>
       </c>
-      <c r="R5" s="4"/>
+      <c r="R5" s="4">
+        <f>IF(Q5&gt;0.7,Q5,0.7)</f>
+        <v>0.7</v>
+      </c>
       <c r="S5" s="4" cm="1">
         <f t="array" ref="S5">MIN(_xlfn._xlws.FILTER(_xlfn.BYROW(historical_data!$D$24:$AA$30, _xlfn.LAMBDA(_xlpm.r, MIN(_xlpm.r))), historical_data!$C$24:$C$30=$P5))</f>
         <v>0.15844369919854487</v>
@@ -870,28 +868,30 @@
       <c r="X8">
         <v>1</v>
       </c>
-      <c r="Y8" s="5">
-        <f>-Q4*$Q$1/8.76</f>
-        <v>-7.814482999972408E-2</v>
-      </c>
-      <c r="AA8">
+      <c r="Y8" s="3">
+        <f>-Q4*$Q$1*8.76</f>
+        <v>-5.9966467065868265</v>
+      </c>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3">
         <v>0</v>
       </c>
-      <c r="AB8">
+      <c r="AB8" s="3">
         <v>3</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AE8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AF8">
+      <c r="AF8" s="3">
         <v>1</v>
       </c>
-      <c r="AG8" s="5">
-        <f>-S4*$S$1/8.76</f>
-        <v>-2.0274467190638908E-2</v>
+      <c r="AG8" s="3">
+        <f>-S4*$S$1*8.76</f>
+        <v>-1.5558139534883721</v>
       </c>
       <c r="AI8">
         <v>0</v>
@@ -913,28 +913,33 @@
       <c r="X9">
         <v>1</v>
       </c>
-      <c r="Y9" s="5">
-        <f>-Q5*$Q$1/8.76</f>
-        <v>-3.710804403315545E-2</v>
-      </c>
-      <c r="AA9">
+      <c r="Y9" s="3">
+        <f>-Q5*$Q$1*8.76</f>
+        <v>-2.8475822397986694</v>
+      </c>
+      <c r="Z9" s="3">
+        <f>-R5*$Q$1*8.76</f>
+        <v>-6.7451999999999996</v>
+      </c>
+      <c r="AA9" s="3">
         <v>0</v>
       </c>
-      <c r="AB9">
-        <v>-1</v>
-      </c>
-      <c r="AD9" t="s">
+      <c r="AB9" s="3">
+        <v>3</v>
+      </c>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AE9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="AF9">
+      <c r="AF9" s="3">
         <v>1</v>
       </c>
-      <c r="AG9" s="5">
-        <f>-S5*$S$1/8.76</f>
-        <v>-1.6278462246425842E-2</v>
+      <c r="AG9" s="3">
+        <f>-S5*$S$1*8.76</f>
+        <v>-1.2491701244813276</v>
       </c>
       <c r="AI9">
         <v>0</v>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA4294F-ABB4-41E2-8FBB-5BCFF5232911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E72E478-D043-4872-BCE9-7630C4521B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -640,7 +640,7 @@
   <dimension ref="B1:AJ27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Y9" sqref="Y9"/>
+      <selection activeCell="AG9" sqref="AG9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -873,20 +873,19 @@
         <v>-5.9966467065868265</v>
       </c>
       <c r="Z8" s="3"/>
-      <c r="AA8" s="3">
+      <c r="AA8">
         <v>0</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AB8">
         <v>3</v>
       </c>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3" t="s">
+      <c r="AD8" t="s">
         <v>56</v>
       </c>
-      <c r="AE8" s="3" t="s">
+      <c r="AE8" t="s">
         <v>1</v>
       </c>
-      <c r="AF8" s="3">
+      <c r="AF8">
         <v>1</v>
       </c>
       <c r="AG8" s="3">
@@ -921,20 +920,19 @@
         <f>-R5*$Q$1*8.76</f>
         <v>-6.7451999999999996</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AA9">
         <v>0</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AB9">
         <v>3</v>
       </c>
-      <c r="AC9" s="3"/>
-      <c r="AD9" s="3" t="s">
+      <c r="AD9" t="s">
         <v>58</v>
       </c>
-      <c r="AE9" s="3" t="s">
+      <c r="AE9" t="s">
         <v>2</v>
       </c>
-      <c r="AF9" s="3">
+      <c r="AF9">
         <v>1</v>
       </c>
       <c r="AG9" s="3">
@@ -1432,73 +1430,73 @@
       <c r="C14" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14">
         <v>0.29387335196920444</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14">
         <v>0.36119588962232163</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14">
         <v>0.44005793825548695</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14">
         <v>0.44668870313278031</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14">
         <v>0.54898593711379096</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14">
         <v>0.61000284572266994</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14">
         <v>0.64753472829655767</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14">
         <v>0.62752567747232946</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14">
         <v>0.58888908630393622</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14">
         <v>0.5673952378959225</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14">
         <v>0.59031104308580318</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14">
         <v>0.54674259382098878</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14">
         <v>0.44853889899451427</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14">
         <v>0.58350948198641062</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14">
         <v>0.63667296066860524</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14">
         <v>0.65763867133730136</v>
       </c>
-      <c r="T14" s="3">
+      <c r="T14">
         <v>0.64758790186698112</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14">
         <v>0.64110341340216126</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14">
         <v>0.62627406907580729</v>
       </c>
-      <c r="W14" s="3">
+      <c r="W14">
         <v>0.64651878707642696</v>
       </c>
-      <c r="X14" s="3">
+      <c r="X14">
         <v>0.65169312541193969</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Y14">
         <v>0.63648704525812538</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="Z14">
         <v>0.59277106311612904</v>
       </c>
     </row>
@@ -1512,73 +1510,73 @@
       <c r="C15" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15">
         <v>0.91033975698475367</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15">
         <v>0.89790177468582399</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15">
         <v>0.79908675799086759</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15">
         <v>0.86238075862380759</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15">
         <v>0.96681069431997602</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15">
         <v>0.90583467733703538</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15">
         <v>0.94035447672321693</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15">
         <v>0.94745932262213428</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15">
         <v>0.93915491088745062</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15">
         <v>0.87740580138628832</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15">
         <v>0.84297945205479452</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15">
         <v>0.88662611646344525</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15">
         <v>0.87681346906518143</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="Q15">
         <v>0.88618737120343749</v>
       </c>
-      <c r="R15" s="3">
+      <c r="R15">
         <v>0.87940166595319624</v>
       </c>
-      <c r="S15" s="3">
+      <c r="S15">
         <v>0.91933192422945187</v>
       </c>
-      <c r="T15" s="3">
+      <c r="T15">
         <v>0.93594997410298097</v>
       </c>
-      <c r="U15" s="3">
+      <c r="U15">
         <v>0.922711274930198</v>
       </c>
-      <c r="V15" s="3">
+      <c r="V15">
         <v>0.90846117489425482</v>
       </c>
-      <c r="W15" s="3">
+      <c r="W15">
         <v>0.90391841519020266</v>
       </c>
-      <c r="X15" s="3">
+      <c r="X15">
         <v>0.89132060374858879</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Y15">
         <v>0.87470664323539882</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="Z15">
         <v>0.86333726595725613</v>
       </c>
     </row>
@@ -1592,73 +1590,73 @@
       <c r="C16" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16">
         <v>0.28558245436146446</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16">
         <v>0.30125755131902554</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16">
         <v>0.26300120576970937</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16">
         <v>0.24464788133158288</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16">
         <v>0.27464620897146697</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16">
         <v>0.23342690659878584</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16">
         <v>0.23524997898052519</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16">
         <v>0.20802424867929775</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L16">
         <v>0.25339148834066899</v>
       </c>
-      <c r="M16" s="3">
+      <c r="M16">
         <v>0.2854692026001181</v>
       </c>
-      <c r="N16" s="3">
+      <c r="N16">
         <v>0.28860623970905264</v>
       </c>
-      <c r="O16" s="3">
+      <c r="O16">
         <v>0.25080291521537151</v>
       </c>
-      <c r="P16" s="3">
+      <c r="P16">
         <v>0.22880093682435534</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="Q16">
         <v>0.28356807022282915</v>
       </c>
-      <c r="R16" s="3">
+      <c r="R16">
         <v>0.31127604163438005</v>
       </c>
-      <c r="S16" s="3">
+      <c r="S16">
         <v>0.24130564426305645</v>
       </c>
-      <c r="T16" s="3">
+      <c r="T16">
         <v>0.22657477726978403</v>
       </c>
-      <c r="U16" s="3">
+      <c r="U16">
         <v>0.19355715910404311</v>
       </c>
-      <c r="V16" s="3">
+      <c r="V16">
         <v>0.25624516880745851</v>
       </c>
-      <c r="W16" s="3">
+      <c r="W16">
         <v>0.24386476819833647</v>
       </c>
-      <c r="X16" s="3">
+      <c r="X16">
         <v>0.24895999115400089</v>
       </c>
-      <c r="Y16" s="3">
+      <c r="Y16">
         <v>0.23824110380502575</v>
       </c>
-      <c r="Z16" s="3">
+      <c r="Z16">
         <v>0.15125668935897063</v>
       </c>
     </row>
@@ -1672,73 +1670,73 @@
       <c r="C17" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17">
         <v>0.18549363909037686</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17">
         <v>0.16242780220674277</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17">
         <v>0.18947752518915301</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17">
         <v>0.16134275900234468</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17">
         <v>0.12074365174832007</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17">
         <v>9.2604874927729272E-2</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17">
         <v>8.5383142670290207E-2</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17">
         <v>6.3942571567428885E-2</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17">
         <v>5.4351971653901113E-2</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17">
         <v>4.5120373132528896E-2</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N17">
         <v>3.8445903076430775E-2</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O17">
         <v>3.5465642257402952E-2</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P17">
         <v>3.3828410664150516E-2</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="Q17">
         <v>2.9497986896519491E-2</v>
       </c>
-      <c r="R17" s="3">
+      <c r="R17">
         <v>2.8898030899281432E-2</v>
       </c>
-      <c r="S17" s="3">
+      <c r="S17">
         <v>2.9934943675673939E-2</v>
       </c>
-      <c r="T17" s="3">
+      <c r="T17">
         <v>2.9741012269575366E-2</v>
       </c>
-      <c r="U17" s="3">
+      <c r="U17">
         <v>2.8767224001894291E-2</v>
       </c>
-      <c r="V17" s="3">
+      <c r="V17">
         <v>2.7660265219492469E-2</v>
       </c>
-      <c r="W17" s="3">
+      <c r="W17">
         <v>2.5984909288337733E-2</v>
       </c>
-      <c r="X17" s="3">
+      <c r="X17">
         <v>2.5949170525979785E-2</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Y17">
         <v>2.1681649145671975E-2</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="Z17">
         <v>3.1944135901513453E-2</v>
       </c>
     </row>
@@ -1752,73 +1750,73 @@
       <c r="C18" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18">
         <v>0.10814708002883922</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18">
         <v>0.10844748858447488</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18">
         <v>0.10896637608966378</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18">
         <v>0.10537407797681771</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18">
         <v>0.1067903962291943</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18">
         <v>0.10408272898200376</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18">
         <v>8.8787417554540851E-2</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18">
         <v>4.0424449979244499E-2</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18">
         <v>4.5606559081841996E-2</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18">
         <v>6.1094824721114389E-2</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18">
         <v>6.0783945108384398E-2</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18">
         <v>9.457878955568752E-2</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18">
         <v>0.12931650057322672</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18">
         <v>0.13673327820166969</v>
       </c>
-      <c r="R18" s="3">
+      <c r="R18">
         <v>0.13816232692585365</v>
       </c>
-      <c r="S18" s="3">
+      <c r="S18">
         <v>0.13981618422725917</v>
       </c>
-      <c r="T18" s="3">
+      <c r="T18">
         <v>0.132076705674749</v>
       </c>
-      <c r="U18" s="3">
+      <c r="U18">
         <v>0.14275360852558924</v>
       </c>
-      <c r="V18" s="3">
+      <c r="V18">
         <v>0.12991755316197512</v>
       </c>
-      <c r="W18" s="3">
+      <c r="W18">
         <v>0.13118242254470275</v>
       </c>
-      <c r="X18" s="3">
+      <c r="X18">
         <v>0.13337047062172605</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Y18">
         <v>0.12832090743979691</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="Z18">
         <v>0.13076711146608011</v>
       </c>
     </row>
@@ -1832,73 +1830,73 @@
       <c r="C19" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19">
         <v>0.17705070631596159</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19">
         <v>0.20269433899983494</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19">
         <v>0.20547945205479451</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19">
         <v>0.19043290178991254</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19">
         <v>0.1867689303237674</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19">
         <v>0.1634194908745619</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19">
         <v>0.1781260653289736</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19">
         <v>0.17044532377504912</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L19">
         <v>0.15732740697561451</v>
       </c>
-      <c r="M19" s="3">
+      <c r="M19">
         <v>0.15299618343829349</v>
       </c>
-      <c r="N19" s="3">
+      <c r="N19">
         <v>0.17972438028317755</v>
       </c>
-      <c r="O19" s="3">
+      <c r="O19">
         <v>0.16251183135517033</v>
       </c>
-      <c r="P19" s="3">
+      <c r="P19">
         <v>0.18890322756994438</v>
       </c>
-      <c r="Q19" s="3">
+      <c r="Q19">
         <v>0.19908293588810169</v>
       </c>
-      <c r="R19" s="3">
+      <c r="R19">
         <v>0.19954897961008153</v>
       </c>
-      <c r="S19" s="3">
+      <c r="S19">
         <v>0.18545551905719279</v>
       </c>
-      <c r="T19" s="3">
+      <c r="T19">
         <v>0.21518058037191448</v>
       </c>
-      <c r="U19" s="3">
+      <c r="U19">
         <v>0.20801272044711919</v>
       </c>
-      <c r="V19" s="3">
+      <c r="V19">
         <v>0.19769064914008325</v>
       </c>
-      <c r="W19" s="3">
+      <c r="W19">
         <v>0.21594436217582091</v>
       </c>
-      <c r="X19" s="3">
+      <c r="X19">
         <v>0.19702002802981769</v>
       </c>
-      <c r="Y19" s="3">
+      <c r="Y19">
         <v>0.21228169618742199</v>
       </c>
-      <c r="Z19" s="3">
+      <c r="Z19">
         <v>0.19792026167823587</v>
       </c>
     </row>
@@ -2000,76 +1998,76 @@
       <c r="C24" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24">
         <v>0.61522608801066792</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24">
         <v>0.62934286281516771</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24">
         <v>0.61410525614105249</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24">
         <v>0.63330715760695699</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24">
         <v>0.72548666186012989</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24">
         <v>0.74052659669098031</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24">
         <v>0.77363813512491642</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24">
         <v>0.75846709807546864</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24">
         <v>0.71674526536417393</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M24">
         <v>0.66333456744415642</v>
       </c>
-      <c r="N24" s="3">
+      <c r="N24">
         <v>0.66085188356164382</v>
       </c>
-      <c r="O24" s="3">
+      <c r="O24">
         <v>0.62919014676012885</v>
       </c>
-      <c r="P24" s="3">
+      <c r="P24">
         <v>0.52921203606135103</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="Q24">
         <v>0.63624764974482939</v>
       </c>
-      <c r="R24" s="3">
+      <c r="R24">
         <v>0.68106183731909309</v>
       </c>
-      <c r="S24" s="3">
+      <c r="S24">
         <v>0.70676749919842574</v>
       </c>
-      <c r="T24" s="3">
+      <c r="T24">
         <v>0.69930259547283602</v>
       </c>
-      <c r="U24" s="3">
+      <c r="U24">
         <v>0.69169425869419376</v>
       </c>
-      <c r="V24" s="3">
+      <c r="V24">
         <v>0.67662443458314581</v>
       </c>
-      <c r="W24" s="3">
+      <c r="W24">
         <v>0.69304680906316962</v>
       </c>
-      <c r="X24" s="3">
+      <c r="X24">
         <v>0.69550645885530227</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Y24">
         <v>0.68029990954762931</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="Z24">
         <v>0.64195219167132056</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AA24">
         <v>0.60575494311218137</v>
       </c>
     </row>
@@ -2083,76 +2081,76 @@
       <c r="C25" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25">
         <v>0.34602076124567482</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25">
         <v>0.42117978124668154</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25">
         <v>0.47055856429860893</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25">
         <v>0.51515875544228529</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25">
         <v>0.62231700981598448</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25">
         <v>0.57221959796357535</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25">
         <v>0.58009237390437207</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25">
         <v>0.57878024458090593</v>
       </c>
-      <c r="L25" s="3">
+      <c r="L25">
         <v>0.61000827129859381</v>
       </c>
-      <c r="M25" s="3">
+      <c r="M25">
         <v>0.52024422939968995</v>
       </c>
-      <c r="N25" s="3">
+      <c r="N25">
         <v>0.45490352335545442</v>
       </c>
-      <c r="O25" s="3">
+      <c r="O25">
         <v>0.51215289704730615</v>
       </c>
-      <c r="P25" s="3">
+      <c r="P25">
         <v>0.56264684464351955</v>
       </c>
-      <c r="Q25" s="3">
+      <c r="Q25">
         <v>0.51638935070050329</v>
       </c>
-      <c r="R25" s="3">
+      <c r="R25">
         <v>0.50458246816891728</v>
       </c>
-      <c r="S25" s="3">
+      <c r="S25">
         <v>0.50892743542983165</v>
       </c>
-      <c r="T25" s="3">
+      <c r="T25">
         <v>0.46671280059135295</v>
       </c>
-      <c r="U25" s="3">
+      <c r="U25">
         <v>0.43565916312852143</v>
       </c>
-      <c r="V25" s="3">
+      <c r="V25">
         <v>0.38011695906432741</v>
       </c>
-      <c r="W25" s="3">
+      <c r="W25">
         <v>0.25154209725226306</v>
       </c>
-      <c r="X25" s="3">
+      <c r="X25">
         <v>0.19733814732221869</v>
       </c>
-      <c r="Y25" s="3">
+      <c r="Y25">
         <v>0.23501565653517861</v>
       </c>
-      <c r="Z25" s="3">
+      <c r="Z25">
         <v>0.37900884409845853</v>
       </c>
-      <c r="AA25" s="3">
+      <c r="AA25">
         <v>0.25717309414385414</v>
       </c>
     </row>
@@ -2166,76 +2164,76 @@
       <c r="C26" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26">
         <v>0.21688427845750258</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26">
         <v>0.22202418548512892</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26">
         <v>0.21195692035826924</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26">
         <v>0.2444397765407833</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26">
         <v>0.25723564401629956</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26">
         <v>0.28042118198664318</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26">
         <v>0.28071079794005777</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26">
         <v>0.2922584260992816</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L26">
         <v>0.2779788969658355</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M26">
         <v>0.23646215642703375</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N26">
         <v>0.24074060070301742</v>
       </c>
-      <c r="O26" s="3">
+      <c r="O26">
         <v>0.22510363173419468</v>
       </c>
-      <c r="P26" s="3">
+      <c r="P26">
         <v>0.20133855684813015</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="Q26">
         <v>0.17523112617091591</v>
       </c>
-      <c r="R26" s="3">
+      <c r="R26">
         <v>0.15844369919854487</v>
       </c>
-      <c r="S26" s="3">
+      <c r="S26">
         <v>0.20478133387114289</v>
       </c>
-      <c r="T26" s="3">
+      <c r="T26">
         <v>0.24738866431689593</v>
       </c>
-      <c r="U26" s="3">
+      <c r="U26">
         <v>0.2791433980876013</v>
       </c>
-      <c r="V26" s="3">
+      <c r="V26">
         <v>0.25589885068453339</v>
       </c>
-      <c r="W26" s="3">
+      <c r="W26">
         <v>0.28175925948019492</v>
       </c>
-      <c r="X26" s="3">
+      <c r="X26">
         <v>0.27138259384113744</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Y26">
         <v>0.2955149688458561</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="Z26">
         <v>0.2867461537463678</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AA26">
         <v>0.23584379225019769</v>
       </c>
     </row>
@@ -2249,76 +2247,76 @@
       <c r="C27" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27">
         <v>0.30785003663554733</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27">
         <v>0.3246419991455694</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27">
         <v>0.27242847373877754</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27">
         <v>0.25066305744675033</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27">
         <v>0.2878697637482629</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27">
         <v>0.24164201341994127</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27">
         <v>0.24679151021192447</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27">
         <v>0.21833189641408821</v>
       </c>
-      <c r="L27" s="3">
+      <c r="L27">
         <v>0.27431533213114406</v>
       </c>
-      <c r="M27" s="3">
+      <c r="M27">
         <v>0.32220499948856351</v>
       </c>
-      <c r="N27" s="3">
+      <c r="N27">
         <v>0.33232439853964491</v>
       </c>
-      <c r="O27" s="3">
+      <c r="O27">
         <v>0.29418411739628436</v>
       </c>
-      <c r="P27" s="3">
+      <c r="P27">
         <v>0.26672323467058051</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="Q27">
         <v>0.33373809433461088</v>
       </c>
-      <c r="R27" s="3">
+      <c r="R27">
         <v>0.36886258026147345</v>
       </c>
-      <c r="S27" s="3">
+      <c r="S27">
         <v>0.28501261715933668</v>
       </c>
-      <c r="T27" s="3">
+      <c r="T27">
         <v>0.26438904508384675</v>
       </c>
-      <c r="U27" s="3">
+      <c r="U27">
         <v>0.22349486702672805</v>
       </c>
-      <c r="V27" s="3">
+      <c r="V27">
         <v>0.3000880766808377</v>
       </c>
-      <c r="W27" s="3">
+      <c r="W27">
         <v>0.28428339961702753</v>
       </c>
-      <c r="X27" s="3">
+      <c r="X27">
         <v>0.28949771689497716</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Y27">
         <v>0.27546554222833963</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="Z27">
         <v>0.1712630286539932</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AA27">
         <v>0.22976393784140595</v>
       </c>
     </row>
@@ -2332,76 +2330,76 @@
       <c r="C28" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28">
         <v>8.2835036602159899</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28">
         <v>6.8518331990330372</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28">
         <v>7.9203599247918337</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28">
         <v>6.9920091324200904</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28">
         <v>5.4123019070641956</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28">
         <v>4.2221588026382548</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J28">
         <v>4.1714231354642308</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K28">
         <v>3.3001966007102994</v>
       </c>
-      <c r="L28" s="3">
+      <c r="L28">
         <v>2.9783422120750886</v>
       </c>
-      <c r="M28" s="3">
+      <c r="M28">
         <v>2.378234398782344</v>
       </c>
-      <c r="N28" s="3">
+      <c r="N28">
         <v>2.1499238964992391</v>
       </c>
-      <c r="O28" s="3">
+      <c r="O28">
         <v>2.0682711821410451</v>
       </c>
-      <c r="P28" s="3">
+      <c r="P28">
         <v>1.9620433789954339</v>
       </c>
-      <c r="Q28" s="3">
+      <c r="Q28">
         <v>1.5862823439878235</v>
       </c>
-      <c r="R28" s="3">
+      <c r="R28">
         <v>1.4856037544393708</v>
       </c>
-      <c r="S28" s="3">
+      <c r="S28">
         <v>1.3262620497209539</v>
       </c>
-      <c r="T28" s="3">
+      <c r="T28">
         <v>1.2810755961440894</v>
       </c>
-      <c r="U28" s="3">
+      <c r="U28">
         <v>1.2057648401826484</v>
       </c>
-      <c r="V28" s="3">
+      <c r="V28">
         <v>1.1589928970065957</v>
       </c>
-      <c r="W28" s="3">
+      <c r="W28">
         <v>1.0797184170471841</v>
       </c>
-      <c r="X28" s="3">
+      <c r="X28">
         <v>1.0170915778792491</v>
       </c>
-      <c r="Y28" s="3">
+      <c r="Y28">
         <v>0.88232496194824972</v>
       </c>
-      <c r="Z28" s="3">
+      <c r="Z28">
         <v>1.2390601217656012</v>
       </c>
-      <c r="AA28" s="3">
+      <c r="AA28">
         <v>1.2319254185692541</v>
       </c>
     </row>
@@ -2415,76 +2413,76 @@
       <c r="C29" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29">
         <v>0.11415525114155252</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29">
         <v>0.11415525114155252</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29">
         <v>0.11415525114155252</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29">
         <v>7.6103500761035017E-2</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29">
         <v>0.11415525114155252</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29">
         <v>0.11415525114155252</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29">
         <v>9.1324200913242004E-2</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29">
         <v>4.1511000415110001E-2</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29">
         <v>4.5186453576864537E-2</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29">
         <v>6.1607595854171207E-2</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29">
         <v>6.0565702688990357E-2</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29">
         <v>9.3826233814974666E-2</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29">
         <v>0.12822918621379872</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29">
         <v>0.13549268126146885</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29">
         <v>0.13692492757892669</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29">
         <v>0.13848341941762107</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29">
         <v>0.13078439866398708</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29">
         <v>0.14134611593860083</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29">
         <v>0.12857366675067947</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29">
         <v>0.12958015809982651</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29">
         <v>0.1314419189044469</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29">
         <v>0.12647997737099445</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z29">
         <v>0.1307021849389437</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AA29">
         <v>0.11879041402347462</v>
       </c>
     </row>
@@ -2498,76 +2496,76 @@
       <c r="C30" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30">
         <v>0.1775748351090817</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30">
         <v>0.20409575204095751</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30">
         <v>0.20489404051047885</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30">
         <v>0.19157088122605365</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30">
         <v>0.18588111690305897</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I30">
         <v>0.16387931758971341</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J30">
         <v>0.17844268204758473</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K30">
         <v>0.17038728225942837</v>
       </c>
-      <c r="L30" s="3">
+      <c r="L30">
         <v>0.15716558655749158</v>
       </c>
-      <c r="M30" s="3">
+      <c r="M30">
         <v>0.15298675050527735</v>
       </c>
-      <c r="N30" s="3">
+      <c r="N30">
         <v>0.17980930749757493</v>
       </c>
-      <c r="O30" s="3">
+      <c r="O30">
         <v>0.16248977221738325</v>
       </c>
-      <c r="P30" s="3">
+      <c r="P30">
         <v>0.18899036022323698</v>
       </c>
-      <c r="Q30" s="3">
+      <c r="Q30">
         <v>0.19917016885352842</v>
       </c>
-      <c r="R30" s="3">
+      <c r="R30">
         <v>0.19964017423142477</v>
       </c>
-      <c r="S30" s="3">
+      <c r="S30">
         <v>0.18534616268497148</v>
       </c>
-      <c r="T30" s="3">
+      <c r="T30">
         <v>0.21528852800576376</v>
       </c>
-      <c r="U30" s="3">
+      <c r="U30">
         <v>0.20791726439950117</v>
       </c>
-      <c r="V30" s="3">
+      <c r="V30">
         <v>0.19773519552573904</v>
       </c>
-      <c r="W30" s="3">
+      <c r="W30">
         <v>0.21591161732765551</v>
       </c>
-      <c r="X30" s="3">
+      <c r="X30">
         <v>0.19701495045221024</v>
       </c>
-      <c r="Y30" s="3">
+      <c r="Y30">
         <v>0.21237950279046169</v>
       </c>
-      <c r="Z30" s="3">
+      <c r="Z30">
         <v>0.19586027860834898</v>
       </c>
-      <c r="AA30" s="3">
+      <c r="AA30">
         <v>0.21801705559203086</v>
       </c>
     </row>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E72E478-D043-4872-BCE9-7630C4521B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD47E082-F4B0-4250-B3D6-D249F92DFBE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD47E082-F4B0-4250-B3D6-D249F92DFBE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB53522-D689-4D07-BDAB-15E568CCE188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,8 +35,9 @@
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
+  <metadataTypes count="2">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
@@ -47,16 +48,40 @@
       </extLst>
     </bk>
   </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="2">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
+  <valueMetadata count="2">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+    <bk>
+      <rc t="2" v="1"/>
+    </bk>
+  </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="87">
   <si>
     <t>bioenergy</t>
   </si>
@@ -251,6 +276,72 @@
   </si>
   <si>
     <t>-CO2Captured</t>
+  </si>
+  <si>
+    <t>Unnamed: 8</t>
+  </si>
+  <si>
+    <t>Unnamed: 9</t>
+  </si>
+  <si>
+    <t>Unnamed: 10</t>
+  </si>
+  <si>
+    <t>Unnamed: 11</t>
+  </si>
+  <si>
+    <t>Unnamed: 12</t>
+  </si>
+  <si>
+    <t>Unnamed: 13</t>
+  </si>
+  <si>
+    <t>Unnamed: 14</t>
+  </si>
+  <si>
+    <t>Unnamed: 15</t>
+  </si>
+  <si>
+    <t>Unnamed: 16</t>
+  </si>
+  <si>
+    <t>Unnamed: 17</t>
+  </si>
+  <si>
+    <t>Unnamed: 18</t>
+  </si>
+  <si>
+    <t>Unnamed: 19</t>
+  </si>
+  <si>
+    <t>Unnamed: 20</t>
+  </si>
+  <si>
+    <t>Unnamed: 21</t>
+  </si>
+  <si>
+    <t>Unnamed: 22</t>
+  </si>
+  <si>
+    <t>Unnamed: 23</t>
+  </si>
+  <si>
+    <t>Unnamed: 24</t>
+  </si>
+  <si>
+    <t>Unnamed: 25</t>
+  </si>
+  <si>
+    <t>Electricity Trade Data (TWh)</t>
+  </si>
+  <si>
+    <t>ISO</t>
+  </si>
+  <si>
+    <t>Export</t>
+  </si>
+  <si>
+    <t>Import</t>
   </si>
 </sst>
 </file>
@@ -318,6 +409,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+  <rv s="0">
+    <v>13</v>
+    <v>3</v>
+  </rv>
+  <rv s="1">
+    <v>13</v>
+    <v>1</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+  <s t="_error">
+    <k n="errorType" t="i"/>
+    <k n="subType" t="i"/>
+  </s>
+  <s t="_error">
+    <k n="errorType" t="i"/>
+    <k n="propagated" t="b"/>
+  </s>
+</rvStructures>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -718,14 +875,14 @@
       <c r="P4" t="s">
         <v>1</v>
       </c>
-      <c r="Q4" s="4" cm="1">
+      <c r="Q4" s="4" t="e" cm="1" vm="1">
         <f t="array" ref="Q4">MAX(_xlfn._xlws.FILTER(_xlfn.BYROW(historical_data!$D$24:$AA$30, _xlfn.LAMBDA(_xlpm.r, MAX(_xlpm.r))), historical_data!$C$24:$C$30=$P4))</f>
-        <v>0.62231700981598448</v>
+        <v>#VALUE!</v>
       </c>
       <c r="R4" s="4"/>
-      <c r="S4" s="4" cm="1">
+      <c r="S4" s="4" t="e" cm="1" vm="1">
         <f t="array" ref="S4">MIN(_xlfn._xlws.FILTER(_xlfn.BYROW(historical_data!$D$24:$AA$30, _xlfn.LAMBDA(_xlpm.r, MIN(_xlpm.r))), historical_data!$C$24:$C$30=$P4))</f>
-        <v>0.19733814732221869</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="5" spans="2:36" x14ac:dyDescent="0.45">
@@ -748,17 +905,17 @@
       <c r="P5" t="s">
         <v>2</v>
       </c>
-      <c r="Q5" s="4" cm="1">
+      <c r="Q5" s="4" t="e" cm="1" vm="1">
         <f t="array" ref="Q5">MAX(_xlfn._xlws.FILTER(_xlfn.BYROW(historical_data!$D$24:$AA$30, _xlfn.LAMBDA(_xlpm.r, MAX(_xlpm.r))), historical_data!$C$24:$C$30=$P5))</f>
-        <v>0.2955149688458561</v>
-      </c>
-      <c r="R5" s="4">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R5" s="4" t="e" vm="2">
         <f>IF(Q5&gt;0.7,Q5,0.7)</f>
-        <v>0.7</v>
-      </c>
-      <c r="S5" s="4" cm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S5" s="4" t="e" cm="1" vm="1">
         <f t="array" ref="S5">MIN(_xlfn._xlws.FILTER(_xlfn.BYROW(historical_data!$D$24:$AA$30, _xlfn.LAMBDA(_xlpm.r, MIN(_xlpm.r))), historical_data!$C$24:$C$30=$P5))</f>
-        <v>0.15844369919854487</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="6" spans="2:36" x14ac:dyDescent="0.45">
@@ -868,9 +1025,9 @@
       <c r="X8">
         <v>1</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Y8" s="3" t="e" vm="2">
         <f>-Q4*$Q$1*8.76</f>
-        <v>-5.9966467065868265</v>
+        <v>#VALUE!</v>
       </c>
       <c r="Z8" s="3"/>
       <c r="AA8">
@@ -888,9 +1045,9 @@
       <c r="AF8">
         <v>1</v>
       </c>
-      <c r="AG8" s="3">
+      <c r="AG8" s="3" t="e" vm="2">
         <f>-S4*$S$1*8.76</f>
-        <v>-1.5558139534883721</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AI8">
         <v>0</v>
@@ -912,13 +1069,13 @@
       <c r="X9">
         <v>1</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Y9" s="3" t="e" vm="2">
         <f>-Q5*$Q$1*8.76</f>
-        <v>-2.8475822397986694</v>
-      </c>
-      <c r="Z9" s="3">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z9" s="3" t="e" vm="2">
         <f>-R5*$Q$1*8.76</f>
-        <v>-6.7451999999999996</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AA9">
         <v>0</v>
@@ -935,9 +1092,9 @@
       <c r="AF9">
         <v>1</v>
       </c>
-      <c r="AG9" s="3">
+      <c r="AG9" s="3" t="e" vm="2">
         <f>-S5*$S$1*8.76</f>
-        <v>-1.2491701244813276</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AI9">
         <v>0</v>
@@ -1109,7 +1266,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AA30"/>
+  <dimension ref="A1:AA36"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="U26" sqref="U26"/>
@@ -1153,6 +1310,60 @@
       <c r="H1" t="s">
         <v>11</v>
       </c>
+      <c r="I1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T1" t="s">
+        <v>76</v>
+      </c>
+      <c r="U1" t="s">
+        <v>77</v>
+      </c>
+      <c r="V1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W1" t="s">
+        <v>79</v>
+      </c>
+      <c r="X1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
@@ -1337,1153 +1548,762 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
+        <v>23</v>
+      </c>
+      <c r="C13">
+        <v>2000</v>
       </c>
       <c r="D13">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="E13">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="F13">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="G13">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="H13">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="I13">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="J13">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="K13">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="L13">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="M13">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="N13">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="O13">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="P13">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="Q13">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="R13">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="S13">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="T13">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="U13">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="V13">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="W13">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="X13">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="Y13">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="Z13">
-        <v>2022</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14">
         <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0.29387335196920444</v>
-      </c>
-      <c r="E14">
-        <v>0.36119588962232163</v>
-      </c>
-      <c r="F14">
-        <v>0.44005793825548695</v>
-      </c>
-      <c r="G14">
-        <v>0.44668870313278031</v>
-      </c>
-      <c r="H14">
-        <v>0.54898593711379096</v>
-      </c>
-      <c r="I14">
-        <v>0.61000284572266994</v>
-      </c>
-      <c r="J14">
-        <v>0.64753472829655767</v>
-      </c>
-      <c r="K14">
-        <v>0.62752567747232946</v>
-      </c>
-      <c r="L14">
-        <v>0.58888908630393622</v>
-      </c>
-      <c r="M14">
-        <v>0.5673952378959225</v>
-      </c>
-      <c r="N14">
-        <v>0.59031104308580318</v>
-      </c>
-      <c r="O14">
-        <v>0.54674259382098878</v>
-      </c>
-      <c r="P14">
-        <v>0.44853889899451427</v>
-      </c>
-      <c r="Q14">
-        <v>0.58350948198641062</v>
-      </c>
-      <c r="R14">
-        <v>0.63667296066860524</v>
-      </c>
-      <c r="S14">
-        <v>0.65763867133730136</v>
-      </c>
-      <c r="T14">
-        <v>0.64758790186698112</v>
-      </c>
-      <c r="U14">
-        <v>0.64110341340216126</v>
-      </c>
-      <c r="V14">
-        <v>0.62627406907580729</v>
-      </c>
-      <c r="W14">
-        <v>0.64651878707642696</v>
-      </c>
-      <c r="X14">
-        <v>0.65169312541193969</v>
-      </c>
-      <c r="Y14">
-        <v>0.63648704525812538</v>
-      </c>
-      <c r="Z14">
-        <v>0.59277106311612904</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15">
-        <v>0.91033975698475367</v>
-      </c>
-      <c r="E15">
-        <v>0.89790177468582399</v>
-      </c>
-      <c r="F15">
-        <v>0.79908675799086759</v>
-      </c>
-      <c r="G15">
-        <v>0.86238075862380759</v>
-      </c>
-      <c r="H15">
-        <v>0.96681069431997602</v>
-      </c>
-      <c r="I15">
-        <v>0.90583467733703538</v>
-      </c>
-      <c r="J15">
-        <v>0.94035447672321693</v>
-      </c>
-      <c r="K15">
-        <v>0.94745932262213428</v>
-      </c>
-      <c r="L15">
-        <v>0.93915491088745062</v>
-      </c>
-      <c r="M15">
-        <v>0.87740580138628832</v>
-      </c>
-      <c r="N15">
-        <v>0.84297945205479452</v>
-      </c>
-      <c r="O15">
-        <v>0.88662611646344525</v>
-      </c>
-      <c r="P15">
-        <v>0.87681346906518143</v>
-      </c>
-      <c r="Q15">
-        <v>0.88618737120343749</v>
-      </c>
-      <c r="R15">
-        <v>0.87940166595319624</v>
-      </c>
-      <c r="S15">
-        <v>0.91933192422945187</v>
-      </c>
-      <c r="T15">
-        <v>0.93594997410298097</v>
-      </c>
-      <c r="U15">
-        <v>0.922711274930198</v>
-      </c>
-      <c r="V15">
-        <v>0.90846117489425482</v>
-      </c>
-      <c r="W15">
-        <v>0.90391841519020266</v>
-      </c>
-      <c r="X15">
-        <v>0.89132060374858879</v>
-      </c>
-      <c r="Y15">
-        <v>0.87470664323539882</v>
-      </c>
-      <c r="Z15">
-        <v>0.86333726595725613</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16">
-        <v>0.28558245436146446</v>
-      </c>
-      <c r="E16">
-        <v>0.30125755131902554</v>
-      </c>
-      <c r="F16">
-        <v>0.26300120576970937</v>
-      </c>
-      <c r="G16">
-        <v>0.24464788133158288</v>
-      </c>
-      <c r="H16">
-        <v>0.27464620897146697</v>
-      </c>
-      <c r="I16">
-        <v>0.23342690659878584</v>
-      </c>
-      <c r="J16">
-        <v>0.23524997898052519</v>
-      </c>
-      <c r="K16">
-        <v>0.20802424867929775</v>
-      </c>
-      <c r="L16">
-        <v>0.25339148834066899</v>
-      </c>
-      <c r="M16">
-        <v>0.2854692026001181</v>
-      </c>
-      <c r="N16">
-        <v>0.28860623970905264</v>
-      </c>
-      <c r="O16">
-        <v>0.25080291521537151</v>
-      </c>
-      <c r="P16">
-        <v>0.22880093682435534</v>
-      </c>
-      <c r="Q16">
-        <v>0.28356807022282915</v>
-      </c>
-      <c r="R16">
-        <v>0.31127604163438005</v>
-      </c>
-      <c r="S16">
-        <v>0.24130564426305645</v>
-      </c>
-      <c r="T16">
-        <v>0.22657477726978403</v>
-      </c>
-      <c r="U16">
-        <v>0.19355715910404311</v>
-      </c>
-      <c r="V16">
-        <v>0.25624516880745851</v>
-      </c>
-      <c r="W16">
-        <v>0.24386476819833647</v>
-      </c>
-      <c r="X16">
-        <v>0.24895999115400089</v>
-      </c>
-      <c r="Y16">
-        <v>0.23824110380502575</v>
-      </c>
-      <c r="Z16">
-        <v>0.15125668935897063</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17">
-        <v>0.18549363909037686</v>
-      </c>
-      <c r="E17">
-        <v>0.16242780220674277</v>
-      </c>
-      <c r="F17">
-        <v>0.18947752518915301</v>
-      </c>
-      <c r="G17">
-        <v>0.16134275900234468</v>
-      </c>
-      <c r="H17">
-        <v>0.12074365174832007</v>
-      </c>
-      <c r="I17">
-        <v>9.2604874927729272E-2</v>
-      </c>
-      <c r="J17">
-        <v>8.5383142670290207E-2</v>
-      </c>
-      <c r="K17">
-        <v>6.3942571567428885E-2</v>
-      </c>
-      <c r="L17">
-        <v>5.4351971653901113E-2</v>
-      </c>
-      <c r="M17">
-        <v>4.5120373132528896E-2</v>
-      </c>
-      <c r="N17">
-        <v>3.8445903076430775E-2</v>
-      </c>
-      <c r="O17">
-        <v>3.5465642257402952E-2</v>
-      </c>
-      <c r="P17">
-        <v>3.3828410664150516E-2</v>
-      </c>
-      <c r="Q17">
-        <v>2.9497986896519491E-2</v>
-      </c>
-      <c r="R17">
-        <v>2.8898030899281432E-2</v>
-      </c>
-      <c r="S17">
-        <v>2.9934943675673939E-2</v>
-      </c>
-      <c r="T17">
-        <v>2.9741012269575366E-2</v>
-      </c>
-      <c r="U17">
-        <v>2.8767224001894291E-2</v>
-      </c>
-      <c r="V17">
-        <v>2.7660265219492469E-2</v>
-      </c>
-      <c r="W17">
-        <v>2.5984909288337733E-2</v>
-      </c>
-      <c r="X17">
-        <v>2.5949170525979785E-2</v>
-      </c>
-      <c r="Y17">
-        <v>2.1681649145671975E-2</v>
-      </c>
-      <c r="Z17">
-        <v>3.1944135901513453E-2</v>
+        <v>86</v>
+      </c>
+      <c r="C15">
+        <v>44.35</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18">
-        <v>0.10814708002883922</v>
-      </c>
-      <c r="E18">
-        <v>0.10844748858447488</v>
-      </c>
-      <c r="F18">
-        <v>0.10896637608966378</v>
-      </c>
-      <c r="G18">
-        <v>0.10537407797681771</v>
-      </c>
-      <c r="H18">
-        <v>0.1067903962291943</v>
-      </c>
-      <c r="I18">
-        <v>0.10408272898200376</v>
-      </c>
-      <c r="J18">
-        <v>8.8787417554540851E-2</v>
-      </c>
-      <c r="K18">
-        <v>4.0424449979244499E-2</v>
-      </c>
-      <c r="L18">
-        <v>4.5606559081841996E-2</v>
-      </c>
-      <c r="M18">
-        <v>6.1094824721114389E-2</v>
-      </c>
-      <c r="N18">
-        <v>6.0783945108384398E-2</v>
-      </c>
-      <c r="O18">
-        <v>9.457878955568752E-2</v>
-      </c>
-      <c r="P18">
-        <v>0.12931650057322672</v>
-      </c>
-      <c r="Q18">
-        <v>0.13673327820166969</v>
-      </c>
-      <c r="R18">
-        <v>0.13816232692585365</v>
-      </c>
-      <c r="S18">
-        <v>0.13981618422725917</v>
-      </c>
-      <c r="T18">
-        <v>0.132076705674749</v>
-      </c>
-      <c r="U18">
-        <v>0.14275360852558924</v>
-      </c>
-      <c r="V18">
-        <v>0.12991755316197512</v>
-      </c>
-      <c r="W18">
-        <v>0.13118242254470275</v>
-      </c>
-      <c r="X18">
-        <v>0.13337047062172605</v>
-      </c>
-      <c r="Y18">
-        <v>0.12832090743979691</v>
-      </c>
-      <c r="Z18">
-        <v>0.13076711146608011</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>2000</v>
+      </c>
+      <c r="E19">
+        <v>2001</v>
+      </c>
+      <c r="F19">
+        <v>2002</v>
+      </c>
+      <c r="G19">
+        <v>2003</v>
+      </c>
+      <c r="H19">
+        <v>2004</v>
+      </c>
+      <c r="I19">
+        <v>2005</v>
+      </c>
+      <c r="J19">
+        <v>2006</v>
+      </c>
+      <c r="K19">
+        <v>2007</v>
+      </c>
+      <c r="L19">
+        <v>2008</v>
+      </c>
+      <c r="M19">
+        <v>2009</v>
+      </c>
+      <c r="N19">
+        <v>2010</v>
+      </c>
+      <c r="O19">
+        <v>2011</v>
+      </c>
+      <c r="P19">
+        <v>2012</v>
+      </c>
+      <c r="Q19">
+        <v>2013</v>
+      </c>
+      <c r="R19">
+        <v>2014</v>
+      </c>
+      <c r="S19">
+        <v>2015</v>
+      </c>
+      <c r="T19">
+        <v>2016</v>
+      </c>
+      <c r="U19">
+        <v>2017</v>
+      </c>
+      <c r="V19">
+        <v>2018</v>
+      </c>
+      <c r="W19">
+        <v>2019</v>
+      </c>
+      <c r="X19">
+        <v>2020</v>
+      </c>
+      <c r="Y19">
+        <v>2021</v>
+      </c>
+      <c r="Z19">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
         <v>46</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>43</v>
       </c>
-      <c r="C19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19">
-        <v>0.17705070631596159</v>
-      </c>
-      <c r="E19">
-        <v>0.20269433899983494</v>
-      </c>
-      <c r="F19">
-        <v>0.20547945205479451</v>
-      </c>
-      <c r="G19">
-        <v>0.19043290178991254</v>
-      </c>
-      <c r="H19">
-        <v>0.1867689303237674</v>
-      </c>
-      <c r="I19">
-        <v>0.1634194908745619</v>
-      </c>
-      <c r="J19">
-        <v>0.1781260653289736</v>
-      </c>
-      <c r="K19">
-        <v>0.17044532377504912</v>
-      </c>
-      <c r="L19">
-        <v>0.15732740697561451</v>
-      </c>
-      <c r="M19">
-        <v>0.15299618343829349</v>
-      </c>
-      <c r="N19">
-        <v>0.17972438028317755</v>
-      </c>
-      <c r="O19">
-        <v>0.16251183135517033</v>
-      </c>
-      <c r="P19">
-        <v>0.18890322756994438</v>
-      </c>
-      <c r="Q19">
-        <v>0.19908293588810169</v>
-      </c>
-      <c r="R19">
-        <v>0.19954897961008153</v>
-      </c>
-      <c r="S19">
-        <v>0.18545551905719279</v>
-      </c>
-      <c r="T19">
-        <v>0.21518058037191448</v>
-      </c>
-      <c r="U19">
-        <v>0.20801272044711919</v>
-      </c>
-      <c r="V19">
-        <v>0.19769064914008325</v>
-      </c>
-      <c r="W19">
-        <v>0.21594436217582091</v>
-      </c>
-      <c r="X19">
-        <v>0.19702002802981769</v>
-      </c>
-      <c r="Y19">
-        <v>0.21228169618742199</v>
-      </c>
-      <c r="Z19">
-        <v>0.19792026167823587</v>
+      <c r="C20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0.29387335196920444</v>
+      </c>
+      <c r="E20">
+        <v>0.36119588962232163</v>
+      </c>
+      <c r="F20">
+        <v>0.44005793825548695</v>
+      </c>
+      <c r="G20">
+        <v>0.44668870313278031</v>
+      </c>
+      <c r="H20">
+        <v>0.54898593711379096</v>
+      </c>
+      <c r="I20">
+        <v>0.61000284572266994</v>
+      </c>
+      <c r="J20">
+        <v>0.64753472829655767</v>
+      </c>
+      <c r="K20">
+        <v>0.62752567747232946</v>
+      </c>
+      <c r="L20">
+        <v>0.58888908630393622</v>
+      </c>
+      <c r="M20">
+        <v>0.5673952378959225</v>
+      </c>
+      <c r="N20">
+        <v>0.59031104308580318</v>
+      </c>
+      <c r="O20">
+        <v>0.54674259382098878</v>
+      </c>
+      <c r="P20">
+        <v>0.44853889899451427</v>
+      </c>
+      <c r="Q20">
+        <v>0.58350948198641062</v>
+      </c>
+      <c r="R20">
+        <v>0.63667296066860524</v>
+      </c>
+      <c r="S20">
+        <v>0.65763867133730136</v>
+      </c>
+      <c r="T20">
+        <v>0.64758790186698112</v>
+      </c>
+      <c r="U20">
+        <v>0.64110341340216126</v>
+      </c>
+      <c r="V20">
+        <v>0.62627406907580729</v>
+      </c>
+      <c r="W20">
+        <v>0.64651878707642696</v>
+      </c>
+      <c r="X20">
+        <v>0.65169312541193969</v>
+      </c>
+      <c r="Y20">
+        <v>0.63648704525812538</v>
+      </c>
+      <c r="Z20">
+        <v>0.59277106311612904</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21">
+        <v>0.91033975698475367</v>
+      </c>
+      <c r="E21">
+        <v>0.89790177468582399</v>
+      </c>
+      <c r="F21">
+        <v>0.79908675799086759</v>
+      </c>
+      <c r="G21">
+        <v>0.86238075862380759</v>
+      </c>
+      <c r="H21">
+        <v>0.96681069431997602</v>
+      </c>
+      <c r="I21">
+        <v>0.90583467733703538</v>
+      </c>
+      <c r="J21">
+        <v>0.94035447672321693</v>
+      </c>
+      <c r="K21">
+        <v>0.94745932262213428</v>
+      </c>
+      <c r="L21">
+        <v>0.93915491088745062</v>
+      </c>
+      <c r="M21">
+        <v>0.87740580138628832</v>
+      </c>
+      <c r="N21">
+        <v>0.84297945205479452</v>
+      </c>
+      <c r="O21">
+        <v>0.88662611646344525</v>
+      </c>
+      <c r="P21">
+        <v>0.87681346906518143</v>
+      </c>
+      <c r="Q21">
+        <v>0.88618737120343749</v>
+      </c>
+      <c r="R21">
+        <v>0.87940166595319624</v>
+      </c>
+      <c r="S21">
+        <v>0.91933192422945187</v>
+      </c>
+      <c r="T21">
+        <v>0.93594997410298097</v>
+      </c>
+      <c r="U21">
+        <v>0.922711274930198</v>
+      </c>
+      <c r="V21">
+        <v>0.90846117489425482</v>
+      </c>
+      <c r="W21">
+        <v>0.90391841519020266</v>
+      </c>
+      <c r="X21">
+        <v>0.89132060374858879</v>
+      </c>
+      <c r="Y21">
+        <v>0.87470664323539882</v>
+      </c>
+      <c r="Z21">
+        <v>0.86333726595725613</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22">
+        <v>0.28558245436146446</v>
+      </c>
+      <c r="E22">
+        <v>0.30125755131902554</v>
+      </c>
+      <c r="F22">
+        <v>0.26300120576970937</v>
+      </c>
+      <c r="G22">
+        <v>0.24464788133158288</v>
+      </c>
+      <c r="H22">
+        <v>0.27464620897146697</v>
+      </c>
+      <c r="I22">
+        <v>0.23342690659878584</v>
+      </c>
+      <c r="J22">
+        <v>0.23524997898052519</v>
+      </c>
+      <c r="K22">
+        <v>0.20802424867929775</v>
+      </c>
+      <c r="L22">
+        <v>0.25339148834066899</v>
+      </c>
+      <c r="M22">
+        <v>0.2854692026001181</v>
+      </c>
+      <c r="N22">
+        <v>0.28860623970905264</v>
+      </c>
+      <c r="O22">
+        <v>0.25080291521537151</v>
+      </c>
+      <c r="P22">
+        <v>0.22880093682435534</v>
+      </c>
+      <c r="Q22">
+        <v>0.28356807022282915</v>
+      </c>
+      <c r="R22">
+        <v>0.31127604163438005</v>
+      </c>
+      <c r="S22">
+        <v>0.24130564426305645</v>
+      </c>
+      <c r="T22">
+        <v>0.22657477726978403</v>
+      </c>
+      <c r="U22">
+        <v>0.19355715910404311</v>
+      </c>
+      <c r="V22">
+        <v>0.25624516880745851</v>
+      </c>
+      <c r="W22">
+        <v>0.24386476819833647</v>
+      </c>
+      <c r="X22">
+        <v>0.24895999115400089</v>
+      </c>
+      <c r="Y22">
+        <v>0.23824110380502575</v>
+      </c>
+      <c r="Z22">
+        <v>0.15125668935897063</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23">
-        <v>2000</v>
+        <v>0.18549363909037686</v>
       </c>
       <c r="E23">
-        <v>2001</v>
+        <v>0.16242780220674277</v>
       </c>
       <c r="F23">
-        <v>2002</v>
+        <v>0.18947752518915301</v>
       </c>
       <c r="G23">
-        <v>2003</v>
+        <v>0.16134275900234468</v>
       </c>
       <c r="H23">
-        <v>2004</v>
+        <v>0.12074365174832007</v>
       </c>
       <c r="I23">
-        <v>2005</v>
+        <v>9.2604874927729272E-2</v>
       </c>
       <c r="J23">
-        <v>2006</v>
+        <v>8.5383142670290207E-2</v>
       </c>
       <c r="K23">
-        <v>2007</v>
+        <v>6.3942571567428885E-2</v>
       </c>
       <c r="L23">
-        <v>2008</v>
+        <v>5.4351971653901113E-2</v>
       </c>
       <c r="M23">
-        <v>2009</v>
+        <v>4.5120373132528896E-2</v>
       </c>
       <c r="N23">
-        <v>2010</v>
+        <v>3.8445903076430775E-2</v>
       </c>
       <c r="O23">
-        <v>2011</v>
+        <v>3.5465642257402952E-2</v>
       </c>
       <c r="P23">
-        <v>2012</v>
+        <v>3.3828410664150516E-2</v>
       </c>
       <c r="Q23">
-        <v>2013</v>
+        <v>2.9497986896519491E-2</v>
       </c>
       <c r="R23">
-        <v>2014</v>
+        <v>2.8898030899281432E-2</v>
       </c>
       <c r="S23">
-        <v>2015</v>
+        <v>2.9934943675673939E-2</v>
       </c>
       <c r="T23">
-        <v>2016</v>
+        <v>2.9741012269575366E-2</v>
       </c>
       <c r="U23">
-        <v>2017</v>
+        <v>2.8767224001894291E-2</v>
       </c>
       <c r="V23">
-        <v>2018</v>
+        <v>2.7660265219492469E-2</v>
       </c>
       <c r="W23">
-        <v>2019</v>
+        <v>2.5984909288337733E-2</v>
       </c>
       <c r="X23">
-        <v>2020</v>
+        <v>2.5949170525979785E-2</v>
       </c>
       <c r="Y23">
-        <v>2021</v>
+        <v>2.1681649145671975E-2</v>
       </c>
       <c r="Z23">
-        <v>2022</v>
-      </c>
-      <c r="AA23">
-        <v>2023</v>
+        <v>3.1944135901513453E-2</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
         <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D24">
-        <v>0.61522608801066792</v>
+        <v>0.10814708002883922</v>
       </c>
       <c r="E24">
-        <v>0.62934286281516771</v>
+        <v>0.10844748858447488</v>
       </c>
       <c r="F24">
-        <v>0.61410525614105249</v>
+        <v>0.10896637608966378</v>
       </c>
       <c r="G24">
-        <v>0.63330715760695699</v>
+        <v>0.10537407797681771</v>
       </c>
       <c r="H24">
-        <v>0.72548666186012989</v>
+        <v>0.1067903962291943</v>
       </c>
       <c r="I24">
-        <v>0.74052659669098031</v>
+        <v>0.10408272898200376</v>
       </c>
       <c r="J24">
-        <v>0.77363813512491642</v>
+        <v>8.8787417554540851E-2</v>
       </c>
       <c r="K24">
-        <v>0.75846709807546864</v>
+        <v>4.0424449979244499E-2</v>
       </c>
       <c r="L24">
-        <v>0.71674526536417393</v>
+        <v>4.5606559081841996E-2</v>
       </c>
       <c r="M24">
-        <v>0.66333456744415642</v>
+        <v>6.1094824721114389E-2</v>
       </c>
       <c r="N24">
-        <v>0.66085188356164382</v>
+        <v>6.0783945108384398E-2</v>
       </c>
       <c r="O24">
-        <v>0.62919014676012885</v>
+        <v>9.457878955568752E-2</v>
       </c>
       <c r="P24">
-        <v>0.52921203606135103</v>
+        <v>0.12931650057322672</v>
       </c>
       <c r="Q24">
-        <v>0.63624764974482939</v>
+        <v>0.13673327820166969</v>
       </c>
       <c r="R24">
-        <v>0.68106183731909309</v>
+        <v>0.13816232692585365</v>
       </c>
       <c r="S24">
-        <v>0.70676749919842574</v>
+        <v>0.13981618422725917</v>
       </c>
       <c r="T24">
-        <v>0.69930259547283602</v>
+        <v>0.132076705674749</v>
       </c>
       <c r="U24">
-        <v>0.69169425869419376</v>
+        <v>0.14275360852558924</v>
       </c>
       <c r="V24">
-        <v>0.67662443458314581</v>
+        <v>0.12991755316197512</v>
       </c>
       <c r="W24">
-        <v>0.69304680906316962</v>
+        <v>0.13118242254470275</v>
       </c>
       <c r="X24">
-        <v>0.69550645885530227</v>
+        <v>0.13337047062172605</v>
       </c>
       <c r="Y24">
-        <v>0.68029990954762931</v>
+        <v>0.12832090743979691</v>
       </c>
       <c r="Z24">
-        <v>0.64195219167132056</v>
-      </c>
-      <c r="AA24">
-        <v>0.60575494311218137</v>
+        <v>0.13076711146608011</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
         <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D25">
-        <v>0.34602076124567482</v>
+        <v>0.17705070631596159</v>
       </c>
       <c r="E25">
-        <v>0.42117978124668154</v>
+        <v>0.20269433899983494</v>
       </c>
       <c r="F25">
-        <v>0.47055856429860893</v>
+        <v>0.20547945205479451</v>
       </c>
       <c r="G25">
-        <v>0.51515875544228529</v>
+        <v>0.19043290178991254</v>
       </c>
       <c r="H25">
-        <v>0.62231700981598448</v>
+        <v>0.1867689303237674</v>
       </c>
       <c r="I25">
-        <v>0.57221959796357535</v>
+        <v>0.1634194908745619</v>
       </c>
       <c r="J25">
-        <v>0.58009237390437207</v>
+        <v>0.1781260653289736</v>
       </c>
       <c r="K25">
-        <v>0.57878024458090593</v>
+        <v>0.17044532377504912</v>
       </c>
       <c r="L25">
-        <v>0.61000827129859381</v>
+        <v>0.15732740697561451</v>
       </c>
       <c r="M25">
-        <v>0.52024422939968995</v>
+        <v>0.15299618343829349</v>
       </c>
       <c r="N25">
-        <v>0.45490352335545442</v>
+        <v>0.17972438028317755</v>
       </c>
       <c r="O25">
-        <v>0.51215289704730615</v>
+        <v>0.16251183135517033</v>
       </c>
       <c r="P25">
-        <v>0.56264684464351955</v>
+        <v>0.18890322756994438</v>
       </c>
       <c r="Q25">
-        <v>0.51638935070050329</v>
+        <v>0.19908293588810169</v>
       </c>
       <c r="R25">
-        <v>0.50458246816891728</v>
+        <v>0.19954897961008153</v>
       </c>
       <c r="S25">
-        <v>0.50892743542983165</v>
+        <v>0.18545551905719279</v>
       </c>
       <c r="T25">
-        <v>0.46671280059135295</v>
+        <v>0.21518058037191448</v>
       </c>
       <c r="U25">
-        <v>0.43565916312852143</v>
+        <v>0.20801272044711919</v>
       </c>
       <c r="V25">
-        <v>0.38011695906432741</v>
+        <v>0.19769064914008325</v>
       </c>
       <c r="W25">
-        <v>0.25154209725226306</v>
+        <v>0.21594436217582091</v>
       </c>
       <c r="X25">
-        <v>0.19733814732221869</v>
+        <v>0.19702002802981769</v>
       </c>
       <c r="Y25">
-        <v>0.23501565653517861</v>
+        <v>0.21228169618742199</v>
       </c>
       <c r="Z25">
-        <v>0.37900884409845853</v>
-      </c>
-      <c r="AA25">
-        <v>0.25717309414385414</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26">
-        <v>0.21688427845750258</v>
-      </c>
-      <c r="E26">
-        <v>0.22202418548512892</v>
-      </c>
-      <c r="F26">
-        <v>0.21195692035826924</v>
-      </c>
-      <c r="G26">
-        <v>0.2444397765407833</v>
-      </c>
-      <c r="H26">
-        <v>0.25723564401629956</v>
-      </c>
-      <c r="I26">
-        <v>0.28042118198664318</v>
-      </c>
-      <c r="J26">
-        <v>0.28071079794005777</v>
-      </c>
-      <c r="K26">
-        <v>0.2922584260992816</v>
-      </c>
-      <c r="L26">
-        <v>0.2779788969658355</v>
-      </c>
-      <c r="M26">
-        <v>0.23646215642703375</v>
-      </c>
-      <c r="N26">
-        <v>0.24074060070301742</v>
-      </c>
-      <c r="O26">
-        <v>0.22510363173419468</v>
-      </c>
-      <c r="P26">
-        <v>0.20133855684813015</v>
-      </c>
-      <c r="Q26">
-        <v>0.17523112617091591</v>
-      </c>
-      <c r="R26">
-        <v>0.15844369919854487</v>
-      </c>
-      <c r="S26">
-        <v>0.20478133387114289</v>
-      </c>
-      <c r="T26">
-        <v>0.24738866431689593</v>
-      </c>
-      <c r="U26">
-        <v>0.2791433980876013</v>
-      </c>
-      <c r="V26">
-        <v>0.25589885068453339</v>
-      </c>
-      <c r="W26">
-        <v>0.28175925948019492</v>
-      </c>
-      <c r="X26">
-        <v>0.27138259384113744</v>
-      </c>
-      <c r="Y26">
-        <v>0.2955149688458561</v>
-      </c>
-      <c r="Z26">
-        <v>0.2867461537463678</v>
-      </c>
-      <c r="AA26">
-        <v>0.23584379225019769</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27">
-        <v>0.30785003663554733</v>
-      </c>
-      <c r="E27">
-        <v>0.3246419991455694</v>
-      </c>
-      <c r="F27">
-        <v>0.27242847373877754</v>
-      </c>
-      <c r="G27">
-        <v>0.25066305744675033</v>
-      </c>
-      <c r="H27">
-        <v>0.2878697637482629</v>
-      </c>
-      <c r="I27">
-        <v>0.24164201341994127</v>
-      </c>
-      <c r="J27">
-        <v>0.24679151021192447</v>
-      </c>
-      <c r="K27">
-        <v>0.21833189641408821</v>
-      </c>
-      <c r="L27">
-        <v>0.27431533213114406</v>
-      </c>
-      <c r="M27">
-        <v>0.32220499948856351</v>
-      </c>
-      <c r="N27">
-        <v>0.33232439853964491</v>
-      </c>
-      <c r="O27">
-        <v>0.29418411739628436</v>
-      </c>
-      <c r="P27">
-        <v>0.26672323467058051</v>
-      </c>
-      <c r="Q27">
-        <v>0.33373809433461088</v>
-      </c>
-      <c r="R27">
-        <v>0.36886258026147345</v>
-      </c>
-      <c r="S27">
-        <v>0.28501261715933668</v>
-      </c>
-      <c r="T27">
-        <v>0.26438904508384675</v>
-      </c>
-      <c r="U27">
-        <v>0.22349486702672805</v>
-      </c>
-      <c r="V27">
-        <v>0.3000880766808377</v>
-      </c>
-      <c r="W27">
-        <v>0.28428339961702753</v>
-      </c>
-      <c r="X27">
-        <v>0.28949771689497716</v>
-      </c>
-      <c r="Y27">
-        <v>0.27546554222833963</v>
-      </c>
-      <c r="Z27">
-        <v>0.1712630286539932</v>
-      </c>
-      <c r="AA27">
-        <v>0.22976393784140595</v>
+        <v>0.19792026167823587</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28">
-        <v>8.2835036602159899</v>
-      </c>
-      <c r="E28">
-        <v>6.8518331990330372</v>
-      </c>
-      <c r="F28">
-        <v>7.9203599247918337</v>
-      </c>
-      <c r="G28">
-        <v>6.9920091324200904</v>
-      </c>
-      <c r="H28">
-        <v>5.4123019070641956</v>
-      </c>
-      <c r="I28">
-        <v>4.2221588026382548</v>
-      </c>
-      <c r="J28">
-        <v>4.1714231354642308</v>
-      </c>
-      <c r="K28">
-        <v>3.3001966007102994</v>
-      </c>
-      <c r="L28">
-        <v>2.9783422120750886</v>
-      </c>
-      <c r="M28">
-        <v>2.378234398782344</v>
-      </c>
-      <c r="N28">
-        <v>2.1499238964992391</v>
-      </c>
-      <c r="O28">
-        <v>2.0682711821410451</v>
-      </c>
-      <c r="P28">
-        <v>1.9620433789954339</v>
-      </c>
-      <c r="Q28">
-        <v>1.5862823439878235</v>
-      </c>
-      <c r="R28">
-        <v>1.4856037544393708</v>
-      </c>
-      <c r="S28">
-        <v>1.3262620497209539</v>
-      </c>
-      <c r="T28">
-        <v>1.2810755961440894</v>
-      </c>
-      <c r="U28">
-        <v>1.2057648401826484</v>
-      </c>
-      <c r="V28">
-        <v>1.1589928970065957</v>
-      </c>
-      <c r="W28">
-        <v>1.0797184170471841</v>
-      </c>
-      <c r="X28">
-        <v>1.0170915778792491</v>
-      </c>
-      <c r="Y28">
-        <v>0.88232496194824972</v>
-      </c>
-      <c r="Z28">
-        <v>1.2390601217656012</v>
-      </c>
-      <c r="AA28">
-        <v>1.2319254185692541</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D29">
-        <v>0.11415525114155252</v>
+        <v>2000</v>
       </c>
       <c r="E29">
-        <v>0.11415525114155252</v>
+        <v>2001</v>
       </c>
       <c r="F29">
-        <v>0.11415525114155252</v>
+        <v>2002</v>
       </c>
       <c r="G29">
-        <v>7.6103500761035017E-2</v>
+        <v>2003</v>
       </c>
       <c r="H29">
-        <v>0.11415525114155252</v>
+        <v>2004</v>
       </c>
       <c r="I29">
-        <v>0.11415525114155252</v>
+        <v>2005</v>
       </c>
       <c r="J29">
-        <v>9.1324200913242004E-2</v>
+        <v>2006</v>
       </c>
       <c r="K29">
-        <v>4.1511000415110001E-2</v>
+        <v>2007</v>
       </c>
       <c r="L29">
-        <v>4.5186453576864537E-2</v>
+        <v>2008</v>
       </c>
       <c r="M29">
-        <v>6.1607595854171207E-2</v>
+        <v>2009</v>
       </c>
       <c r="N29">
-        <v>6.0565702688990357E-2</v>
+        <v>2010</v>
       </c>
       <c r="O29">
-        <v>9.3826233814974666E-2</v>
+        <v>2011</v>
       </c>
       <c r="P29">
-        <v>0.12822918621379872</v>
+        <v>2012</v>
       </c>
       <c r="Q29">
-        <v>0.13549268126146885</v>
+        <v>2013</v>
       </c>
       <c r="R29">
-        <v>0.13692492757892669</v>
+        <v>2014</v>
       </c>
       <c r="S29">
-        <v>0.13848341941762107</v>
+        <v>2015</v>
       </c>
       <c r="T29">
-        <v>0.13078439866398708</v>
+        <v>2016</v>
       </c>
       <c r="U29">
-        <v>0.14134611593860083</v>
+        <v>2017</v>
       </c>
       <c r="V29">
-        <v>0.12857366675067947</v>
+        <v>2018</v>
       </c>
       <c r="W29">
-        <v>0.12958015809982651</v>
+        <v>2019</v>
       </c>
       <c r="X29">
-        <v>0.1314419189044469</v>
+        <v>2020</v>
       </c>
       <c r="Y29">
-        <v>0.12647997737099445</v>
+        <v>2021</v>
       </c>
       <c r="Z29">
-        <v>0.1307021849389437</v>
+        <v>2022</v>
       </c>
       <c r="AA29">
-        <v>0.11879041402347462</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
@@ -2494,78 +2314,576 @@
         <v>43</v>
       </c>
       <c r="C30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0.61522608801066792</v>
+      </c>
+      <c r="E30">
+        <v>0.62934286281516771</v>
+      </c>
+      <c r="F30">
+        <v>0.61410525614105249</v>
+      </c>
+      <c r="G30">
+        <v>0.63330715760695699</v>
+      </c>
+      <c r="H30">
+        <v>0.72548666186012989</v>
+      </c>
+      <c r="I30">
+        <v>0.74052659669098031</v>
+      </c>
+      <c r="J30">
+        <v>0.77363813512491642</v>
+      </c>
+      <c r="K30">
+        <v>0.75846709807546864</v>
+      </c>
+      <c r="L30">
+        <v>0.71674526536417393</v>
+      </c>
+      <c r="M30">
+        <v>0.66333456744415642</v>
+      </c>
+      <c r="N30">
+        <v>0.66085188356164382</v>
+      </c>
+      <c r="O30">
+        <v>0.62919014676012885</v>
+      </c>
+      <c r="P30">
+        <v>0.52921203606135103</v>
+      </c>
+      <c r="Q30">
+        <v>0.63624764974482939</v>
+      </c>
+      <c r="R30">
+        <v>0.68106183731909309</v>
+      </c>
+      <c r="S30">
+        <v>0.70676749919842574</v>
+      </c>
+      <c r="T30">
+        <v>0.69930259547283602</v>
+      </c>
+      <c r="U30">
+        <v>0.69169425869419376</v>
+      </c>
+      <c r="V30">
+        <v>0.67662443458314581</v>
+      </c>
+      <c r="W30">
+        <v>0.69304680906316962</v>
+      </c>
+      <c r="X30">
+        <v>0.69550645885530227</v>
+      </c>
+      <c r="Y30">
+        <v>0.68029990954762931</v>
+      </c>
+      <c r="Z30">
+        <v>0.64195219167132056</v>
+      </c>
+      <c r="AA30">
+        <v>0.60575494311218137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>0.34602076124567482</v>
+      </c>
+      <c r="E31">
+        <v>0.42117978124668154</v>
+      </c>
+      <c r="F31">
+        <v>0.47055856429860893</v>
+      </c>
+      <c r="G31">
+        <v>0.51515875544228529</v>
+      </c>
+      <c r="H31">
+        <v>0.62231700981598448</v>
+      </c>
+      <c r="I31">
+        <v>0.57221959796357535</v>
+      </c>
+      <c r="J31">
+        <v>0.58009237390437207</v>
+      </c>
+      <c r="K31">
+        <v>0.57878024458090593</v>
+      </c>
+      <c r="L31">
+        <v>0.61000827129859381</v>
+      </c>
+      <c r="M31">
+        <v>0.52024422939968995</v>
+      </c>
+      <c r="N31">
+        <v>0.45490352335545442</v>
+      </c>
+      <c r="O31">
+        <v>0.51215289704730615</v>
+      </c>
+      <c r="P31">
+        <v>0.56264684464351955</v>
+      </c>
+      <c r="Q31">
+        <v>0.51638935070050329</v>
+      </c>
+      <c r="R31">
+        <v>0.50458246816891728</v>
+      </c>
+      <c r="S31">
+        <v>0.50892743542983165</v>
+      </c>
+      <c r="T31">
+        <v>0.46671280059135295</v>
+      </c>
+      <c r="U31">
+        <v>0.43565916312852143</v>
+      </c>
+      <c r="V31">
+        <v>0.38011695906432741</v>
+      </c>
+      <c r="W31">
+        <v>0.25154209725226306</v>
+      </c>
+      <c r="X31">
+        <v>0.19733814732221869</v>
+      </c>
+      <c r="Y31">
+        <v>0.23501565653517861</v>
+      </c>
+      <c r="Z31">
+        <v>0.37900884409845853</v>
+      </c>
+      <c r="AA31">
+        <v>0.25717309414385414</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>0.21688427845750258</v>
+      </c>
+      <c r="E32">
+        <v>0.22202418548512892</v>
+      </c>
+      <c r="F32">
+        <v>0.21195692035826924</v>
+      </c>
+      <c r="G32">
+        <v>0.2444397765407833</v>
+      </c>
+      <c r="H32">
+        <v>0.25723564401629956</v>
+      </c>
+      <c r="I32">
+        <v>0.28042118198664318</v>
+      </c>
+      <c r="J32">
+        <v>0.28071079794005777</v>
+      </c>
+      <c r="K32">
+        <v>0.2922584260992816</v>
+      </c>
+      <c r="L32">
+        <v>0.2779788969658355</v>
+      </c>
+      <c r="M32">
+        <v>0.23646215642703375</v>
+      </c>
+      <c r="N32">
+        <v>0.24074060070301742</v>
+      </c>
+      <c r="O32">
+        <v>0.22510363173419468</v>
+      </c>
+      <c r="P32">
+        <v>0.20133855684813015</v>
+      </c>
+      <c r="Q32">
+        <v>0.17523112617091591</v>
+      </c>
+      <c r="R32">
+        <v>0.15844369919854487</v>
+      </c>
+      <c r="S32">
+        <v>0.20478133387114289</v>
+      </c>
+      <c r="T32">
+        <v>0.24738866431689593</v>
+      </c>
+      <c r="U32">
+        <v>0.2791433980876013</v>
+      </c>
+      <c r="V32">
+        <v>0.25589885068453339</v>
+      </c>
+      <c r="W32">
+        <v>0.28175925948019492</v>
+      </c>
+      <c r="X32">
+        <v>0.27138259384113744</v>
+      </c>
+      <c r="Y32">
+        <v>0.2955149688458561</v>
+      </c>
+      <c r="Z32">
+        <v>0.2867461537463678</v>
+      </c>
+      <c r="AA32">
+        <v>0.23584379225019769</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33">
+        <v>0.30785003663554733</v>
+      </c>
+      <c r="E33">
+        <v>0.3246419991455694</v>
+      </c>
+      <c r="F33">
+        <v>0.27242847373877754</v>
+      </c>
+      <c r="G33">
+        <v>0.25066305744675033</v>
+      </c>
+      <c r="H33">
+        <v>0.2878697637482629</v>
+      </c>
+      <c r="I33">
+        <v>0.24164201341994127</v>
+      </c>
+      <c r="J33">
+        <v>0.24679151021192447</v>
+      </c>
+      <c r="K33">
+        <v>0.21833189641408821</v>
+      </c>
+      <c r="L33">
+        <v>0.27431533213114406</v>
+      </c>
+      <c r="M33">
+        <v>0.32220499948856351</v>
+      </c>
+      <c r="N33">
+        <v>0.33232439853964491</v>
+      </c>
+      <c r="O33">
+        <v>0.29418411739628436</v>
+      </c>
+      <c r="P33">
+        <v>0.26672323467058051</v>
+      </c>
+      <c r="Q33">
+        <v>0.33373809433461088</v>
+      </c>
+      <c r="R33">
+        <v>0.36886258026147345</v>
+      </c>
+      <c r="S33">
+        <v>0.28501261715933668</v>
+      </c>
+      <c r="T33">
+        <v>0.26438904508384675</v>
+      </c>
+      <c r="U33">
+        <v>0.22349486702672805</v>
+      </c>
+      <c r="V33">
+        <v>0.3000880766808377</v>
+      </c>
+      <c r="W33">
+        <v>0.28428339961702753</v>
+      </c>
+      <c r="X33">
+        <v>0.28949771689497716</v>
+      </c>
+      <c r="Y33">
+        <v>0.27546554222833963</v>
+      </c>
+      <c r="Z33">
+        <v>0.1712630286539932</v>
+      </c>
+      <c r="AA33">
+        <v>0.22976393784140595</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>8.2835036602159899</v>
+      </c>
+      <c r="E34">
+        <v>6.8518331990330372</v>
+      </c>
+      <c r="F34">
+        <v>7.9203599247918337</v>
+      </c>
+      <c r="G34">
+        <v>6.9920091324200904</v>
+      </c>
+      <c r="H34">
+        <v>5.4123019070641956</v>
+      </c>
+      <c r="I34">
+        <v>4.2221588026382548</v>
+      </c>
+      <c r="J34">
+        <v>4.1714231354642308</v>
+      </c>
+      <c r="K34">
+        <v>3.3001966007102994</v>
+      </c>
+      <c r="L34">
+        <v>2.9783422120750886</v>
+      </c>
+      <c r="M34">
+        <v>2.378234398782344</v>
+      </c>
+      <c r="N34">
+        <v>2.1499238964992391</v>
+      </c>
+      <c r="O34">
+        <v>2.0682711821410451</v>
+      </c>
+      <c r="P34">
+        <v>1.9620433789954339</v>
+      </c>
+      <c r="Q34">
+        <v>1.5862823439878235</v>
+      </c>
+      <c r="R34">
+        <v>1.4856037544393708</v>
+      </c>
+      <c r="S34">
+        <v>1.3262620497209539</v>
+      </c>
+      <c r="T34">
+        <v>1.2810755961440894</v>
+      </c>
+      <c r="U34">
+        <v>1.2057648401826484</v>
+      </c>
+      <c r="V34">
+        <v>1.1589928970065957</v>
+      </c>
+      <c r="W34">
+        <v>1.0797184170471841</v>
+      </c>
+      <c r="X34">
+        <v>1.0170915778792491</v>
+      </c>
+      <c r="Y34">
+        <v>0.88232496194824972</v>
+      </c>
+      <c r="Z34">
+        <v>1.2390601217656012</v>
+      </c>
+      <c r="AA34">
+        <v>1.2319254185692541</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35">
+        <v>0.11415525114155252</v>
+      </c>
+      <c r="E35">
+        <v>0.11415525114155252</v>
+      </c>
+      <c r="F35">
+        <v>0.11415525114155252</v>
+      </c>
+      <c r="G35">
+        <v>7.6103500761035017E-2</v>
+      </c>
+      <c r="H35">
+        <v>0.11415525114155252</v>
+      </c>
+      <c r="I35">
+        <v>0.11415525114155252</v>
+      </c>
+      <c r="J35">
+        <v>9.1324200913242004E-2</v>
+      </c>
+      <c r="K35">
+        <v>4.1511000415110001E-2</v>
+      </c>
+      <c r="L35">
+        <v>4.5186453576864537E-2</v>
+      </c>
+      <c r="M35">
+        <v>6.1607595854171207E-2</v>
+      </c>
+      <c r="N35">
+        <v>6.0565702688990357E-2</v>
+      </c>
+      <c r="O35">
+        <v>9.3826233814974666E-2</v>
+      </c>
+      <c r="P35">
+        <v>0.12822918621379872</v>
+      </c>
+      <c r="Q35">
+        <v>0.13549268126146885</v>
+      </c>
+      <c r="R35">
+        <v>0.13692492757892669</v>
+      </c>
+      <c r="S35">
+        <v>0.13848341941762107</v>
+      </c>
+      <c r="T35">
+        <v>0.13078439866398708</v>
+      </c>
+      <c r="U35">
+        <v>0.14134611593860083</v>
+      </c>
+      <c r="V35">
+        <v>0.12857366675067947</v>
+      </c>
+      <c r="W35">
+        <v>0.12958015809982651</v>
+      </c>
+      <c r="X35">
+        <v>0.1314419189044469</v>
+      </c>
+      <c r="Y35">
+        <v>0.12647997737099445</v>
+      </c>
+      <c r="Z35">
+        <v>0.1307021849389437</v>
+      </c>
+      <c r="AA35">
+        <v>0.11879041402347462</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" t="s">
         <v>16</v>
       </c>
-      <c r="D30">
+      <c r="D36">
         <v>0.1775748351090817</v>
       </c>
-      <c r="E30">
+      <c r="E36">
         <v>0.20409575204095751</v>
       </c>
-      <c r="F30">
+      <c r="F36">
         <v>0.20489404051047885</v>
       </c>
-      <c r="G30">
+      <c r="G36">
         <v>0.19157088122605365</v>
       </c>
-      <c r="H30">
+      <c r="H36">
         <v>0.18588111690305897</v>
       </c>
-      <c r="I30">
+      <c r="I36">
         <v>0.16387931758971341</v>
       </c>
-      <c r="J30">
+      <c r="J36">
         <v>0.17844268204758473</v>
       </c>
-      <c r="K30">
+      <c r="K36">
         <v>0.17038728225942837</v>
       </c>
-      <c r="L30">
+      <c r="L36">
         <v>0.15716558655749158</v>
       </c>
-      <c r="M30">
+      <c r="M36">
         <v>0.15298675050527735</v>
       </c>
-      <c r="N30">
+      <c r="N36">
         <v>0.17980930749757493</v>
       </c>
-      <c r="O30">
+      <c r="O36">
         <v>0.16248977221738325</v>
       </c>
-      <c r="P30">
+      <c r="P36">
         <v>0.18899036022323698</v>
       </c>
-      <c r="Q30">
+      <c r="Q36">
         <v>0.19917016885352842</v>
       </c>
-      <c r="R30">
+      <c r="R36">
         <v>0.19964017423142477</v>
       </c>
-      <c r="S30">
+      <c r="S36">
         <v>0.18534616268497148</v>
       </c>
-      <c r="T30">
+      <c r="T36">
         <v>0.21528852800576376</v>
       </c>
-      <c r="U30">
+      <c r="U36">
         <v>0.20791726439950117</v>
       </c>
-      <c r="V30">
+      <c r="V36">
         <v>0.19773519552573904</v>
       </c>
-      <c r="W30">
+      <c r="W36">
         <v>0.21591161732765551</v>
       </c>
-      <c r="X30">
+      <c r="X36">
         <v>0.19701495045221024</v>
       </c>
-      <c r="Y30">
+      <c r="Y36">
         <v>0.21237950279046169</v>
       </c>
-      <c r="Z30">
+      <c r="Z36">
         <v>0.19586027860834898</v>
       </c>
-      <c r="AA30">
+      <c r="AA36">
         <v>0.21801705559203086</v>
       </c>
     </row>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB53522-D689-4D07-BDAB-15E568CCE188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344268BD-C277-4A12-94C0-0274EF9FCE56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -338,10 +338,10 @@
     <t>ISO</t>
   </si>
   <si>
+    <t>Import</t>
+  </si>
+  <si>
     <t>Export</t>
-  </si>
-  <si>
-    <t>Import</t>
   </si>
 </sst>
 </file>
@@ -1639,7 +1639,76 @@
         <v>85</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>44.35</v>
+      </c>
+      <c r="D14">
+        <v>48.38</v>
+      </c>
+      <c r="E14">
+        <v>50.6</v>
+      </c>
+      <c r="F14">
+        <v>50.97</v>
+      </c>
+      <c r="G14">
+        <v>45.63</v>
+      </c>
+      <c r="H14">
+        <v>49.15</v>
+      </c>
+      <c r="I14">
+        <v>44.99</v>
+      </c>
+      <c r="J14">
+        <v>46.28</v>
+      </c>
+      <c r="K14">
+        <v>40.03</v>
+      </c>
+      <c r="L14">
+        <v>44.96</v>
+      </c>
+      <c r="M14">
+        <v>44.16</v>
+      </c>
+      <c r="N14">
+        <v>45.73</v>
+      </c>
+      <c r="O14">
+        <v>43.1</v>
+      </c>
+      <c r="P14">
+        <v>42.14</v>
+      </c>
+      <c r="Q14">
+        <v>43.72</v>
+      </c>
+      <c r="R14">
+        <v>46.38</v>
+      </c>
+      <c r="S14">
+        <v>37.03</v>
+      </c>
+      <c r="T14">
+        <v>37.76</v>
+      </c>
+      <c r="U14">
+        <v>43.9</v>
+      </c>
+      <c r="V14">
+        <v>38.14</v>
+      </c>
+      <c r="W14">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="X14">
+        <v>42.79</v>
+      </c>
+      <c r="Y14">
+        <v>42.99</v>
+      </c>
+      <c r="Z14">
+        <v>51.25</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.45">
@@ -1650,7 +1719,76 @@
         <v>86</v>
       </c>
       <c r="C15">
-        <v>44.35</v>
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344268BD-C277-4A12-94C0-0274EF9FCE56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217B9FC9-91A7-4E09-863D-4425C7C3956D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -332,7 +332,7 @@
     <t>Unnamed: 25</t>
   </si>
   <si>
-    <t>Electricity Trade Data (TWh)</t>
+    <t>Electricity Trade Data (TWh) - Source: EMBER (estimated)</t>
   </si>
   <si>
     <t>ISO</t>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE50A622-0D39-4DCE-8AE4-DC3FE41E91CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9948A79-2F0C-4A87-A4DC-4847698A6D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9948A79-2F0C-4A87-A4DC-4847698A6D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FEA816E-2AAA-4B91-B2CC-D9B95B7EAAED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FEA816E-2AAA-4B91-B2CC-D9B95B7EAAED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9B17E1-7631-4394-A040-B6FFB6E96B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9B17E1-7631-4394-A040-B6FFB6E96B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D052D76C-314D-4BC1-852D-084053F07C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D052D76C-314D-4BC1-852D-084053F07C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5196C43D-1C32-4F71-8A63-A1A2B06ECE0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5196C43D-1C32-4F71-8A63-A1A2B06ECE0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCCF980-B3E4-4AFB-AC42-14A11F973182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCCF980-B3E4-4AFB-AC42-14A11F973182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB44F739-17E5-44B8-8C5A-45E76D6B2CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB44F739-17E5-44B8-8C5A-45E76D6B2CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3824E455-BCD0-42DE-8AB3-D2566157C90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3824E455-BCD0-42DE-8AB3-D2566157C90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926BABD6-BFAE-467C-918F-A275AC7B67DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="72">
   <si>
     <t>~TFM_INS-AT</t>
   </si>
@@ -211,6 +211,24 @@
   </si>
   <si>
     <t>CCGT - CHP</t>
+  </si>
+  <si>
+    <t>~UC_T: FX</t>
+  </si>
+  <si>
+    <t>pset_pn</t>
+  </si>
+  <si>
+    <t>UCE_Solar capacity aggregation for peak</t>
+  </si>
+  <si>
+    <t>ElcAgg_Solar</t>
+  </si>
+  <si>
+    <t>UCE_Wind capacity aggregation for peak</t>
+  </si>
+  <si>
+    <t>ElcAgg_Wind</t>
   </si>
   <si>
     <t>EMBER Utilization Factors</t>
@@ -717,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AJ27"/>
+  <dimension ref="B1:AJ40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -765,19 +783,19 @@
     </row>
     <row r="2" spans="2:36" x14ac:dyDescent="0.45">
       <c r="F2" s="10" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="2:36" x14ac:dyDescent="0.45">
@@ -785,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G3" s="4">
         <v>0.52921203606135103</v>
@@ -860,7 +878,7 @@
         <v>0.14275360852558924</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -1273,6 +1291,72 @@
     <row r="27" spans="2:12" x14ac:dyDescent="0.45">
       <c r="L27" s="2" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="E35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -1306,12 +1390,12 @@
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="6" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B2" s="7">
         <v>2000</v>
@@ -1388,7 +1472,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B3" s="4">
         <v>0.61522608801066792</v>
@@ -1927,12 +2011,12 @@
     </row>
     <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="6" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B16" s="7">
         <v>2000</v>
@@ -2006,7 +2090,7 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B17" s="4">
         <v>0.29387335196920444</v>
@@ -2080,7 +2164,7 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B18" s="4">
         <v>0.91033975698475367</v>
@@ -2450,12 +2534,12 @@
     </row>
     <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A30" s="6" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A31" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B31" s="7">
         <v>2000</v>
@@ -2532,7 +2616,7 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A32" s="8" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B32" s="8">
         <v>269.94</v>
@@ -2609,7 +2693,7 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B33" s="9">
         <v>6.09</v>
@@ -3225,12 +3309,12 @@
     </row>
     <row r="44" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A44" s="6" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A45" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B45" s="7">
         <v>2000</v>
@@ -3304,7 +3388,7 @@
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A46" s="8" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B46" s="8">
         <v>276.64163499999995</v>
@@ -3378,7 +3462,7 @@
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B47" s="9">
         <v>1.3939999999999999</v>
@@ -3600,7 +3684,7 @@
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B50" s="9">
         <v>4.7050000000000001</v>
@@ -3970,12 +4054,12 @@
     </row>
     <row r="58" spans="1:25" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A58" s="6" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B59" s="7">
         <v>2000</v>
@@ -4052,7 +4136,7 @@
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B60" s="9">
         <v>1.1299999999999999</v>
@@ -4668,12 +4752,12 @@
     </row>
     <row r="70" spans="1:26" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A70" s="6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B71" s="7">
         <v>2000</v>
@@ -4753,7 +4837,7 @@
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B72" s="9">
         <v>0.54149999999999998</v>
@@ -4833,7 +4917,7 @@
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B73" s="9">
         <v>0.59</v>
@@ -5234,12 +5318,12 @@
     <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="85" spans="1:26" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A85" s="6" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A86" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>27</v>
@@ -5319,10 +5403,10 @@
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B87" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C87" s="9">
         <v>44.35</v>
@@ -5399,10 +5483,10 @@
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B88" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C88" s="9">
         <v>0</v>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926BABD6-BFAE-467C-918F-A275AC7B67DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D369DAD0-A142-41C0-A403-66756C63DC43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D369DAD0-A142-41C0-A403-66756C63DC43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A743C139-2868-413E-B074-09F110BEB1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A743C139-2868-413E-B074-09F110BEB1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5BD514-AADA-49C4-AD98-26124B239AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="2940" windowWidth="21600" windowHeight="12682" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Veda" sheetId="1" r:id="rId1"/>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5BD514-AADA-49C4-AD98-26124B239AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5145E7F-9A54-4F94-81F8-7E563BD655CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2940" windowWidth="21600" windowHeight="12682" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4043" yWindow="4043" windowWidth="21599" windowHeight="12682" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Veda" sheetId="1" r:id="rId1"/>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5145E7F-9A54-4F94-81F8-7E563BD655CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B46235-61FB-4409-B9E8-D8F1703CF08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4043" yWindow="4043" windowWidth="21599" windowHeight="12682" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Veda" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="73">
   <si>
     <t>~TFM_INS-AT</t>
   </si>
@@ -229,6 +229,9 @@
   </si>
   <si>
     <t>ElcAgg_Wind</t>
+  </si>
+  <si>
+    <t>ep*,EN*</t>
   </si>
   <si>
     <t>EMBER Utilization Factors</t>
@@ -738,7 +741,7 @@
   <dimension ref="B1:AJ40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -783,19 +786,19 @@
     </row>
     <row r="2" spans="2:36" x14ac:dyDescent="0.45">
       <c r="F2" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="2:36" x14ac:dyDescent="0.45">
@@ -803,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G3" s="4">
         <v>0.52921203606135103</v>
@@ -848,7 +851,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="D5" s="5">
         <f>IFERROR(VLOOKUP(B5,$F$3:$J$11,5,FALSE),"")</f>
@@ -878,7 +881,7 @@
         <v>0.14275360852558924</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -1390,12 +1393,12 @@
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B2" s="7">
         <v>2000</v>
@@ -1472,7 +1475,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B3" s="4">
         <v>0.61522608801066792</v>
@@ -2011,12 +2014,12 @@
     </row>
     <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B16" s="7">
         <v>2000</v>
@@ -2090,7 +2093,7 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B17" s="4">
         <v>0.29387335196920444</v>
@@ -2164,7 +2167,7 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B18" s="4">
         <v>0.91033975698475367</v>
@@ -2534,12 +2537,12 @@
     </row>
     <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A30" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A31" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B31" s="7">
         <v>2000</v>
@@ -2616,7 +2619,7 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A32" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B32" s="8">
         <v>269.94</v>
@@ -2693,7 +2696,7 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B33" s="9">
         <v>6.09</v>
@@ -3309,12 +3312,12 @@
     </row>
     <row r="44" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A44" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A45" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B45" s="7">
         <v>2000</v>
@@ -3388,7 +3391,7 @@
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A46" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B46" s="8">
         <v>276.64163499999995</v>
@@ -3462,7 +3465,7 @@
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B47" s="9">
         <v>1.3939999999999999</v>
@@ -3684,7 +3687,7 @@
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B50" s="9">
         <v>4.7050000000000001</v>
@@ -4054,12 +4057,12 @@
     </row>
     <row r="58" spans="1:25" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A58" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B59" s="7">
         <v>2000</v>
@@ -4136,7 +4139,7 @@
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B60" s="9">
         <v>1.1299999999999999</v>
@@ -4752,12 +4755,12 @@
     </row>
     <row r="70" spans="1:26" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A70" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B71" s="7">
         <v>2000</v>
@@ -4837,7 +4840,7 @@
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B72" s="9">
         <v>0.54149999999999998</v>
@@ -4917,7 +4920,7 @@
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B73" s="9">
         <v>0.59</v>
@@ -5318,12 +5321,12 @@
     <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="85" spans="1:26" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A85" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A86" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>27</v>
@@ -5403,10 +5406,10 @@
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B87" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C87" s="9">
         <v>44.35</v>
@@ -5483,10 +5486,10 @@
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B88" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C88" s="9">
         <v>0</v>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B46235-61FB-4409-B9E8-D8F1703CF08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46CA36CE-5727-44BF-BC8B-E6BBE992B883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="74">
   <si>
     <t>~TFM_INS-AT</t>
   </si>
@@ -232,6 +232,9 @@
   </si>
   <si>
     <t>ep*,EN*</t>
+  </si>
+  <si>
+    <t>Geothermal*</t>
   </si>
   <si>
     <t>EMBER Utilization Factors</t>
@@ -741,7 +744,7 @@
   <dimension ref="B1:AJ40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -786,19 +789,19 @@
     </row>
     <row r="2" spans="2:36" x14ac:dyDescent="0.45">
       <c r="F2" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="2:36" x14ac:dyDescent="0.45">
@@ -806,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G3" s="4">
         <v>0.52921203606135103</v>
@@ -881,7 +884,7 @@
         <v>0.14275360852558924</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -1166,8 +1169,8 @@
         <v>2100</v>
       </c>
       <c r="D15" s="1" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,L15:L27)</f>
-        <v>Bioenergy + CCUS,Bioenergy - Cofiring,Bioenergy - Large scale unit,Bioenergy - Medium-scale CHP,Concentrating solar power,Fuel cell (distributed electricity generation),Marine,Oxyfuel + CCS,Solar photovoltaics - Buildings,Solar photovoltaics - Large scale unit,Wind offshore,Wind onshore,CCGT - CHP</v>
+        <f>_xlfn.TEXTJOIN(",",TRUE,L15:L28)</f>
+        <v>Bioenergy + CCUS,Bioenergy - Cofiring,Bioenergy - Large scale unit,Bioenergy - Medium-scale CHP,Concentrating solar power,Fuel cell (distributed electricity generation),Marine,Oxyfuel + CCS,Solar photovoltaics - Buildings,Solar photovoltaics - Large scale unit,Wind offshore,Wind onshore,CCGT - CHP,Geothermal*</v>
       </c>
       <c r="L15" t="s">
         <v>30</v>
@@ -1294,6 +1297,11 @@
     <row r="27" spans="2:12" x14ac:dyDescent="0.45">
       <c r="L27" s="2" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="L28" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.45">
@@ -1393,12 +1401,12 @@
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" s="7">
         <v>2000</v>
@@ -1475,7 +1483,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" s="4">
         <v>0.61522608801066792</v>
@@ -2014,12 +2022,12 @@
     </row>
     <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B16" s="7">
         <v>2000</v>
@@ -2093,7 +2101,7 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B17" s="4">
         <v>0.29387335196920444</v>
@@ -2167,7 +2175,7 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B18" s="4">
         <v>0.91033975698475367</v>
@@ -2537,12 +2545,12 @@
     </row>
     <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A30" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A31" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B31" s="7">
         <v>2000</v>
@@ -2619,7 +2627,7 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A32" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B32" s="8">
         <v>269.94</v>
@@ -2696,7 +2704,7 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B33" s="9">
         <v>6.09</v>
@@ -3312,12 +3320,12 @@
     </row>
     <row r="44" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A44" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A45" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B45" s="7">
         <v>2000</v>
@@ -3391,7 +3399,7 @@
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A46" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B46" s="8">
         <v>276.64163499999995</v>
@@ -3465,7 +3473,7 @@
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B47" s="9">
         <v>1.3939999999999999</v>
@@ -3687,7 +3695,7 @@
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B50" s="9">
         <v>4.7050000000000001</v>
@@ -4057,12 +4065,12 @@
     </row>
     <row r="58" spans="1:25" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A58" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B59" s="7">
         <v>2000</v>
@@ -4139,7 +4147,7 @@
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B60" s="9">
         <v>1.1299999999999999</v>
@@ -4755,12 +4763,12 @@
     </row>
     <row r="70" spans="1:26" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A70" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B71" s="7">
         <v>2000</v>
@@ -4840,7 +4848,7 @@
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B72" s="9">
         <v>0.54149999999999998</v>
@@ -4920,7 +4928,7 @@
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B73" s="9">
         <v>0.59</v>
@@ -5321,12 +5329,12 @@
     <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="85" spans="1:26" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A85" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A86" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>27</v>
@@ -5406,10 +5414,10 @@
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B87" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C87" s="9">
         <v>44.35</v>
@@ -5486,10 +5494,10 @@
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B88" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C88" s="9">
         <v>0</v>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46CA36CE-5727-44BF-BC8B-E6BBE992B883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F20D9D3-B49F-4F47-BF33-8C991FAC5B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F20D9D3-B49F-4F47-BF33-8C991FAC5B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE56329B-55A7-4811-B6B5-279B510E30E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE56329B-55A7-4811-B6B5-279B510E30E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E242C6F7-C315-4C7B-9A93-CA7EFB211BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E242C6F7-C315-4C7B-9A93-CA7EFB211BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF6D517-BEB7-46CB-907F-0561B75365D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF6D517-BEB7-46CB-907F-0561B75365D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9627C393-9AA6-4520-BB2E-A2CCC024ED91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,12 +65,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="E27" authorId="0" shapeId="0" xr:uid="{611EBA31-8D3D-48AF-B590-BE94B249D2E8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Amit Kanudia:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+03-08-2025
+CO2 transport and storage cost
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="80">
   <si>
     <t>~TFM_INS-AT</t>
   </si>
@@ -235,6 +261,24 @@
   </si>
   <si>
     <t>Geothermal*</t>
+  </si>
+  <si>
+    <t>COM_AGG</t>
+  </si>
+  <si>
+    <t>co2</t>
+  </si>
+  <si>
+    <t>co2net</t>
+  </si>
+  <si>
+    <t>co2captured</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>flo_cost</t>
   </si>
   <si>
     <t>EMBER Utilization Factors</t>
@@ -392,7 +436,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -401,6 +445,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -741,16 +786,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AJ40"/>
+  <dimension ref="A1:AJ40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="10.9296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.9296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.73046875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.59765625" customWidth="1"/>
     <col min="5" max="5" width="9.53125" customWidth="1"/>
     <col min="6" max="7" width="9.73046875" bestFit="1" customWidth="1"/>
@@ -779,7 +824,7 @@
     <col min="36" max="36" width="11.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
       <c r="AA1">
         <v>1.1000000000000001</v>
       </c>
@@ -787,29 +832,29 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="2" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="F2" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="F2" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G3" s="4">
         <v>0.52921203606135103</v>
@@ -827,7 +872,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -849,7 +897,7 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -872,7 +920,10 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A6" s="6">
+        <v>0.28000000000000003</v>
+      </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -880,11 +931,11 @@
         <v>7</v>
       </c>
       <c r="D6" s="5">
-        <f t="shared" ref="D6:D7" si="0">IFERROR(VLOOKUP(B6,$F$3:$J$11,5,FALSE),"")</f>
+        <f>IFERROR(MIN(VLOOKUP(B6,$F$3:$J$11,5,FALSE),$A$6),"")</f>
         <v>0.14275360852558924</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -901,7 +952,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>12</v>
       </c>
@@ -909,7 +960,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D7" si="0">IFERROR(VLOOKUP(B7,$F$3:$J$11,5,FALSE),"")</f>
         <v>0.21594436217582091</v>
       </c>
       <c r="F7" t="s">
@@ -973,7 +1024,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>19</v>
       </c>
@@ -1043,7 +1094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.45">
       <c r="F9" t="s">
         <v>23</v>
       </c>
@@ -1111,7 +1162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:36" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:36" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F10" t="s">
         <v>9</v>
       </c>
@@ -1128,7 +1179,7 @@
         <v>0.14275360852558924</v>
       </c>
     </row>
-    <row r="11" spans="2:36" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:36" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F11" t="s">
         <v>12</v>
       </c>
@@ -1145,12 +1196,12 @@
         <v>0.21594436217582091</v>
       </c>
     </row>
-    <row r="13" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>27</v>
       </c>
@@ -1161,7 +1212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>29</v>
       </c>
@@ -1176,7 +1227,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.45">
       <c r="L16" t="s">
         <v>31</v>
       </c>
@@ -1217,6 +1268,9 @@
       <c r="E21" t="s">
         <v>28</v>
       </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
       <c r="L21" t="s">
         <v>38</v>
       </c>
@@ -1232,10 +1286,10 @@
         <v>40</v>
       </c>
       <c r="E22">
-        <f>G22*3.6</f>
+        <f>I22*3.6</f>
         <v>338.40000000000003</v>
       </c>
-      <c r="G22">
+      <c r="I22">
         <v>94</v>
       </c>
       <c r="L22" t="s">
@@ -1253,10 +1307,10 @@
         <v>40</v>
       </c>
       <c r="E23">
-        <f>G23*3.6</f>
+        <f>I23*3.6</f>
         <v>198</v>
       </c>
-      <c r="G23">
+      <c r="I23">
         <v>55</v>
       </c>
       <c r="L23" t="s">
@@ -1274,10 +1328,10 @@
         <v>40</v>
       </c>
       <c r="E24">
-        <f>G24*3.6</f>
+        <f>I24*3.6</f>
         <v>252</v>
       </c>
-      <c r="G24">
+      <c r="I24">
         <v>70</v>
       </c>
       <c r="L24" t="s">
@@ -1285,16 +1339,53 @@
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
       <c r="L25" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26">
+        <v>-1</v>
+      </c>
       <c r="L26" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27">
+        <v>0.03</v>
+      </c>
+      <c r="F27" t="str">
+        <f>C27</f>
+        <v>co2captured</v>
+      </c>
       <c r="L27" s="2" t="s">
         <v>46</v>
       </c>
@@ -1400,90 +1491,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="6" t="s">
-        <v>55</v>
+      <c r="A1" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A2" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="7">
+      <c r="A2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="8">
         <v>2000</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="8">
         <v>2001</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="8">
         <v>2002</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="8">
         <v>2003</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="8">
         <v>2004</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="8">
         <v>2005</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="8">
         <v>2006</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="8">
         <v>2007</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="8">
         <v>2008</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="8">
         <v>2009</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="8">
         <v>2010</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="8">
         <v>2011</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N2" s="8">
         <v>2012</v>
       </c>
-      <c r="O2" s="7">
+      <c r="O2" s="8">
         <v>2013</v>
       </c>
-      <c r="P2" s="7">
+      <c r="P2" s="8">
         <v>2014</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="Q2" s="8">
         <v>2015</v>
       </c>
-      <c r="R2" s="7">
+      <c r="R2" s="8">
         <v>2016</v>
       </c>
-      <c r="S2" s="7">
+      <c r="S2" s="8">
         <v>2017</v>
       </c>
-      <c r="T2" s="7">
+      <c r="T2" s="8">
         <v>2018</v>
       </c>
-      <c r="U2" s="7">
+      <c r="U2" s="8">
         <v>2019</v>
       </c>
-      <c r="V2" s="7">
+      <c r="V2" s="8">
         <v>2020</v>
       </c>
-      <c r="W2" s="7">
+      <c r="W2" s="8">
         <v>2021</v>
       </c>
-      <c r="X2" s="7">
+      <c r="X2" s="8">
         <v>2022</v>
       </c>
-      <c r="Y2" s="7">
+      <c r="Y2" s="8">
         <v>2023</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B3" s="4">
         <v>0.61522608801066792</v>
@@ -2021,87 +2112,87 @@
       </c>
     </row>
     <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="6" t="s">
-        <v>58</v>
+      <c r="A15" s="7" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A16" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="7">
+      <c r="A16" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="8">
         <v>2000</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="8">
         <v>2001</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="8">
         <v>2002</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="8">
         <v>2003</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="8">
         <v>2004</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="8">
         <v>2005</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="8">
         <v>2006</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="8">
         <v>2007</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="8">
         <v>2008</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="8">
         <v>2009</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="8">
         <v>2010</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="8">
         <v>2011</v>
       </c>
-      <c r="N16" s="7">
+      <c r="N16" s="8">
         <v>2012</v>
       </c>
-      <c r="O16" s="7">
+      <c r="O16" s="8">
         <v>2013</v>
       </c>
-      <c r="P16" s="7">
+      <c r="P16" s="8">
         <v>2014</v>
       </c>
-      <c r="Q16" s="7">
+      <c r="Q16" s="8">
         <v>2015</v>
       </c>
-      <c r="R16" s="7">
+      <c r="R16" s="8">
         <v>2016</v>
       </c>
-      <c r="S16" s="7">
+      <c r="S16" s="8">
         <v>2017</v>
       </c>
-      <c r="T16" s="7">
+      <c r="T16" s="8">
         <v>2018</v>
       </c>
-      <c r="U16" s="7">
+      <c r="U16" s="8">
         <v>2019</v>
       </c>
-      <c r="V16" s="7">
+      <c r="V16" s="8">
         <v>2020</v>
       </c>
-      <c r="W16" s="7">
+      <c r="W16" s="8">
         <v>2021</v>
       </c>
-      <c r="X16" s="7">
+      <c r="X16" s="8">
         <v>2022</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B17" s="4">
         <v>0.29387335196920444</v>
@@ -2175,7 +2266,7 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B18" s="4">
         <v>0.91033975698475367</v>
@@ -2544,238 +2635,238 @@
       </c>
     </row>
     <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="6" t="s">
-        <v>60</v>
+      <c r="A30" s="7" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A31" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" s="7">
+      <c r="A31" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="8">
         <v>2000</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="8">
         <v>2001</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="8">
         <v>2002</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="8">
         <v>2003</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="8">
         <v>2004</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="8">
         <v>2005</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="8">
         <v>2006</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="8">
         <v>2007</v>
       </c>
-      <c r="J31" s="7">
+      <c r="J31" s="8">
         <v>2008</v>
       </c>
-      <c r="K31" s="7">
+      <c r="K31" s="8">
         <v>2009</v>
       </c>
-      <c r="L31" s="7">
+      <c r="L31" s="8">
         <v>2010</v>
       </c>
-      <c r="M31" s="7">
+      <c r="M31" s="8">
         <v>2011</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N31" s="8">
         <v>2012</v>
       </c>
-      <c r="O31" s="7">
+      <c r="O31" s="8">
         <v>2013</v>
       </c>
-      <c r="P31" s="7">
+      <c r="P31" s="8">
         <v>2014</v>
       </c>
-      <c r="Q31" s="7">
+      <c r="Q31" s="8">
         <v>2015</v>
       </c>
-      <c r="R31" s="7">
+      <c r="R31" s="8">
         <v>2016</v>
       </c>
-      <c r="S31" s="7">
+      <c r="S31" s="8">
         <v>2017</v>
       </c>
-      <c r="T31" s="7">
+      <c r="T31" s="8">
         <v>2018</v>
       </c>
-      <c r="U31" s="7">
+      <c r="U31" s="8">
         <v>2019</v>
       </c>
-      <c r="V31" s="7">
+      <c r="V31" s="8">
         <v>2020</v>
       </c>
-      <c r="W31" s="7">
+      <c r="W31" s="8">
         <v>2021</v>
       </c>
-      <c r="X31" s="7">
+      <c r="X31" s="8">
         <v>2022</v>
       </c>
-      <c r="Y31" s="7">
+      <c r="Y31" s="8">
         <v>2023</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A32" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" s="8">
+      <c r="A32" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="9">
         <v>269.94</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="9">
         <v>271.89999999999998</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="9">
         <v>277.52999999999997</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="9">
         <v>286.27</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F32" s="9">
         <v>293.71000000000004</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="9">
         <v>294.63</v>
       </c>
-      <c r="H32" s="8">
+      <c r="H32" s="9">
         <v>305.61</v>
       </c>
-      <c r="I32" s="8">
+      <c r="I32" s="9">
         <v>306.17</v>
       </c>
-      <c r="J32" s="8">
+      <c r="J32" s="9">
         <v>311.57000000000005</v>
       </c>
-      <c r="K32" s="8">
+      <c r="K32" s="9">
         <v>286.36</v>
       </c>
-      <c r="L32" s="8">
+      <c r="L32" s="9">
         <v>296.63</v>
       </c>
-      <c r="M32" s="8">
+      <c r="M32" s="9">
         <v>298.37</v>
       </c>
-      <c r="N32" s="8">
+      <c r="N32" s="9">
         <v>295.25</v>
       </c>
-      <c r="O32" s="8">
+      <c r="O32" s="9">
         <v>286.02</v>
       </c>
-      <c r="P32" s="8">
+      <c r="P32" s="9">
         <v>276.52999999999997</v>
       </c>
-      <c r="Q32" s="8">
+      <c r="Q32" s="9">
         <v>279.7</v>
       </c>
-      <c r="R32" s="8">
+      <c r="R32" s="9">
         <v>285.95</v>
       </c>
-      <c r="S32" s="8">
+      <c r="S32" s="9">
         <v>292.08999999999997</v>
       </c>
-      <c r="T32" s="8">
+      <c r="T32" s="9">
         <v>286.06</v>
       </c>
-      <c r="U32" s="8">
+      <c r="U32" s="9">
         <v>289.99</v>
       </c>
-      <c r="V32" s="8">
+      <c r="V32" s="9">
         <v>276.81</v>
       </c>
-      <c r="W32" s="8">
+      <c r="W32" s="9">
         <v>285.49</v>
       </c>
-      <c r="X32" s="8">
+      <c r="X32" s="9">
         <v>279.96000000000004</v>
       </c>
-      <c r="Y32" s="8">
+      <c r="Y32" s="9">
         <v>262.58000000000004</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" s="9">
+        <v>63</v>
+      </c>
+      <c r="B33" s="10">
         <v>6.09</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="10">
         <v>6.34</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="10">
         <v>7.37</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="10">
         <v>8.7100000000000009</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="10">
         <v>9.66</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G33" s="10">
         <v>9.99</v>
       </c>
-      <c r="H33" s="9">
+      <c r="H33" s="10">
         <v>10.64</v>
       </c>
-      <c r="I33" s="9">
+      <c r="I33" s="10">
         <v>10.83</v>
       </c>
-      <c r="J33" s="9">
+      <c r="J33" s="10">
         <v>11.489999999999998</v>
       </c>
-      <c r="K33" s="9">
+      <c r="K33" s="10">
         <v>12.899999999999999</v>
       </c>
-      <c r="L33" s="9">
+      <c r="L33" s="10">
         <v>14.82</v>
       </c>
-      <c r="M33" s="9">
+      <c r="M33" s="10">
         <v>16.48</v>
       </c>
-      <c r="N33" s="9">
+      <c r="N33" s="10">
         <v>18.079999999999998</v>
       </c>
-      <c r="O33" s="9">
+      <c r="O33" s="10">
         <v>22.74</v>
       </c>
-      <c r="P33" s="9">
+      <c r="P33" s="10">
         <v>24.64</v>
       </c>
-      <c r="Q33" s="9">
+      <c r="Q33" s="10">
         <v>25.57</v>
       </c>
-      <c r="R33" s="9">
+      <c r="R33" s="10">
         <v>25.79</v>
       </c>
-      <c r="S33" s="9">
+      <c r="S33" s="10">
         <v>25.57</v>
       </c>
-      <c r="T33" s="9">
+      <c r="T33" s="10">
         <v>25.25</v>
       </c>
-      <c r="U33" s="9">
+      <c r="U33" s="10">
         <v>25.62</v>
       </c>
-      <c r="V33" s="9">
+      <c r="V33" s="10">
         <v>25.650000000000002</v>
       </c>
-      <c r="W33" s="9">
+      <c r="W33" s="10">
         <v>24.97</v>
       </c>
-      <c r="X33" s="9">
+      <c r="X33" s="10">
         <v>23.45</v>
       </c>
-      <c r="Y33" s="9">
+      <c r="Y33" s="10">
         <v>22.34</v>
       </c>
     </row>
@@ -2783,76 +2874,76 @@
       <c r="A34" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34" s="10">
         <v>26.28</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="10">
         <v>31.73</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="10">
         <v>35.450000000000003</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="10">
         <v>38.81</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="10">
         <v>45.52</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G34" s="10">
         <v>43.61</v>
       </c>
-      <c r="H34" s="9">
+      <c r="H34" s="10">
         <v>44.21</v>
       </c>
-      <c r="I34" s="9">
+      <c r="I34" s="10">
         <v>44.11</v>
       </c>
-      <c r="J34" s="9">
+      <c r="J34" s="10">
         <v>43.07</v>
       </c>
-      <c r="K34" s="9">
+      <c r="K34" s="10">
         <v>39.74</v>
       </c>
-      <c r="L34" s="9">
+      <c r="L34" s="10">
         <v>39.729999999999997</v>
       </c>
-      <c r="M34" s="9">
+      <c r="M34" s="10">
         <v>44.73</v>
       </c>
-      <c r="N34" s="9">
+      <c r="N34" s="10">
         <v>49.14</v>
       </c>
-      <c r="O34" s="9">
+      <c r="O34" s="10">
         <v>45.1</v>
       </c>
-      <c r="P34" s="9">
+      <c r="P34" s="10">
         <v>43.45</v>
       </c>
-      <c r="Q34" s="9">
+      <c r="Q34" s="10">
         <v>43.2</v>
       </c>
-      <c r="R34" s="9">
+      <c r="R34" s="10">
         <v>35.61</v>
       </c>
-      <c r="S34" s="9">
+      <c r="S34" s="10">
         <v>32.630000000000003</v>
       </c>
-      <c r="T34" s="9">
+      <c r="T34" s="10">
         <v>28.47</v>
       </c>
-      <c r="U34" s="9">
+      <c r="U34" s="10">
         <v>18.84</v>
       </c>
-      <c r="V34" s="9">
+      <c r="V34" s="10">
         <v>13.38</v>
       </c>
-      <c r="W34" s="9">
+      <c r="W34" s="10">
         <v>14.02</v>
       </c>
-      <c r="X34" s="9">
+      <c r="X34" s="10">
         <v>22.61</v>
       </c>
-      <c r="Y34" s="9">
+      <c r="Y34" s="10">
         <v>13.9</v>
       </c>
     </row>
@@ -2860,76 +2951,76 @@
       <c r="A35" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B35" s="10">
         <v>101.36</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="10">
         <v>104.19</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="10">
         <v>99.41</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="10">
         <v>117.3</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="10">
         <v>129.84</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G35" s="10">
         <v>149.33000000000001</v>
       </c>
-      <c r="H35" s="9">
+      <c r="H35" s="10">
         <v>158.13999999999999</v>
       </c>
-      <c r="I35" s="9">
+      <c r="I35" s="10">
         <v>172.71</v>
       </c>
-      <c r="J35" s="9">
+      <c r="J35" s="10">
         <v>172.77</v>
       </c>
-      <c r="K35" s="9">
+      <c r="K35" s="10">
         <v>147.36000000000001</v>
       </c>
-      <c r="L35" s="9">
+      <c r="L35" s="10">
         <v>152.81</v>
       </c>
-      <c r="M35" s="9">
+      <c r="M35" s="10">
         <v>144.6</v>
       </c>
-      <c r="N35" s="9">
+      <c r="N35" s="10">
         <v>129.13999999999999</v>
       </c>
-      <c r="O35" s="9">
+      <c r="O35" s="10">
         <v>108.91</v>
       </c>
-      <c r="P35" s="9">
+      <c r="P35" s="10">
         <v>93.66</v>
       </c>
-      <c r="Q35" s="9">
+      <c r="Q35" s="10">
         <v>110.88</v>
       </c>
-      <c r="R35" s="9">
+      <c r="R35" s="10">
         <v>126.17</v>
       </c>
-      <c r="S35" s="9">
+      <c r="S35" s="10">
         <v>140.36000000000001</v>
       </c>
-      <c r="T35" s="9">
+      <c r="T35" s="10">
         <v>128.56</v>
       </c>
-      <c r="U35" s="9">
+      <c r="U35" s="10">
         <v>141.69999999999999</v>
       </c>
-      <c r="V35" s="9">
+      <c r="V35" s="10">
         <v>133.69999999999999</v>
       </c>
-      <c r="W35" s="9">
+      <c r="W35" s="10">
         <v>144.01</v>
       </c>
-      <c r="X35" s="9">
+      <c r="X35" s="10">
         <v>141.47</v>
       </c>
-      <c r="Y35" s="9">
+      <c r="Y35" s="10">
         <v>118.34</v>
       </c>
     </row>
@@ -2937,76 +3028,76 @@
       <c r="A36" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B36" s="10">
         <v>44.2</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="10">
         <v>46.81</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="10">
         <v>39.520000000000003</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="10">
         <v>36.67</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F36" s="10">
         <v>42.34</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G36" s="10">
         <v>36.07</v>
       </c>
-      <c r="H36" s="9">
+      <c r="H36" s="10">
         <v>36.99</v>
       </c>
-      <c r="I36" s="9">
+      <c r="I36" s="10">
         <v>32.82</v>
       </c>
-      <c r="J36" s="9">
+      <c r="J36" s="10">
         <v>41.62</v>
       </c>
-      <c r="K36" s="9">
+      <c r="K36" s="10">
         <v>49.14</v>
       </c>
-      <c r="L36" s="9">
+      <c r="L36" s="10">
         <v>51.12</v>
       </c>
-      <c r="M36" s="9">
+      <c r="M36" s="10">
         <v>45.82</v>
       </c>
-      <c r="N36" s="9">
+      <c r="N36" s="10">
         <v>41.87</v>
       </c>
-      <c r="O36" s="9">
+      <c r="O36" s="10">
         <v>52.77</v>
       </c>
-      <c r="P36" s="9">
+      <c r="P36" s="10">
         <v>58.55</v>
       </c>
-      <c r="Q36" s="9">
+      <c r="Q36" s="10">
         <v>45.54</v>
       </c>
-      <c r="R36" s="9">
+      <c r="R36" s="10">
         <v>42.43</v>
       </c>
-      <c r="S36" s="9">
+      <c r="S36" s="10">
         <v>36.200000000000003</v>
       </c>
-      <c r="T36" s="9">
+      <c r="T36" s="10">
         <v>48.79</v>
       </c>
-      <c r="U36" s="9">
+      <c r="U36" s="10">
         <v>46.32</v>
       </c>
-      <c r="V36" s="9">
+      <c r="V36" s="10">
         <v>47.55</v>
       </c>
-      <c r="W36" s="9">
+      <c r="W36" s="10">
         <v>45.39</v>
       </c>
-      <c r="X36" s="9">
+      <c r="X36" s="10">
         <v>28.4</v>
       </c>
-      <c r="Y36" s="9">
+      <c r="Y36" s="10">
         <v>37.94</v>
       </c>
     </row>
@@ -3014,76 +3105,76 @@
       <c r="A37" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="9">
-        <v>0</v>
-      </c>
-      <c r="C37" s="9">
-        <v>0</v>
-      </c>
-      <c r="D37" s="9">
-        <v>0</v>
-      </c>
-      <c r="E37" s="9">
-        <v>0</v>
-      </c>
-      <c r="F37" s="9">
-        <v>0</v>
-      </c>
-      <c r="G37" s="9">
-        <v>0</v>
-      </c>
-      <c r="H37" s="9">
-        <v>0</v>
-      </c>
-      <c r="I37" s="9">
-        <v>0</v>
-      </c>
-      <c r="J37" s="9">
-        <v>0</v>
-      </c>
-      <c r="K37" s="9">
-        <v>0</v>
-      </c>
-      <c r="L37" s="9">
-        <v>0</v>
-      </c>
-      <c r="M37" s="9">
-        <v>0</v>
-      </c>
-      <c r="N37" s="9">
-        <v>0</v>
-      </c>
-      <c r="O37" s="9">
-        <v>0</v>
-      </c>
-      <c r="P37" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="9">
-        <v>0</v>
-      </c>
-      <c r="R37" s="9">
-        <v>0</v>
-      </c>
-      <c r="S37" s="9">
-        <v>0</v>
-      </c>
-      <c r="T37" s="9">
-        <v>0</v>
-      </c>
-      <c r="U37" s="9">
-        <v>0</v>
-      </c>
-      <c r="V37" s="9">
-        <v>0</v>
-      </c>
-      <c r="W37" s="9">
-        <v>0</v>
-      </c>
-      <c r="X37" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="9">
+      <c r="B37" s="10">
+        <v>0</v>
+      </c>
+      <c r="C37" s="10">
+        <v>0</v>
+      </c>
+      <c r="D37" s="10">
+        <v>0</v>
+      </c>
+      <c r="E37" s="10">
+        <v>0</v>
+      </c>
+      <c r="F37" s="10">
+        <v>0</v>
+      </c>
+      <c r="G37" s="10">
+        <v>0</v>
+      </c>
+      <c r="H37" s="10">
+        <v>0</v>
+      </c>
+      <c r="I37" s="10">
+        <v>0</v>
+      </c>
+      <c r="J37" s="10">
+        <v>0</v>
+      </c>
+      <c r="K37" s="10">
+        <v>0</v>
+      </c>
+      <c r="L37" s="10">
+        <v>0</v>
+      </c>
+      <c r="M37" s="10">
+        <v>0</v>
+      </c>
+      <c r="N37" s="10">
+        <v>0</v>
+      </c>
+      <c r="O37" s="10">
+        <v>0</v>
+      </c>
+      <c r="P37" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="10">
+        <v>0</v>
+      </c>
+      <c r="R37" s="10">
+        <v>0</v>
+      </c>
+      <c r="S37" s="10">
+        <v>0</v>
+      </c>
+      <c r="T37" s="10">
+        <v>0</v>
+      </c>
+      <c r="U37" s="10">
+        <v>0</v>
+      </c>
+      <c r="V37" s="10">
+        <v>0</v>
+      </c>
+      <c r="W37" s="10">
+        <v>0</v>
+      </c>
+      <c r="X37" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="10">
         <v>0</v>
       </c>
     </row>
@@ -3091,76 +3182,76 @@
       <c r="A38" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="9">
+      <c r="B38" s="10">
         <v>91.43</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="10">
         <v>81.63</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="10">
         <v>94.36</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="10">
         <v>83.3</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F38" s="10">
         <v>64.48</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G38" s="10">
         <v>53.26</v>
       </c>
-      <c r="H38" s="9">
+      <c r="H38" s="10">
         <v>52.62</v>
       </c>
-      <c r="I38" s="9">
+      <c r="I38" s="10">
         <v>41.63</v>
       </c>
-      <c r="J38" s="9">
+      <c r="J38" s="10">
         <v>37.57</v>
       </c>
-      <c r="K38" s="9">
+      <c r="K38" s="10">
         <v>30</v>
       </c>
-      <c r="L38" s="9">
+      <c r="L38" s="10">
         <v>27.12</v>
       </c>
-      <c r="M38" s="9">
+      <c r="M38" s="10">
         <v>26.09</v>
       </c>
-      <c r="N38" s="9">
+      <c r="N38" s="10">
         <v>24.75</v>
       </c>
-      <c r="O38" s="9">
+      <c r="O38" s="10">
         <v>20.010000000000002</v>
       </c>
-      <c r="P38" s="9">
+      <c r="P38" s="10">
         <v>18.739999999999998</v>
       </c>
-      <c r="Q38" s="9">
+      <c r="Q38" s="10">
         <v>16.73</v>
       </c>
-      <c r="R38" s="9">
+      <c r="R38" s="10">
         <v>16.16</v>
       </c>
-      <c r="S38" s="9">
+      <c r="S38" s="10">
         <v>15.21</v>
       </c>
-      <c r="T38" s="9">
+      <c r="T38" s="10">
         <v>14.62</v>
       </c>
-      <c r="U38" s="9">
+      <c r="U38" s="10">
         <v>13.62</v>
       </c>
-      <c r="V38" s="9">
+      <c r="V38" s="10">
         <v>12.83</v>
       </c>
-      <c r="W38" s="9">
+      <c r="W38" s="10">
         <v>11.13</v>
       </c>
-      <c r="X38" s="9">
+      <c r="X38" s="10">
         <v>15.63</v>
       </c>
-      <c r="Y38" s="9">
+      <c r="Y38" s="10">
         <v>15.54</v>
       </c>
     </row>
@@ -3168,76 +3259,76 @@
       <c r="A39" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="9">
+      <c r="B39" s="10">
         <v>0.02</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="10">
         <v>0.02</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="10">
         <v>0.02</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="10">
         <v>0.02</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F39" s="10">
         <v>0.03</v>
       </c>
-      <c r="G39" s="9">
+      <c r="G39" s="10">
         <v>0.03</v>
       </c>
-      <c r="H39" s="9">
+      <c r="H39" s="10">
         <v>0.04</v>
       </c>
-      <c r="I39" s="9">
+      <c r="I39" s="10">
         <v>0.04</v>
       </c>
-      <c r="J39" s="9">
+      <c r="J39" s="10">
         <v>0.19</v>
       </c>
-      <c r="K39" s="9">
+      <c r="K39" s="10">
         <v>0.68</v>
       </c>
-      <c r="L39" s="9">
+      <c r="L39" s="10">
         <v>1.91</v>
       </c>
-      <c r="M39" s="9">
+      <c r="M39" s="10">
         <v>10.8</v>
       </c>
-      <c r="N39" s="9">
+      <c r="N39" s="10">
         <v>18.86</v>
       </c>
-      <c r="O39" s="9">
+      <c r="O39" s="10">
         <v>21.59</v>
       </c>
-      <c r="P39" s="9">
+      <c r="P39" s="10">
         <v>22.31</v>
       </c>
-      <c r="Q39" s="9">
+      <c r="Q39" s="10">
         <v>22.94</v>
       </c>
-      <c r="R39" s="9">
+      <c r="R39" s="10">
         <v>22.1</v>
       </c>
-      <c r="S39" s="9">
+      <c r="S39" s="10">
         <v>24.38</v>
       </c>
-      <c r="T39" s="9">
+      <c r="T39" s="10">
         <v>22.65</v>
       </c>
-      <c r="U39" s="9">
+      <c r="U39" s="10">
         <v>23.69</v>
       </c>
-      <c r="V39" s="9">
+      <c r="V39" s="10">
         <v>24.94</v>
       </c>
-      <c r="W39" s="9">
+      <c r="W39" s="10">
         <v>25.04</v>
       </c>
-      <c r="X39" s="9">
+      <c r="X39" s="10">
         <v>28.12</v>
       </c>
-      <c r="Y39" s="9">
+      <c r="Y39" s="10">
         <v>31.01</v>
       </c>
     </row>
@@ -3245,303 +3336,303 @@
       <c r="A40" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B40" s="10">
         <v>0.56000000000000005</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="10">
         <v>1.18</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="10">
         <v>1.4</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="10">
         <v>1.46</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F40" s="10">
         <v>1.84</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G40" s="10">
         <v>2.34</v>
       </c>
-      <c r="H40" s="9">
+      <c r="H40" s="10">
         <v>2.97</v>
       </c>
-      <c r="I40" s="9">
+      <c r="I40" s="10">
         <v>4.03</v>
       </c>
-      <c r="J40" s="9">
+      <c r="J40" s="10">
         <v>4.8600000000000003</v>
       </c>
-      <c r="K40" s="9">
+      <c r="K40" s="10">
         <v>6.54</v>
       </c>
-      <c r="L40" s="9">
+      <c r="L40" s="10">
         <v>9.1199999999999992</v>
       </c>
-      <c r="M40" s="9">
+      <c r="M40" s="10">
         <v>9.85</v>
       </c>
-      <c r="N40" s="9">
+      <c r="N40" s="10">
         <v>13.41</v>
       </c>
-      <c r="O40" s="9">
+      <c r="O40" s="10">
         <v>14.9</v>
       </c>
-      <c r="P40" s="9">
+      <c r="P40" s="10">
         <v>15.18</v>
       </c>
-      <c r="Q40" s="9">
+      <c r="Q40" s="10">
         <v>14.84</v>
       </c>
-      <c r="R40" s="9">
+      <c r="R40" s="10">
         <v>17.690000000000001</v>
       </c>
-      <c r="S40" s="9">
+      <c r="S40" s="10">
         <v>17.739999999999998</v>
       </c>
-      <c r="T40" s="9">
+      <c r="T40" s="10">
         <v>17.72</v>
       </c>
-      <c r="U40" s="9">
+      <c r="U40" s="10">
         <v>20.2</v>
       </c>
-      <c r="V40" s="9">
+      <c r="V40" s="10">
         <v>18.760000000000002</v>
       </c>
-      <c r="W40" s="9">
+      <c r="W40" s="10">
         <v>20.93</v>
       </c>
-      <c r="X40" s="9">
+      <c r="X40" s="10">
         <v>20.28</v>
       </c>
-      <c r="Y40" s="9">
+      <c r="Y40" s="10">
         <v>23.51</v>
       </c>
     </row>
     <row r="44" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A45" s="8" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A45" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B45" s="7">
+      <c r="B45" s="8">
         <v>2000</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="8">
         <v>2001</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45" s="8">
         <v>2002</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45" s="8">
         <v>2003</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F45" s="8">
         <v>2004</v>
       </c>
-      <c r="G45" s="7">
+      <c r="G45" s="8">
         <v>2005</v>
       </c>
-      <c r="H45" s="7">
+      <c r="H45" s="8">
         <v>2006</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I45" s="8">
         <v>2007</v>
       </c>
-      <c r="J45" s="7">
+      <c r="J45" s="8">
         <v>2008</v>
       </c>
-      <c r="K45" s="7">
+      <c r="K45" s="8">
         <v>2009</v>
       </c>
-      <c r="L45" s="7">
+      <c r="L45" s="8">
         <v>2010</v>
       </c>
-      <c r="M45" s="7">
+      <c r="M45" s="8">
         <v>2011</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N45" s="8">
         <v>2012</v>
       </c>
-      <c r="O45" s="7">
+      <c r="O45" s="8">
         <v>2013</v>
       </c>
-      <c r="P45" s="7">
+      <c r="P45" s="8">
         <v>2014</v>
       </c>
-      <c r="Q45" s="7">
+      <c r="Q45" s="8">
         <v>2015</v>
       </c>
-      <c r="R45" s="7">
+      <c r="R45" s="8">
         <v>2016</v>
       </c>
-      <c r="S45" s="7">
+      <c r="S45" s="8">
         <v>2017</v>
       </c>
-      <c r="T45" s="7">
+      <c r="T45" s="8">
         <v>2018</v>
       </c>
-      <c r="U45" s="7">
+      <c r="U45" s="8">
         <v>2019</v>
       </c>
-      <c r="V45" s="7">
+      <c r="V45" s="8">
         <v>2020</v>
       </c>
-      <c r="W45" s="7">
+      <c r="W45" s="8">
         <v>2021</v>
       </c>
-      <c r="X45" s="7">
+      <c r="X45" s="8">
         <v>2022</v>
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A46" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B46" s="8">
+      <c r="A46" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B46" s="9">
         <v>276.64163499999995</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="9">
         <v>279.00865600000003</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D46" s="9">
         <v>285.27601100000004</v>
       </c>
-      <c r="E46" s="8">
+      <c r="E46" s="9">
         <v>293.88476499999996</v>
       </c>
-      <c r="F46" s="8">
+      <c r="F46" s="9">
         <v>303.34415200000001</v>
       </c>
-      <c r="G46" s="8">
+      <c r="G46" s="9">
         <v>303.69695200000001</v>
       </c>
-      <c r="H46" s="8">
+      <c r="H46" s="9">
         <v>314.11918000000003</v>
       </c>
-      <c r="I46" s="8">
+      <c r="I46" s="9">
         <v>313.88878899999997</v>
       </c>
-      <c r="J46" s="8">
+      <c r="J46" s="9">
         <v>319.12793099999999</v>
       </c>
-      <c r="K46" s="8">
+      <c r="K46" s="9">
         <v>292.63604400000003</v>
       </c>
-      <c r="L46" s="8">
+      <c r="L46" s="9">
         <v>302.06870500000002</v>
       </c>
-      <c r="M46" s="8">
+      <c r="M46" s="9">
         <v>302.58386900000005</v>
       </c>
-      <c r="N46" s="8">
+      <c r="N46" s="9">
         <v>299.28602000000001</v>
       </c>
-      <c r="O46" s="8">
+      <c r="O46" s="9">
         <v>289.81588199999999</v>
       </c>
-      <c r="P46" s="8">
+      <c r="P46" s="9">
         <v>279.84082599999999</v>
       </c>
-      <c r="Q46" s="8">
+      <c r="Q46" s="9">
         <v>283.005988</v>
       </c>
-      <c r="R46" s="8">
+      <c r="R46" s="9">
         <v>289.77993700000002</v>
       </c>
-      <c r="S46" s="8">
+      <c r="S46" s="9">
         <v>295.84248500000001</v>
       </c>
-      <c r="T46" s="8">
+      <c r="T46" s="9">
         <v>289.72090800000001</v>
       </c>
-      <c r="U46" s="8">
+      <c r="U46" s="9">
         <v>293.86568299999999</v>
       </c>
-      <c r="V46" s="8">
+      <c r="V46" s="9">
         <v>280.54348900000002</v>
       </c>
-      <c r="W46" s="8">
+      <c r="W46" s="9">
         <v>289.08200499999998</v>
       </c>
-      <c r="X46" s="8">
+      <c r="X46" s="9">
         <v>283.973795</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>57</v>
-      </c>
-      <c r="B47" s="9">
+        <v>63</v>
+      </c>
+      <c r="B47" s="10">
         <v>1.3939999999999999</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C47" s="10">
         <v>1.8320000000000001</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D47" s="10">
         <v>2.71</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E47" s="10">
         <v>3.3730000000000002</v>
       </c>
-      <c r="F47" s="9">
+      <c r="F47" s="10">
         <v>4.22</v>
       </c>
-      <c r="G47" s="9">
+      <c r="G47" s="10">
         <v>4.673</v>
       </c>
-      <c r="H47" s="9">
+      <c r="H47" s="10">
         <v>5.1080000000000005</v>
       </c>
-      <c r="I47" s="9">
+      <c r="I47" s="10">
         <v>5.258</v>
       </c>
-      <c r="J47" s="9">
+      <c r="J47" s="10">
         <v>5.9660000000000002</v>
       </c>
-      <c r="K47" s="9">
+      <c r="K47" s="10">
         <v>7.556</v>
       </c>
-      <c r="L47" s="9">
+      <c r="L47" s="10">
         <v>9.4410000000000007</v>
       </c>
-      <c r="M47" s="9">
+      <c r="M47" s="10">
         <v>10.834</v>
       </c>
-      <c r="N47" s="9">
+      <c r="N47" s="10">
         <v>12.487</v>
       </c>
-      <c r="O47" s="9">
+      <c r="O47" s="10">
         <v>17.093</v>
       </c>
-      <c r="P47" s="9">
+      <c r="P47" s="10">
         <v>18.734000000000002</v>
       </c>
-      <c r="Q47" s="9">
+      <c r="Q47" s="10">
         <v>19.396999999999998</v>
       </c>
-      <c r="R47" s="9">
+      <c r="R47" s="10">
         <v>19.509</v>
       </c>
-      <c r="S47" s="9">
+      <c r="S47" s="10">
         <v>19.378167999999999</v>
       </c>
-      <c r="T47" s="9">
+      <c r="T47" s="10">
         <v>19.152588000000002</v>
       </c>
-      <c r="U47" s="9">
+      <c r="U47" s="10">
         <v>19.562583</v>
       </c>
-      <c r="V47" s="9">
+      <c r="V47" s="10">
         <v>19.633780000000002</v>
       </c>
-      <c r="W47" s="9">
+      <c r="W47" s="10">
         <v>19.070767</v>
       </c>
-      <c r="X47" s="9">
+      <c r="X47" s="10">
         <v>17.615925000000001</v>
       </c>
     </row>
@@ -3549,73 +3640,73 @@
       <c r="A48" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="9">
+      <c r="B48" s="10">
         <v>30.524000000000001</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C48" s="10">
         <v>36.774999999999999</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D48" s="10">
         <v>40.468000000000004</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E48" s="10">
         <v>44.116999999999997</v>
       </c>
-      <c r="F48" s="9">
+      <c r="F48" s="10">
         <v>50.877000000000002</v>
       </c>
-      <c r="G48" s="9">
+      <c r="G48" s="10">
         <v>49.418999999999997</v>
       </c>
-      <c r="H48" s="9">
+      <c r="H48" s="10">
         <v>50.438000000000002</v>
       </c>
-      <c r="I48" s="9">
+      <c r="I48" s="10">
         <v>49.734999999999999</v>
       </c>
-      <c r="J48" s="9">
+      <c r="J48" s="10">
         <v>48.591000000000001</v>
       </c>
-      <c r="K48" s="9">
+      <c r="K48" s="10">
         <v>43.415999999999997</v>
       </c>
-      <c r="L48" s="9">
+      <c r="L48" s="10">
         <v>44.433999999999997</v>
       </c>
-      <c r="M48" s="9">
+      <c r="M48" s="10">
         <v>50.139000000000003</v>
       </c>
-      <c r="N48" s="9">
+      <c r="N48" s="10">
         <v>54.11</v>
       </c>
-      <c r="O48" s="9">
+      <c r="O48" s="10">
         <v>48.493000000000002</v>
       </c>
-      <c r="P48" s="9">
+      <c r="P48" s="10">
         <v>46.524000000000001</v>
       </c>
-      <c r="Q48" s="9">
+      <c r="Q48" s="10">
         <v>45.387999999999998</v>
       </c>
-      <c r="R48" s="9">
+      <c r="R48" s="10">
         <v>38.402999999999999</v>
       </c>
-      <c r="S48" s="9">
+      <c r="S48" s="10">
         <v>35.096179999999997</v>
       </c>
-      <c r="T48" s="9">
+      <c r="T48" s="10">
         <v>30.955663000000001</v>
       </c>
-      <c r="U48" s="9">
+      <c r="U48" s="10">
         <v>21.252800000000001</v>
       </c>
-      <c r="V48" s="9">
+      <c r="V48" s="10">
         <v>15.042968999999999</v>
       </c>
-      <c r="W48" s="9">
+      <c r="W48" s="10">
         <v>15.936007</v>
       </c>
-      <c r="X48" s="9">
+      <c r="X48" s="10">
         <v>24.196034000000001</v>
       </c>
     </row>
@@ -3623,147 +3714,147 @@
       <c r="A49" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="9">
+      <c r="B49" s="10">
         <v>101.36</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C49" s="10">
         <v>104.188</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D49" s="10">
         <v>99.414000000000001</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E49" s="10">
         <v>117.3</v>
       </c>
-      <c r="F49" s="9">
+      <c r="F49" s="10">
         <v>129.77199999999999</v>
       </c>
-      <c r="G49" s="9">
+      <c r="G49" s="10">
         <v>149.262</v>
       </c>
-      <c r="H49" s="9">
+      <c r="H49" s="10">
         <v>158.07900000000001</v>
       </c>
-      <c r="I49" s="9">
+      <c r="I49" s="10">
         <v>172.64599999999999</v>
       </c>
-      <c r="J49" s="9">
+      <c r="J49" s="10">
         <v>172.69900000000001</v>
       </c>
-      <c r="K49" s="9">
+      <c r="K49" s="10">
         <v>147.26900000000001</v>
       </c>
-      <c r="L49" s="9">
+      <c r="L49" s="10">
         <v>152.738</v>
       </c>
-      <c r="M49" s="9">
+      <c r="M49" s="10">
         <v>144.548</v>
       </c>
-      <c r="N49" s="9">
+      <c r="N49" s="10">
         <v>129.05799999999999</v>
       </c>
-      <c r="O49" s="9">
+      <c r="O49" s="10">
         <v>108.875</v>
       </c>
-      <c r="P49" s="9">
+      <c r="P49" s="10">
         <v>93.637</v>
       </c>
-      <c r="Q49" s="9">
+      <c r="Q49" s="10">
         <v>110.86</v>
       </c>
-      <c r="R49" s="9">
+      <c r="R49" s="10">
         <v>126.148</v>
       </c>
-      <c r="S49" s="9">
+      <c r="S49" s="10">
         <v>140.34928400000001</v>
       </c>
-      <c r="T49" s="9">
+      <c r="T49" s="10">
         <v>128.537553</v>
       </c>
-      <c r="U49" s="9">
+      <c r="U49" s="10">
         <v>141.687003</v>
       </c>
-      <c r="V49" s="9">
+      <c r="V49" s="10">
         <v>133.68278400000003</v>
       </c>
-      <c r="W49" s="9">
+      <c r="W49" s="10">
         <v>143.99793</v>
       </c>
-      <c r="X49" s="9">
+      <c r="X49" s="10">
         <v>141.445312</v>
       </c>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>59</v>
-      </c>
-      <c r="B50" s="9">
+        <v>65</v>
+      </c>
+      <c r="B50" s="10">
         <v>4.7050000000000001</v>
       </c>
-      <c r="C50" s="9">
+      <c r="C50" s="10">
         <v>4.5069999999999997</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D50" s="10">
         <v>4.6619999999999999</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E50" s="10">
         <v>5.3410000000000002</v>
       </c>
-      <c r="F50" s="9">
+      <c r="F50" s="10">
         <v>5.4372659999999993</v>
       </c>
-      <c r="G50" s="9">
+      <c r="G50" s="10">
         <v>5.3244600000000002</v>
       </c>
-      <c r="H50" s="9">
+      <c r="H50" s="10">
         <v>5.5273659999999998</v>
       </c>
-      <c r="I50" s="9">
+      <c r="I50" s="10">
         <v>5.5691280000000001</v>
       </c>
-      <c r="J50" s="9">
+      <c r="J50" s="10">
         <v>5.5203149999999992</v>
       </c>
-      <c r="K50" s="9">
+      <c r="K50" s="10">
         <v>5.3418220000000005</v>
       </c>
-      <c r="L50" s="9">
+      <c r="L50" s="10">
         <v>5.3759160000000001</v>
       </c>
-      <c r="M50" s="9">
+      <c r="M50" s="10">
         <v>5.6542630000000003</v>
       </c>
-      <c r="N50" s="9">
+      <c r="N50" s="10">
         <v>5.591685</v>
       </c>
-      <c r="O50" s="9">
+      <c r="O50" s="10">
         <v>5.6592279999999997</v>
       </c>
-      <c r="P50" s="9">
+      <c r="P50" s="10">
         <v>5.9163329999999998</v>
       </c>
-      <c r="Q50" s="9">
+      <c r="Q50" s="10">
         <v>6.1849709999999991</v>
       </c>
-      <c r="R50" s="9">
+      <c r="R50" s="10">
         <v>6.2885730000000004</v>
       </c>
-      <c r="S50" s="9">
+      <c r="S50" s="10">
         <v>6.2011589999999996</v>
       </c>
-      <c r="T50" s="9">
+      <c r="T50" s="10">
         <v>6.1053900000000008</v>
       </c>
-      <c r="U50" s="9">
+      <c r="U50" s="10">
         <v>6.0748599999999993</v>
       </c>
-      <c r="V50" s="9">
+      <c r="V50" s="10">
         <v>6.0261120000000004</v>
       </c>
-      <c r="W50" s="9">
+      <c r="W50" s="10">
         <v>5.9137870000000001</v>
       </c>
-      <c r="X50" s="9">
+      <c r="X50" s="10">
         <v>5.8369200000000001</v>
       </c>
     </row>
@@ -3771,73 +3862,73 @@
       <c r="A51" t="s">
         <v>6</v>
       </c>
-      <c r="B51" s="9">
+      <c r="B51" s="10">
         <v>50.899635000000004</v>
       </c>
-      <c r="C51" s="9">
+      <c r="C51" s="10">
         <v>53.925656000000004</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D51" s="10">
         <v>47.262011000000001</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E51" s="10">
         <v>44.276765000000005</v>
       </c>
-      <c r="F51" s="9">
+      <c r="F51" s="10">
         <v>49.908006</v>
       </c>
-      <c r="G51" s="9">
+      <c r="G51" s="10">
         <v>42.926900000000003</v>
       </c>
-      <c r="H51" s="9">
+      <c r="H51" s="10">
         <v>43.424963000000005</v>
       </c>
-      <c r="I51" s="9">
+      <c r="I51" s="10">
         <v>38.481349000000002</v>
       </c>
-      <c r="J51" s="9">
+      <c r="J51" s="10">
         <v>47.226537999999998</v>
       </c>
-      <c r="K51" s="9">
+      <c r="K51" s="10">
         <v>53.442678000000008</v>
       </c>
-      <c r="L51" s="9">
+      <c r="L51" s="10">
         <v>54.406663000000002</v>
       </c>
-      <c r="M51" s="9">
+      <c r="M51" s="10">
         <v>47.756917999999992</v>
       </c>
-      <c r="N51" s="9">
+      <c r="N51" s="10">
         <v>43.85400099999999</v>
       </c>
-      <c r="O51" s="9">
+      <c r="O51" s="10">
         <v>54.671594999999996</v>
       </c>
-      <c r="P51" s="9">
+      <c r="P51" s="10">
         <v>60.256342999999994</v>
       </c>
-      <c r="Q51" s="9">
+      <c r="Q51" s="10">
         <v>46.969467999999999</v>
       </c>
-      <c r="R51" s="9">
+      <c r="R51" s="10">
         <v>44.256959999999999</v>
       </c>
-      <c r="S51" s="9">
+      <c r="S51" s="10">
         <v>38.02467</v>
       </c>
-      <c r="T51" s="9">
+      <c r="T51" s="10">
         <v>50.502750999999996</v>
       </c>
-      <c r="U51" s="9">
+      <c r="U51" s="10">
         <v>48.153516000000003</v>
       </c>
-      <c r="V51" s="9">
+      <c r="V51" s="10">
         <v>49.495255</v>
       </c>
-      <c r="W51" s="9">
+      <c r="W51" s="10">
         <v>47.478359999999995</v>
       </c>
-      <c r="X51" s="9">
+      <c r="X51" s="10">
         <v>30.290742000000002</v>
       </c>
     </row>
@@ -3845,73 +3936,73 @@
       <c r="A52" t="s">
         <v>23</v>
       </c>
-      <c r="B52" s="9">
+      <c r="B52" s="10">
         <v>87.177999999999997</v>
       </c>
-      <c r="C52" s="9">
+      <c r="C52" s="10">
         <v>76.582999999999998</v>
       </c>
-      <c r="D52" s="9">
+      <c r="D52" s="10">
         <v>89.334999999999994</v>
       </c>
-      <c r="E52" s="9">
+      <c r="E52" s="10">
         <v>77.99499999999999</v>
       </c>
-      <c r="F52" s="9">
+      <c r="F52" s="10">
         <v>61.256999999999998</v>
       </c>
-      <c r="G52" s="9">
+      <c r="G52" s="10">
         <v>49.72</v>
       </c>
-      <c r="H52" s="9">
+      <c r="H52" s="10">
         <v>48.539000000000001</v>
       </c>
-      <c r="I52" s="9">
+      <c r="I52" s="10">
         <v>38.125999999999998</v>
       </c>
-      <c r="J52" s="9">
+      <c r="J52" s="10">
         <v>34.073999999999998</v>
       </c>
-      <c r="K52" s="9">
+      <c r="K52" s="10">
         <v>28.395</v>
       </c>
-      <c r="L52" s="9">
+      <c r="L52" s="10">
         <v>24.635999999999999</v>
       </c>
-      <c r="M52" s="9">
+      <c r="M52" s="10">
         <v>22.998000000000001</v>
       </c>
-      <c r="N52" s="9">
+      <c r="N52" s="10">
         <v>21.907</v>
       </c>
-      <c r="O52" s="9">
+      <c r="O52" s="10">
         <v>18.529</v>
       </c>
-      <c r="P52" s="9">
+      <c r="P52" s="10">
         <v>17.276</v>
       </c>
-      <c r="Q52" s="9">
+      <c r="Q52" s="10">
         <v>16.408000000000001</v>
       </c>
-      <c r="R52" s="9">
+      <c r="R52" s="10">
         <v>15.369</v>
       </c>
-      <c r="S52" s="9">
+      <c r="S52" s="10">
         <v>14.660928999999999</v>
       </c>
-      <c r="T52" s="9">
+      <c r="T52" s="10">
         <v>14.084215999999998</v>
       </c>
-      <c r="U52" s="9">
+      <c r="U52" s="10">
         <v>13.231503999999999</v>
       </c>
-      <c r="V52" s="9">
+      <c r="V52" s="10">
         <v>12.947053</v>
       </c>
-      <c r="W52" s="9">
+      <c r="W52" s="10">
         <v>10.706386</v>
       </c>
-      <c r="X52" s="9">
+      <c r="X52" s="10">
         <v>15.960751999999999</v>
       </c>
     </row>
@@ -3919,73 +4010,73 @@
       <c r="A53" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="9">
+      <c r="B53" s="10">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="C53" s="9">
+      <c r="C53" s="10">
         <v>1.9E-2</v>
       </c>
-      <c r="D53" s="9">
+      <c r="D53" s="10">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="E53" s="9">
+      <c r="E53" s="10">
         <v>2.4E-2</v>
       </c>
-      <c r="F53" s="9">
+      <c r="F53" s="10">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="G53" s="9">
+      <c r="G53" s="10">
         <v>3.1E-2</v>
       </c>
-      <c r="H53" s="9">
+      <c r="H53" s="10">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="I53" s="9">
+      <c r="I53" s="10">
         <v>3.8953000000000002E-2</v>
       </c>
-      <c r="J53" s="9">
+      <c r="J53" s="10">
         <v>0.192965</v>
       </c>
-      <c r="K53" s="9">
+      <c r="K53" s="10">
         <v>0.676481</v>
       </c>
-      <c r="L53" s="9">
+      <c r="L53" s="10">
         <v>1.9151359999999999</v>
       </c>
-      <c r="M53" s="9">
+      <c r="M53" s="10">
         <v>10.805198000000001</v>
       </c>
-      <c r="N53" s="9">
+      <c r="N53" s="10">
         <v>18.871206999999998</v>
       </c>
-      <c r="O53" s="9">
+      <c r="O53" s="10">
         <v>21.598096999999999</v>
       </c>
-      <c r="P53" s="9">
+      <c r="P53" s="10">
         <v>22.318840000000002</v>
       </c>
-      <c r="Q53" s="9">
+      <c r="Q53" s="10">
         <v>22.954666999999997</v>
       </c>
-      <c r="R53" s="9">
+      <c r="R53" s="10">
         <v>22.116733999999997</v>
       </c>
-      <c r="S53" s="9">
+      <c r="S53" s="10">
         <v>24.390185999999996</v>
       </c>
-      <c r="T53" s="9">
+      <c r="T53" s="10">
         <v>22.666312999999999</v>
       </c>
-      <c r="U53" s="9">
+      <c r="U53" s="10">
         <v>23.701374999999999</v>
       </c>
-      <c r="V53" s="9">
+      <c r="V53" s="10">
         <v>24.953979</v>
       </c>
-      <c r="W53" s="9">
+      <c r="W53" s="10">
         <v>25.051465</v>
       </c>
-      <c r="X53" s="9">
+      <c r="X53" s="10">
         <v>28.133931999999998</v>
       </c>
     </row>
@@ -3993,232 +4084,232 @@
       <c r="A54" t="s">
         <v>12</v>
       </c>
-      <c r="B54" s="9">
+      <c r="B54" s="10">
         <v>0.56299999999999994</v>
       </c>
-      <c r="C54" s="9">
+      <c r="C54" s="10">
         <v>1.179</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D54" s="10">
         <v>1.4039999999999999</v>
       </c>
-      <c r="E54" s="9">
+      <c r="E54" s="10">
         <v>1.458</v>
       </c>
-      <c r="F54" s="9">
+      <c r="F54" s="10">
         <v>1.8438800000000002</v>
       </c>
-      <c r="G54" s="9">
+      <c r="G54" s="10">
         <v>2.340592</v>
       </c>
-      <c r="H54" s="9">
+      <c r="H54" s="10">
         <v>2.967851</v>
       </c>
-      <c r="I54" s="9">
+      <c r="I54" s="10">
         <v>4.0343590000000003</v>
       </c>
-      <c r="J54" s="9">
+      <c r="J54" s="10">
         <v>4.8581130000000003</v>
       </c>
-      <c r="K54" s="9">
+      <c r="K54" s="10">
         <v>6.5390630000000005</v>
       </c>
-      <c r="L54" s="9">
+      <c r="L54" s="10">
         <v>9.1219900000000003</v>
       </c>
-      <c r="M54" s="9">
+      <c r="M54" s="10">
         <v>9.84849</v>
       </c>
-      <c r="N54" s="9">
+      <c r="N54" s="10">
         <v>13.407127000000001</v>
       </c>
-      <c r="O54" s="9">
+      <c r="O54" s="10">
         <v>14.896962</v>
       </c>
-      <c r="P54" s="9">
+      <c r="P54" s="10">
         <v>15.17831</v>
       </c>
-      <c r="Q54" s="9">
+      <c r="Q54" s="10">
         <v>14.843881999999999</v>
       </c>
-      <c r="R54" s="9">
+      <c r="R54" s="10">
         <v>17.688669999999998</v>
       </c>
-      <c r="S54" s="9">
+      <c r="S54" s="10">
         <v>17.741909</v>
       </c>
-      <c r="T54" s="9">
+      <c r="T54" s="10">
         <v>17.716434</v>
       </c>
-      <c r="U54" s="9">
+      <c r="U54" s="10">
         <v>20.202042000000002</v>
       </c>
-      <c r="V54" s="9">
+      <c r="V54" s="10">
         <v>18.761557</v>
       </c>
-      <c r="W54" s="9">
+      <c r="W54" s="10">
         <v>20.927302999999998</v>
       </c>
-      <c r="X54" s="9">
+      <c r="X54" s="10">
         <v>20.494178000000002</v>
       </c>
     </row>
     <row r="58" spans="1:25" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A58" s="6" t="s">
-        <v>63</v>
+      <c r="A58" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B59" s="7">
+      <c r="A59" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" s="8">
         <v>2000</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C59" s="8">
         <v>2001</v>
       </c>
-      <c r="D59" s="7">
+      <c r="D59" s="8">
         <v>2002</v>
       </c>
-      <c r="E59" s="7">
+      <c r="E59" s="8">
         <v>2003</v>
       </c>
-      <c r="F59" s="7">
+      <c r="F59" s="8">
         <v>2004</v>
       </c>
-      <c r="G59" s="7">
+      <c r="G59" s="8">
         <v>2005</v>
       </c>
-      <c r="H59" s="7">
+      <c r="H59" s="8">
         <v>2006</v>
       </c>
-      <c r="I59" s="7">
+      <c r="I59" s="8">
         <v>2007</v>
       </c>
-      <c r="J59" s="7">
+      <c r="J59" s="8">
         <v>2008</v>
       </c>
-      <c r="K59" s="7">
+      <c r="K59" s="8">
         <v>2009</v>
       </c>
-      <c r="L59" s="7">
+      <c r="L59" s="8">
         <v>2010</v>
       </c>
-      <c r="M59" s="7">
+      <c r="M59" s="8">
         <v>2011</v>
       </c>
-      <c r="N59" s="7">
+      <c r="N59" s="8">
         <v>2012</v>
       </c>
-      <c r="O59" s="7">
+      <c r="O59" s="8">
         <v>2013</v>
       </c>
-      <c r="P59" s="7">
+      <c r="P59" s="8">
         <v>2014</v>
       </c>
-      <c r="Q59" s="7">
+      <c r="Q59" s="8">
         <v>2015</v>
       </c>
-      <c r="R59" s="7">
+      <c r="R59" s="8">
         <v>2016</v>
       </c>
-      <c r="S59" s="7">
+      <c r="S59" s="8">
         <v>2017</v>
       </c>
-      <c r="T59" s="7">
+      <c r="T59" s="8">
         <v>2018</v>
       </c>
-      <c r="U59" s="7">
+      <c r="U59" s="8">
         <v>2019</v>
       </c>
-      <c r="V59" s="7">
+      <c r="V59" s="8">
         <v>2020</v>
       </c>
-      <c r="W59" s="7">
+      <c r="W59" s="8">
         <v>2021</v>
       </c>
-      <c r="X59" s="7">
+      <c r="X59" s="8">
         <v>2022</v>
       </c>
-      <c r="Y59" s="7">
+      <c r="Y59" s="8">
         <v>2023</v>
       </c>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>57</v>
-      </c>
-      <c r="B60" s="9">
+        <v>63</v>
+      </c>
+      <c r="B60" s="10">
         <v>1.1299999999999999</v>
       </c>
-      <c r="C60" s="9">
+      <c r="C60" s="10">
         <v>1.1499999999999999</v>
       </c>
-      <c r="D60" s="9">
+      <c r="D60" s="10">
         <v>1.37</v>
       </c>
-      <c r="E60" s="9">
+      <c r="E60" s="10">
         <v>1.57</v>
       </c>
-      <c r="F60" s="9">
+      <c r="F60" s="10">
         <v>1.52</v>
       </c>
-      <c r="G60" s="9">
+      <c r="G60" s="10">
         <v>1.54</v>
       </c>
-      <c r="H60" s="9">
+      <c r="H60" s="10">
         <v>1.57</v>
       </c>
-      <c r="I60" s="9">
+      <c r="I60" s="10">
         <v>1.63</v>
       </c>
-      <c r="J60" s="9">
+      <c r="J60" s="10">
         <v>1.83</v>
       </c>
-      <c r="K60" s="9">
+      <c r="K60" s="10">
         <v>2.2199999999999998</v>
       </c>
-      <c r="L60" s="9">
+      <c r="L60" s="10">
         <v>2.56</v>
       </c>
-      <c r="M60" s="9">
+      <c r="M60" s="10">
         <v>2.99</v>
       </c>
-      <c r="N60" s="9">
+      <c r="N60" s="10">
         <v>3.9</v>
       </c>
-      <c r="O60" s="9">
+      <c r="O60" s="10">
         <v>4.08</v>
       </c>
-      <c r="P60" s="9">
+      <c r="P60" s="10">
         <v>4.13</v>
       </c>
-      <c r="Q60" s="9">
+      <c r="Q60" s="10">
         <v>4.13</v>
       </c>
-      <c r="R60" s="9">
+      <c r="R60" s="10">
         <v>4.21</v>
       </c>
-      <c r="S60" s="9">
+      <c r="S60" s="10">
         <v>4.22</v>
       </c>
-      <c r="T60" s="9">
+      <c r="T60" s="10">
         <v>4.26</v>
       </c>
-      <c r="U60" s="9">
+      <c r="U60" s="10">
         <v>4.22</v>
       </c>
-      <c r="V60" s="9">
+      <c r="V60" s="10">
         <v>4.21</v>
       </c>
-      <c r="W60" s="9">
+      <c r="W60" s="10">
         <v>4.1899999999999995</v>
       </c>
-      <c r="X60" s="9">
+      <c r="X60" s="10">
         <v>4.17</v>
       </c>
-      <c r="Y60" s="9">
+      <c r="Y60" s="10">
         <v>4.21</v>
       </c>
     </row>
@@ -4226,76 +4317,76 @@
       <c r="A61" t="s">
         <v>5</v>
       </c>
-      <c r="B61" s="9">
+      <c r="B61" s="10">
         <v>8.67</v>
       </c>
-      <c r="C61" s="9">
+      <c r="C61" s="10">
         <v>8.6</v>
       </c>
-      <c r="D61" s="9">
+      <c r="D61" s="10">
         <v>8.6</v>
       </c>
-      <c r="E61" s="9">
+      <c r="E61" s="10">
         <v>8.6</v>
       </c>
-      <c r="F61" s="9">
+      <c r="F61" s="10">
         <v>8.35</v>
       </c>
-      <c r="G61" s="9">
+      <c r="G61" s="10">
         <v>8.6999999999999993</v>
       </c>
-      <c r="H61" s="9">
+      <c r="H61" s="10">
         <v>8.6999999999999993</v>
       </c>
-      <c r="I61" s="9">
+      <c r="I61" s="10">
         <v>8.6999999999999993</v>
       </c>
-      <c r="J61" s="9">
+      <c r="J61" s="10">
         <v>8.06</v>
       </c>
-      <c r="K61" s="9">
+      <c r="K61" s="10">
         <v>8.7200000000000006</v>
       </c>
-      <c r="L61" s="9">
+      <c r="L61" s="10">
         <v>9.9700000000000006</v>
       </c>
-      <c r="M61" s="9">
+      <c r="M61" s="10">
         <v>9.9700000000000006</v>
       </c>
-      <c r="N61" s="9">
+      <c r="N61" s="10">
         <v>9.9700000000000006</v>
       </c>
-      <c r="O61" s="9">
+      <c r="O61" s="10">
         <v>9.9700000000000006</v>
       </c>
-      <c r="P61" s="9">
+      <c r="P61" s="10">
         <v>9.83</v>
       </c>
-      <c r="Q61" s="9">
+      <c r="Q61" s="10">
         <v>9.69</v>
       </c>
-      <c r="R61" s="9">
+      <c r="R61" s="10">
         <v>8.7100000000000009</v>
       </c>
-      <c r="S61" s="9">
+      <c r="S61" s="10">
         <v>8.5500000000000007</v>
       </c>
-      <c r="T61" s="9">
+      <c r="T61" s="10">
         <v>8.5500000000000007</v>
       </c>
-      <c r="U61" s="9">
+      <c r="U61" s="10">
         <v>8.5500000000000007</v>
       </c>
-      <c r="V61" s="9">
+      <c r="V61" s="10">
         <v>7.74</v>
       </c>
-      <c r="W61" s="9">
+      <c r="W61" s="10">
         <v>6.81</v>
       </c>
-      <c r="X61" s="9">
+      <c r="X61" s="10">
         <v>6.81</v>
       </c>
-      <c r="Y61" s="9">
+      <c r="Y61" s="10">
         <v>6.17</v>
       </c>
     </row>
@@ -4303,76 +4394,76 @@
       <c r="A62" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="9">
+      <c r="B62" s="10">
         <v>53.35</v>
       </c>
-      <c r="C62" s="9">
+      <c r="C62" s="10">
         <v>53.57</v>
       </c>
-      <c r="D62" s="9">
+      <c r="D62" s="10">
         <v>53.54</v>
       </c>
-      <c r="E62" s="9">
+      <c r="E62" s="10">
         <v>54.78</v>
       </c>
-      <c r="F62" s="9">
+      <c r="F62" s="10">
         <v>57.62</v>
       </c>
-      <c r="G62" s="9">
+      <c r="G62" s="10">
         <v>60.79</v>
       </c>
-      <c r="H62" s="9">
+      <c r="H62" s="10">
         <v>64.31</v>
       </c>
-      <c r="I62" s="9">
+      <c r="I62" s="10">
         <v>67.459999999999994</v>
       </c>
-      <c r="J62" s="9">
+      <c r="J62" s="10">
         <v>70.95</v>
       </c>
-      <c r="K62" s="9">
+      <c r="K62" s="10">
         <v>71.14</v>
       </c>
-      <c r="L62" s="9">
+      <c r="L62" s="10">
         <v>72.459999999999994</v>
       </c>
-      <c r="M62" s="9">
+      <c r="M62" s="10">
         <v>73.33</v>
       </c>
-      <c r="N62" s="9">
+      <c r="N62" s="10">
         <v>73.22</v>
       </c>
-      <c r="O62" s="9">
+      <c r="O62" s="10">
         <v>70.95</v>
       </c>
-      <c r="P62" s="9">
+      <c r="P62" s="10">
         <v>67.48</v>
       </c>
-      <c r="Q62" s="9">
+      <c r="Q62" s="10">
         <v>61.81</v>
       </c>
-      <c r="R62" s="9">
+      <c r="R62" s="10">
         <v>58.22</v>
       </c>
-      <c r="S62" s="9">
+      <c r="S62" s="10">
         <v>57.4</v>
       </c>
-      <c r="T62" s="9">
+      <c r="T62" s="10">
         <v>57.35</v>
       </c>
-      <c r="U62" s="9">
+      <c r="U62" s="10">
         <v>57.41</v>
       </c>
-      <c r="V62" s="9">
+      <c r="V62" s="10">
         <v>56.24</v>
       </c>
-      <c r="W62" s="9">
+      <c r="W62" s="10">
         <v>55.63</v>
       </c>
-      <c r="X62" s="9">
+      <c r="X62" s="10">
         <v>56.32</v>
       </c>
-      <c r="Y62" s="9">
+      <c r="Y62" s="10">
         <v>57.28</v>
       </c>
     </row>
@@ -4380,76 +4471,76 @@
       <c r="A63" t="s">
         <v>6</v>
       </c>
-      <c r="B63" s="9">
+      <c r="B63" s="10">
         <v>16.39</v>
       </c>
-      <c r="C63" s="9">
+      <c r="C63" s="10">
         <v>16.46</v>
       </c>
-      <c r="D63" s="9">
+      <c r="D63" s="10">
         <v>16.559999999999999</v>
       </c>
-      <c r="E63" s="9">
+      <c r="E63" s="10">
         <v>16.7</v>
       </c>
-      <c r="F63" s="9">
+      <c r="F63" s="10">
         <v>16.79</v>
       </c>
-      <c r="G63" s="9">
+      <c r="G63" s="10">
         <v>17.04</v>
       </c>
-      <c r="H63" s="9">
+      <c r="H63" s="10">
         <v>17.11</v>
       </c>
-      <c r="I63" s="9">
+      <c r="I63" s="10">
         <v>17.16</v>
       </c>
-      <c r="J63" s="9">
+      <c r="J63" s="10">
         <v>17.32</v>
       </c>
-      <c r="K63" s="9">
+      <c r="K63" s="10">
         <v>17.41</v>
       </c>
-      <c r="L63" s="9">
+      <c r="L63" s="10">
         <v>17.559999999999999</v>
       </c>
-      <c r="M63" s="9">
+      <c r="M63" s="10">
         <v>17.78</v>
       </c>
-      <c r="N63" s="9">
+      <c r="N63" s="10">
         <v>17.920000000000002</v>
       </c>
-      <c r="O63" s="9">
+      <c r="O63" s="10">
         <v>18.05</v>
       </c>
-      <c r="P63" s="9">
+      <c r="P63" s="10">
         <v>18.12</v>
       </c>
-      <c r="Q63" s="9">
+      <c r="Q63" s="10">
         <v>18.239999999999998</v>
       </c>
-      <c r="R63" s="9">
+      <c r="R63" s="10">
         <v>18.32</v>
       </c>
-      <c r="S63" s="9">
+      <c r="S63" s="10">
         <v>18.489999999999998</v>
       </c>
-      <c r="T63" s="9">
+      <c r="T63" s="10">
         <v>18.559999999999999</v>
       </c>
-      <c r="U63" s="9">
+      <c r="U63" s="10">
         <v>18.600000000000001</v>
       </c>
-      <c r="V63" s="9">
+      <c r="V63" s="10">
         <v>18.75</v>
       </c>
-      <c r="W63" s="9">
+      <c r="W63" s="10">
         <v>18.809999999999999</v>
       </c>
-      <c r="X63" s="9">
+      <c r="X63" s="10">
         <v>18.93</v>
       </c>
-      <c r="Y63" s="9">
+      <c r="Y63" s="10">
         <v>18.850000000000001</v>
       </c>
     </row>
@@ -4457,76 +4548,76 @@
       <c r="A64" t="s">
         <v>19</v>
       </c>
-      <c r="B64" s="9">
-        <v>0</v>
-      </c>
-      <c r="C64" s="9">
-        <v>0</v>
-      </c>
-      <c r="D64" s="9">
-        <v>0</v>
-      </c>
-      <c r="E64" s="9">
-        <v>0</v>
-      </c>
-      <c r="F64" s="9">
-        <v>0</v>
-      </c>
-      <c r="G64" s="9">
-        <v>0</v>
-      </c>
-      <c r="H64" s="9">
-        <v>0</v>
-      </c>
-      <c r="I64" s="9">
-        <v>0</v>
-      </c>
-      <c r="J64" s="9">
-        <v>0</v>
-      </c>
-      <c r="K64" s="9">
-        <v>0</v>
-      </c>
-      <c r="L64" s="9">
-        <v>0</v>
-      </c>
-      <c r="M64" s="9">
-        <v>0</v>
-      </c>
-      <c r="N64" s="9">
-        <v>0</v>
-      </c>
-      <c r="O64" s="9">
-        <v>0</v>
-      </c>
-      <c r="P64" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="9">
-        <v>0</v>
-      </c>
-      <c r="R64" s="9">
-        <v>0</v>
-      </c>
-      <c r="S64" s="9">
-        <v>0</v>
-      </c>
-      <c r="T64" s="9">
-        <v>0</v>
-      </c>
-      <c r="U64" s="9">
-        <v>0</v>
-      </c>
-      <c r="V64" s="9">
-        <v>0</v>
-      </c>
-      <c r="W64" s="9">
-        <v>0</v>
-      </c>
-      <c r="X64" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y64" s="9">
+      <c r="B64" s="10">
+        <v>0</v>
+      </c>
+      <c r="C64" s="10">
+        <v>0</v>
+      </c>
+      <c r="D64" s="10">
+        <v>0</v>
+      </c>
+      <c r="E64" s="10">
+        <v>0</v>
+      </c>
+      <c r="F64" s="10">
+        <v>0</v>
+      </c>
+      <c r="G64" s="10">
+        <v>0</v>
+      </c>
+      <c r="H64" s="10">
+        <v>0</v>
+      </c>
+      <c r="I64" s="10">
+        <v>0</v>
+      </c>
+      <c r="J64" s="10">
+        <v>0</v>
+      </c>
+      <c r="K64" s="10">
+        <v>0</v>
+      </c>
+      <c r="L64" s="10">
+        <v>0</v>
+      </c>
+      <c r="M64" s="10">
+        <v>0</v>
+      </c>
+      <c r="N64" s="10">
+        <v>0</v>
+      </c>
+      <c r="O64" s="10">
+        <v>0</v>
+      </c>
+      <c r="P64" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="10">
+        <v>0</v>
+      </c>
+      <c r="R64" s="10">
+        <v>0</v>
+      </c>
+      <c r="S64" s="10">
+        <v>0</v>
+      </c>
+      <c r="T64" s="10">
+        <v>0</v>
+      </c>
+      <c r="U64" s="10">
+        <v>0</v>
+      </c>
+      <c r="V64" s="10">
+        <v>0</v>
+      </c>
+      <c r="W64" s="10">
+        <v>0</v>
+      </c>
+      <c r="X64" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="10">
         <v>0</v>
       </c>
     </row>
@@ -4534,76 +4625,76 @@
       <c r="A65" t="s">
         <v>23</v>
       </c>
-      <c r="B65" s="9">
+      <c r="B65" s="10">
         <v>1.26</v>
       </c>
-      <c r="C65" s="9">
+      <c r="C65" s="10">
         <v>1.36</v>
       </c>
-      <c r="D65" s="9">
+      <c r="D65" s="10">
         <v>1.36</v>
       </c>
-      <c r="E65" s="9">
+      <c r="E65" s="10">
         <v>1.36</v>
       </c>
-      <c r="F65" s="9">
+      <c r="F65" s="10">
         <v>1.36</v>
       </c>
-      <c r="G65" s="9">
+      <c r="G65" s="10">
         <v>1.44</v>
       </c>
-      <c r="H65" s="9">
+      <c r="H65" s="10">
         <v>1.44</v>
       </c>
-      <c r="I65" s="9">
+      <c r="I65" s="10">
         <v>1.44</v>
       </c>
-      <c r="J65" s="9">
+      <c r="J65" s="10">
         <v>1.44</v>
       </c>
-      <c r="K65" s="9">
+      <c r="K65" s="10">
         <v>1.44</v>
       </c>
-      <c r="L65" s="9">
+      <c r="L65" s="10">
         <v>1.44</v>
       </c>
-      <c r="M65" s="9">
+      <c r="M65" s="10">
         <v>1.44</v>
       </c>
-      <c r="N65" s="9">
+      <c r="N65" s="10">
         <v>1.44</v>
       </c>
-      <c r="O65" s="9">
+      <c r="O65" s="10">
         <v>1.44</v>
       </c>
-      <c r="P65" s="9">
+      <c r="P65" s="10">
         <v>1.44</v>
       </c>
-      <c r="Q65" s="9">
+      <c r="Q65" s="10">
         <v>1.44</v>
       </c>
-      <c r="R65" s="9">
+      <c r="R65" s="10">
         <v>1.44</v>
       </c>
-      <c r="S65" s="9">
+      <c r="S65" s="10">
         <v>1.44</v>
       </c>
-      <c r="T65" s="9">
+      <c r="T65" s="10">
         <v>1.44</v>
       </c>
-      <c r="U65" s="9">
+      <c r="U65" s="10">
         <v>1.44</v>
       </c>
-      <c r="V65" s="9">
+      <c r="V65" s="10">
         <v>1.44</v>
       </c>
-      <c r="W65" s="9">
+      <c r="W65" s="10">
         <v>1.44</v>
       </c>
-      <c r="X65" s="9">
+      <c r="X65" s="10">
         <v>1.44</v>
       </c>
-      <c r="Y65" s="9">
+      <c r="Y65" s="10">
         <v>1.44</v>
       </c>
     </row>
@@ -4611,76 +4702,76 @@
       <c r="A66" t="s">
         <v>9</v>
       </c>
-      <c r="B66" s="9">
+      <c r="B66" s="10">
         <v>0.02</v>
       </c>
-      <c r="C66" s="9">
+      <c r="C66" s="10">
         <v>0.02</v>
       </c>
-      <c r="D66" s="9">
+      <c r="D66" s="10">
         <v>0.02</v>
       </c>
-      <c r="E66" s="9">
+      <c r="E66" s="10">
         <v>0.03</v>
       </c>
-      <c r="F66" s="9">
+      <c r="F66" s="10">
         <v>0.03</v>
       </c>
-      <c r="G66" s="9">
+      <c r="G66" s="10">
         <v>0.03</v>
       </c>
-      <c r="H66" s="9">
+      <c r="H66" s="10">
         <v>0.05</v>
       </c>
-      <c r="I66" s="9">
+      <c r="I66" s="10">
         <v>0.11</v>
       </c>
-      <c r="J66" s="9">
+      <c r="J66" s="10">
         <v>0.48</v>
       </c>
-      <c r="K66" s="9">
+      <c r="K66" s="10">
         <v>1.26</v>
       </c>
-      <c r="L66" s="9">
+      <c r="L66" s="10">
         <v>3.6</v>
       </c>
-      <c r="M66" s="9">
+      <c r="M66" s="10">
         <v>13.14</v>
       </c>
-      <c r="N66" s="9">
+      <c r="N66" s="10">
         <v>16.79</v>
       </c>
-      <c r="O66" s="9">
+      <c r="O66" s="10">
         <v>18.190000000000001</v>
       </c>
-      <c r="P66" s="9">
+      <c r="P66" s="10">
         <v>18.600000000000001</v>
       </c>
-      <c r="Q66" s="9">
+      <c r="Q66" s="10">
         <v>18.91</v>
       </c>
-      <c r="R66" s="9">
+      <c r="R66" s="10">
         <v>19.29</v>
       </c>
-      <c r="S66" s="9">
+      <c r="S66" s="10">
         <v>19.690000000000001</v>
       </c>
-      <c r="T66" s="9">
+      <c r="T66" s="10">
         <v>20.11</v>
       </c>
-      <c r="U66" s="9">
+      <c r="U66" s="10">
         <v>20.87</v>
       </c>
-      <c r="V66" s="9">
+      <c r="V66" s="10">
         <v>21.66</v>
       </c>
-      <c r="W66" s="9">
+      <c r="W66" s="10">
         <v>22.6</v>
       </c>
-      <c r="X66" s="9">
+      <c r="X66" s="10">
         <v>24.56</v>
       </c>
-      <c r="Y66" s="9">
+      <c r="Y66" s="10">
         <v>29.8</v>
       </c>
     </row>
@@ -4688,321 +4779,321 @@
       <c r="A67" t="s">
         <v>12</v>
       </c>
-      <c r="B67" s="9">
+      <c r="B67" s="10">
         <v>0.36</v>
       </c>
-      <c r="C67" s="9">
+      <c r="C67" s="10">
         <v>0.66</v>
       </c>
-      <c r="D67" s="9">
+      <c r="D67" s="10">
         <v>0.78</v>
       </c>
-      <c r="E67" s="9">
+      <c r="E67" s="10">
         <v>0.87</v>
       </c>
-      <c r="F67" s="9">
+      <c r="F67" s="10">
         <v>1.1299999999999999</v>
       </c>
-      <c r="G67" s="9">
+      <c r="G67" s="10">
         <v>1.63</v>
       </c>
-      <c r="H67" s="9">
+      <c r="H67" s="10">
         <v>1.9</v>
       </c>
-      <c r="I67" s="9">
+      <c r="I67" s="10">
         <v>2.7</v>
       </c>
-      <c r="J67" s="9">
+      <c r="J67" s="10">
         <v>3.53</v>
       </c>
-      <c r="K67" s="9">
+      <c r="K67" s="10">
         <v>4.88</v>
       </c>
-      <c r="L67" s="9">
+      <c r="L67" s="10">
         <v>5.79</v>
       </c>
-      <c r="M67" s="9">
+      <c r="M67" s="10">
         <v>6.92</v>
       </c>
-      <c r="N67" s="9">
+      <c r="N67" s="10">
         <v>8.1</v>
       </c>
-      <c r="O67" s="9">
+      <c r="O67" s="10">
         <v>8.5399999999999991</v>
       </c>
-      <c r="P67" s="9">
+      <c r="P67" s="10">
         <v>8.68</v>
       </c>
-      <c r="Q67" s="9">
+      <c r="Q67" s="10">
         <v>9.14</v>
       </c>
-      <c r="R67" s="9">
+      <c r="R67" s="10">
         <v>9.3800000000000008</v>
       </c>
-      <c r="S67" s="9">
+      <c r="S67" s="10">
         <v>9.74</v>
       </c>
-      <c r="T67" s="9">
+      <c r="T67" s="10">
         <v>10.23</v>
       </c>
-      <c r="U67" s="9">
+      <c r="U67" s="10">
         <v>10.68</v>
       </c>
-      <c r="V67" s="9">
+      <c r="V67" s="10">
         <v>10.87</v>
       </c>
-      <c r="W67" s="9">
+      <c r="W67" s="10">
         <v>11.25</v>
       </c>
-      <c r="X67" s="9">
+      <c r="X67" s="10">
         <v>11.82</v>
       </c>
-      <c r="Y67" s="9">
+      <c r="Y67" s="10">
         <v>12.31</v>
       </c>
     </row>
     <row r="70" spans="1:26" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A70" s="6" t="s">
-        <v>64</v>
+      <c r="A70" s="7" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A71" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B71" s="7">
+      <c r="A71" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B71" s="8">
         <v>2000</v>
       </c>
-      <c r="C71" s="7">
+      <c r="C71" s="8">
         <v>2001</v>
       </c>
-      <c r="D71" s="7">
+      <c r="D71" s="8">
         <v>2002</v>
       </c>
-      <c r="E71" s="7">
+      <c r="E71" s="8">
         <v>2003</v>
       </c>
-      <c r="F71" s="7">
+      <c r="F71" s="8">
         <v>2004</v>
       </c>
-      <c r="G71" s="7">
+      <c r="G71" s="8">
         <v>2005</v>
       </c>
-      <c r="H71" s="7">
+      <c r="H71" s="8">
         <v>2006</v>
       </c>
-      <c r="I71" s="7">
+      <c r="I71" s="8">
         <v>2007</v>
       </c>
-      <c r="J71" s="7">
+      <c r="J71" s="8">
         <v>2008</v>
       </c>
-      <c r="K71" s="7">
+      <c r="K71" s="8">
         <v>2009</v>
       </c>
-      <c r="L71" s="7">
+      <c r="L71" s="8">
         <v>2010</v>
       </c>
-      <c r="M71" s="7">
+      <c r="M71" s="8">
         <v>2011</v>
       </c>
-      <c r="N71" s="7">
+      <c r="N71" s="8">
         <v>2012</v>
       </c>
-      <c r="O71" s="7">
+      <c r="O71" s="8">
         <v>2013</v>
       </c>
-      <c r="P71" s="7">
+      <c r="P71" s="8">
         <v>2014</v>
       </c>
-      <c r="Q71" s="7">
+      <c r="Q71" s="8">
         <v>2015</v>
       </c>
-      <c r="R71" s="7">
+      <c r="R71" s="8">
         <v>2016</v>
       </c>
-      <c r="S71" s="7">
+      <c r="S71" s="8">
         <v>2017</v>
       </c>
-      <c r="T71" s="7">
+      <c r="T71" s="8">
         <v>2018</v>
       </c>
-      <c r="U71" s="7">
+      <c r="U71" s="8">
         <v>2019</v>
       </c>
-      <c r="V71" s="7">
+      <c r="V71" s="8">
         <v>2020</v>
       </c>
-      <c r="W71" s="7">
+      <c r="W71" s="8">
         <v>2021</v>
       </c>
-      <c r="X71" s="7">
+      <c r="X71" s="8">
         <v>2022</v>
       </c>
-      <c r="Y71" s="7">
+      <c r="Y71" s="8">
         <v>2023</v>
       </c>
-      <c r="Z71" s="7">
+      <c r="Z71" s="8">
         <v>2024</v>
       </c>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>57</v>
-      </c>
-      <c r="B72" s="9">
+        <v>63</v>
+      </c>
+      <c r="B72" s="10">
         <v>0.54149999999999998</v>
       </c>
-      <c r="C72" s="9">
+      <c r="C72" s="10">
         <v>0.57899999999999996</v>
       </c>
-      <c r="D72" s="9">
+      <c r="D72" s="10">
         <v>0.70299999999999996</v>
       </c>
-      <c r="E72" s="9">
+      <c r="E72" s="10">
         <v>0.86199999999999999</v>
       </c>
-      <c r="F72" s="9">
+      <c r="F72" s="10">
         <v>0.87750000000000006</v>
       </c>
-      <c r="G72" s="9">
+      <c r="G72" s="10">
         <v>0.87449999999999994</v>
       </c>
-      <c r="H72" s="9">
+      <c r="H72" s="10">
         <v>0.90049999999999997</v>
       </c>
-      <c r="I72" s="9">
+      <c r="I72" s="10">
         <v>0.95650000000000002</v>
       </c>
-      <c r="J72" s="9">
+      <c r="J72" s="10">
         <v>1.1564999999999999</v>
       </c>
-      <c r="K72" s="9">
+      <c r="K72" s="10">
         <v>1.520205</v>
       </c>
-      <c r="L72" s="9">
+      <c r="L72" s="10">
         <v>1.825715</v>
       </c>
-      <c r="M72" s="9">
+      <c r="M72" s="10">
         <v>2.2620480000000001</v>
       </c>
-      <c r="N72" s="9">
+      <c r="N72" s="10">
         <v>3.1779999999999999</v>
       </c>
-      <c r="O72" s="9">
+      <c r="O72" s="10">
         <v>3.3439999999999999</v>
       </c>
-      <c r="P72" s="9">
+      <c r="P72" s="10">
         <v>3.359</v>
       </c>
-      <c r="Q72" s="9">
+      <c r="Q72" s="10">
         <v>3.367</v>
       </c>
-      <c r="R72" s="9">
+      <c r="R72" s="10">
         <v>3.4390000000000001</v>
       </c>
-      <c r="S72" s="9">
+      <c r="S72" s="10">
         <v>3.450488</v>
       </c>
-      <c r="T72" s="9">
+      <c r="T72" s="10">
         <v>3.4910730000000001</v>
       </c>
-      <c r="U72" s="9">
+      <c r="U72" s="10">
         <v>3.454148</v>
       </c>
-      <c r="V72" s="9">
+      <c r="V72" s="10">
         <v>3.4391939999999996</v>
       </c>
-      <c r="W72" s="9">
+      <c r="W72" s="10">
         <v>3.4203809999999999</v>
       </c>
-      <c r="X72" s="9">
+      <c r="X72" s="10">
         <v>3.3924570000000003</v>
       </c>
-      <c r="Y72" s="9">
+      <c r="Y72" s="10">
         <v>3.3989129999999999</v>
       </c>
-      <c r="Z72" s="9">
+      <c r="Z72" s="10">
         <v>3.3679129999999997</v>
       </c>
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>59</v>
-      </c>
-      <c r="B73" s="9">
+        <v>65</v>
+      </c>
+      <c r="B73" s="10">
         <v>0.59</v>
       </c>
-      <c r="C73" s="9">
+      <c r="C73" s="10">
         <v>0.57299999999999995</v>
       </c>
-      <c r="D73" s="9">
+      <c r="D73" s="10">
         <v>0.66600000000000004</v>
       </c>
-      <c r="E73" s="9">
+      <c r="E73" s="10">
         <v>0.70699999999999996</v>
       </c>
-      <c r="F73" s="9">
+      <c r="F73" s="10">
         <v>0.64200000000000002</v>
       </c>
-      <c r="G73" s="9">
+      <c r="G73" s="10">
         <v>0.67100000000000004</v>
       </c>
-      <c r="H73" s="9">
+      <c r="H73" s="10">
         <v>0.67100000000000004</v>
       </c>
-      <c r="I73" s="9">
+      <c r="I73" s="10">
         <v>0.67100000000000004</v>
       </c>
-      <c r="J73" s="9">
+      <c r="J73" s="10">
         <v>0.67100000000000004</v>
       </c>
-      <c r="K73" s="9">
+      <c r="K73" s="10">
         <v>0.69499999999999995</v>
       </c>
-      <c r="L73" s="9">
+      <c r="L73" s="10">
         <v>0.72799999999999998</v>
       </c>
-      <c r="M73" s="9">
+      <c r="M73" s="10">
         <v>0.72799999999999998</v>
       </c>
-      <c r="N73" s="9">
+      <c r="N73" s="10">
         <v>0.72799999999999998</v>
       </c>
-      <c r="O73" s="9">
+      <c r="O73" s="10">
         <v>0.72899999999999998</v>
       </c>
-      <c r="P73" s="9">
+      <c r="P73" s="10">
         <v>0.76800000000000002</v>
       </c>
-      <c r="Q73" s="9">
+      <c r="Q73" s="10">
         <v>0.76800000000000002</v>
       </c>
-      <c r="R73" s="9">
+      <c r="R73" s="10">
         <v>0.76700000000000002</v>
       </c>
-      <c r="S73" s="9">
+      <c r="S73" s="10">
         <v>0.76719000000000004</v>
       </c>
-      <c r="T73" s="9">
+      <c r="T73" s="10">
         <v>0.76719000000000004</v>
       </c>
-      <c r="U73" s="9">
+      <c r="U73" s="10">
         <v>0.76719000000000004</v>
       </c>
-      <c r="V73" s="9">
+      <c r="V73" s="10">
         <v>0.77178999999999998</v>
       </c>
-      <c r="W73" s="9">
+      <c r="W73" s="10">
         <v>0.77178999999999998</v>
       </c>
-      <c r="X73" s="9">
+      <c r="X73" s="10">
         <v>0.77178999999999998</v>
       </c>
-      <c r="Y73" s="9">
+      <c r="Y73" s="10">
         <v>0.77178999999999998</v>
       </c>
-      <c r="Z73" s="9">
+      <c r="Z73" s="10">
         <v>0.77178999999999998</v>
       </c>
     </row>
@@ -5010,79 +5101,79 @@
       <c r="A74" t="s">
         <v>6</v>
       </c>
-      <c r="B74" s="9">
+      <c r="B74" s="10">
         <v>20.346</v>
       </c>
-      <c r="C74" s="9">
+      <c r="C74" s="10">
         <v>20.433999999999997</v>
       </c>
-      <c r="D74" s="9">
+      <c r="D74" s="10">
         <v>20.513999999999999</v>
       </c>
-      <c r="E74" s="9">
+      <c r="E74" s="10">
         <v>20.66</v>
       </c>
-      <c r="F74" s="9">
+      <c r="F74" s="10">
         <v>20.744</v>
       </c>
-      <c r="G74" s="9">
+      <c r="G74" s="10">
         <v>20.993000000000002</v>
       </c>
-      <c r="H74" s="9">
+      <c r="H74" s="10">
         <v>21.071999999999999</v>
       </c>
-      <c r="I74" s="9">
+      <c r="I74" s="10">
         <v>21.117000000000001</v>
       </c>
-      <c r="J74" s="9">
+      <c r="J74" s="10">
         <v>21.276</v>
       </c>
-      <c r="K74" s="9">
+      <c r="K74" s="10">
         <v>21.370999999999999</v>
       </c>
-      <c r="L74" s="9">
+      <c r="L74" s="10">
         <v>21.52</v>
       </c>
-      <c r="M74" s="9">
+      <c r="M74" s="10">
         <v>21.736999999999998</v>
       </c>
-      <c r="N74" s="9">
+      <c r="N74" s="10">
         <v>21.88</v>
       </c>
-      <c r="O74" s="9">
+      <c r="O74" s="10">
         <v>22.009</v>
       </c>
-      <c r="P74" s="9">
+      <c r="P74" s="10">
         <v>22.097999999999999</v>
       </c>
-      <c r="Q74" s="9">
+      <c r="Q74" s="10">
         <v>22.22</v>
       </c>
-      <c r="R74" s="9">
+      <c r="R74" s="10">
         <v>22.298000000000002</v>
       </c>
-      <c r="S74" s="9">
+      <c r="S74" s="10">
         <v>22.426015</v>
       </c>
-      <c r="T74" s="9">
+      <c r="T74" s="10">
         <v>22.498587000000001</v>
       </c>
-      <c r="U74" s="9">
+      <c r="U74" s="10">
         <v>22.541086</v>
       </c>
-      <c r="V74" s="9">
+      <c r="V74" s="10">
         <v>22.694985000000003</v>
       </c>
-      <c r="W74" s="9">
+      <c r="W74" s="10">
         <v>22.749659999999999</v>
       </c>
-      <c r="X74" s="9">
+      <c r="X74" s="10">
         <v>22.860789</v>
       </c>
-      <c r="Y74" s="9">
+      <c r="Y74" s="10">
         <v>22.911977</v>
       </c>
-      <c r="Z74" s="9">
+      <c r="Z74" s="10">
         <v>22.938977000000001</v>
       </c>
     </row>
@@ -5090,79 +5181,79 @@
       <c r="A75" t="s">
         <v>23</v>
       </c>
-      <c r="B75" s="9">
+      <c r="B75" s="10">
         <v>53.650499999999994</v>
       </c>
-      <c r="C75" s="9">
+      <c r="C75" s="10">
         <v>53.823</v>
       </c>
-      <c r="D75" s="9">
+      <c r="D75" s="10">
         <v>53.821999999999996</v>
       </c>
-      <c r="E75" s="9">
+      <c r="E75" s="10">
         <v>55.184000000000005</v>
       </c>
-      <c r="F75" s="9">
+      <c r="F75" s="10">
         <v>57.914499999999997</v>
       </c>
-      <c r="G75" s="9">
+      <c r="G75" s="10">
         <v>61.290499999999994</v>
       </c>
-      <c r="H75" s="9">
+      <c r="H75" s="10">
         <v>64.895499999999998</v>
       </c>
-      <c r="I75" s="9">
+      <c r="I75" s="10">
         <v>68.0655</v>
       </c>
-      <c r="J75" s="9">
+      <c r="J75" s="10">
         <v>71.5655</v>
       </c>
-      <c r="K75" s="9">
+      <c r="K75" s="10">
         <v>71.839794999999995</v>
       </c>
-      <c r="L75" s="9">
+      <c r="L75" s="10">
         <v>73.150284999999997</v>
       </c>
-      <c r="M75" s="9">
+      <c r="M75" s="10">
         <v>74.024951999999999</v>
       </c>
-      <c r="N75" s="9">
+      <c r="N75" s="10">
         <v>73.926000000000002</v>
       </c>
-      <c r="O75" s="9">
+      <c r="O75" s="10">
         <v>71.706000000000003</v>
       </c>
-      <c r="P75" s="9">
+      <c r="P75" s="10">
         <v>68.245000000000005</v>
       </c>
-      <c r="Q75" s="9">
+      <c r="Q75" s="10">
         <v>62.571000000000005</v>
       </c>
-      <c r="R75" s="9">
+      <c r="R75" s="10">
         <v>58.991</v>
       </c>
-      <c r="S75" s="9">
+      <c r="S75" s="10">
         <v>58.178086</v>
       </c>
-      <c r="T75" s="9">
+      <c r="T75" s="10">
         <v>58.126239999999996</v>
       </c>
-      <c r="U75" s="9">
+      <c r="U75" s="10">
         <v>58.127802000000003</v>
       </c>
-      <c r="V75" s="9">
+      <c r="V75" s="10">
         <v>56.956506000000005</v>
       </c>
-      <c r="W75" s="9">
+      <c r="W75" s="10">
         <v>56.369798000000003</v>
       </c>
-      <c r="X75" s="9">
+      <c r="X75" s="10">
         <v>57.037187000000003</v>
       </c>
-      <c r="Y75" s="9">
+      <c r="Y75" s="10">
         <v>61.318776999999997</v>
       </c>
-      <c r="Z75" s="9">
+      <c r="Z75" s="10">
         <v>61.446776999999997</v>
       </c>
     </row>
@@ -5170,79 +5261,79 @@
       <c r="A76" t="s">
         <v>9</v>
       </c>
-      <c r="B76" s="9">
+      <c r="B76" s="10">
         <v>1.9E-2</v>
       </c>
-      <c r="C76" s="9">
+      <c r="C76" s="10">
         <v>0.02</v>
       </c>
-      <c r="D76" s="9">
+      <c r="D76" s="10">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="E76" s="9">
+      <c r="E76" s="10">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="F76" s="9">
+      <c r="F76" s="10">
         <v>3.1E-2</v>
       </c>
-      <c r="G76" s="9">
+      <c r="G76" s="10">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="H76" s="9">
+      <c r="H76" s="10">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="I76" s="9">
+      <c r="I76" s="10">
         <v>0.11</v>
       </c>
-      <c r="J76" s="9">
+      <c r="J76" s="10">
         <v>0.48299999999999998</v>
       </c>
-      <c r="K76" s="9">
+      <c r="K76" s="10">
         <v>1.264</v>
       </c>
-      <c r="L76" s="9">
+      <c r="L76" s="10">
         <v>3.5967199999999999</v>
       </c>
-      <c r="M76" s="9">
+      <c r="M76" s="10">
         <v>13.041720000000002</v>
       </c>
-      <c r="N76" s="9">
+      <c r="N76" s="10">
         <v>16.658719999999999</v>
       </c>
-      <c r="O76" s="9">
+      <c r="O76" s="10">
         <v>18.03172</v>
       </c>
-      <c r="P76" s="9">
+      <c r="P76" s="10">
         <v>18.440719999999999</v>
       </c>
-      <c r="Q76" s="9">
+      <c r="Q76" s="10">
         <v>18.741719999999997</v>
       </c>
-      <c r="R76" s="9">
+      <c r="R76" s="10">
         <v>19.11572</v>
       </c>
-      <c r="S76" s="9">
+      <c r="S76" s="10">
         <v>19.504010000000001</v>
       </c>
-      <c r="T76" s="9">
+      <c r="T76" s="10">
         <v>19.916312999999999</v>
       </c>
-      <c r="U76" s="9">
+      <c r="U76" s="10">
         <v>20.624991999999999</v>
       </c>
-      <c r="V76" s="9">
+      <c r="V76" s="10">
         <v>21.358758999999999</v>
       </c>
-      <c r="W76" s="9">
+      <c r="W76" s="10">
         <v>22.285972999999998</v>
       </c>
-      <c r="X76" s="9">
+      <c r="X76" s="10">
         <v>24.559967999999998</v>
       </c>
-      <c r="Y76" s="9">
+      <c r="Y76" s="10">
         <v>29.356116</v>
       </c>
-      <c r="Z76" s="9">
+      <c r="Z76" s="10">
         <v>36.013115999999997</v>
       </c>
     </row>
@@ -5250,325 +5341,325 @@
       <c r="A77" t="s">
         <v>12</v>
       </c>
-      <c r="B77" s="9">
+      <c r="B77" s="10">
         <v>0.36299999999999999</v>
       </c>
-      <c r="C77" s="9">
+      <c r="C77" s="10">
         <v>0.66400000000000003</v>
       </c>
-      <c r="D77" s="9">
+      <c r="D77" s="10">
         <v>0.78</v>
       </c>
-      <c r="E77" s="9">
+      <c r="E77" s="10">
         <v>0.874</v>
       </c>
-      <c r="F77" s="9">
+      <c r="F77" s="10">
         <v>1.127</v>
       </c>
-      <c r="G77" s="9">
+      <c r="G77" s="10">
         <v>1.635</v>
       </c>
-      <c r="H77" s="9">
+      <c r="H77" s="10">
         <v>1.9019999999999999</v>
       </c>
-      <c r="I77" s="9">
+      <c r="I77" s="10">
         <v>2.702</v>
       </c>
-      <c r="J77" s="9">
+      <c r="J77" s="10">
         <v>3.5249999999999999</v>
       </c>
-      <c r="K77" s="9">
+      <c r="K77" s="10">
         <v>4.8789999999999996</v>
       </c>
-      <c r="L77" s="9">
+      <c r="L77" s="10">
         <v>5.7939999999999996</v>
       </c>
-      <c r="M77" s="9">
+      <c r="M77" s="10">
         <v>6.9180000000000001</v>
       </c>
-      <c r="N77" s="9">
+      <c r="N77" s="10">
         <v>8.1020000000000003</v>
       </c>
-      <c r="O77" s="9">
+      <c r="O77" s="10">
         <v>8.5419999999999998</v>
       </c>
-      <c r="P77" s="9">
+      <c r="P77" s="10">
         <v>8.6829999999999998</v>
       </c>
-      <c r="Q77" s="9">
+      <c r="Q77" s="10">
         <v>9.1370000000000005</v>
       </c>
-      <c r="R77" s="9">
+      <c r="R77" s="10">
         <v>9.3840000000000003</v>
       </c>
-      <c r="S77" s="9">
+      <c r="S77" s="10">
         <v>9.7365779999999997</v>
       </c>
-      <c r="T77" s="9">
+      <c r="T77" s="10">
         <v>10.230245999999999</v>
       </c>
-      <c r="U77" s="9">
+      <c r="U77" s="10">
         <v>10.679459999999999</v>
       </c>
-      <c r="V77" s="9">
+      <c r="V77" s="10">
         <v>10.870621999999999</v>
       </c>
-      <c r="W77" s="9">
+      <c r="W77" s="10">
         <v>11.253733</v>
       </c>
-      <c r="X77" s="9">
+      <c r="X77" s="10">
         <v>11.820508</v>
       </c>
-      <c r="Y77" s="9">
+      <c r="Y77" s="10">
         <v>12.3073</v>
       </c>
-      <c r="Z77" s="9">
+      <c r="Z77" s="10">
         <v>12.9923</v>
       </c>
     </row>
     <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="85" spans="1:26" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A85" s="6" t="s">
-        <v>65</v>
+      <c r="A85" s="7" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A86" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B86" s="7" t="s">
+      <c r="A86" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B86" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C86" s="7">
+      <c r="C86" s="8">
         <v>2000</v>
       </c>
-      <c r="D86" s="7">
+      <c r="D86" s="8">
         <v>2001</v>
       </c>
-      <c r="E86" s="7">
+      <c r="E86" s="8">
         <v>2002</v>
       </c>
-      <c r="F86" s="7">
+      <c r="F86" s="8">
         <v>2003</v>
       </c>
-      <c r="G86" s="7">
+      <c r="G86" s="8">
         <v>2004</v>
       </c>
-      <c r="H86" s="7">
+      <c r="H86" s="8">
         <v>2005</v>
       </c>
-      <c r="I86" s="7">
+      <c r="I86" s="8">
         <v>2006</v>
       </c>
-      <c r="J86" s="7">
+      <c r="J86" s="8">
         <v>2007</v>
       </c>
-      <c r="K86" s="7">
+      <c r="K86" s="8">
         <v>2008</v>
       </c>
-      <c r="L86" s="7">
+      <c r="L86" s="8">
         <v>2009</v>
       </c>
-      <c r="M86" s="7">
+      <c r="M86" s="8">
         <v>2010</v>
       </c>
-      <c r="N86" s="7">
+      <c r="N86" s="8">
         <v>2011</v>
       </c>
-      <c r="O86" s="7">
+      <c r="O86" s="8">
         <v>2012</v>
       </c>
-      <c r="P86" s="7">
+      <c r="P86" s="8">
         <v>2013</v>
       </c>
-      <c r="Q86" s="7">
+      <c r="Q86" s="8">
         <v>2014</v>
       </c>
-      <c r="R86" s="7">
+      <c r="R86" s="8">
         <v>2015</v>
       </c>
-      <c r="S86" s="7">
+      <c r="S86" s="8">
         <v>2016</v>
       </c>
-      <c r="T86" s="7">
+      <c r="T86" s="8">
         <v>2017</v>
       </c>
-      <c r="U86" s="7">
+      <c r="U86" s="8">
         <v>2018</v>
       </c>
-      <c r="V86" s="7">
+      <c r="V86" s="8">
         <v>2019</v>
       </c>
-      <c r="W86" s="7">
+      <c r="W86" s="8">
         <v>2020</v>
       </c>
-      <c r="X86" s="7">
+      <c r="X86" s="8">
         <v>2021</v>
       </c>
-      <c r="Y86" s="7">
+      <c r="Y86" s="8">
         <v>2022</v>
       </c>
-      <c r="Z86" s="7">
+      <c r="Z86" s="8">
         <v>2023</v>
       </c>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B87" t="s">
-        <v>68</v>
-      </c>
-      <c r="C87" s="9">
+        <v>74</v>
+      </c>
+      <c r="C87" s="10">
         <v>44.35</v>
       </c>
-      <c r="D87" s="9">
+      <c r="D87" s="10">
         <v>48.38</v>
       </c>
-      <c r="E87" s="9">
+      <c r="E87" s="10">
         <v>50.6</v>
       </c>
-      <c r="F87" s="9">
+      <c r="F87" s="10">
         <v>50.97</v>
       </c>
-      <c r="G87" s="9">
+      <c r="G87" s="10">
         <v>45.63</v>
       </c>
-      <c r="H87" s="9">
+      <c r="H87" s="10">
         <v>49.15</v>
       </c>
-      <c r="I87" s="9">
+      <c r="I87" s="10">
         <v>44.99</v>
       </c>
-      <c r="J87" s="9">
+      <c r="J87" s="10">
         <v>46.28</v>
       </c>
-      <c r="K87" s="9">
+      <c r="K87" s="10">
         <v>40.03</v>
       </c>
-      <c r="L87" s="9">
+      <c r="L87" s="10">
         <v>44.96</v>
       </c>
-      <c r="M87" s="9">
+      <c r="M87" s="10">
         <v>44.16</v>
       </c>
-      <c r="N87" s="9">
+      <c r="N87" s="10">
         <v>45.73</v>
       </c>
-      <c r="O87" s="9">
+      <c r="O87" s="10">
         <v>43.1</v>
       </c>
-      <c r="P87" s="9">
+      <c r="P87" s="10">
         <v>42.14</v>
       </c>
-      <c r="Q87" s="9">
+      <c r="Q87" s="10">
         <v>43.72</v>
       </c>
-      <c r="R87" s="9">
+      <c r="R87" s="10">
         <v>46.38</v>
       </c>
-      <c r="S87" s="9">
+      <c r="S87" s="10">
         <v>37.03</v>
       </c>
-      <c r="T87" s="9">
+      <c r="T87" s="10">
         <v>37.76</v>
       </c>
-      <c r="U87" s="9">
+      <c r="U87" s="10">
         <v>43.9</v>
       </c>
-      <c r="V87" s="9">
+      <c r="V87" s="10">
         <v>38.14</v>
       </c>
-      <c r="W87" s="9">
+      <c r="W87" s="10">
         <v>32.200000000000003</v>
       </c>
-      <c r="X87" s="9">
+      <c r="X87" s="10">
         <v>42.79</v>
       </c>
-      <c r="Y87" s="9">
+      <c r="Y87" s="10">
         <v>42.99</v>
       </c>
-      <c r="Z87" s="9">
+      <c r="Z87" s="10">
         <v>51.25</v>
       </c>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B88" t="s">
-        <v>69</v>
-      </c>
-      <c r="C88" s="9">
-        <v>0</v>
-      </c>
-      <c r="D88" s="9">
-        <v>0</v>
-      </c>
-      <c r="E88" s="9">
-        <v>0</v>
-      </c>
-      <c r="F88" s="9">
-        <v>0</v>
-      </c>
-      <c r="G88" s="9">
-        <v>0</v>
-      </c>
-      <c r="H88" s="9">
-        <v>0</v>
-      </c>
-      <c r="I88" s="9">
-        <v>0</v>
-      </c>
-      <c r="J88" s="9">
-        <v>0</v>
-      </c>
-      <c r="K88" s="9">
-        <v>0</v>
-      </c>
-      <c r="L88" s="9">
-        <v>0</v>
-      </c>
-      <c r="M88" s="9">
-        <v>0</v>
-      </c>
-      <c r="N88" s="9">
-        <v>0</v>
-      </c>
-      <c r="O88" s="9">
-        <v>0</v>
-      </c>
-      <c r="P88" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q88" s="9">
-        <v>0</v>
-      </c>
-      <c r="R88" s="9">
-        <v>0</v>
-      </c>
-      <c r="S88" s="9">
-        <v>0</v>
-      </c>
-      <c r="T88" s="9">
-        <v>0</v>
-      </c>
-      <c r="U88" s="9">
-        <v>0</v>
-      </c>
-      <c r="V88" s="9">
-        <v>0</v>
-      </c>
-      <c r="W88" s="9">
-        <v>0</v>
-      </c>
-      <c r="X88" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y88" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z88" s="9">
+        <v>75</v>
+      </c>
+      <c r="C88" s="10">
+        <v>0</v>
+      </c>
+      <c r="D88" s="10">
+        <v>0</v>
+      </c>
+      <c r="E88" s="10">
+        <v>0</v>
+      </c>
+      <c r="F88" s="10">
+        <v>0</v>
+      </c>
+      <c r="G88" s="10">
+        <v>0</v>
+      </c>
+      <c r="H88" s="10">
+        <v>0</v>
+      </c>
+      <c r="I88" s="10">
+        <v>0</v>
+      </c>
+      <c r="J88" s="10">
+        <v>0</v>
+      </c>
+      <c r="K88" s="10">
+        <v>0</v>
+      </c>
+      <c r="L88" s="10">
+        <v>0</v>
+      </c>
+      <c r="M88" s="10">
+        <v>0</v>
+      </c>
+      <c r="N88" s="10">
+        <v>0</v>
+      </c>
+      <c r="O88" s="10">
+        <v>0</v>
+      </c>
+      <c r="P88" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="10">
+        <v>0</v>
+      </c>
+      <c r="R88" s="10">
+        <v>0</v>
+      </c>
+      <c r="S88" s="10">
+        <v>0</v>
+      </c>
+      <c r="T88" s="10">
+        <v>0</v>
+      </c>
+      <c r="U88" s="10">
+        <v>0</v>
+      </c>
+      <c r="V88" s="10">
+        <v>0</v>
+      </c>
+      <c r="W88" s="10">
+        <v>0</v>
+      </c>
+      <c r="X88" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="10">
         <v>0</v>
       </c>
     </row>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9627C393-9AA6-4520-BB2E-A2CCC024ED91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13842A8-2F4C-4CFE-B6C1-78D156A42E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13842A8-2F4C-4CFE-B6C1-78D156A42E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948C12CE-FDC7-42B3-8649-06A4D3D3F760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948C12CE-FDC7-42B3-8649-06A4D3D3F760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E85A6F-B500-4885-8131-B2F271B883F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E85A6F-B500-4885-8131-B2F271B883F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49016265-5F13-417E-B165-0DACF5E02AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49016265-5F13-417E-B165-0DACF5E02AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00005976-0692-4ED6-BEF9-8DD05350D8CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00005976-0692-4ED6-BEF9-8DD05350D8CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E0C669-E4E0-43ED-B83E-204D47B26719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E0C669-E4E0-43ED-B83E-204D47B26719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F03833C-E704-4B10-AAE2-2C8219314328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F03833C-E704-4B10-AAE2-2C8219314328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044B4D52-C02B-40E3-A8DA-862AEEDBA01D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044B4D52-C02B-40E3-A8DA-862AEEDBA01D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7461130-FAB3-4CFF-A810-449DF0F0030E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2DF5CA3-64B2-4505-947F-6EDD71040366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196D1765-7267-4B35-A0CB-4F67ACC1D76F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -306,11 +306,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,19 +339,12 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -361,18 +353,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF4F81BD"/>
+        <fgColor rgb="FFDCE6F1"/>
         <bgColor rgb="FFDCE6F1"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF7F9FC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -380,58 +366,22 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -779,11 +729,10 @@
     <col min="3" max="3" width="10.73046875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.59765625" customWidth="1"/>
     <col min="5" max="5" width="9.53125" customWidth="1"/>
-    <col min="6" max="6" width="11.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.9296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.59765625" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.06640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.9296875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6.265625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4.06640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="4.19921875" bestFit="1" customWidth="1"/>
@@ -806,7 +755,7 @@
     <col min="36" max="36" width="11.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
       <c r="AA1">
         <v>1.1000000000000001</v>
       </c>
@@ -814,47 +763,47 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="19.149999999999999" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="F2" s="6" t="s">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="F2" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="4">
         <v>0.52921203606135103</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="4">
         <v>0.77363813512491642</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="4">
         <v>0.29387335196920444</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="4">
         <v>0.65763867133730136</v>
       </c>
       <c r="V3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -867,43 +816,43 @@
       <c r="D4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="4">
         <v>0.19733814732221869</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="4">
         <v>0.62231700981598448</v>
       </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-    </row>
-    <row r="5" spans="1:36" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="5">
         <f>IFERROR(VLOOKUP(B5,$F$3:$J$11,5,FALSE),"")</f>
         <v>0.31127604163438005</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="4">
         <v>0.15844369919854487</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="4">
         <v>0.2955149688458561</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:36" ht="16.5" x14ac:dyDescent="0.6">
-      <c r="A6" s="5">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A6" s="6">
         <v>0.28000000000000003</v>
       </c>
       <c r="B6" t="s">
@@ -912,19 +861,19 @@
       <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="5">
         <f>IFERROR(MIN(VLOOKUP(B6,$F$3:$J$11,5,FALSE),$A$6),"")</f>
         <v>0.14275360852558924</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" t="s">
         <v>67</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="13">
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4">
         <v>0.79908675799086759</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="4">
         <v>0.96681069431997602</v>
       </c>
       <c r="U6" t="s">
@@ -934,30 +883,30 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="5">
         <f t="shared" ref="D7" si="0">IFERROR(VLOOKUP(B7,$F$3:$J$11,5,FALSE),"")</f>
         <v>0.21594436217582091</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="4">
         <v>0.1712630286539932</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="4">
         <v>0.36886258026147345</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="4">
         <v>0.15125668935897063</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="4">
         <v>0.31127604163438005</v>
       </c>
       <c r="U7" t="s">
@@ -1006,24 +955,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>19</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="5">
         <f>IFERROR(VLOOKUP(B8,$F$3:$J$11,3,FALSE),"")</f>
         <v>0</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
       <c r="U8" t="s">
         <v>20</v>
       </c>
@@ -1076,20 +1025,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="16.5" x14ac:dyDescent="0.6">
-      <c r="F9" s="7" t="s">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="F9" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="4">
         <v>0.88232496194824972</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="4">
         <v>8.2835036602159899</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="4">
         <v>2.1681649145671975E-2</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="4">
         <v>0.18947752518915301</v>
       </c>
       <c r="U9" t="s">
@@ -1144,37 +1093,37 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="16.5" x14ac:dyDescent="0.6">
-      <c r="F10" s="9" t="s">
+    <row r="10" spans="1:36" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F10" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="4">
         <v>4.1511000415110001E-2</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="4">
         <v>0.14134611593860083</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="4">
         <v>4.0424449979244499E-2</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="4">
         <v>0.14275360852558924</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="16.5" x14ac:dyDescent="0.6">
-      <c r="F11" s="7" t="s">
+    <row r="11" spans="1:36" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F11" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="4">
         <v>0.15298675050527735</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="4">
         <v>0.21801705559203086</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="4">
         <v>0.15299618343829349</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="4">
         <v>0.21594436217582091</v>
       </c>
     </row>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196D1765-7267-4B35-A0CB-4F67ACC1D76F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5AF519-0EFD-49E5-B90E-C35892C215A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Veda" sheetId="1" r:id="rId1"/>
-    <sheet name="historical_data" sheetId="2" r:id="rId2"/>
+    <sheet name="historical_data_long" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1502" uniqueCount="76">
   <si>
     <t>~TFM_INS-AT</t>
   </si>
@@ -299,6 +299,30 @@
     <t>bioenergy</t>
   </si>
   <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>TWh</t>
+  </si>
+  <si>
+    <t>GW</t>
+  </si>
+  <si>
+    <t>mtCO2</t>
+  </si>
+  <si>
+    <t>Export</t>
+  </si>
+  <si>
+    <t>Import</t>
+  </si>
+  <si>
     <t>geothermal</t>
   </si>
 </sst>
@@ -306,10 +330,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,8 +368,28 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF969696"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -357,8 +402,20 @@
         <bgColor rgb="FFDCE6F1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4F81BD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7F9FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -366,12 +423,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -382,6 +469,12 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -719,9 +812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -730,7 +821,7 @@
     <col min="4" max="4" width="8.59765625" customWidth="1"/>
     <col min="5" max="5" width="9.53125" customWidth="1"/>
     <col min="6" max="7" width="9.73046875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.06640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.73046875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.59765625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.9296875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6.265625" bestFit="1" customWidth="1"/>
@@ -866,7 +957,7 @@
         <v>0.14275360852558924</v>
       </c>
       <c r="F6" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -1399,34 +1490,9729 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A84"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC33DFE9-8C65-4A33-8FAE-96323628CE2A}">
+  <dimension ref="A1:D698"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D698"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="39.53125" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.73046875" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.73046875" bestFit="1" customWidth="1"/>
-    <col min="14" max="19" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.73046875" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.73046875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.73046875" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="4.73046875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="1" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="8"/>
+    </row>
+    <row r="2" spans="1:4" ht="19.149999999999999" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A2" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A3" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="10">
+        <v>2000</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="11">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="12">
+        <v>2000</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="13">
+        <v>26.28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="10">
+        <v>2000</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="11">
+        <v>101.36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="12">
+        <v>2000</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="13">
+        <v>44.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="10">
+        <v>2000</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="12">
+        <v>2000</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="13">
+        <v>91.43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A9" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="10">
+        <v>2000</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="11">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12">
+        <v>2000</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="13">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="10">
+        <v>2000</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="11">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A12" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="12">
+        <v>2001</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="13">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="10">
+        <v>2001</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="11">
+        <v>31.73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A14" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="12">
+        <v>2001</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="13">
+        <v>104.19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A15" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="10">
+        <v>2001</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="11">
+        <v>46.81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="12">
+        <v>2001</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A17" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="10">
+        <v>2001</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="11">
+        <v>81.63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A18" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="12">
+        <v>2001</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="13">
+        <v>4.51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="10">
+        <v>2001</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="11">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A20" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="12">
+        <v>2001</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="13">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A21" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="10">
+        <v>2002</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="11">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A22" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="12">
+        <v>2002</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="13">
+        <v>35.450000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A23" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="10">
+        <v>2002</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="11">
+        <v>99.41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A24" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="12">
+        <v>2002</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="13">
+        <v>39.520000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A25" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="10">
+        <v>2002</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A26" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="12">
+        <v>2002</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="13">
+        <v>94.36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A27" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="10">
+        <v>2002</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="11">
+        <v>4.66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A28" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="12">
+        <v>2002</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="13">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A29" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="10">
+        <v>2002</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="11">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A30" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="12">
+        <v>2003</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="13">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A31" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="10">
+        <v>2003</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="11">
+        <v>38.81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A32" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="12">
+        <v>2003</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="13">
+        <v>117.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A33" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="10">
+        <v>2003</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="11">
+        <v>36.67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A34" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="12">
+        <v>2003</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A35" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="10">
+        <v>2003</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="11">
+        <v>83.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A36" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="12">
+        <v>2003</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" s="13">
+        <v>5.34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A37" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="10">
+        <v>2003</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" s="11">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A38" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="12">
+        <v>2003</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="13">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A39" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" s="10">
+        <v>2004</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" s="11">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A40" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="12">
+        <v>2004</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" s="13">
+        <v>45.52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A41" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="10">
+        <v>2004</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" s="11">
+        <v>129.84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A42" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="12">
+        <v>2004</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D42" s="13">
+        <v>42.34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A43" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" s="10">
+        <v>2004</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A44" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" s="12">
+        <v>2004</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D44" s="13">
+        <v>64.48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A45" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" s="10">
+        <v>2004</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" s="11">
+        <v>5.44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A46" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="12">
+        <v>2004</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D46" s="13">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A47" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="10">
+        <v>2004</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D47" s="11">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A48" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" s="12">
+        <v>2005</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D48" s="13">
+        <v>4.67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A49" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="10">
+        <v>2005</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D49" s="11">
+        <v>43.61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A50" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="12">
+        <v>2005</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D50" s="13">
+        <v>149.33000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A51" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="10">
+        <v>2005</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D51" s="11">
+        <v>36.07</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A52" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B52" s="12">
+        <v>2005</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D52" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A53" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" s="10">
+        <v>2005</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D53" s="11">
+        <v>53.26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A54" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54" s="12">
+        <v>2005</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D54" s="13">
+        <v>5.32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A55" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" s="10">
+        <v>2005</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D55" s="11">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A56" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" s="12">
+        <v>2005</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D56" s="13">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A57" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57" s="10">
+        <v>2006</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D57" s="11">
+        <v>5.1100000000000003</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A58" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" s="12">
+        <v>2006</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D58" s="13">
+        <v>44.21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A59" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" s="10">
+        <v>2006</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D59" s="11">
+        <v>158.13999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A60" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="12">
+        <v>2006</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D60" s="13">
+        <v>36.99</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A61" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B61" s="10">
+        <v>2006</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D61" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A62" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B62" s="12">
+        <v>2006</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D62" s="13">
+        <v>52.62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A63" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" s="10">
+        <v>2006</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D63" s="11">
+        <v>5.53</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A64" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" s="12">
+        <v>2006</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D64" s="13">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A65" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65" s="10">
+        <v>2006</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D65" s="11">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A66" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" s="12">
+        <v>2007</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D66" s="13">
+        <v>5.26</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A67" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" s="10">
+        <v>2007</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D67" s="11">
+        <v>44.11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A68" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" s="12">
+        <v>2007</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D68" s="13">
+        <v>172.71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A69" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" s="10">
+        <v>2007</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D69" s="11">
+        <v>32.82</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A70" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B70" s="12">
+        <v>2007</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D70" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A71" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B71" s="10">
+        <v>2007</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D71" s="11">
+        <v>41.63</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A72" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B72" s="12">
+        <v>2007</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D72" s="13">
+        <v>5.57</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A73" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73" s="10">
+        <v>2007</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D73" s="11">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A74" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" s="12">
+        <v>2007</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D74" s="13">
+        <v>4.03</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A75" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B75" s="10">
+        <v>2008</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D75" s="11">
+        <v>5.97</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A76" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" s="12">
+        <v>2008</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D76" s="13">
+        <v>43.07</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A77" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" s="10">
+        <v>2008</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D77" s="11">
+        <v>172.77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A78" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" s="12">
+        <v>2008</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D78" s="13">
+        <v>41.62</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A79" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B79" s="10">
+        <v>2008</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D79" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A80" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B80" s="12">
+        <v>2008</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D80" s="13">
+        <v>37.57</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A81" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B81" s="10">
+        <v>2008</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D81" s="11">
+        <v>5.52</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A82" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82" s="12">
+        <v>2008</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D82" s="13">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A83" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B83" s="10">
+        <v>2008</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D83" s="11">
+        <v>4.8600000000000003</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A84" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B84" s="12">
+        <v>2009</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D84" s="13">
+        <v>7.56</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A85" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="10">
+        <v>2009</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D85" s="11">
+        <v>39.74</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A86" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="12">
+        <v>2009</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D86" s="13">
+        <v>147.36000000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A87" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87" s="10">
+        <v>2009</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D87" s="11">
+        <v>49.14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A88" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B88" s="12">
+        <v>2009</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D88" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A89" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B89" s="10">
+        <v>2009</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D89" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A90" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B90" s="12">
+        <v>2009</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D90" s="13">
+        <v>5.34</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A91" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91" s="10">
+        <v>2009</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D91" s="11">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A92" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B92" s="12">
+        <v>2009</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D92" s="13">
+        <v>6.54</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A93" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B93" s="10">
+        <v>2010</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D93" s="11">
+        <v>9.44</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A94" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D94" s="13">
+        <v>39.729999999999997</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A95" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" s="10">
+        <v>2010</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D95" s="11">
+        <v>152.81</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A96" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D96" s="13">
+        <v>51.12</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A97" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B97" s="10">
+        <v>2010</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D97" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A98" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B98" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D98" s="13">
+        <v>27.12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A99" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B99" s="10">
+        <v>2010</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D99" s="11">
+        <v>5.38</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A100" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D100" s="13">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A101" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B101" s="10">
+        <v>2010</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D101" s="11">
+        <v>9.1199999999999992</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A102" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B102" s="12">
+        <v>2011</v>
+      </c>
+      <c r="C102" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D102" s="13">
+        <v>10.83</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A103" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="10">
+        <v>2011</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D103" s="11">
+        <v>44.73</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A104" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" s="12">
+        <v>2011</v>
+      </c>
+      <c r="C104" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D104" s="13">
+        <v>144.6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A105" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B105" s="10">
+        <v>2011</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D105" s="11">
+        <v>45.82</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A106" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B106" s="12">
+        <v>2011</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D106" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A107" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B107" s="10">
+        <v>2011</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D107" s="11">
+        <v>26.09</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A108" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B108" s="12">
+        <v>2011</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D108" s="13">
+        <v>5.65</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A109" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B109" s="10">
+        <v>2011</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D109" s="11">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A110" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B110" s="12">
+        <v>2011</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D110" s="13">
+        <v>9.85</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A111" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B111" s="10">
+        <v>2012</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D111" s="11">
+        <v>12.49</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A112" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B112" s="12">
+        <v>2012</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D112" s="13">
+        <v>49.14</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A113" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B113" s="10">
+        <v>2012</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D113" s="11">
+        <v>129.13999999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A114" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B114" s="12">
+        <v>2012</v>
+      </c>
+      <c r="C114" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D114" s="13">
+        <v>41.87</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A115" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B115" s="10">
+        <v>2012</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D115" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A116" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B116" s="12">
+        <v>2012</v>
+      </c>
+      <c r="C116" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D116" s="13">
+        <v>24.75</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A117" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B117" s="10">
+        <v>2012</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D117" s="11">
+        <v>5.59</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A118" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B118" s="12">
+        <v>2012</v>
+      </c>
+      <c r="C118" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D118" s="13">
+        <v>18.86</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A119" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B119" s="10">
+        <v>2012</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D119" s="11">
+        <v>13.41</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A120" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B120" s="12">
+        <v>2013</v>
+      </c>
+      <c r="C120" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D120" s="13">
+        <v>17.079999999999998</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A121" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B121" s="10">
+        <v>2013</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D121" s="11">
+        <v>45.1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A122" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B122" s="12">
+        <v>2013</v>
+      </c>
+      <c r="C122" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D122" s="13">
+        <v>108.91</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A123" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B123" s="10">
+        <v>2013</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D123" s="11">
+        <v>52.77</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A124" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B124" s="12">
+        <v>2013</v>
+      </c>
+      <c r="C124" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D124" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A125" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B125" s="10">
+        <v>2013</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D125" s="11">
+        <v>20.010000000000002</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A126" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B126" s="12">
+        <v>2013</v>
+      </c>
+      <c r="C126" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D126" s="13">
+        <v>5.66</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A127" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B127" s="10">
+        <v>2013</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D127" s="11">
+        <v>21.59</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A128" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B128" s="12">
+        <v>2013</v>
+      </c>
+      <c r="C128" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D128" s="13">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A129" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B129" s="10">
+        <v>2014</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D129" s="11">
+        <v>18.72</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A130" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B130" s="12">
+        <v>2014</v>
+      </c>
+      <c r="C130" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D130" s="13">
+        <v>43.45</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A131" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B131" s="10">
+        <v>2014</v>
+      </c>
+      <c r="C131" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D131" s="11">
+        <v>93.66</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A132" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B132" s="12">
+        <v>2014</v>
+      </c>
+      <c r="C132" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D132" s="13">
+        <v>58.55</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A133" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B133" s="10">
+        <v>2014</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D133" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A134" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B134" s="12">
+        <v>2014</v>
+      </c>
+      <c r="C134" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D134" s="13">
+        <v>18.739999999999998</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A135" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B135" s="10">
+        <v>2014</v>
+      </c>
+      <c r="C135" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D135" s="11">
+        <v>5.92</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A136" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B136" s="12">
+        <v>2014</v>
+      </c>
+      <c r="C136" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D136" s="13">
+        <v>22.31</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A137" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B137" s="10">
+        <v>2014</v>
+      </c>
+      <c r="C137" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D137" s="11">
+        <v>15.18</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A138" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B138" s="12">
+        <v>2015</v>
+      </c>
+      <c r="C138" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D138" s="13">
+        <v>19.39</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A139" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B139" s="10">
+        <v>2015</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D139" s="11">
+        <v>43.2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A140" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B140" s="12">
+        <v>2015</v>
+      </c>
+      <c r="C140" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D140" s="13">
+        <v>110.88</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A141" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B141" s="10">
+        <v>2015</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D141" s="11">
+        <v>45.54</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A142" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B142" s="12">
+        <v>2015</v>
+      </c>
+      <c r="C142" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D142" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A143" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B143" s="10">
+        <v>2015</v>
+      </c>
+      <c r="C143" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D143" s="11">
+        <v>16.73</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A144" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B144" s="12">
+        <v>2015</v>
+      </c>
+      <c r="C144" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D144" s="13">
+        <v>6.18</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A145" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B145" s="10">
+        <v>2015</v>
+      </c>
+      <c r="C145" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D145" s="11">
+        <v>22.94</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A146" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B146" s="12">
+        <v>2015</v>
+      </c>
+      <c r="C146" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D146" s="13">
+        <v>14.84</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A147" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B147" s="10">
+        <v>2016</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D147" s="11">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A148" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B148" s="12">
+        <v>2016</v>
+      </c>
+      <c r="C148" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D148" s="13">
+        <v>35.61</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A149" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B149" s="10">
+        <v>2016</v>
+      </c>
+      <c r="C149" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D149" s="11">
+        <v>126.17</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A150" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B150" s="12">
+        <v>2016</v>
+      </c>
+      <c r="C150" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D150" s="13">
+        <v>42.43</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A151" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B151" s="10">
+        <v>2016</v>
+      </c>
+      <c r="C151" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D151" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A152" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B152" s="12">
+        <v>2016</v>
+      </c>
+      <c r="C152" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D152" s="13">
+        <v>16.16</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A153" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B153" s="10">
+        <v>2016</v>
+      </c>
+      <c r="C153" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D153" s="11">
+        <v>6.29</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A154" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B154" s="12">
+        <v>2016</v>
+      </c>
+      <c r="C154" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D154" s="13">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A155" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B155" s="10">
+        <v>2016</v>
+      </c>
+      <c r="C155" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D155" s="11">
+        <v>17.690000000000001</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A156" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B156" s="12">
+        <v>2017</v>
+      </c>
+      <c r="C156" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D156" s="13">
+        <v>19.37</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A157" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B157" s="10">
+        <v>2017</v>
+      </c>
+      <c r="C157" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D157" s="11">
+        <v>32.630000000000003</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A158" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B158" s="12">
+        <v>2017</v>
+      </c>
+      <c r="C158" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D158" s="13">
+        <v>140.36000000000001</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A159" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B159" s="10">
+        <v>2017</v>
+      </c>
+      <c r="C159" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D159" s="11">
+        <v>36.200000000000003</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A160" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B160" s="12">
+        <v>2017</v>
+      </c>
+      <c r="C160" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D160" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A161" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B161" s="10">
+        <v>2017</v>
+      </c>
+      <c r="C161" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D161" s="11">
+        <v>15.21</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A162" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B162" s="12">
+        <v>2017</v>
+      </c>
+      <c r="C162" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D162" s="13">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A163" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B163" s="10">
+        <v>2017</v>
+      </c>
+      <c r="C163" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D163" s="11">
+        <v>24.38</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A164" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B164" s="12">
+        <v>2017</v>
+      </c>
+      <c r="C164" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D164" s="13">
+        <v>17.739999999999998</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A165" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B165" s="10">
+        <v>2018</v>
+      </c>
+      <c r="C165" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D165" s="11">
+        <v>19.14</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A166" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B166" s="12">
+        <v>2018</v>
+      </c>
+      <c r="C166" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D166" s="13">
+        <v>28.47</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A167" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B167" s="10">
+        <v>2018</v>
+      </c>
+      <c r="C167" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D167" s="11">
+        <v>128.56</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A168" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B168" s="12">
+        <v>2018</v>
+      </c>
+      <c r="C168" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D168" s="13">
+        <v>48.79</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A169" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B169" s="10">
+        <v>2018</v>
+      </c>
+      <c r="C169" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D169" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A170" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B170" s="12">
+        <v>2018</v>
+      </c>
+      <c r="C170" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D170" s="13">
+        <v>14.62</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A171" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B171" s="10">
+        <v>2018</v>
+      </c>
+      <c r="C171" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D171" s="11">
+        <v>6.11</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A172" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B172" s="12">
+        <v>2018</v>
+      </c>
+      <c r="C172" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D172" s="13">
+        <v>22.65</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A173" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B173" s="10">
+        <v>2018</v>
+      </c>
+      <c r="C173" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D173" s="11">
+        <v>17.72</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A174" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B174" s="12">
+        <v>2019</v>
+      </c>
+      <c r="C174" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D174" s="13">
+        <v>19.55</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A175" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B175" s="10">
+        <v>2019</v>
+      </c>
+      <c r="C175" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D175" s="11">
+        <v>18.84</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A176" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B176" s="12">
+        <v>2019</v>
+      </c>
+      <c r="C176" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D176" s="13">
+        <v>141.69999999999999</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A177" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B177" s="10">
+        <v>2019</v>
+      </c>
+      <c r="C177" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D177" s="11">
+        <v>46.32</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A178" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B178" s="12">
+        <v>2019</v>
+      </c>
+      <c r="C178" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D178" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A179" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B179" s="10">
+        <v>2019</v>
+      </c>
+      <c r="C179" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D179" s="11">
+        <v>13.62</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A180" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B180" s="12">
+        <v>2019</v>
+      </c>
+      <c r="C180" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D180" s="13">
+        <v>6.07</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A181" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B181" s="10">
+        <v>2019</v>
+      </c>
+      <c r="C181" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D181" s="11">
+        <v>23.69</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A182" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B182" s="12">
+        <v>2019</v>
+      </c>
+      <c r="C182" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D182" s="13">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A183" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B183" s="10">
+        <v>2020</v>
+      </c>
+      <c r="C183" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D183" s="11">
+        <v>19.62</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A184" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B184" s="12">
+        <v>2020</v>
+      </c>
+      <c r="C184" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D184" s="13">
+        <v>13.38</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A185" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B185" s="10">
+        <v>2020</v>
+      </c>
+      <c r="C185" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D185" s="11">
+        <v>133.69999999999999</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A186" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B186" s="12">
+        <v>2020</v>
+      </c>
+      <c r="C186" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D186" s="13">
+        <v>47.55</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A187" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B187" s="10">
+        <v>2020</v>
+      </c>
+      <c r="C187" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D187" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A188" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B188" s="12">
+        <v>2020</v>
+      </c>
+      <c r="C188" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D188" s="13">
+        <v>12.83</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A189" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B189" s="10">
+        <v>2020</v>
+      </c>
+      <c r="C189" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D189" s="11">
+        <v>6.03</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A190" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B190" s="12">
+        <v>2020</v>
+      </c>
+      <c r="C190" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D190" s="13">
+        <v>24.94</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A191" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B191" s="10">
+        <v>2020</v>
+      </c>
+      <c r="C191" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D191" s="11">
+        <v>18.760000000000002</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A192" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B192" s="12">
+        <v>2021</v>
+      </c>
+      <c r="C192" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D192" s="13">
+        <v>19.059999999999999</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A193" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B193" s="10">
+        <v>2021</v>
+      </c>
+      <c r="C193" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D193" s="11">
+        <v>14.02</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A194" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B194" s="12">
+        <v>2021</v>
+      </c>
+      <c r="C194" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D194" s="13">
+        <v>144.01</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A195" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B195" s="10">
+        <v>2021</v>
+      </c>
+      <c r="C195" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D195" s="11">
+        <v>45.39</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A196" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B196" s="12">
+        <v>2021</v>
+      </c>
+      <c r="C196" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D196" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A197" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B197" s="10">
+        <v>2021</v>
+      </c>
+      <c r="C197" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D197" s="11">
+        <v>11.13</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A198" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B198" s="12">
+        <v>2021</v>
+      </c>
+      <c r="C198" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D198" s="13">
+        <v>5.91</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A199" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B199" s="10">
+        <v>2021</v>
+      </c>
+      <c r="C199" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D199" s="11">
+        <v>25.04</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A200" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B200" s="12">
+        <v>2021</v>
+      </c>
+      <c r="C200" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D200" s="13">
+        <v>20.93</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A201" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B201" s="10">
+        <v>2022</v>
+      </c>
+      <c r="C201" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D201" s="11">
+        <v>17.61</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A202" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B202" s="12">
+        <v>2022</v>
+      </c>
+      <c r="C202" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D202" s="13">
+        <v>22.61</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A203" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B203" s="10">
+        <v>2022</v>
+      </c>
+      <c r="C203" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D203" s="11">
+        <v>141.47</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A204" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B204" s="12">
+        <v>2022</v>
+      </c>
+      <c r="C204" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D204" s="13">
+        <v>28.4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A205" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B205" s="10">
+        <v>2022</v>
+      </c>
+      <c r="C205" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D205" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A206" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B206" s="12">
+        <v>2022</v>
+      </c>
+      <c r="C206" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D206" s="13">
+        <v>15.63</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A207" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B207" s="10">
+        <v>2022</v>
+      </c>
+      <c r="C207" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D207" s="11">
+        <v>5.84</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A208" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B208" s="12">
+        <v>2022</v>
+      </c>
+      <c r="C208" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D208" s="13">
+        <v>28.12</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A209" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B209" s="10">
+        <v>2022</v>
+      </c>
+      <c r="C209" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D209" s="11">
+        <v>20.28</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A210" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B210" s="12">
+        <v>2023</v>
+      </c>
+      <c r="C210" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D210" s="13">
+        <v>16.61</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A211" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B211" s="10">
+        <v>2023</v>
+      </c>
+      <c r="C211" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D211" s="11">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A212" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B212" s="12">
+        <v>2023</v>
+      </c>
+      <c r="C212" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D212" s="13">
+        <v>118.34</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A213" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B213" s="10">
+        <v>2023</v>
+      </c>
+      <c r="C213" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D213" s="11">
+        <v>37.94</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A214" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B214" s="12">
+        <v>2023</v>
+      </c>
+      <c r="C214" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D214" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A215" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B215" s="10">
+        <v>2023</v>
+      </c>
+      <c r="C215" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D215" s="11">
+        <v>15.54</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A216" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B216" s="12">
+        <v>2023</v>
+      </c>
+      <c r="C216" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D216" s="13">
+        <v>5.73</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A217" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B217" s="10">
+        <v>2023</v>
+      </c>
+      <c r="C217" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D217" s="11">
+        <v>31.01</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A218" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B218" s="12">
+        <v>2023</v>
+      </c>
+      <c r="C218" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D218" s="13">
+        <v>23.51</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A219" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B219" s="10">
+        <v>2000</v>
+      </c>
+      <c r="C219" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D219" s="11">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A220" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B220" s="12">
+        <v>2000</v>
+      </c>
+      <c r="C220" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D220" s="13">
+        <v>8.67</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A221" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B221" s="10">
+        <v>2000</v>
+      </c>
+      <c r="C221" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D221" s="11">
+        <v>53.35</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A222" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B222" s="12">
+        <v>2000</v>
+      </c>
+      <c r="C222" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D222" s="13">
+        <v>16.39</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A223" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B223" s="10">
+        <v>2000</v>
+      </c>
+      <c r="C223" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D223" s="11"/>
+    </row>
+    <row r="224" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A224" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B224" s="12">
+        <v>2000</v>
+      </c>
+      <c r="C224" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D224" s="13">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A225" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B225" s="10">
+        <v>2000</v>
+      </c>
+      <c r="C225" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D225" s="11">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A226" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B226" s="12">
+        <v>2000</v>
+      </c>
+      <c r="C226" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D226" s="13">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A227" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B227" s="10">
+        <v>2000</v>
+      </c>
+      <c r="C227" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D227" s="11">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A228" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B228" s="12">
+        <v>2001</v>
+      </c>
+      <c r="C228" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D228" s="13">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A229" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B229" s="10">
+        <v>2001</v>
+      </c>
+      <c r="C229" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D229" s="11">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A230" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B230" s="12">
+        <v>2001</v>
+      </c>
+      <c r="C230" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D230" s="13">
+        <v>53.57</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A231" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B231" s="10">
+        <v>2001</v>
+      </c>
+      <c r="C231" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D231" s="11">
+        <v>16.46</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A232" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B232" s="12">
+        <v>2001</v>
+      </c>
+      <c r="C232" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D232" s="13"/>
+    </row>
+    <row r="233" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A233" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B233" s="10">
+        <v>2001</v>
+      </c>
+      <c r="C233" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D233" s="11">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A234" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B234" s="12">
+        <v>2001</v>
+      </c>
+      <c r="C234" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D234" s="13">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A235" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B235" s="10">
+        <v>2001</v>
+      </c>
+      <c r="C235" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D235" s="11">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A236" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B236" s="12">
+        <v>2001</v>
+      </c>
+      <c r="C236" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D236" s="13">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A237" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B237" s="10">
+        <v>2002</v>
+      </c>
+      <c r="C237" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D237" s="11">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A238" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B238" s="12">
+        <v>2002</v>
+      </c>
+      <c r="C238" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D238" s="13">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A239" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B239" s="10">
+        <v>2002</v>
+      </c>
+      <c r="C239" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D239" s="11">
+        <v>53.54</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A240" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B240" s="12">
+        <v>2002</v>
+      </c>
+      <c r="C240" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D240" s="13">
+        <v>16.559999999999999</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A241" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B241" s="10">
+        <v>2002</v>
+      </c>
+      <c r="C241" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D241" s="11"/>
+    </row>
+    <row r="242" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A242" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B242" s="12">
+        <v>2002</v>
+      </c>
+      <c r="C242" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D242" s="13">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A243" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B243" s="10">
+        <v>2002</v>
+      </c>
+      <c r="C243" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D243" s="11">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A244" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B244" s="12">
+        <v>2002</v>
+      </c>
+      <c r="C244" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D244" s="13">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A245" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B245" s="10">
+        <v>2002</v>
+      </c>
+      <c r="C245" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D245" s="11">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A246" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B246" s="12">
+        <v>2003</v>
+      </c>
+      <c r="C246" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D246" s="13">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A247" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B247" s="10">
+        <v>2003</v>
+      </c>
+      <c r="C247" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D247" s="11">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A248" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B248" s="12">
+        <v>2003</v>
+      </c>
+      <c r="C248" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D248" s="13">
+        <v>54.78</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A249" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B249" s="10">
+        <v>2003</v>
+      </c>
+      <c r="C249" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D249" s="11">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A250" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B250" s="12">
+        <v>2003</v>
+      </c>
+      <c r="C250" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D250" s="13"/>
+    </row>
+    <row r="251" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A251" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B251" s="10">
+        <v>2003</v>
+      </c>
+      <c r="C251" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D251" s="11">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A252" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B252" s="12">
+        <v>2003</v>
+      </c>
+      <c r="C252" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D252" s="13">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A253" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B253" s="10">
+        <v>2003</v>
+      </c>
+      <c r="C253" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D253" s="11">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A254" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B254" s="12">
+        <v>2003</v>
+      </c>
+      <c r="C254" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D254" s="13">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A255" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B255" s="10">
+        <v>2004</v>
+      </c>
+      <c r="C255" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D255" s="11">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A256" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B256" s="12">
+        <v>2004</v>
+      </c>
+      <c r="C256" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D256" s="13">
+        <v>8.35</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A257" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B257" s="10">
+        <v>2004</v>
+      </c>
+      <c r="C257" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D257" s="11">
+        <v>57.62</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A258" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B258" s="12">
+        <v>2004</v>
+      </c>
+      <c r="C258" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D258" s="13">
+        <v>16.79</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A259" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B259" s="10">
+        <v>2004</v>
+      </c>
+      <c r="C259" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D259" s="11"/>
+    </row>
+    <row r="260" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A260" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B260" s="12">
+        <v>2004</v>
+      </c>
+      <c r="C260" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D260" s="13">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A261" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B261" s="10">
+        <v>2004</v>
+      </c>
+      <c r="C261" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D261" s="11">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A262" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B262" s="12">
+        <v>2004</v>
+      </c>
+      <c r="C262" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D262" s="13">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A263" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B263" s="10">
+        <v>2004</v>
+      </c>
+      <c r="C263" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D263" s="11">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A264" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B264" s="12">
+        <v>2005</v>
+      </c>
+      <c r="C264" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D264" s="13">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A265" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B265" s="10">
+        <v>2005</v>
+      </c>
+      <c r="C265" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D265" s="11">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A266" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B266" s="12">
+        <v>2005</v>
+      </c>
+      <c r="C266" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D266" s="13">
+        <v>60.79</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A267" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B267" s="10">
+        <v>2005</v>
+      </c>
+      <c r="C267" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D267" s="11">
+        <v>17.04</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A268" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B268" s="12">
+        <v>2005</v>
+      </c>
+      <c r="C268" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D268" s="13"/>
+    </row>
+    <row r="269" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A269" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B269" s="10">
+        <v>2005</v>
+      </c>
+      <c r="C269" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D269" s="11">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A270" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B270" s="12">
+        <v>2005</v>
+      </c>
+      <c r="C270" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D270" s="13">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A271" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B271" s="10">
+        <v>2005</v>
+      </c>
+      <c r="C271" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D271" s="11">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A272" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B272" s="12">
+        <v>2005</v>
+      </c>
+      <c r="C272" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D272" s="13">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A273" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B273" s="10">
+        <v>2006</v>
+      </c>
+      <c r="C273" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D273" s="11">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A274" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B274" s="12">
+        <v>2006</v>
+      </c>
+      <c r="C274" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D274" s="13">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A275" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B275" s="10">
+        <v>2006</v>
+      </c>
+      <c r="C275" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D275" s="11">
+        <v>64.31</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A276" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B276" s="12">
+        <v>2006</v>
+      </c>
+      <c r="C276" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D276" s="13">
+        <v>17.11</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A277" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B277" s="10">
+        <v>2006</v>
+      </c>
+      <c r="C277" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D277" s="11"/>
+    </row>
+    <row r="278" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A278" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B278" s="12">
+        <v>2006</v>
+      </c>
+      <c r="C278" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D278" s="13">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A279" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B279" s="10">
+        <v>2006</v>
+      </c>
+      <c r="C279" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D279" s="11">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A280" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B280" s="12">
+        <v>2006</v>
+      </c>
+      <c r="C280" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D280" s="13">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A281" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B281" s="10">
+        <v>2006</v>
+      </c>
+      <c r="C281" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D281" s="11">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A282" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B282" s="12">
+        <v>2007</v>
+      </c>
+      <c r="C282" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D282" s="13">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A283" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B283" s="10">
+        <v>2007</v>
+      </c>
+      <c r="C283" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D283" s="11">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A284" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B284" s="12">
+        <v>2007</v>
+      </c>
+      <c r="C284" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D284" s="13">
+        <v>67.459999999999994</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A285" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B285" s="10">
+        <v>2007</v>
+      </c>
+      <c r="C285" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D285" s="11">
+        <v>17.16</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A286" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B286" s="12">
+        <v>2007</v>
+      </c>
+      <c r="C286" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D286" s="13"/>
+    </row>
+    <row r="287" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A287" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B287" s="10">
+        <v>2007</v>
+      </c>
+      <c r="C287" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D287" s="11">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A288" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B288" s="12">
+        <v>2007</v>
+      </c>
+      <c r="C288" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D288" s="13">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A289" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B289" s="10">
+        <v>2007</v>
+      </c>
+      <c r="C289" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D289" s="11">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A290" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B290" s="12">
+        <v>2007</v>
+      </c>
+      <c r="C290" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D290" s="13">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A291" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B291" s="10">
+        <v>2008</v>
+      </c>
+      <c r="C291" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D291" s="11">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A292" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B292" s="12">
+        <v>2008</v>
+      </c>
+      <c r="C292" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D292" s="13">
+        <v>8.06</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A293" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B293" s="10">
+        <v>2008</v>
+      </c>
+      <c r="C293" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D293" s="11">
+        <v>70.95</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A294" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B294" s="12">
+        <v>2008</v>
+      </c>
+      <c r="C294" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D294" s="13">
+        <v>17.32</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A295" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B295" s="10">
+        <v>2008</v>
+      </c>
+      <c r="C295" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D295" s="11"/>
+    </row>
+    <row r="296" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A296" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B296" s="12">
+        <v>2008</v>
+      </c>
+      <c r="C296" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D296" s="13">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A297" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B297" s="10">
+        <v>2008</v>
+      </c>
+      <c r="C297" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D297" s="11">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A298" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B298" s="12">
+        <v>2008</v>
+      </c>
+      <c r="C298" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D298" s="13">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A299" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B299" s="10">
+        <v>2008</v>
+      </c>
+      <c r="C299" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D299" s="11">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A300" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B300" s="12">
+        <v>2009</v>
+      </c>
+      <c r="C300" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D300" s="13">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A301" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B301" s="10">
+        <v>2009</v>
+      </c>
+      <c r="C301" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D301" s="11">
+        <v>8.7200000000000006</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A302" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B302" s="12">
+        <v>2009</v>
+      </c>
+      <c r="C302" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D302" s="13">
+        <v>71.14</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A303" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B303" s="10">
+        <v>2009</v>
+      </c>
+      <c r="C303" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D303" s="11">
+        <v>17.41</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A304" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B304" s="12">
+        <v>2009</v>
+      </c>
+      <c r="C304" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D304" s="13"/>
+    </row>
+    <row r="305" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A305" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B305" s="10">
+        <v>2009</v>
+      </c>
+      <c r="C305" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D305" s="11">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A306" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B306" s="12">
+        <v>2009</v>
+      </c>
+      <c r="C306" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D306" s="13">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A307" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B307" s="10">
+        <v>2009</v>
+      </c>
+      <c r="C307" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D307" s="11">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A308" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B308" s="12">
+        <v>2009</v>
+      </c>
+      <c r="C308" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D308" s="13">
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A309" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B309" s="10">
+        <v>2010</v>
+      </c>
+      <c r="C309" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D309" s="11">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A310" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B310" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C310" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D310" s="13">
+        <v>9.9700000000000006</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A311" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B311" s="10">
+        <v>2010</v>
+      </c>
+      <c r="C311" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D311" s="11">
+        <v>72.459999999999994</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A312" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B312" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C312" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D312" s="13">
+        <v>17.559999999999999</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A313" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B313" s="10">
+        <v>2010</v>
+      </c>
+      <c r="C313" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D313" s="11"/>
+    </row>
+    <row r="314" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A314" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B314" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C314" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D314" s="13">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A315" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B315" s="10">
+        <v>2010</v>
+      </c>
+      <c r="C315" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D315" s="11">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A316" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B316" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C316" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D316" s="13">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A317" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B317" s="10">
+        <v>2010</v>
+      </c>
+      <c r="C317" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D317" s="11">
+        <v>5.79</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A318" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B318" s="12">
+        <v>2011</v>
+      </c>
+      <c r="C318" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D318" s="13">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A319" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B319" s="10">
+        <v>2011</v>
+      </c>
+      <c r="C319" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D319" s="11">
+        <v>9.9700000000000006</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A320" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B320" s="12">
+        <v>2011</v>
+      </c>
+      <c r="C320" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D320" s="13">
+        <v>73.33</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A321" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B321" s="10">
+        <v>2011</v>
+      </c>
+      <c r="C321" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D321" s="11">
+        <v>17.78</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A322" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B322" s="12">
+        <v>2011</v>
+      </c>
+      <c r="C322" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D322" s="13"/>
+    </row>
+    <row r="323" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A323" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B323" s="10">
+        <v>2011</v>
+      </c>
+      <c r="C323" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D323" s="11">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A324" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B324" s="12">
+        <v>2011</v>
+      </c>
+      <c r="C324" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D324" s="13">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A325" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B325" s="10">
+        <v>2011</v>
+      </c>
+      <c r="C325" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D325" s="11">
+        <v>13.14</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A326" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B326" s="12">
+        <v>2011</v>
+      </c>
+      <c r="C326" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D326" s="13">
+        <v>6.92</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A327" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B327" s="10">
+        <v>2012</v>
+      </c>
+      <c r="C327" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D327" s="11">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A328" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B328" s="12">
+        <v>2012</v>
+      </c>
+      <c r="C328" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D328" s="13">
+        <v>9.9700000000000006</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A329" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B329" s="10">
+        <v>2012</v>
+      </c>
+      <c r="C329" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D329" s="11">
+        <v>73.22</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A330" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B330" s="12">
+        <v>2012</v>
+      </c>
+      <c r="C330" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D330" s="13">
+        <v>17.920000000000002</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A331" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B331" s="10">
+        <v>2012</v>
+      </c>
+      <c r="C331" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D331" s="11"/>
+    </row>
+    <row r="332" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A332" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B332" s="12">
+        <v>2012</v>
+      </c>
+      <c r="C332" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D332" s="13">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A333" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B333" s="10">
+        <v>2012</v>
+      </c>
+      <c r="C333" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D333" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A334" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B334" s="12">
+        <v>2012</v>
+      </c>
+      <c r="C334" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D334" s="13">
+        <v>16.79</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A335" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B335" s="10">
+        <v>2012</v>
+      </c>
+      <c r="C335" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D335" s="11">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A336" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B336" s="12">
+        <v>2013</v>
+      </c>
+      <c r="C336" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D336" s="13">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A337" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B337" s="10">
+        <v>2013</v>
+      </c>
+      <c r="C337" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D337" s="11">
+        <v>9.9700000000000006</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A338" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B338" s="12">
+        <v>2013</v>
+      </c>
+      <c r="C338" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D338" s="13">
+        <v>70.95</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A339" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B339" s="10">
+        <v>2013</v>
+      </c>
+      <c r="C339" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D339" s="11">
+        <v>18.05</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A340" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B340" s="12">
+        <v>2013</v>
+      </c>
+      <c r="C340" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D340" s="13"/>
+    </row>
+    <row r="341" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A341" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B341" s="10">
+        <v>2013</v>
+      </c>
+      <c r="C341" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D341" s="11">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A342" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B342" s="12">
+        <v>2013</v>
+      </c>
+      <c r="C342" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D342" s="13">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A343" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B343" s="10">
+        <v>2013</v>
+      </c>
+      <c r="C343" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D343" s="11">
+        <v>18.190000000000001</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A344" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B344" s="12">
+        <v>2013</v>
+      </c>
+      <c r="C344" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D344" s="13">
+        <v>8.5399999999999991</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A345" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B345" s="10">
+        <v>2014</v>
+      </c>
+      <c r="C345" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D345" s="11">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A346" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B346" s="12">
+        <v>2014</v>
+      </c>
+      <c r="C346" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D346" s="13">
+        <v>9.83</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A347" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B347" s="10">
+        <v>2014</v>
+      </c>
+      <c r="C347" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D347" s="11">
+        <v>67.48</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A348" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B348" s="12">
+        <v>2014</v>
+      </c>
+      <c r="C348" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D348" s="13">
+        <v>18.12</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A349" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B349" s="10">
+        <v>2014</v>
+      </c>
+      <c r="C349" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D349" s="11"/>
+    </row>
+    <row r="350" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A350" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B350" s="12">
+        <v>2014</v>
+      </c>
+      <c r="C350" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D350" s="13">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A351" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B351" s="10">
+        <v>2014</v>
+      </c>
+      <c r="C351" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D351" s="11">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A352" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B352" s="12">
+        <v>2014</v>
+      </c>
+      <c r="C352" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D352" s="13">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A353" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B353" s="10">
+        <v>2014</v>
+      </c>
+      <c r="C353" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D353" s="11">
+        <v>8.68</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A354" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B354" s="12">
+        <v>2015</v>
+      </c>
+      <c r="C354" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D354" s="13">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A355" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B355" s="10">
+        <v>2015</v>
+      </c>
+      <c r="C355" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D355" s="11">
+        <v>9.69</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A356" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B356" s="12">
+        <v>2015</v>
+      </c>
+      <c r="C356" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D356" s="13">
+        <v>61.81</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A357" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B357" s="10">
+        <v>2015</v>
+      </c>
+      <c r="C357" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D357" s="11">
+        <v>18.239999999999998</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A358" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B358" s="12">
+        <v>2015</v>
+      </c>
+      <c r="C358" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D358" s="13"/>
+    </row>
+    <row r="359" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A359" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B359" s="10">
+        <v>2015</v>
+      </c>
+      <c r="C359" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D359" s="11">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A360" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B360" s="12">
+        <v>2015</v>
+      </c>
+      <c r="C360" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D360" s="13">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A361" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B361" s="10">
+        <v>2015</v>
+      </c>
+      <c r="C361" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D361" s="11">
+        <v>18.91</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A362" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B362" s="12">
+        <v>2015</v>
+      </c>
+      <c r="C362" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D362" s="13">
+        <v>9.14</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A363" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B363" s="10">
+        <v>2016</v>
+      </c>
+      <c r="C363" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D363" s="11">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A364" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B364" s="12">
+        <v>2016</v>
+      </c>
+      <c r="C364" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D364" s="13">
+        <v>8.7100000000000009</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A365" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B365" s="10">
+        <v>2016</v>
+      </c>
+      <c r="C365" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D365" s="11">
+        <v>58.22</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A366" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B366" s="12">
+        <v>2016</v>
+      </c>
+      <c r="C366" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D366" s="13">
+        <v>18.32</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A367" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B367" s="10">
+        <v>2016</v>
+      </c>
+      <c r="C367" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D367" s="11"/>
+    </row>
+    <row r="368" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A368" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B368" s="12">
+        <v>2016</v>
+      </c>
+      <c r="C368" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D368" s="13">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A369" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B369" s="10">
+        <v>2016</v>
+      </c>
+      <c r="C369" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D369" s="11">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A370" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B370" s="12">
+        <v>2016</v>
+      </c>
+      <c r="C370" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D370" s="13">
+        <v>19.29</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A371" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B371" s="10">
+        <v>2016</v>
+      </c>
+      <c r="C371" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D371" s="11">
+        <v>9.3800000000000008</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A372" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B372" s="12">
+        <v>2017</v>
+      </c>
+      <c r="C372" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D372" s="13">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A373" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B373" s="10">
+        <v>2017</v>
+      </c>
+      <c r="C373" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D373" s="11">
+        <v>8.5500000000000007</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A374" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B374" s="12">
+        <v>2017</v>
+      </c>
+      <c r="C374" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D374" s="13">
+        <v>57.4</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A375" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B375" s="10">
+        <v>2017</v>
+      </c>
+      <c r="C375" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D375" s="11">
+        <v>18.489999999999998</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A376" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B376" s="12">
+        <v>2017</v>
+      </c>
+      <c r="C376" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D376" s="13"/>
+    </row>
+    <row r="377" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A377" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B377" s="10">
+        <v>2017</v>
+      </c>
+      <c r="C377" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D377" s="11">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A378" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B378" s="12">
+        <v>2017</v>
+      </c>
+      <c r="C378" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D378" s="13">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A379" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B379" s="10">
+        <v>2017</v>
+      </c>
+      <c r="C379" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D379" s="11">
+        <v>19.690000000000001</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A380" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B380" s="12">
+        <v>2017</v>
+      </c>
+      <c r="C380" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D380" s="13">
+        <v>9.74</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A381" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B381" s="10">
+        <v>2018</v>
+      </c>
+      <c r="C381" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D381" s="11">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A382" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B382" s="12">
+        <v>2018</v>
+      </c>
+      <c r="C382" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D382" s="13">
+        <v>8.5500000000000007</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A383" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B383" s="10">
+        <v>2018</v>
+      </c>
+      <c r="C383" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D383" s="11">
+        <v>57.35</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A384" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B384" s="12">
+        <v>2018</v>
+      </c>
+      <c r="C384" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D384" s="13">
+        <v>18.559999999999999</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A385" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B385" s="10">
+        <v>2018</v>
+      </c>
+      <c r="C385" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D385" s="11"/>
+    </row>
+    <row r="386" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A386" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B386" s="12">
+        <v>2018</v>
+      </c>
+      <c r="C386" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D386" s="13">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A387" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B387" s="10">
+        <v>2018</v>
+      </c>
+      <c r="C387" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D387" s="11">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A388" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B388" s="12">
+        <v>2018</v>
+      </c>
+      <c r="C388" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D388" s="13">
+        <v>20.11</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A389" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B389" s="10">
+        <v>2018</v>
+      </c>
+      <c r="C389" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D389" s="11">
+        <v>10.23</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A390" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B390" s="12">
+        <v>2019</v>
+      </c>
+      <c r="C390" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D390" s="13">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A391" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B391" s="10">
+        <v>2019</v>
+      </c>
+      <c r="C391" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D391" s="11">
+        <v>8.5500000000000007</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A392" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B392" s="12">
+        <v>2019</v>
+      </c>
+      <c r="C392" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D392" s="13">
+        <v>57.41</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A393" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B393" s="10">
+        <v>2019</v>
+      </c>
+      <c r="C393" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D393" s="11">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A394" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B394" s="12">
+        <v>2019</v>
+      </c>
+      <c r="C394" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D394" s="13"/>
+    </row>
+    <row r="395" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A395" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B395" s="10">
+        <v>2019</v>
+      </c>
+      <c r="C395" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D395" s="11">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A396" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B396" s="12">
+        <v>2019</v>
+      </c>
+      <c r="C396" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D396" s="13">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A397" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B397" s="10">
+        <v>2019</v>
+      </c>
+      <c r="C397" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D397" s="11">
+        <v>20.87</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A398" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B398" s="12">
+        <v>2019</v>
+      </c>
+      <c r="C398" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D398" s="13">
+        <v>10.68</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A399" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B399" s="10">
+        <v>2020</v>
+      </c>
+      <c r="C399" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D399" s="11">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A400" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B400" s="12">
+        <v>2020</v>
+      </c>
+      <c r="C400" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D400" s="13">
+        <v>7.74</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A401" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B401" s="10">
+        <v>2020</v>
+      </c>
+      <c r="C401" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D401" s="11">
+        <v>56.24</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A402" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B402" s="12">
+        <v>2020</v>
+      </c>
+      <c r="C402" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D402" s="13">
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A403" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B403" s="10">
+        <v>2020</v>
+      </c>
+      <c r="C403" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D403" s="11"/>
+    </row>
+    <row r="404" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A404" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B404" s="12">
+        <v>2020</v>
+      </c>
+      <c r="C404" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D404" s="13">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A405" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B405" s="10">
+        <v>2020</v>
+      </c>
+      <c r="C405" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D405" s="11">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A406" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B406" s="12">
+        <v>2020</v>
+      </c>
+      <c r="C406" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D406" s="13">
+        <v>21.66</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A407" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B407" s="10">
+        <v>2020</v>
+      </c>
+      <c r="C407" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D407" s="11">
+        <v>10.87</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A408" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B408" s="12">
+        <v>2021</v>
+      </c>
+      <c r="C408" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D408" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A409" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B409" s="10">
+        <v>2021</v>
+      </c>
+      <c r="C409" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D409" s="11">
+        <v>6.81</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A410" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B410" s="12">
+        <v>2021</v>
+      </c>
+      <c r="C410" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D410" s="13">
+        <v>55.63</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A411" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B411" s="10">
+        <v>2021</v>
+      </c>
+      <c r="C411" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D411" s="11">
+        <v>18.809999999999999</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A412" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B412" s="12">
+        <v>2021</v>
+      </c>
+      <c r="C412" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D412" s="13"/>
+    </row>
+    <row r="413" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A413" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B413" s="10">
+        <v>2021</v>
+      </c>
+      <c r="C413" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D413" s="11">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A414" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B414" s="12">
+        <v>2021</v>
+      </c>
+      <c r="C414" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D414" s="13">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A415" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B415" s="10">
+        <v>2021</v>
+      </c>
+      <c r="C415" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D415" s="11">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A416" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B416" s="12">
+        <v>2021</v>
+      </c>
+      <c r="C416" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D416" s="13">
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A417" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B417" s="10">
+        <v>2022</v>
+      </c>
+      <c r="C417" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D417" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A418" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B418" s="12">
+        <v>2022</v>
+      </c>
+      <c r="C418" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D418" s="13">
+        <v>6.81</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A419" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B419" s="10">
+        <v>2022</v>
+      </c>
+      <c r="C419" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D419" s="11">
+        <v>56.32</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A420" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B420" s="12">
+        <v>2022</v>
+      </c>
+      <c r="C420" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D420" s="13">
+        <v>18.93</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A421" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B421" s="10">
+        <v>2022</v>
+      </c>
+      <c r="C421" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D421" s="11"/>
+    </row>
+    <row r="422" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A422" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B422" s="12">
+        <v>2022</v>
+      </c>
+      <c r="C422" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D422" s="13">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A423" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B423" s="10">
+        <v>2022</v>
+      </c>
+      <c r="C423" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D423" s="11">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A424" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B424" s="12">
+        <v>2022</v>
+      </c>
+      <c r="C424" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D424" s="13">
+        <v>24.56</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A425" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B425" s="10">
+        <v>2022</v>
+      </c>
+      <c r="C425" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D425" s="11">
+        <v>11.82</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A426" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B426" s="12">
+        <v>2023</v>
+      </c>
+      <c r="C426" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D426" s="13">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A427" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B427" s="10">
+        <v>2023</v>
+      </c>
+      <c r="C427" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D427" s="11">
+        <v>6.17</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A428" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B428" s="12">
+        <v>2023</v>
+      </c>
+      <c r="C428" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D428" s="13">
+        <v>57.28</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A429" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B429" s="10">
+        <v>2023</v>
+      </c>
+      <c r="C429" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D429" s="11">
+        <v>18.850000000000001</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A430" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B430" s="12">
+        <v>2023</v>
+      </c>
+      <c r="C430" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D430" s="13"/>
+    </row>
+    <row r="431" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A431" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B431" s="10">
+        <v>2023</v>
+      </c>
+      <c r="C431" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D431" s="11">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A432" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B432" s="12">
+        <v>2023</v>
+      </c>
+      <c r="C432" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D432" s="13">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A433" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B433" s="10">
+        <v>2023</v>
+      </c>
+      <c r="C433" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D433" s="11">
+        <v>29.8</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A434" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B434" s="12">
+        <v>2023</v>
+      </c>
+      <c r="C434" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D434" s="13">
+        <v>12.31</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A435" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B435" s="10">
+        <v>2000</v>
+      </c>
+      <c r="C435" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D435" s="11">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A436" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B436" s="12">
+        <v>2000</v>
+      </c>
+      <c r="C436" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D436" s="13">
+        <v>24.64</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A437" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B437" s="10">
+        <v>2000</v>
+      </c>
+      <c r="C437" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D437" s="11">
+        <v>49.08</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A438" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B438" s="12">
+        <v>2000</v>
+      </c>
+      <c r="C438" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D438" s="13">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A439" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B439" s="10">
+        <v>2000</v>
+      </c>
+      <c r="C439" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D439" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A440" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B440" s="12">
+        <v>2000</v>
+      </c>
+      <c r="C440" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D440" s="13">
+        <v>60.16</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A441" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B441" s="10">
+        <v>2000</v>
+      </c>
+      <c r="C441" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D441" s="11">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A442" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B442" s="12">
+        <v>2000</v>
+      </c>
+      <c r="C442" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D442" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A443" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B443" s="10">
+        <v>2000</v>
+      </c>
+      <c r="C443" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D443" s="11">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A444" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B444" s="12">
+        <v>2001</v>
+      </c>
+      <c r="C444" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D444" s="13">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A445" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B445" s="10">
+        <v>2001</v>
+      </c>
+      <c r="C445" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D445" s="11">
+        <v>29.74</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A446" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B446" s="12">
+        <v>2001</v>
+      </c>
+      <c r="C446" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D446" s="13">
+        <v>50.45</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A447" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B447" s="10">
+        <v>2001</v>
+      </c>
+      <c r="C447" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D447" s="11">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A448" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B448" s="12">
+        <v>2001</v>
+      </c>
+      <c r="C448" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D448" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A449" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B449" s="10">
+        <v>2001</v>
+      </c>
+      <c r="C449" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D449" s="11">
+        <v>53.71</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A450" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B450" s="12">
+        <v>2001</v>
+      </c>
+      <c r="C450" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D450" s="13">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A451" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B451" s="10">
+        <v>2001</v>
+      </c>
+      <c r="C451" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D451" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A452" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B452" s="12">
+        <v>2001</v>
+      </c>
+      <c r="C452" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D452" s="13">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A453" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B453" s="10">
+        <v>2002</v>
+      </c>
+      <c r="C453" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D453" s="11">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A454" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B454" s="12">
+        <v>2002</v>
+      </c>
+      <c r="C454" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D454" s="13">
+        <v>33.22</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A455" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B455" s="10">
+        <v>2002</v>
+      </c>
+      <c r="C455" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D455" s="11">
+        <v>48.13</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A456" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B456" s="12">
+        <v>2002</v>
+      </c>
+      <c r="C456" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D456" s="13">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A457" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B457" s="10">
+        <v>2002</v>
+      </c>
+      <c r="C457" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D457" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A458" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B458" s="12">
+        <v>2002</v>
+      </c>
+      <c r="C458" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D458" s="13">
+        <v>62.09</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A459" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B459" s="10">
+        <v>2002</v>
+      </c>
+      <c r="C459" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D459" s="11">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A460" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B460" s="12">
+        <v>2002</v>
+      </c>
+      <c r="C460" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D460" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A461" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B461" s="10">
+        <v>2002</v>
+      </c>
+      <c r="C461" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D461" s="11">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A462" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B462" s="12">
+        <v>2003</v>
+      </c>
+      <c r="C462" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D462" s="13">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A463" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B463" s="10">
+        <v>2003</v>
+      </c>
+      <c r="C463" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D463" s="11">
+        <v>36.369999999999997</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A464" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B464" s="12">
+        <v>2003</v>
+      </c>
+      <c r="C464" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D464" s="13">
+        <v>56.79</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A465" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B465" s="10">
+        <v>2003</v>
+      </c>
+      <c r="C465" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D465" s="11">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A466" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B466" s="12">
+        <v>2003</v>
+      </c>
+      <c r="C466" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D466" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A467" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B467" s="10">
+        <v>2003</v>
+      </c>
+      <c r="C467" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D467" s="11">
+        <v>54.81</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A468" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B468" s="12">
+        <v>2003</v>
+      </c>
+      <c r="C468" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D468" s="13">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A469" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B469" s="10">
+        <v>2003</v>
+      </c>
+      <c r="C469" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D469" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A470" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B470" s="12">
+        <v>2003</v>
+      </c>
+      <c r="C470" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D470" s="13">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A471" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B471" s="10">
+        <v>2004</v>
+      </c>
+      <c r="C471" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D471" s="11">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A472" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B472" s="12">
+        <v>2004</v>
+      </c>
+      <c r="C472" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D472" s="13">
+        <v>42.65</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A473" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B473" s="10">
+        <v>2004</v>
+      </c>
+      <c r="C473" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D473" s="11">
+        <v>62.86</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A474" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B474" s="12">
+        <v>2004</v>
+      </c>
+      <c r="C474" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D474" s="13">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A475" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B475" s="10">
+        <v>2004</v>
+      </c>
+      <c r="C475" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D475" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A476" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B476" s="12">
+        <v>2004</v>
+      </c>
+      <c r="C476" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D476" s="13">
+        <v>42.43</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A477" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B477" s="10">
+        <v>2004</v>
+      </c>
+      <c r="C477" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D477" s="11">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A478" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B478" s="12">
+        <v>2004</v>
+      </c>
+      <c r="C478" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D478" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A479" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B479" s="10">
+        <v>2004</v>
+      </c>
+      <c r="C479" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D479" s="11">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A480" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B480" s="12">
+        <v>2005</v>
+      </c>
+      <c r="C480" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D480" s="13">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A481" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B481" s="10">
+        <v>2005</v>
+      </c>
+      <c r="C481" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D481" s="11">
+        <v>40.86</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A482" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B482" s="12">
+        <v>2005</v>
+      </c>
+      <c r="C482" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D482" s="13">
+        <v>72.3</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A483" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B483" s="10">
+        <v>2005</v>
+      </c>
+      <c r="C483" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D483" s="11">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A484" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B484" s="12">
+        <v>2005</v>
+      </c>
+      <c r="C484" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D484" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A485" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B485" s="10">
+        <v>2005</v>
+      </c>
+      <c r="C485" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D485" s="11">
+        <v>35.049999999999997</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A486" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B486" s="12">
+        <v>2005</v>
+      </c>
+      <c r="C486" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D486" s="13">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A487" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B487" s="10">
+        <v>2005</v>
+      </c>
+      <c r="C487" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D487" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A488" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B488" s="12">
+        <v>2005</v>
+      </c>
+      <c r="C488" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D488" s="13">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A489" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B489" s="10">
+        <v>2006</v>
+      </c>
+      <c r="C489" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D489" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A490" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B490" s="12">
+        <v>2006</v>
+      </c>
+      <c r="C490" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D490" s="13">
+        <v>41.45</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A491" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B491" s="10">
+        <v>2006</v>
+      </c>
+      <c r="C491" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D491" s="11">
+        <v>76.569999999999993</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A492" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B492" s="12">
+        <v>2006</v>
+      </c>
+      <c r="C492" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D492" s="13">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A493" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B493" s="10">
+        <v>2006</v>
+      </c>
+      <c r="C493" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D493" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A494" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B494" s="12">
+        <v>2006</v>
+      </c>
+      <c r="C494" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D494" s="13">
+        <v>34.619999999999997</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A495" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B495" s="10">
+        <v>2006</v>
+      </c>
+      <c r="C495" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D495" s="11">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A496" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B496" s="12">
+        <v>2006</v>
+      </c>
+      <c r="C496" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D496" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A497" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B497" s="10">
+        <v>2006</v>
+      </c>
+      <c r="C497" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D497" s="11">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A498" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B498" s="12">
+        <v>2007</v>
+      </c>
+      <c r="C498" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D498" s="13">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A499" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B499" s="10">
+        <v>2007</v>
+      </c>
+      <c r="C499" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D499" s="11">
+        <v>41.35</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A500" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B500" s="12">
+        <v>2007</v>
+      </c>
+      <c r="C500" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D500" s="13">
+        <v>83.62</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A501" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B501" s="10">
+        <v>2007</v>
+      </c>
+      <c r="C501" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D501" s="11">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A502" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B502" s="12">
+        <v>2007</v>
+      </c>
+      <c r="C502" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D502" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A503" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B503" s="10">
+        <v>2007</v>
+      </c>
+      <c r="C503" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D503" s="11">
+        <v>27.39</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A504" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B504" s="12">
+        <v>2007</v>
+      </c>
+      <c r="C504" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D504" s="13">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A505" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B505" s="10">
+        <v>2007</v>
+      </c>
+      <c r="C505" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D505" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A506" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B506" s="12">
+        <v>2007</v>
+      </c>
+      <c r="C506" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D506" s="13">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A507" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B507" s="10">
+        <v>2008</v>
+      </c>
+      <c r="C507" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D507" s="11">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A508" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B508" s="12">
+        <v>2008</v>
+      </c>
+      <c r="C508" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D508" s="13">
+        <v>40.340000000000003</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A509" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B509" s="10">
+        <v>2008</v>
+      </c>
+      <c r="C509" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D509" s="11">
+        <v>83.65</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A510" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B510" s="12">
+        <v>2008</v>
+      </c>
+      <c r="C510" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D510" s="13">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A511" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B511" s="10">
+        <v>2008</v>
+      </c>
+      <c r="C511" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D511" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A512" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B512" s="12">
+        <v>2008</v>
+      </c>
+      <c r="C512" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D512" s="13">
+        <v>24.72</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A513" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B513" s="10">
+        <v>2008</v>
+      </c>
+      <c r="C513" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D513" s="11">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A514" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B514" s="12">
+        <v>2008</v>
+      </c>
+      <c r="C514" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D514" s="13">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A515" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B515" s="10">
+        <v>2008</v>
+      </c>
+      <c r="C515" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D515" s="11">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A516" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B516" s="12">
+        <v>2009</v>
+      </c>
+      <c r="C516" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D516" s="13">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A517" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B517" s="10">
+        <v>2009</v>
+      </c>
+      <c r="C517" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D517" s="11">
+        <v>37.119999999999997</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A518" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B518" s="12">
+        <v>2009</v>
+      </c>
+      <c r="C518" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D518" s="13">
+        <v>71.349999999999994</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A519" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B519" s="10">
+        <v>2009</v>
+      </c>
+      <c r="C519" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D519" s="11">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A520" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B520" s="12">
+        <v>2009</v>
+      </c>
+      <c r="C520" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D520" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A521" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B521" s="10">
+        <v>2009</v>
+      </c>
+      <c r="C521" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D521" s="11">
+        <v>19.739999999999998</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A522" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B522" s="12">
+        <v>2009</v>
+      </c>
+      <c r="C522" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D522" s="13">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A523" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B523" s="10">
+        <v>2009</v>
+      </c>
+      <c r="C523" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D523" s="11">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A524" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B524" s="12">
+        <v>2009</v>
+      </c>
+      <c r="C524" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D524" s="13">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A525" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B525" s="10">
+        <v>2010</v>
+      </c>
+      <c r="C525" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D525" s="11">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A526" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B526" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C526" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D526" s="13">
+        <v>36.94</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A527" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B527" s="10">
+        <v>2010</v>
+      </c>
+      <c r="C527" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D527" s="11">
+        <v>73.989999999999995</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A528" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B528" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C528" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D528" s="13">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A529" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B529" s="10">
+        <v>2010</v>
+      </c>
+      <c r="C529" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D529" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A530" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B530" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C530" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D530" s="13">
+        <v>17.84</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A531" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B531" s="10">
+        <v>2010</v>
+      </c>
+      <c r="C531" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D531" s="11">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A532" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B532" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C532" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D532" s="13">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A533" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B533" s="10">
+        <v>2010</v>
+      </c>
+      <c r="C533" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D533" s="11">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A534" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B534" s="12">
+        <v>2011</v>
+      </c>
+      <c r="C534" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D534" s="13">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A535" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B535" s="10">
+        <v>2011</v>
+      </c>
+      <c r="C535" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D535" s="11">
+        <v>41.48</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A536" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B536" s="12">
+        <v>2011</v>
+      </c>
+      <c r="C536" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D536" s="13">
+        <v>70.010000000000005</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A537" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B537" s="10">
+        <v>2011</v>
+      </c>
+      <c r="C537" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D537" s="11">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A538" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B538" s="12">
+        <v>2011</v>
+      </c>
+      <c r="C538" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D538" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A539" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B539" s="10">
+        <v>2011</v>
+      </c>
+      <c r="C539" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D539" s="11">
+        <v>17.170000000000002</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A540" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B540" s="12">
+        <v>2011</v>
+      </c>
+      <c r="C540" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D540" s="13">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A541" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B541" s="10">
+        <v>2011</v>
+      </c>
+      <c r="C541" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D541" s="11">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A542" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B542" s="12">
+        <v>2011</v>
+      </c>
+      <c r="C542" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D542" s="13">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A543" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B543" s="10">
+        <v>2012</v>
+      </c>
+      <c r="C543" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D543" s="11">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A544" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B544" s="12">
+        <v>2012</v>
+      </c>
+      <c r="C544" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D544" s="13">
+        <v>45.57</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A545" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B545" s="10">
+        <v>2012</v>
+      </c>
+      <c r="C545" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D545" s="11">
+        <v>62.53</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A546" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B546" s="12">
+        <v>2012</v>
+      </c>
+      <c r="C546" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D546" s="13">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A547" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B547" s="10">
+        <v>2012</v>
+      </c>
+      <c r="C547" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D547" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A548" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B548" s="12">
+        <v>2012</v>
+      </c>
+      <c r="C548" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D548" s="13">
+        <v>16.29</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A549" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B549" s="10">
+        <v>2012</v>
+      </c>
+      <c r="C549" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D549" s="11">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A550" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B550" s="12">
+        <v>2012</v>
+      </c>
+      <c r="C550" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D550" s="13">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A551" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B551" s="10">
+        <v>2012</v>
+      </c>
+      <c r="C551" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D551" s="11">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A552" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B552" s="12">
+        <v>2013</v>
+      </c>
+      <c r="C552" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D552" s="13">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A553" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B553" s="10">
+        <v>2013</v>
+      </c>
+      <c r="C553" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D553" s="11">
+        <v>41.82</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A554" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B554" s="12">
+        <v>2013</v>
+      </c>
+      <c r="C554" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D554" s="13">
+        <v>52.73</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A555" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B555" s="10">
+        <v>2013</v>
+      </c>
+      <c r="C555" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D555" s="11">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A556" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B556" s="12">
+        <v>2013</v>
+      </c>
+      <c r="C556" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D556" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A557" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B557" s="10">
+        <v>2013</v>
+      </c>
+      <c r="C557" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D557" s="11">
+        <v>13.17</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A558" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B558" s="12">
+        <v>2013</v>
+      </c>
+      <c r="C558" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D558" s="13">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A559" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B559" s="10">
+        <v>2013</v>
+      </c>
+      <c r="C559" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D559" s="11">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A560" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B560" s="12">
+        <v>2013</v>
+      </c>
+      <c r="C560" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D560" s="13">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A561" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B561" s="10">
+        <v>2014</v>
+      </c>
+      <c r="C561" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D561" s="11">
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A562" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B562" s="12">
+        <v>2014</v>
+      </c>
+      <c r="C562" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D562" s="13">
+        <v>40.28</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A563" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B563" s="10">
+        <v>2014</v>
+      </c>
+      <c r="C563" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D563" s="11">
+        <v>45.35</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A564" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B564" s="12">
+        <v>2014</v>
+      </c>
+      <c r="C564" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D564" s="13">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A565" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B565" s="10">
+        <v>2014</v>
+      </c>
+      <c r="C565" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D565" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A566" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B566" s="12">
+        <v>2014</v>
+      </c>
+      <c r="C566" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D566" s="13">
+        <v>12.33</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A567" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B567" s="10">
+        <v>2014</v>
+      </c>
+      <c r="C567" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D567" s="11">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A568" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B568" s="12">
+        <v>2014</v>
+      </c>
+      <c r="C568" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D568" s="13">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A569" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B569" s="10">
+        <v>2014</v>
+      </c>
+      <c r="C569" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D569" s="11">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A570" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B570" s="12">
+        <v>2015</v>
+      </c>
+      <c r="C570" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D570" s="13">
+        <v>4.1900000000000004</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A571" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B571" s="10">
+        <v>2015</v>
+      </c>
+      <c r="C571" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D571" s="11">
+        <v>40.03</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A572" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B572" s="12">
+        <v>2015</v>
+      </c>
+      <c r="C572" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D572" s="13">
+        <v>53.68</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A573" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B573" s="10">
+        <v>2015</v>
+      </c>
+      <c r="C573" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D573" s="11">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A574" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B574" s="12">
+        <v>2015</v>
+      </c>
+      <c r="C574" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D574" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A575" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B575" s="10">
+        <v>2015</v>
+      </c>
+      <c r="C575" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D575" s="11">
+        <v>11.01</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A576" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B576" s="12">
+        <v>2015</v>
+      </c>
+      <c r="C576" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D576" s="13">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A577" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B577" s="10">
+        <v>2015</v>
+      </c>
+      <c r="C577" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D577" s="11">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A578" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B578" s="12">
+        <v>2015</v>
+      </c>
+      <c r="C578" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D578" s="13">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A579" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B579" s="10">
+        <v>2016</v>
+      </c>
+      <c r="C579" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D579" s="11">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A580" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B580" s="12">
+        <v>2016</v>
+      </c>
+      <c r="C580" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D580" s="13">
+        <v>32.92</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A581" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B581" s="10">
+        <v>2016</v>
+      </c>
+      <c r="C581" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D581" s="11">
+        <v>61.09</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A582" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B582" s="12">
+        <v>2016</v>
+      </c>
+      <c r="C582" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D582" s="13">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A583" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B583" s="10">
+        <v>2016</v>
+      </c>
+      <c r="C583" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D583" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A584" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B584" s="12">
+        <v>2016</v>
+      </c>
+      <c r="C584" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D584" s="13">
+        <v>10.63</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A585" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B585" s="10">
+        <v>2016</v>
+      </c>
+      <c r="C585" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D585" s="11">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A586" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B586" s="12">
+        <v>2016</v>
+      </c>
+      <c r="C586" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D586" s="13">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A587" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B587" s="10">
+        <v>2016</v>
+      </c>
+      <c r="C587" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D587" s="11">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A588" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B588" s="12">
+        <v>2017</v>
+      </c>
+      <c r="C588" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D588" s="13">
+        <v>4.1900000000000004</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A589" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B589" s="10">
+        <v>2017</v>
+      </c>
+      <c r="C589" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D589" s="11">
+        <v>30.09</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A590" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B590" s="12">
+        <v>2017</v>
+      </c>
+      <c r="C590" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D590" s="13">
+        <v>67.959999999999994</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A591" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B591" s="10">
+        <v>2017</v>
+      </c>
+      <c r="C591" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D591" s="11">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A592" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B592" s="12">
+        <v>2017</v>
+      </c>
+      <c r="C592" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D592" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A593" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B593" s="10">
+        <v>2017</v>
+      </c>
+      <c r="C593" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D593" s="11">
+        <v>10.01</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A594" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B594" s="12">
+        <v>2017</v>
+      </c>
+      <c r="C594" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D594" s="13">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A595" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B595" s="10">
+        <v>2017</v>
+      </c>
+      <c r="C595" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D595" s="11">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A596" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B596" s="12">
+        <v>2017</v>
+      </c>
+      <c r="C596" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D596" s="13">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A597" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B597" s="10">
+        <v>2018</v>
+      </c>
+      <c r="C597" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D597" s="11">
+        <v>4.1399999999999997</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A598" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B598" s="12">
+        <v>2018</v>
+      </c>
+      <c r="C598" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D598" s="13">
+        <v>26.24</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A599" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B599" s="10">
+        <v>2018</v>
+      </c>
+      <c r="C599" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D599" s="11">
+        <v>62.24</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A600" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B600" s="12">
+        <v>2018</v>
+      </c>
+      <c r="C600" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D600" s="13">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A601" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B601" s="10">
+        <v>2018</v>
+      </c>
+      <c r="C601" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D601" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="602" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A602" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B602" s="12">
+        <v>2018</v>
+      </c>
+      <c r="C602" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D602" s="13">
+        <v>9.6199999999999992</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A603" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B603" s="10">
+        <v>2018</v>
+      </c>
+      <c r="C603" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D603" s="11">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A604" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B604" s="12">
+        <v>2018</v>
+      </c>
+      <c r="C604" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D604" s="13">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A605" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B605" s="10">
+        <v>2018</v>
+      </c>
+      <c r="C605" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D605" s="11">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A606" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B606" s="12">
+        <v>2019</v>
+      </c>
+      <c r="C606" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D606" s="13">
+        <v>4.2300000000000004</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A607" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B607" s="10">
+        <v>2019</v>
+      </c>
+      <c r="C607" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D607" s="11">
+        <v>17.36</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A608" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B608" s="12">
+        <v>2019</v>
+      </c>
+      <c r="C608" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D608" s="13">
+        <v>68.61</v>
+      </c>
+    </row>
+    <row r="609" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A609" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B609" s="10">
+        <v>2019</v>
+      </c>
+      <c r="C609" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D609" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A610" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B610" s="12">
+        <v>2019</v>
+      </c>
+      <c r="C610" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D610" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="611" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A611" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B611" s="10">
+        <v>2019</v>
+      </c>
+      <c r="C611" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D611" s="11">
+        <v>8.9600000000000009</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A612" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B612" s="12">
+        <v>2019</v>
+      </c>
+      <c r="C612" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D612" s="13">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="613" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A613" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B613" s="10">
+        <v>2019</v>
+      </c>
+      <c r="C613" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D613" s="11">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="614" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A614" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B614" s="12">
+        <v>2019</v>
+      </c>
+      <c r="C614" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D614" s="13">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="615" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A615" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B615" s="10">
+        <v>2020</v>
+      </c>
+      <c r="C615" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D615" s="11">
+        <v>4.24</v>
+      </c>
+    </row>
+    <row r="616" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A616" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B616" s="12">
+        <v>2020</v>
+      </c>
+      <c r="C616" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D616" s="13">
+        <v>12.34</v>
+      </c>
+    </row>
+    <row r="617" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A617" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B617" s="10">
+        <v>2020</v>
+      </c>
+      <c r="C617" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D617" s="11">
+        <v>64.73</v>
+      </c>
+    </row>
+    <row r="618" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A618" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B618" s="12">
+        <v>2020</v>
+      </c>
+      <c r="C618" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D618" s="13">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A619" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B619" s="10">
+        <v>2020</v>
+      </c>
+      <c r="C619" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D619" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A620" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B620" s="12">
+        <v>2020</v>
+      </c>
+      <c r="C620" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D620" s="13">
+        <v>8.44</v>
+      </c>
+    </row>
+    <row r="621" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A621" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B621" s="10">
+        <v>2020</v>
+      </c>
+      <c r="C621" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D621" s="11">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="622" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A622" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B622" s="12">
+        <v>2020</v>
+      </c>
+      <c r="C622" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D622" s="13">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="623" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A623" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B623" s="10">
+        <v>2020</v>
+      </c>
+      <c r="C623" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D623" s="11">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="624" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A624" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B624" s="12">
+        <v>2021</v>
+      </c>
+      <c r="C624" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D624" s="13">
+        <v>4.12</v>
+      </c>
+    </row>
+    <row r="625" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A625" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B625" s="10">
+        <v>2021</v>
+      </c>
+      <c r="C625" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D625" s="11">
+        <v>12.94</v>
+      </c>
+    </row>
+    <row r="626" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A626" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B626" s="12">
+        <v>2021</v>
+      </c>
+      <c r="C626" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D626" s="13">
+        <v>69.73</v>
+      </c>
+    </row>
+    <row r="627" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A627" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B627" s="10">
+        <v>2021</v>
+      </c>
+      <c r="C627" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D627" s="11">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="628" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A628" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B628" s="12">
+        <v>2021</v>
+      </c>
+      <c r="C628" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D628" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="629" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A629" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B629" s="10">
+        <v>2021</v>
+      </c>
+      <c r="C629" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D629" s="11">
+        <v>7.32</v>
+      </c>
+    </row>
+    <row r="630" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A630" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B630" s="12">
+        <v>2021</v>
+      </c>
+      <c r="C630" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D630" s="13">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="631" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A631" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B631" s="10">
+        <v>2021</v>
+      </c>
+      <c r="C631" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D631" s="11">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="632" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A632" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B632" s="12">
+        <v>2021</v>
+      </c>
+      <c r="C632" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D632" s="13">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="633" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A633" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B633" s="10">
+        <v>2022</v>
+      </c>
+      <c r="C633" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D633" s="11">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="634" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A634" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B634" s="12">
+        <v>2022</v>
+      </c>
+      <c r="C634" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D634" s="13">
+        <v>20.88</v>
+      </c>
+    </row>
+    <row r="635" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A635" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B635" s="10">
+        <v>2022</v>
+      </c>
+      <c r="C635" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D635" s="11">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="636" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A636" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B636" s="12">
+        <v>2022</v>
+      </c>
+      <c r="C636" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D636" s="13">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="637" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A637" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B637" s="10">
+        <v>2022</v>
+      </c>
+      <c r="C637" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D637" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="638" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A638" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B638" s="12">
+        <v>2022</v>
+      </c>
+      <c r="C638" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D638" s="13">
+        <v>10.28</v>
+      </c>
+    </row>
+    <row r="639" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A639" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B639" s="10">
+        <v>2022</v>
+      </c>
+      <c r="C639" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D639" s="11">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="640" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A640" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B640" s="12">
+        <v>2022</v>
+      </c>
+      <c r="C640" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D640" s="13">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="641" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A641" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B641" s="10">
+        <v>2022</v>
+      </c>
+      <c r="C641" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D641" s="11">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="642" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A642" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B642" s="12">
+        <v>2023</v>
+      </c>
+      <c r="C642" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D642" s="13">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="643" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A643" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B643" s="10">
+        <v>2023</v>
+      </c>
+      <c r="C643" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D643" s="11">
+        <v>12.84</v>
+      </c>
+    </row>
+    <row r="644" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A644" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B644" s="12">
+        <v>2023</v>
+      </c>
+      <c r="C644" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D644" s="13">
+        <v>57.3</v>
+      </c>
+    </row>
+    <row r="645" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A645" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B645" s="10">
+        <v>2023</v>
+      </c>
+      <c r="C645" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D645" s="11">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="646" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A646" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B646" s="12">
+        <v>2023</v>
+      </c>
+      <c r="C646" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D646" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="647" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A647" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B647" s="10">
+        <v>2023</v>
+      </c>
+      <c r="C647" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D647" s="11">
+        <v>10.23</v>
+      </c>
+    </row>
+    <row r="648" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A648" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B648" s="12">
+        <v>2023</v>
+      </c>
+      <c r="C648" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D648" s="13">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="649" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A649" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B649" s="10">
+        <v>2023</v>
+      </c>
+      <c r="C649" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D649" s="11">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="650" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A650" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B650" s="12">
+        <v>2023</v>
+      </c>
+      <c r="C650" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D650" s="13">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="651" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A651" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B651" s="10">
+        <v>2000</v>
+      </c>
+      <c r="C651" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D651" s="11">
+        <v>44.35</v>
+      </c>
+    </row>
+    <row r="652" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A652" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B652" s="12">
+        <v>2000</v>
+      </c>
+      <c r="C652" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D652" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="653" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A653" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B653" s="10">
+        <v>2001</v>
+      </c>
+      <c r="C653" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D653" s="11">
+        <v>48.38</v>
+      </c>
+    </row>
+    <row r="654" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A654" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B654" s="12">
+        <v>2001</v>
+      </c>
+      <c r="C654" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D654" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="655" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A655" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B655" s="10">
+        <v>2002</v>
+      </c>
+      <c r="C655" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D655" s="11">
+        <v>50.6</v>
+      </c>
+    </row>
+    <row r="656" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A656" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B656" s="12">
+        <v>2002</v>
+      </c>
+      <c r="C656" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D656" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="657" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A657" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B657" s="10">
+        <v>2003</v>
+      </c>
+      <c r="C657" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D657" s="11">
+        <v>50.97</v>
+      </c>
+    </row>
+    <row r="658" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A658" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B658" s="12">
+        <v>2003</v>
+      </c>
+      <c r="C658" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D658" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="659" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A659" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B659" s="10">
+        <v>2004</v>
+      </c>
+      <c r="C659" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D659" s="11">
+        <v>45.63</v>
+      </c>
+    </row>
+    <row r="660" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A660" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B660" s="12">
+        <v>2004</v>
+      </c>
+      <c r="C660" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D660" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="661" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A661" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B661" s="10">
+        <v>2005</v>
+      </c>
+      <c r="C661" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D661" s="11">
+        <v>49.15</v>
+      </c>
+    </row>
+    <row r="662" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A662" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B662" s="12">
+        <v>2005</v>
+      </c>
+      <c r="C662" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D662" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="663" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A663" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B663" s="10">
+        <v>2006</v>
+      </c>
+      <c r="C663" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D663" s="11">
+        <v>44.99</v>
+      </c>
+    </row>
+    <row r="664" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A664" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B664" s="12">
+        <v>2006</v>
+      </c>
+      <c r="C664" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D664" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="665" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A665" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B665" s="10">
+        <v>2007</v>
+      </c>
+      <c r="C665" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D665" s="11">
+        <v>46.28</v>
+      </c>
+    </row>
+    <row r="666" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A666" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B666" s="12">
+        <v>2007</v>
+      </c>
+      <c r="C666" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D666" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="667" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A667" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B667" s="10">
+        <v>2008</v>
+      </c>
+      <c r="C667" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D667" s="11">
+        <v>40.03</v>
+      </c>
+    </row>
+    <row r="668" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A668" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B668" s="12">
+        <v>2008</v>
+      </c>
+      <c r="C668" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D668" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="669" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A669" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B669" s="10">
+        <v>2009</v>
+      </c>
+      <c r="C669" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D669" s="11">
+        <v>44.96</v>
+      </c>
+    </row>
+    <row r="670" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A670" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B670" s="12">
+        <v>2009</v>
+      </c>
+      <c r="C670" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D670" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="671" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A671" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B671" s="10">
+        <v>2010</v>
+      </c>
+      <c r="C671" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D671" s="11">
+        <v>44.16</v>
+      </c>
+    </row>
+    <row r="672" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A672" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B672" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C672" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D672" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="673" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A673" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B673" s="10">
+        <v>2011</v>
+      </c>
+      <c r="C673" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D673" s="11">
+        <v>45.73</v>
+      </c>
+    </row>
+    <row r="674" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A674" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B674" s="12">
+        <v>2011</v>
+      </c>
+      <c r="C674" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D674" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="675" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A675" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B675" s="10">
+        <v>2012</v>
+      </c>
+      <c r="C675" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D675" s="11">
+        <v>43.1</v>
+      </c>
+    </row>
+    <row r="676" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A676" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B676" s="12">
+        <v>2012</v>
+      </c>
+      <c r="C676" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D676" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="677" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A677" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B677" s="10">
+        <v>2013</v>
+      </c>
+      <c r="C677" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D677" s="11">
+        <v>42.14</v>
+      </c>
+    </row>
+    <row r="678" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A678" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B678" s="12">
+        <v>2013</v>
+      </c>
+      <c r="C678" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D678" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="679" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A679" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B679" s="10">
+        <v>2014</v>
+      </c>
+      <c r="C679" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D679" s="11">
+        <v>43.72</v>
+      </c>
+    </row>
+    <row r="680" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A680" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B680" s="12">
+        <v>2014</v>
+      </c>
+      <c r="C680" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D680" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="681" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A681" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B681" s="10">
+        <v>2015</v>
+      </c>
+      <c r="C681" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D681" s="11">
+        <v>46.38</v>
+      </c>
+    </row>
+    <row r="682" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A682" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B682" s="12">
+        <v>2015</v>
+      </c>
+      <c r="C682" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D682" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="683" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A683" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B683" s="10">
+        <v>2016</v>
+      </c>
+      <c r="C683" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D683" s="11">
+        <v>37.03</v>
+      </c>
+    </row>
+    <row r="684" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A684" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B684" s="12">
+        <v>2016</v>
+      </c>
+      <c r="C684" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D684" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="685" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A685" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B685" s="10">
+        <v>2017</v>
+      </c>
+      <c r="C685" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D685" s="11">
+        <v>37.76</v>
+      </c>
+    </row>
+    <row r="686" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A686" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B686" s="12">
+        <v>2017</v>
+      </c>
+      <c r="C686" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D686" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="687" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A687" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B687" s="10">
+        <v>2018</v>
+      </c>
+      <c r="C687" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D687" s="11">
+        <v>43.9</v>
+      </c>
+    </row>
+    <row r="688" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A688" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B688" s="12">
+        <v>2018</v>
+      </c>
+      <c r="C688" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D688" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="689" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A689" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B689" s="10">
+        <v>2019</v>
+      </c>
+      <c r="C689" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D689" s="11">
+        <v>38.14</v>
+      </c>
+    </row>
+    <row r="690" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A690" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B690" s="12">
+        <v>2019</v>
+      </c>
+      <c r="C690" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D690" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="691" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A691" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B691" s="10">
+        <v>2020</v>
+      </c>
+      <c r="C691" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D691" s="11">
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="692" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A692" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B692" s="12">
+        <v>2020</v>
+      </c>
+      <c r="C692" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D692" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="693" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A693" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B693" s="10">
+        <v>2021</v>
+      </c>
+      <c r="C693" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D693" s="11">
+        <v>42.79</v>
+      </c>
+    </row>
+    <row r="694" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A694" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B694" s="12">
+        <v>2021</v>
+      </c>
+      <c r="C694" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D694" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="695" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A695" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B695" s="10">
+        <v>2022</v>
+      </c>
+      <c r="C695" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D695" s="11">
+        <v>42.99</v>
+      </c>
+    </row>
+    <row r="696" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A696" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B696" s="12">
+        <v>2022</v>
+      </c>
+      <c r="C696" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D696" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="697" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A697" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B697" s="10">
+        <v>2023</v>
+      </c>
+      <c r="C697" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D697" s="11">
+        <v>51.25</v>
+      </c>
+    </row>
+    <row r="698" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A698" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B698" s="12">
+        <v>2023</v>
+      </c>
+      <c r="C698" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D698" s="13">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5AF519-0EFD-49E5-B90E-C35892C215A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEE161B-E2E3-4B9E-B26E-DA79CF406798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEE161B-E2E3-4B9E-B26E-DA79CF406798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC50501-3AD6-4A66-A646-90C8B61D7962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1502" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="79">
   <si>
     <t>~TFM_INS-AT</t>
   </si>
@@ -323,6 +323,15 @@
     <t>Import</t>
   </si>
   <si>
+    <t>\I:</t>
+  </si>
+  <si>
+    <t>UCE_max nuclear capacity</t>
+  </si>
+  <si>
+    <t>UC_RHSRT~2050</t>
+  </si>
+  <si>
     <t>geothermal</t>
   </si>
 </sst>
@@ -370,20 +379,20 @@
     </font>
     <font>
       <i/>
-      <sz val="9"/>
+      <sz val="7"/>
       <color rgb="FF969696"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
@@ -810,9 +819,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ40"/>
+  <dimension ref="A1:AL40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="AD11" sqref="AD11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -832,29 +843,30 @@
     <col min="20" max="20" width="4.73046875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="24" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.33203125" customWidth="1"/>
+    <col min="23" max="23" width="12.06640625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="7" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="7.86328125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.19921875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="23.73046875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="7.86328125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="4.73046875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.1328125" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="4.73046875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="23.73046875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.86328125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="4.73046875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="AA1">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="AB1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AC1">
+      <c r="AD1">
         <v>0.9</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.45">
       <c r="F2" s="7" t="s">
         <v>61</v>
       </c>
@@ -871,7 +883,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -894,7 +906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -919,7 +931,7 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -942,7 +954,7 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A6" s="6">
         <v>0.28000000000000003</v>
       </c>
@@ -957,7 +969,7 @@
         <v>0.14275360852558924</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -970,11 +982,11 @@
       <c r="U6" t="s">
         <v>11</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AF6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>12</v>
       </c>
@@ -1012,41 +1024,47 @@
       <c r="X7" t="s">
         <v>15</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z7">
         <v>2022</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>2050</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>16</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>17</v>
       </c>
       <c r="AD7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF7" t="s">
         <v>13</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AG7" t="s">
         <v>2</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AH7" t="s">
         <v>15</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AI7" t="s">
         <v>18</v>
       </c>
-      <c r="AH7">
+      <c r="AJ7">
         <v>2050</v>
       </c>
-      <c r="AI7" t="s">
+      <c r="AK7" t="s">
         <v>16</v>
       </c>
-      <c r="AJ7" t="s">
+      <c r="AL7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>19</v>
       </c>
@@ -1073,50 +1091,50 @@
       <c r="W8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X8">
+      <c r="X8" s="3">
         <f>-1/8.76</f>
         <v>-0.11415525114155252</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <f>VLOOKUP(V8,$F$3:$J$11,3,FALSE)</f>
         <v>0.62231700981598448</v>
       </c>
-      <c r="Z8" s="3">
-        <f>Y8*$AA$1</f>
+      <c r="AA8" s="3">
+        <f>Z8*$AB$1</f>
         <v>0.68454871079758295</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>0</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>3</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AF8" t="s">
         <v>22</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AG8" t="s">
         <v>5</v>
       </c>
-      <c r="AF8">
+      <c r="AH8">
         <f>-1/8.76</f>
         <v>-0.11415525114155252</v>
       </c>
-      <c r="AG8" s="3">
-        <f>VLOOKUP(AE8,$F$3:$J$11,2,FALSE)</f>
+      <c r="AI8" s="3">
+        <f>VLOOKUP(AG8,$F$3:$J$11,2,FALSE)</f>
         <v>0.19733814732221869</v>
       </c>
-      <c r="AH8">
-        <f>AG8*$AC$1</f>
+      <c r="AJ8">
+        <f>AI8*$AD$1</f>
         <v>0.17760433258999683</v>
       </c>
-      <c r="AI8">
+      <c r="AK8">
         <v>0</v>
       </c>
-      <c r="AJ8">
+      <c r="AL8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.45">
       <c r="F9" t="s">
         <v>23</v>
       </c>
@@ -1141,50 +1159,50 @@
       <c r="W9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X9">
+      <c r="X9" s="3">
         <f>-1/8.76</f>
         <v>-0.11415525114155252</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <f>VLOOKUP(V9,$F$3:$J$11,3,FALSE)</f>
         <v>0.2955149688458561</v>
       </c>
-      <c r="Z9" s="3">
-        <f>Y9*$AA$1</f>
+      <c r="AA9" s="3">
+        <f>Z9*$AB$1</f>
         <v>0.32506646573044173</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>0</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>3</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AF9" t="s">
         <v>25</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AG9" t="s">
         <v>8</v>
       </c>
-      <c r="AF9">
+      <c r="AH9">
         <f>-1/8.76</f>
         <v>-0.11415525114155252</v>
       </c>
-      <c r="AG9" s="3">
-        <f>VLOOKUP(AE9,$F$3:$J$11,2,FALSE)</f>
+      <c r="AI9" s="3">
+        <f>VLOOKUP(AG9,$F$3:$J$11,2,FALSE)</f>
         <v>0.15844369919854487</v>
       </c>
-      <c r="AH9">
-        <f>AG9*$AC$1</f>
+      <c r="AJ9">
+        <f>AI9*$AD$1</f>
         <v>0.14259932927869037</v>
       </c>
-      <c r="AI9">
+      <c r="AK9">
         <v>0</v>
       </c>
-      <c r="AJ9">
+      <c r="AL9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:38" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F10" t="s">
         <v>9</v>
       </c>
@@ -1200,8 +1218,11 @@
       <c r="J10" s="4">
         <v>0.14275360852558924</v>
       </c>
-    </row>
-    <row r="11" spans="1:36" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="U10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F11" t="s">
         <v>12</v>
       </c>
@@ -1217,13 +1238,33 @@
       <c r="J11" s="4">
         <v>0.21594436217582091</v>
       </c>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="U11" t="s">
+        <v>76</v>
+      </c>
+      <c r="V11" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="AB11">
+        <f>SUMIFS(historical_data_long!$D$3:$D$626,historical_data_long!$A$3:$A$626,Veda!$V11,historical_data_long!$C$3:$C$626,"GW",historical_data_long!$B$3:$B$626,2022)</f>
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>3</v>
+      </c>
+      <c r="AD11">
+        <f>AB11*2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>27</v>
       </c>
@@ -1234,7 +1275,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>29</v>
       </c>
@@ -1249,7 +1290,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.45">
       <c r="L16" t="s">
         <v>31</v>
       </c>
@@ -1502,7 +1543,7 @@
     <row r="1" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="8"/>
     </row>
-    <row r="2" spans="1:4" ht="19.149999999999999" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="9" t="s">
         <v>61</v>
       </c>
@@ -1516,7 +1557,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
         <v>66</v>
       </c>
@@ -1530,7 +1571,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="12" t="s">
         <v>5</v>
       </c>
@@ -1544,7 +1585,7 @@
         <v>26.28</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
@@ -1558,7 +1599,7 @@
         <v>101.36</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="12" t="s">
         <v>6</v>
       </c>
@@ -1572,7 +1613,7 @@
         <v>44.2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
         <v>19</v>
       </c>
@@ -1586,7 +1627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="12" t="s">
         <v>23</v>
       </c>
@@ -1600,7 +1641,7 @@
         <v>91.43</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="10" t="s">
         <v>66</v>
       </c>
@@ -1614,7 +1655,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="12" t="s">
         <v>9</v>
       </c>
@@ -1628,7 +1669,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="10" t="s">
         <v>12</v>
       </c>
@@ -1642,7 +1683,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="12" t="s">
         <v>66</v>
       </c>
@@ -1656,7 +1697,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="10" t="s">
         <v>5</v>
       </c>
@@ -1670,7 +1711,7 @@
         <v>31.73</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="12" t="s">
         <v>8</v>
       </c>
@@ -1684,7 +1725,7 @@
         <v>104.19</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="10" t="s">
         <v>6</v>
       </c>
@@ -1698,7 +1739,7 @@
         <v>46.81</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="12" t="s">
         <v>19</v>
       </c>
@@ -1712,7 +1753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="10" t="s">
         <v>23</v>
       </c>
@@ -1726,7 +1767,7 @@
         <v>81.63</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="12" t="s">
         <v>66</v>
       </c>
@@ -1740,7 +1781,7 @@
         <v>4.51</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="10" t="s">
         <v>9</v>
       </c>
@@ -1754,7 +1795,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="12" t="s">
         <v>12</v>
       </c>
@@ -1768,7 +1809,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="10" t="s">
         <v>66</v>
       </c>
@@ -1782,7 +1823,7 @@
         <v>2.71</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="12" t="s">
         <v>5</v>
       </c>
@@ -1796,7 +1837,7 @@
         <v>35.450000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="10" t="s">
         <v>8</v>
       </c>
@@ -1810,7 +1851,7 @@
         <v>99.41</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="12" t="s">
         <v>6</v>
       </c>
@@ -1824,7 +1865,7 @@
         <v>39.520000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="10" t="s">
         <v>19</v>
       </c>
@@ -1838,7 +1879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="12" t="s">
         <v>23</v>
       </c>
@@ -1852,7 +1893,7 @@
         <v>94.36</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="10" t="s">
         <v>66</v>
       </c>
@@ -1866,7 +1907,7 @@
         <v>4.66</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="12" t="s">
         <v>9</v>
       </c>
@@ -1880,7 +1921,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="10" t="s">
         <v>12</v>
       </c>
@@ -1894,7 +1935,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="12" t="s">
         <v>66</v>
       </c>
@@ -1908,7 +1949,7 @@
         <v>3.37</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="10" t="s">
         <v>5</v>
       </c>
@@ -1922,7 +1963,7 @@
         <v>38.81</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="12" t="s">
         <v>8</v>
       </c>
@@ -1936,7 +1977,7 @@
         <v>117.3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="10" t="s">
         <v>6</v>
       </c>
@@ -1950,7 +1991,7 @@
         <v>36.67</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="12" t="s">
         <v>19</v>
       </c>
@@ -1964,7 +2005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="10" t="s">
         <v>23</v>
       </c>
@@ -1978,7 +2019,7 @@
         <v>83.3</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="12" t="s">
         <v>66</v>
       </c>
@@ -1992,7 +2033,7 @@
         <v>5.34</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="10" t="s">
         <v>9</v>
       </c>
@@ -2006,7 +2047,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="12" t="s">
         <v>12</v>
       </c>
@@ -2020,7 +2061,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="10" t="s">
         <v>66</v>
       </c>
@@ -2034,7 +2075,7 @@
         <v>4.22</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="12" t="s">
         <v>5</v>
       </c>
@@ -2048,7 +2089,7 @@
         <v>45.52</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="10" t="s">
         <v>8</v>
       </c>
@@ -2062,7 +2103,7 @@
         <v>129.84</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="12" t="s">
         <v>6</v>
       </c>
@@ -2076,7 +2117,7 @@
         <v>42.34</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="10" t="s">
         <v>19</v>
       </c>
@@ -2090,7 +2131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="12" t="s">
         <v>23</v>
       </c>
@@ -2104,7 +2145,7 @@
         <v>64.48</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="10" t="s">
         <v>66</v>
       </c>
@@ -2118,7 +2159,7 @@
         <v>5.44</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="12" t="s">
         <v>9</v>
       </c>
@@ -2132,7 +2173,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="10" t="s">
         <v>12</v>
       </c>
@@ -2146,7 +2187,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="12" t="s">
         <v>66</v>
       </c>
@@ -2160,7 +2201,7 @@
         <v>4.67</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" s="10" t="s">
         <v>5</v>
       </c>
@@ -2174,7 +2215,7 @@
         <v>43.61</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" s="12" t="s">
         <v>8</v>
       </c>
@@ -2188,7 +2229,7 @@
         <v>149.33000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" s="10" t="s">
         <v>6</v>
       </c>
@@ -2202,7 +2243,7 @@
         <v>36.07</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" s="12" t="s">
         <v>19</v>
       </c>
@@ -2216,7 +2257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" s="10" t="s">
         <v>23</v>
       </c>
@@ -2230,7 +2271,7 @@
         <v>53.26</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" s="12" t="s">
         <v>66</v>
       </c>
@@ -2244,7 +2285,7 @@
         <v>5.32</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" s="10" t="s">
         <v>9</v>
       </c>
@@ -2258,7 +2299,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" s="12" t="s">
         <v>12</v>
       </c>
@@ -2272,7 +2313,7 @@
         <v>2.34</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" s="10" t="s">
         <v>66</v>
       </c>
@@ -2286,7 +2327,7 @@
         <v>5.1100000000000003</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" s="12" t="s">
         <v>5</v>
       </c>
@@ -2300,7 +2341,7 @@
         <v>44.21</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" s="10" t="s">
         <v>8</v>
       </c>
@@ -2314,7 +2355,7 @@
         <v>158.13999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" s="12" t="s">
         <v>6</v>
       </c>
@@ -2328,7 +2369,7 @@
         <v>36.99</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" s="10" t="s">
         <v>19</v>
       </c>
@@ -2342,7 +2383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" s="12" t="s">
         <v>23</v>
       </c>
@@ -2356,7 +2397,7 @@
         <v>52.62</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" s="10" t="s">
         <v>66</v>
       </c>
@@ -2370,7 +2411,7 @@
         <v>5.53</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" s="12" t="s">
         <v>9</v>
       </c>
@@ -2384,7 +2425,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" s="10" t="s">
         <v>12</v>
       </c>
@@ -2398,7 +2439,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" s="12" t="s">
         <v>66</v>
       </c>
@@ -2412,7 +2453,7 @@
         <v>5.26</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" s="10" t="s">
         <v>5</v>
       </c>
@@ -2426,7 +2467,7 @@
         <v>44.11</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" s="12" t="s">
         <v>8</v>
       </c>
@@ -2440,7 +2481,7 @@
         <v>172.71</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" s="10" t="s">
         <v>6</v>
       </c>
@@ -2454,7 +2495,7 @@
         <v>32.82</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" s="12" t="s">
         <v>19</v>
       </c>
@@ -2468,7 +2509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" s="10" t="s">
         <v>23</v>
       </c>
@@ -2482,7 +2523,7 @@
         <v>41.63</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" s="12" t="s">
         <v>66</v>
       </c>
@@ -2496,7 +2537,7 @@
         <v>5.57</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" s="10" t="s">
         <v>9</v>
       </c>
@@ -2510,7 +2551,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" s="12" t="s">
         <v>12</v>
       </c>
@@ -2524,7 +2565,7 @@
         <v>4.03</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" s="10" t="s">
         <v>66</v>
       </c>
@@ -2538,7 +2579,7 @@
         <v>5.97</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" s="12" t="s">
         <v>5</v>
       </c>
@@ -2552,7 +2593,7 @@
         <v>43.07</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" s="10" t="s">
         <v>8</v>
       </c>
@@ -2566,7 +2607,7 @@
         <v>172.77</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" s="12" t="s">
         <v>6</v>
       </c>
@@ -2580,7 +2621,7 @@
         <v>41.62</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" s="10" t="s">
         <v>19</v>
       </c>
@@ -2594,7 +2635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" s="12" t="s">
         <v>23</v>
       </c>
@@ -2608,7 +2649,7 @@
         <v>37.57</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" s="10" t="s">
         <v>66</v>
       </c>
@@ -2622,7 +2663,7 @@
         <v>5.52</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82" s="12" t="s">
         <v>9</v>
       </c>
@@ -2636,7 +2677,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" s="10" t="s">
         <v>12</v>
       </c>
@@ -2650,7 +2691,7 @@
         <v>4.8600000000000003</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" s="12" t="s">
         <v>66</v>
       </c>
@@ -2664,7 +2705,7 @@
         <v>7.56</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85" s="10" t="s">
         <v>5</v>
       </c>
@@ -2678,7 +2719,7 @@
         <v>39.74</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A86" s="12" t="s">
         <v>8</v>
       </c>
@@ -2692,7 +2733,7 @@
         <v>147.36000000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87" s="10" t="s">
         <v>6</v>
       </c>
@@ -2706,7 +2747,7 @@
         <v>49.14</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88" s="12" t="s">
         <v>19</v>
       </c>
@@ -2720,7 +2761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89" s="10" t="s">
         <v>23</v>
       </c>
@@ -2734,7 +2775,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90" s="12" t="s">
         <v>66</v>
       </c>
@@ -2748,7 +2789,7 @@
         <v>5.34</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91" s="10" t="s">
         <v>9</v>
       </c>
@@ -2762,7 +2803,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92" s="12" t="s">
         <v>12</v>
       </c>
@@ -2776,7 +2817,7 @@
         <v>6.54</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A93" s="10" t="s">
         <v>66</v>
       </c>
@@ -2790,7 +2831,7 @@
         <v>9.44</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A94" s="12" t="s">
         <v>5</v>
       </c>
@@ -2804,7 +2845,7 @@
         <v>39.729999999999997</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A95" s="10" t="s">
         <v>8</v>
       </c>
@@ -2818,7 +2859,7 @@
         <v>152.81</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A96" s="12" t="s">
         <v>6</v>
       </c>
@@ -2832,7 +2873,7 @@
         <v>51.12</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A97" s="10" t="s">
         <v>19</v>
       </c>
@@ -2846,7 +2887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A98" s="12" t="s">
         <v>23</v>
       </c>
@@ -2860,7 +2901,7 @@
         <v>27.12</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A99" s="10" t="s">
         <v>66</v>
       </c>
@@ -2874,7 +2915,7 @@
         <v>5.38</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A100" s="12" t="s">
         <v>9</v>
       </c>
@@ -2888,7 +2929,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A101" s="10" t="s">
         <v>12</v>
       </c>
@@ -2902,7 +2943,7 @@
         <v>9.1199999999999992</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A102" s="12" t="s">
         <v>66</v>
       </c>
@@ -2916,7 +2957,7 @@
         <v>10.83</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A103" s="10" t="s">
         <v>5</v>
       </c>
@@ -2930,7 +2971,7 @@
         <v>44.73</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A104" s="12" t="s">
         <v>8</v>
       </c>
@@ -2944,7 +2985,7 @@
         <v>144.6</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A105" s="10" t="s">
         <v>6</v>
       </c>
@@ -2958,7 +2999,7 @@
         <v>45.82</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A106" s="12" t="s">
         <v>19</v>
       </c>
@@ -2972,7 +3013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A107" s="10" t="s">
         <v>23</v>
       </c>
@@ -2986,7 +3027,7 @@
         <v>26.09</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A108" s="12" t="s">
         <v>66</v>
       </c>
@@ -3000,7 +3041,7 @@
         <v>5.65</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A109" s="10" t="s">
         <v>9</v>
       </c>
@@ -3014,7 +3055,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A110" s="12" t="s">
         <v>12</v>
       </c>
@@ -3028,7 +3069,7 @@
         <v>9.85</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A111" s="10" t="s">
         <v>66</v>
       </c>
@@ -3042,7 +3083,7 @@
         <v>12.49</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A112" s="12" t="s">
         <v>5</v>
       </c>
@@ -3056,7 +3097,7 @@
         <v>49.14</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A113" s="10" t="s">
         <v>8</v>
       </c>
@@ -3070,7 +3111,7 @@
         <v>129.13999999999999</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A114" s="12" t="s">
         <v>6</v>
       </c>
@@ -3084,7 +3125,7 @@
         <v>41.87</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A115" s="10" t="s">
         <v>19</v>
       </c>
@@ -3098,7 +3139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A116" s="12" t="s">
         <v>23</v>
       </c>
@@ -3112,7 +3153,7 @@
         <v>24.75</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A117" s="10" t="s">
         <v>66</v>
       </c>
@@ -3126,7 +3167,7 @@
         <v>5.59</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A118" s="12" t="s">
         <v>9</v>
       </c>
@@ -3140,7 +3181,7 @@
         <v>18.86</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A119" s="10" t="s">
         <v>12</v>
       </c>
@@ -3154,7 +3195,7 @@
         <v>13.41</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A120" s="12" t="s">
         <v>66</v>
       </c>
@@ -3168,7 +3209,7 @@
         <v>17.079999999999998</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A121" s="10" t="s">
         <v>5</v>
       </c>
@@ -3182,7 +3223,7 @@
         <v>45.1</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A122" s="12" t="s">
         <v>8</v>
       </c>
@@ -3196,7 +3237,7 @@
         <v>108.91</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A123" s="10" t="s">
         <v>6</v>
       </c>
@@ -3210,7 +3251,7 @@
         <v>52.77</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A124" s="12" t="s">
         <v>19</v>
       </c>
@@ -3224,7 +3265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A125" s="10" t="s">
         <v>23</v>
       </c>
@@ -3238,7 +3279,7 @@
         <v>20.010000000000002</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A126" s="12" t="s">
         <v>66</v>
       </c>
@@ -3252,7 +3293,7 @@
         <v>5.66</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A127" s="10" t="s">
         <v>9</v>
       </c>
@@ -3266,7 +3307,7 @@
         <v>21.59</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A128" s="12" t="s">
         <v>12</v>
       </c>
@@ -3280,7 +3321,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A129" s="10" t="s">
         <v>66</v>
       </c>
@@ -3294,7 +3335,7 @@
         <v>18.72</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A130" s="12" t="s">
         <v>5</v>
       </c>
@@ -3308,7 +3349,7 @@
         <v>43.45</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A131" s="10" t="s">
         <v>8</v>
       </c>
@@ -3322,7 +3363,7 @@
         <v>93.66</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A132" s="12" t="s">
         <v>6</v>
       </c>
@@ -3336,7 +3377,7 @@
         <v>58.55</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A133" s="10" t="s">
         <v>19</v>
       </c>
@@ -3350,7 +3391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A134" s="12" t="s">
         <v>23</v>
       </c>
@@ -3364,7 +3405,7 @@
         <v>18.739999999999998</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A135" s="10" t="s">
         <v>66</v>
       </c>
@@ -3378,7 +3419,7 @@
         <v>5.92</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A136" s="12" t="s">
         <v>9</v>
       </c>
@@ -3392,7 +3433,7 @@
         <v>22.31</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A137" s="10" t="s">
         <v>12</v>
       </c>
@@ -3406,7 +3447,7 @@
         <v>15.18</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A138" s="12" t="s">
         <v>66</v>
       </c>
@@ -3420,7 +3461,7 @@
         <v>19.39</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A139" s="10" t="s">
         <v>5</v>
       </c>
@@ -3434,7 +3475,7 @@
         <v>43.2</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A140" s="12" t="s">
         <v>8</v>
       </c>
@@ -3448,7 +3489,7 @@
         <v>110.88</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A141" s="10" t="s">
         <v>6</v>
       </c>
@@ -3462,7 +3503,7 @@
         <v>45.54</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A142" s="12" t="s">
         <v>19</v>
       </c>
@@ -3476,7 +3517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A143" s="10" t="s">
         <v>23</v>
       </c>
@@ -3490,7 +3531,7 @@
         <v>16.73</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A144" s="12" t="s">
         <v>66</v>
       </c>
@@ -3504,7 +3545,7 @@
         <v>6.18</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A145" s="10" t="s">
         <v>9</v>
       </c>
@@ -3518,7 +3559,7 @@
         <v>22.94</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A146" s="12" t="s">
         <v>12</v>
       </c>
@@ -3532,7 +3573,7 @@
         <v>14.84</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A147" s="10" t="s">
         <v>66</v>
       </c>
@@ -3546,7 +3587,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A148" s="12" t="s">
         <v>5</v>
       </c>
@@ -3560,7 +3601,7 @@
         <v>35.61</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A149" s="10" t="s">
         <v>8</v>
       </c>
@@ -3574,7 +3615,7 @@
         <v>126.17</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A150" s="12" t="s">
         <v>6</v>
       </c>
@@ -3588,7 +3629,7 @@
         <v>42.43</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A151" s="10" t="s">
         <v>19</v>
       </c>
@@ -3602,7 +3643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A152" s="12" t="s">
         <v>23</v>
       </c>
@@ -3616,7 +3657,7 @@
         <v>16.16</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A153" s="10" t="s">
         <v>66</v>
       </c>
@@ -3630,7 +3671,7 @@
         <v>6.29</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A154" s="12" t="s">
         <v>9</v>
       </c>
@@ -3644,7 +3685,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A155" s="10" t="s">
         <v>12</v>
       </c>
@@ -3658,7 +3699,7 @@
         <v>17.690000000000001</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A156" s="12" t="s">
         <v>66</v>
       </c>
@@ -3672,7 +3713,7 @@
         <v>19.37</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A157" s="10" t="s">
         <v>5</v>
       </c>
@@ -3686,7 +3727,7 @@
         <v>32.630000000000003</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A158" s="12" t="s">
         <v>8</v>
       </c>
@@ -3700,7 +3741,7 @@
         <v>140.36000000000001</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A159" s="10" t="s">
         <v>6</v>
       </c>
@@ -3714,7 +3755,7 @@
         <v>36.200000000000003</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A160" s="12" t="s">
         <v>19</v>
       </c>
@@ -3728,7 +3769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A161" s="10" t="s">
         <v>23</v>
       </c>
@@ -3742,7 +3783,7 @@
         <v>15.21</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A162" s="12" t="s">
         <v>66</v>
       </c>
@@ -3756,7 +3797,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A163" s="10" t="s">
         <v>9</v>
       </c>
@@ -3770,7 +3811,7 @@
         <v>24.38</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A164" s="12" t="s">
         <v>12</v>
       </c>
@@ -3784,7 +3825,7 @@
         <v>17.739999999999998</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A165" s="10" t="s">
         <v>66</v>
       </c>
@@ -3798,7 +3839,7 @@
         <v>19.14</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A166" s="12" t="s">
         <v>5</v>
       </c>
@@ -3812,7 +3853,7 @@
         <v>28.47</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A167" s="10" t="s">
         <v>8</v>
       </c>
@@ -3826,7 +3867,7 @@
         <v>128.56</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A168" s="12" t="s">
         <v>6</v>
       </c>
@@ -3840,7 +3881,7 @@
         <v>48.79</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A169" s="10" t="s">
         <v>19</v>
       </c>
@@ -3854,7 +3895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A170" s="12" t="s">
         <v>23</v>
       </c>
@@ -3868,7 +3909,7 @@
         <v>14.62</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A171" s="10" t="s">
         <v>66</v>
       </c>
@@ -3882,7 +3923,7 @@
         <v>6.11</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A172" s="12" t="s">
         <v>9</v>
       </c>
@@ -3896,7 +3937,7 @@
         <v>22.65</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A173" s="10" t="s">
         <v>12</v>
       </c>
@@ -3910,7 +3951,7 @@
         <v>17.72</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A174" s="12" t="s">
         <v>66</v>
       </c>
@@ -3924,7 +3965,7 @@
         <v>19.55</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A175" s="10" t="s">
         <v>5</v>
       </c>
@@ -3938,7 +3979,7 @@
         <v>18.84</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A176" s="12" t="s">
         <v>8</v>
       </c>
@@ -3952,7 +3993,7 @@
         <v>141.69999999999999</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A177" s="10" t="s">
         <v>6</v>
       </c>
@@ -3966,7 +4007,7 @@
         <v>46.32</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A178" s="12" t="s">
         <v>19</v>
       </c>
@@ -3980,7 +4021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A179" s="10" t="s">
         <v>23</v>
       </c>
@@ -3994,7 +4035,7 @@
         <v>13.62</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A180" s="12" t="s">
         <v>66</v>
       </c>
@@ -4008,7 +4049,7 @@
         <v>6.07</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A181" s="10" t="s">
         <v>9</v>
       </c>
@@ -4022,7 +4063,7 @@
         <v>23.69</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A182" s="12" t="s">
         <v>12</v>
       </c>
@@ -4036,7 +4077,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A183" s="10" t="s">
         <v>66</v>
       </c>
@@ -4050,7 +4091,7 @@
         <v>19.62</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A184" s="12" t="s">
         <v>5</v>
       </c>
@@ -4064,7 +4105,7 @@
         <v>13.38</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A185" s="10" t="s">
         <v>8</v>
       </c>
@@ -4078,7 +4119,7 @@
         <v>133.69999999999999</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A186" s="12" t="s">
         <v>6</v>
       </c>
@@ -4092,7 +4133,7 @@
         <v>47.55</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A187" s="10" t="s">
         <v>19</v>
       </c>
@@ -4106,7 +4147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A188" s="12" t="s">
         <v>23</v>
       </c>
@@ -4120,7 +4161,7 @@
         <v>12.83</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A189" s="10" t="s">
         <v>66</v>
       </c>
@@ -4134,7 +4175,7 @@
         <v>6.03</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A190" s="12" t="s">
         <v>9</v>
       </c>
@@ -4148,7 +4189,7 @@
         <v>24.94</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A191" s="10" t="s">
         <v>12</v>
       </c>
@@ -4162,7 +4203,7 @@
         <v>18.760000000000002</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A192" s="12" t="s">
         <v>66</v>
       </c>
@@ -4176,7 +4217,7 @@
         <v>19.059999999999999</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A193" s="10" t="s">
         <v>5</v>
       </c>
@@ -4190,7 +4231,7 @@
         <v>14.02</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A194" s="12" t="s">
         <v>8</v>
       </c>
@@ -4204,7 +4245,7 @@
         <v>144.01</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A195" s="10" t="s">
         <v>6</v>
       </c>
@@ -4218,7 +4259,7 @@
         <v>45.39</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A196" s="12" t="s">
         <v>19</v>
       </c>
@@ -4232,7 +4273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A197" s="10" t="s">
         <v>23</v>
       </c>
@@ -4246,7 +4287,7 @@
         <v>11.13</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A198" s="12" t="s">
         <v>66</v>
       </c>
@@ -4260,7 +4301,7 @@
         <v>5.91</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A199" s="10" t="s">
         <v>9</v>
       </c>
@@ -4274,7 +4315,7 @@
         <v>25.04</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A200" s="12" t="s">
         <v>12</v>
       </c>
@@ -4288,7 +4329,7 @@
         <v>20.93</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A201" s="10" t="s">
         <v>66</v>
       </c>
@@ -4302,7 +4343,7 @@
         <v>17.61</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A202" s="12" t="s">
         <v>5</v>
       </c>
@@ -4316,7 +4357,7 @@
         <v>22.61</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A203" s="10" t="s">
         <v>8</v>
       </c>
@@ -4330,7 +4371,7 @@
         <v>141.47</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A204" s="12" t="s">
         <v>6</v>
       </c>
@@ -4344,7 +4385,7 @@
         <v>28.4</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A205" s="10" t="s">
         <v>19</v>
       </c>
@@ -4358,7 +4399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A206" s="12" t="s">
         <v>23</v>
       </c>
@@ -4372,7 +4413,7 @@
         <v>15.63</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A207" s="10" t="s">
         <v>66</v>
       </c>
@@ -4386,7 +4427,7 @@
         <v>5.84</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A208" s="12" t="s">
         <v>9</v>
       </c>
@@ -4400,7 +4441,7 @@
         <v>28.12</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A209" s="10" t="s">
         <v>12</v>
       </c>
@@ -4414,7 +4455,7 @@
         <v>20.28</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A210" s="12" t="s">
         <v>66</v>
       </c>
@@ -4428,7 +4469,7 @@
         <v>16.61</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A211" s="10" t="s">
         <v>5</v>
       </c>
@@ -4442,7 +4483,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A212" s="12" t="s">
         <v>8</v>
       </c>
@@ -4456,7 +4497,7 @@
         <v>118.34</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A213" s="10" t="s">
         <v>6</v>
       </c>
@@ -4470,7 +4511,7 @@
         <v>37.94</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A214" s="12" t="s">
         <v>19</v>
       </c>
@@ -4484,7 +4525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A215" s="10" t="s">
         <v>23</v>
       </c>
@@ -4498,7 +4539,7 @@
         <v>15.54</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A216" s="12" t="s">
         <v>66</v>
       </c>
@@ -4512,7 +4553,7 @@
         <v>5.73</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A217" s="10" t="s">
         <v>9</v>
       </c>
@@ -4526,7 +4567,7 @@
         <v>31.01</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A218" s="12" t="s">
         <v>12</v>
       </c>
@@ -4540,7 +4581,7 @@
         <v>23.51</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A219" s="10" t="s">
         <v>66</v>
       </c>
@@ -4554,7 +4595,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A220" s="12" t="s">
         <v>5</v>
       </c>
@@ -4568,7 +4609,7 @@
         <v>8.67</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A221" s="10" t="s">
         <v>8</v>
       </c>
@@ -4582,7 +4623,7 @@
         <v>53.35</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A222" s="12" t="s">
         <v>6</v>
       </c>
@@ -4596,7 +4637,7 @@
         <v>16.39</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A223" s="10" t="s">
         <v>19</v>
       </c>
@@ -4608,7 +4649,7 @@
       </c>
       <c r="D223" s="11"/>
     </row>
-    <row r="224" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A224" s="12" t="s">
         <v>23</v>
       </c>
@@ -4622,7 +4663,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A225" s="10" t="s">
         <v>66</v>
       </c>
@@ -4636,7 +4677,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A226" s="12" t="s">
         <v>9</v>
       </c>
@@ -4650,7 +4691,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A227" s="10" t="s">
         <v>12</v>
       </c>
@@ -4664,7 +4705,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A228" s="12" t="s">
         <v>66</v>
       </c>
@@ -4678,7 +4719,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A229" s="10" t="s">
         <v>5</v>
       </c>
@@ -4692,7 +4733,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A230" s="12" t="s">
         <v>8</v>
       </c>
@@ -4706,7 +4747,7 @@
         <v>53.57</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A231" s="10" t="s">
         <v>6</v>
       </c>
@@ -4720,7 +4761,7 @@
         <v>16.46</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A232" s="12" t="s">
         <v>19</v>
       </c>
@@ -4732,7 +4773,7 @@
       </c>
       <c r="D232" s="13"/>
     </row>
-    <row r="233" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A233" s="10" t="s">
         <v>23</v>
       </c>
@@ -4746,7 +4787,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A234" s="12" t="s">
         <v>66</v>
       </c>
@@ -4760,7 +4801,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A235" s="10" t="s">
         <v>9</v>
       </c>
@@ -4774,7 +4815,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A236" s="12" t="s">
         <v>12</v>
       </c>
@@ -4788,7 +4829,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A237" s="10" t="s">
         <v>66</v>
       </c>
@@ -4802,7 +4843,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A238" s="12" t="s">
         <v>5</v>
       </c>
@@ -4816,7 +4857,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A239" s="10" t="s">
         <v>8</v>
       </c>
@@ -4830,7 +4871,7 @@
         <v>53.54</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A240" s="12" t="s">
         <v>6</v>
       </c>
@@ -4844,7 +4885,7 @@
         <v>16.559999999999999</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A241" s="10" t="s">
         <v>19</v>
       </c>
@@ -4856,7 +4897,7 @@
       </c>
       <c r="D241" s="11"/>
     </row>
-    <row r="242" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A242" s="12" t="s">
         <v>23</v>
       </c>
@@ -4870,7 +4911,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A243" s="10" t="s">
         <v>66</v>
       </c>
@@ -4884,7 +4925,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A244" s="12" t="s">
         <v>9</v>
       </c>
@@ -4898,7 +4939,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A245" s="10" t="s">
         <v>12</v>
       </c>
@@ -4912,7 +4953,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A246" s="12" t="s">
         <v>66</v>
       </c>
@@ -4926,7 +4967,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A247" s="10" t="s">
         <v>5</v>
       </c>
@@ -4940,7 +4981,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A248" s="12" t="s">
         <v>8</v>
       </c>
@@ -4954,7 +4995,7 @@
         <v>54.78</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A249" s="10" t="s">
         <v>6</v>
       </c>
@@ -4968,7 +5009,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A250" s="12" t="s">
         <v>19</v>
       </c>
@@ -4980,7 +5021,7 @@
       </c>
       <c r="D250" s="13"/>
     </row>
-    <row r="251" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A251" s="10" t="s">
         <v>23</v>
       </c>
@@ -4994,7 +5035,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A252" s="12" t="s">
         <v>66</v>
       </c>
@@ -5008,7 +5049,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A253" s="10" t="s">
         <v>9</v>
       </c>
@@ -5022,7 +5063,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A254" s="12" t="s">
         <v>12</v>
       </c>
@@ -5036,7 +5077,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A255" s="10" t="s">
         <v>66</v>
       </c>
@@ -5050,7 +5091,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A256" s="12" t="s">
         <v>5</v>
       </c>
@@ -5064,7 +5105,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A257" s="10" t="s">
         <v>8</v>
       </c>
@@ -5078,7 +5119,7 @@
         <v>57.62</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A258" s="12" t="s">
         <v>6</v>
       </c>
@@ -5092,7 +5133,7 @@
         <v>16.79</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A259" s="10" t="s">
         <v>19</v>
       </c>
@@ -5104,7 +5145,7 @@
       </c>
       <c r="D259" s="11"/>
     </row>
-    <row r="260" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A260" s="12" t="s">
         <v>23</v>
       </c>
@@ -5118,7 +5159,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A261" s="10" t="s">
         <v>66</v>
       </c>
@@ -5132,7 +5173,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A262" s="12" t="s">
         <v>9</v>
       </c>
@@ -5146,7 +5187,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A263" s="10" t="s">
         <v>12</v>
       </c>
@@ -5160,7 +5201,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A264" s="12" t="s">
         <v>66</v>
       </c>
@@ -5174,7 +5215,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A265" s="10" t="s">
         <v>5</v>
       </c>
@@ -5188,7 +5229,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A266" s="12" t="s">
         <v>8</v>
       </c>
@@ -5202,7 +5243,7 @@
         <v>60.79</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A267" s="10" t="s">
         <v>6</v>
       </c>
@@ -5216,7 +5257,7 @@
         <v>17.04</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A268" s="12" t="s">
         <v>19</v>
       </c>
@@ -5228,7 +5269,7 @@
       </c>
       <c r="D268" s="13"/>
     </row>
-    <row r="269" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A269" s="10" t="s">
         <v>23</v>
       </c>
@@ -5242,7 +5283,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A270" s="12" t="s">
         <v>66</v>
       </c>
@@ -5256,7 +5297,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A271" s="10" t="s">
         <v>9</v>
       </c>
@@ -5270,7 +5311,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A272" s="12" t="s">
         <v>12</v>
       </c>
@@ -5284,7 +5325,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A273" s="10" t="s">
         <v>66</v>
       </c>
@@ -5298,7 +5339,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A274" s="12" t="s">
         <v>5</v>
       </c>
@@ -5312,7 +5353,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A275" s="10" t="s">
         <v>8</v>
       </c>
@@ -5326,7 +5367,7 @@
         <v>64.31</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A276" s="12" t="s">
         <v>6</v>
       </c>
@@ -5340,7 +5381,7 @@
         <v>17.11</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A277" s="10" t="s">
         <v>19</v>
       </c>
@@ -5352,7 +5393,7 @@
       </c>
       <c r="D277" s="11"/>
     </row>
-    <row r="278" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A278" s="12" t="s">
         <v>23</v>
       </c>
@@ -5366,7 +5407,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A279" s="10" t="s">
         <v>66</v>
       </c>
@@ -5380,7 +5421,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A280" s="12" t="s">
         <v>9</v>
       </c>
@@ -5394,7 +5435,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A281" s="10" t="s">
         <v>12</v>
       </c>
@@ -5408,7 +5449,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A282" s="12" t="s">
         <v>66</v>
       </c>
@@ -5422,7 +5463,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A283" s="10" t="s">
         <v>5</v>
       </c>
@@ -5436,7 +5477,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A284" s="12" t="s">
         <v>8</v>
       </c>
@@ -5450,7 +5491,7 @@
         <v>67.459999999999994</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A285" s="10" t="s">
         <v>6</v>
       </c>
@@ -5464,7 +5505,7 @@
         <v>17.16</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A286" s="12" t="s">
         <v>19</v>
       </c>
@@ -5476,7 +5517,7 @@
       </c>
       <c r="D286" s="13"/>
     </row>
-    <row r="287" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A287" s="10" t="s">
         <v>23</v>
       </c>
@@ -5490,7 +5531,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A288" s="12" t="s">
         <v>66</v>
       </c>
@@ -5504,7 +5545,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A289" s="10" t="s">
         <v>9</v>
       </c>
@@ -5518,7 +5559,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A290" s="12" t="s">
         <v>12</v>
       </c>
@@ -5532,7 +5573,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A291" s="10" t="s">
         <v>66</v>
       </c>
@@ -5546,7 +5587,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A292" s="12" t="s">
         <v>5</v>
       </c>
@@ -5560,7 +5601,7 @@
         <v>8.06</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A293" s="10" t="s">
         <v>8</v>
       </c>
@@ -5574,7 +5615,7 @@
         <v>70.95</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A294" s="12" t="s">
         <v>6</v>
       </c>
@@ -5588,7 +5629,7 @@
         <v>17.32</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A295" s="10" t="s">
         <v>19</v>
       </c>
@@ -5600,7 +5641,7 @@
       </c>
       <c r="D295" s="11"/>
     </row>
-    <row r="296" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A296" s="12" t="s">
         <v>23</v>
       </c>
@@ -5614,7 +5655,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A297" s="10" t="s">
         <v>66</v>
       </c>
@@ -5628,7 +5669,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A298" s="12" t="s">
         <v>9</v>
       </c>
@@ -5642,7 +5683,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A299" s="10" t="s">
         <v>12</v>
       </c>
@@ -5656,7 +5697,7 @@
         <v>3.53</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A300" s="12" t="s">
         <v>66</v>
       </c>
@@ -5670,7 +5711,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A301" s="10" t="s">
         <v>5</v>
       </c>
@@ -5684,7 +5725,7 @@
         <v>8.7200000000000006</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A302" s="12" t="s">
         <v>8</v>
       </c>
@@ -5698,7 +5739,7 @@
         <v>71.14</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A303" s="10" t="s">
         <v>6</v>
       </c>
@@ -5712,7 +5753,7 @@
         <v>17.41</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A304" s="12" t="s">
         <v>19</v>
       </c>
@@ -5724,7 +5765,7 @@
       </c>
       <c r="D304" s="13"/>
     </row>
-    <row r="305" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A305" s="10" t="s">
         <v>23</v>
       </c>
@@ -5738,7 +5779,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A306" s="12" t="s">
         <v>66</v>
       </c>
@@ -5752,7 +5793,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A307" s="10" t="s">
         <v>9</v>
       </c>
@@ -5766,7 +5807,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A308" s="12" t="s">
         <v>12</v>
       </c>
@@ -5780,7 +5821,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A309" s="10" t="s">
         <v>66</v>
       </c>
@@ -5794,7 +5835,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A310" s="12" t="s">
         <v>5</v>
       </c>
@@ -5808,7 +5849,7 @@
         <v>9.9700000000000006</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A311" s="10" t="s">
         <v>8</v>
       </c>
@@ -5822,7 +5863,7 @@
         <v>72.459999999999994</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A312" s="12" t="s">
         <v>6</v>
       </c>
@@ -5836,7 +5877,7 @@
         <v>17.559999999999999</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A313" s="10" t="s">
         <v>19</v>
       </c>
@@ -5848,7 +5889,7 @@
       </c>
       <c r="D313" s="11"/>
     </row>
-    <row r="314" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A314" s="12" t="s">
         <v>23</v>
       </c>
@@ -5862,7 +5903,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A315" s="10" t="s">
         <v>66</v>
       </c>
@@ -5876,7 +5917,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A316" s="12" t="s">
         <v>9</v>
       </c>
@@ -5890,7 +5931,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A317" s="10" t="s">
         <v>12</v>
       </c>
@@ -5904,7 +5945,7 @@
         <v>5.79</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A318" s="12" t="s">
         <v>66</v>
       </c>
@@ -5918,7 +5959,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A319" s="10" t="s">
         <v>5</v>
       </c>
@@ -5932,7 +5973,7 @@
         <v>9.9700000000000006</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A320" s="12" t="s">
         <v>8</v>
       </c>
@@ -5946,7 +5987,7 @@
         <v>73.33</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A321" s="10" t="s">
         <v>6</v>
       </c>
@@ -5960,7 +6001,7 @@
         <v>17.78</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A322" s="12" t="s">
         <v>19</v>
       </c>
@@ -5972,7 +6013,7 @@
       </c>
       <c r="D322" s="13"/>
     </row>
-    <row r="323" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A323" s="10" t="s">
         <v>23</v>
       </c>
@@ -5986,7 +6027,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A324" s="12" t="s">
         <v>66</v>
       </c>
@@ -6000,7 +6041,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A325" s="10" t="s">
         <v>9</v>
       </c>
@@ -6014,7 +6055,7 @@
         <v>13.14</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A326" s="12" t="s">
         <v>12</v>
       </c>
@@ -6028,7 +6069,7 @@
         <v>6.92</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A327" s="10" t="s">
         <v>66</v>
       </c>
@@ -6042,7 +6083,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A328" s="12" t="s">
         <v>5</v>
       </c>
@@ -6056,7 +6097,7 @@
         <v>9.9700000000000006</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A329" s="10" t="s">
         <v>8</v>
       </c>
@@ -6070,7 +6111,7 @@
         <v>73.22</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A330" s="12" t="s">
         <v>6</v>
       </c>
@@ -6084,7 +6125,7 @@
         <v>17.920000000000002</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A331" s="10" t="s">
         <v>19</v>
       </c>
@@ -6096,7 +6137,7 @@
       </c>
       <c r="D331" s="11"/>
     </row>
-    <row r="332" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A332" s="12" t="s">
         <v>23</v>
       </c>
@@ -6110,7 +6151,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A333" s="10" t="s">
         <v>66</v>
       </c>
@@ -6124,7 +6165,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A334" s="12" t="s">
         <v>9</v>
       </c>
@@ -6138,7 +6179,7 @@
         <v>16.79</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A335" s="10" t="s">
         <v>12</v>
       </c>
@@ -6152,7 +6193,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A336" s="12" t="s">
         <v>66</v>
       </c>
@@ -6166,7 +6207,7 @@
         <v>2.93</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A337" s="10" t="s">
         <v>5</v>
       </c>
@@ -6180,7 +6221,7 @@
         <v>9.9700000000000006</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A338" s="12" t="s">
         <v>8</v>
       </c>
@@ -6194,7 +6235,7 @@
         <v>70.95</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A339" s="10" t="s">
         <v>6</v>
       </c>
@@ -6208,7 +6249,7 @@
         <v>18.05</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A340" s="12" t="s">
         <v>19</v>
       </c>
@@ -6220,7 +6261,7 @@
       </c>
       <c r="D340" s="13"/>
     </row>
-    <row r="341" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A341" s="10" t="s">
         <v>23</v>
       </c>
@@ -6234,7 +6275,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A342" s="12" t="s">
         <v>66</v>
       </c>
@@ -6248,7 +6289,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A343" s="10" t="s">
         <v>9</v>
       </c>
@@ -6262,7 +6303,7 @@
         <v>18.190000000000001</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A344" s="12" t="s">
         <v>12</v>
       </c>
@@ -6276,7 +6317,7 @@
         <v>8.5399999999999991</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A345" s="10" t="s">
         <v>66</v>
       </c>
@@ -6290,7 +6331,7 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A346" s="12" t="s">
         <v>5</v>
       </c>
@@ -6304,7 +6345,7 @@
         <v>9.83</v>
       </c>
     </row>
-    <row r="347" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A347" s="10" t="s">
         <v>8</v>
       </c>
@@ -6318,7 +6359,7 @@
         <v>67.48</v>
       </c>
     </row>
-    <row r="348" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A348" s="12" t="s">
         <v>6</v>
       </c>
@@ -6332,7 +6373,7 @@
         <v>18.12</v>
       </c>
     </row>
-    <row r="349" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A349" s="10" t="s">
         <v>19</v>
       </c>
@@ -6344,7 +6385,7 @@
       </c>
       <c r="D349" s="11"/>
     </row>
-    <row r="350" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A350" s="12" t="s">
         <v>23</v>
       </c>
@@ -6358,7 +6399,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="351" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A351" s="10" t="s">
         <v>66</v>
       </c>
@@ -6372,7 +6413,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="352" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A352" s="12" t="s">
         <v>9</v>
       </c>
@@ -6386,7 +6427,7 @@
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="353" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A353" s="10" t="s">
         <v>12</v>
       </c>
@@ -6400,7 +6441,7 @@
         <v>8.68</v>
       </c>
     </row>
-    <row r="354" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A354" s="12" t="s">
         <v>66</v>
       </c>
@@ -6414,7 +6455,7 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="355" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A355" s="10" t="s">
         <v>5</v>
       </c>
@@ -6428,7 +6469,7 @@
         <v>9.69</v>
       </c>
     </row>
-    <row r="356" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A356" s="12" t="s">
         <v>8</v>
       </c>
@@ -6442,7 +6483,7 @@
         <v>61.81</v>
       </c>
     </row>
-    <row r="357" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A357" s="10" t="s">
         <v>6</v>
       </c>
@@ -6456,7 +6497,7 @@
         <v>18.239999999999998</v>
       </c>
     </row>
-    <row r="358" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A358" s="12" t="s">
         <v>19</v>
       </c>
@@ -6468,7 +6509,7 @@
       </c>
       <c r="D358" s="13"/>
     </row>
-    <row r="359" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A359" s="10" t="s">
         <v>23</v>
       </c>
@@ -6482,7 +6523,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="360" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A360" s="12" t="s">
         <v>66</v>
       </c>
@@ -6496,7 +6537,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="361" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A361" s="10" t="s">
         <v>9</v>
       </c>
@@ -6510,7 +6551,7 @@
         <v>18.91</v>
       </c>
     </row>
-    <row r="362" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A362" s="12" t="s">
         <v>12</v>
       </c>
@@ -6524,7 +6565,7 @@
         <v>9.14</v>
       </c>
     </row>
-    <row r="363" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A363" s="10" t="s">
         <v>66</v>
       </c>
@@ -6538,7 +6579,7 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="364" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A364" s="12" t="s">
         <v>5</v>
       </c>
@@ -6552,7 +6593,7 @@
         <v>8.7100000000000009</v>
       </c>
     </row>
-    <row r="365" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A365" s="10" t="s">
         <v>8</v>
       </c>
@@ -6566,7 +6607,7 @@
         <v>58.22</v>
       </c>
     </row>
-    <row r="366" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A366" s="12" t="s">
         <v>6</v>
       </c>
@@ -6580,7 +6621,7 @@
         <v>18.32</v>
       </c>
     </row>
-    <row r="367" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A367" s="10" t="s">
         <v>19</v>
       </c>
@@ -6592,7 +6633,7 @@
       </c>
       <c r="D367" s="11"/>
     </row>
-    <row r="368" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A368" s="12" t="s">
         <v>23</v>
       </c>
@@ -6606,7 +6647,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="369" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A369" s="10" t="s">
         <v>66</v>
       </c>
@@ -6620,7 +6661,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="370" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A370" s="12" t="s">
         <v>9</v>
       </c>
@@ -6634,7 +6675,7 @@
         <v>19.29</v>
       </c>
     </row>
-    <row r="371" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A371" s="10" t="s">
         <v>12</v>
       </c>
@@ -6648,7 +6689,7 @@
         <v>9.3800000000000008</v>
       </c>
     </row>
-    <row r="372" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A372" s="12" t="s">
         <v>66</v>
       </c>
@@ -6662,7 +6703,7 @@
         <v>3.04</v>
       </c>
     </row>
-    <row r="373" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A373" s="10" t="s">
         <v>5</v>
       </c>
@@ -6676,7 +6717,7 @@
         <v>8.5500000000000007</v>
       </c>
     </row>
-    <row r="374" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A374" s="12" t="s">
         <v>8</v>
       </c>
@@ -6690,7 +6731,7 @@
         <v>57.4</v>
       </c>
     </row>
-    <row r="375" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A375" s="10" t="s">
         <v>6</v>
       </c>
@@ -6704,7 +6745,7 @@
         <v>18.489999999999998</v>
       </c>
     </row>
-    <row r="376" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A376" s="12" t="s">
         <v>19</v>
       </c>
@@ -6716,7 +6757,7 @@
       </c>
       <c r="D376" s="13"/>
     </row>
-    <row r="377" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A377" s="10" t="s">
         <v>23</v>
       </c>
@@ -6730,7 +6771,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="378" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A378" s="12" t="s">
         <v>66</v>
       </c>
@@ -6744,7 +6785,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="379" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A379" s="10" t="s">
         <v>9</v>
       </c>
@@ -6758,7 +6799,7 @@
         <v>19.690000000000001</v>
       </c>
     </row>
-    <row r="380" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A380" s="12" t="s">
         <v>12</v>
       </c>
@@ -6772,7 +6813,7 @@
         <v>9.74</v>
       </c>
     </row>
-    <row r="381" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A381" s="10" t="s">
         <v>66</v>
       </c>
@@ -6786,7 +6827,7 @@
         <v>3.08</v>
       </c>
     </row>
-    <row r="382" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A382" s="12" t="s">
         <v>5</v>
       </c>
@@ -6800,7 +6841,7 @@
         <v>8.5500000000000007</v>
       </c>
     </row>
-    <row r="383" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A383" s="10" t="s">
         <v>8</v>
       </c>
@@ -6814,7 +6855,7 @@
         <v>57.35</v>
       </c>
     </row>
-    <row r="384" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A384" s="12" t="s">
         <v>6</v>
       </c>
@@ -6828,7 +6869,7 @@
         <v>18.559999999999999</v>
       </c>
     </row>
-    <row r="385" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A385" s="10" t="s">
         <v>19</v>
       </c>
@@ -6840,7 +6881,7 @@
       </c>
       <c r="D385" s="11"/>
     </row>
-    <row r="386" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A386" s="12" t="s">
         <v>23</v>
       </c>
@@ -6854,7 +6895,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="387" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A387" s="10" t="s">
         <v>66</v>
       </c>
@@ -6868,7 +6909,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="388" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A388" s="12" t="s">
         <v>9</v>
       </c>
@@ -6882,7 +6923,7 @@
         <v>20.11</v>
       </c>
     </row>
-    <row r="389" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A389" s="10" t="s">
         <v>12</v>
       </c>
@@ -6896,7 +6937,7 @@
         <v>10.23</v>
       </c>
     </row>
-    <row r="390" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A390" s="12" t="s">
         <v>66</v>
       </c>
@@ -6910,7 +6951,7 @@
         <v>3.06</v>
       </c>
     </row>
-    <row r="391" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A391" s="10" t="s">
         <v>5</v>
       </c>
@@ -6924,7 +6965,7 @@
         <v>8.5500000000000007</v>
       </c>
     </row>
-    <row r="392" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A392" s="12" t="s">
         <v>8</v>
       </c>
@@ -6938,7 +6979,7 @@
         <v>57.41</v>
       </c>
     </row>
-    <row r="393" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A393" s="10" t="s">
         <v>6</v>
       </c>
@@ -6952,7 +6993,7 @@
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="394" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A394" s="12" t="s">
         <v>19</v>
       </c>
@@ -6964,7 +7005,7 @@
       </c>
       <c r="D394" s="13"/>
     </row>
-    <row r="395" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A395" s="10" t="s">
         <v>23</v>
       </c>
@@ -6978,7 +7019,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="396" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A396" s="12" t="s">
         <v>66</v>
       </c>
@@ -6992,7 +7033,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="397" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A397" s="10" t="s">
         <v>9</v>
       </c>
@@ -7006,7 +7047,7 @@
         <v>20.87</v>
       </c>
     </row>
-    <row r="398" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A398" s="12" t="s">
         <v>12</v>
       </c>
@@ -7020,7 +7061,7 @@
         <v>10.68</v>
       </c>
     </row>
-    <row r="399" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A399" s="10" t="s">
         <v>66</v>
       </c>
@@ -7034,7 +7075,7 @@
         <v>3.04</v>
       </c>
     </row>
-    <row r="400" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A400" s="12" t="s">
         <v>5</v>
       </c>
@@ -7048,7 +7089,7 @@
         <v>7.74</v>
       </c>
     </row>
-    <row r="401" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A401" s="10" t="s">
         <v>8</v>
       </c>
@@ -7062,7 +7103,7 @@
         <v>56.24</v>
       </c>
     </row>
-    <row r="402" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A402" s="12" t="s">
         <v>6</v>
       </c>
@@ -7076,7 +7117,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="403" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A403" s="10" t="s">
         <v>19</v>
       </c>
@@ -7088,7 +7129,7 @@
       </c>
       <c r="D403" s="11"/>
     </row>
-    <row r="404" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A404" s="12" t="s">
         <v>23</v>
       </c>
@@ -7102,7 +7143,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="405" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A405" s="10" t="s">
         <v>66</v>
       </c>
@@ -7116,7 +7157,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="406" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A406" s="12" t="s">
         <v>9</v>
       </c>
@@ -7130,7 +7171,7 @@
         <v>21.66</v>
       </c>
     </row>
-    <row r="407" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A407" s="10" t="s">
         <v>12</v>
       </c>
@@ -7144,7 +7185,7 @@
         <v>10.87</v>
       </c>
     </row>
-    <row r="408" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A408" s="12" t="s">
         <v>66</v>
       </c>
@@ -7158,7 +7199,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="409" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A409" s="10" t="s">
         <v>5</v>
       </c>
@@ -7172,7 +7213,7 @@
         <v>6.81</v>
       </c>
     </row>
-    <row r="410" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A410" s="12" t="s">
         <v>8</v>
       </c>
@@ -7186,7 +7227,7 @@
         <v>55.63</v>
       </c>
     </row>
-    <row r="411" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A411" s="10" t="s">
         <v>6</v>
       </c>
@@ -7200,7 +7241,7 @@
         <v>18.809999999999999</v>
       </c>
     </row>
-    <row r="412" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A412" s="12" t="s">
         <v>19</v>
       </c>
@@ -7212,7 +7253,7 @@
       </c>
       <c r="D412" s="13"/>
     </row>
-    <row r="413" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A413" s="10" t="s">
         <v>23</v>
       </c>
@@ -7226,7 +7267,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="414" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A414" s="12" t="s">
         <v>66</v>
       </c>
@@ -7240,7 +7281,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="415" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A415" s="10" t="s">
         <v>9</v>
       </c>
@@ -7254,7 +7295,7 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="416" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A416" s="12" t="s">
         <v>12</v>
       </c>
@@ -7268,7 +7309,7 @@
         <v>11.25</v>
       </c>
     </row>
-    <row r="417" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A417" s="10" t="s">
         <v>66</v>
       </c>
@@ -7282,7 +7323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="418" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A418" s="12" t="s">
         <v>5</v>
       </c>
@@ -7296,7 +7337,7 @@
         <v>6.81</v>
       </c>
     </row>
-    <row r="419" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A419" s="10" t="s">
         <v>8</v>
       </c>
@@ -7310,7 +7351,7 @@
         <v>56.32</v>
       </c>
     </row>
-    <row r="420" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A420" s="12" t="s">
         <v>6</v>
       </c>
@@ -7324,7 +7365,7 @@
         <v>18.93</v>
       </c>
     </row>
-    <row r="421" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A421" s="10" t="s">
         <v>19</v>
       </c>
@@ -7336,7 +7377,7 @@
       </c>
       <c r="D421" s="11"/>
     </row>
-    <row r="422" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A422" s="12" t="s">
         <v>23</v>
       </c>
@@ -7350,7 +7391,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="423" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A423" s="10" t="s">
         <v>66</v>
       </c>
@@ -7364,7 +7405,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="424" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A424" s="12" t="s">
         <v>9</v>
       </c>
@@ -7378,7 +7419,7 @@
         <v>24.56</v>
       </c>
     </row>
-    <row r="425" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A425" s="10" t="s">
         <v>12</v>
       </c>
@@ -7392,7 +7433,7 @@
         <v>11.82</v>
       </c>
     </row>
-    <row r="426" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A426" s="12" t="s">
         <v>66</v>
       </c>
@@ -7406,7 +7447,7 @@
         <v>3.04</v>
       </c>
     </row>
-    <row r="427" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A427" s="10" t="s">
         <v>5</v>
       </c>
@@ -7420,7 +7461,7 @@
         <v>6.17</v>
       </c>
     </row>
-    <row r="428" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A428" s="12" t="s">
         <v>8</v>
       </c>
@@ -7434,7 +7475,7 @@
         <v>57.28</v>
       </c>
     </row>
-    <row r="429" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A429" s="10" t="s">
         <v>6</v>
       </c>
@@ -7448,7 +7489,7 @@
         <v>18.850000000000001</v>
       </c>
     </row>
-    <row r="430" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A430" s="12" t="s">
         <v>19</v>
       </c>
@@ -7460,7 +7501,7 @@
       </c>
       <c r="D430" s="13"/>
     </row>
-    <row r="431" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A431" s="10" t="s">
         <v>23</v>
       </c>
@@ -7474,7 +7515,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="432" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A432" s="12" t="s">
         <v>66</v>
       </c>
@@ -7488,7 +7529,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="433" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A433" s="10" t="s">
         <v>9</v>
       </c>
@@ -7502,7 +7543,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="434" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A434" s="12" t="s">
         <v>12</v>
       </c>
@@ -7516,7 +7557,7 @@
         <v>12.31</v>
       </c>
     </row>
-    <row r="435" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A435" s="10" t="s">
         <v>66</v>
       </c>
@@ -7530,7 +7571,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="436" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A436" s="12" t="s">
         <v>5</v>
       </c>
@@ -7544,7 +7585,7 @@
         <v>24.64</v>
       </c>
     </row>
-    <row r="437" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A437" s="10" t="s">
         <v>8</v>
       </c>
@@ -7558,7 +7599,7 @@
         <v>49.08</v>
       </c>
     </row>
-    <row r="438" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A438" s="12" t="s">
         <v>6</v>
       </c>
@@ -7572,7 +7613,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="439" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A439" s="10" t="s">
         <v>19</v>
       </c>
@@ -7586,7 +7627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A440" s="12" t="s">
         <v>23</v>
       </c>
@@ -7600,7 +7641,7 @@
         <v>60.16</v>
       </c>
     </row>
-    <row r="441" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A441" s="10" t="s">
         <v>66</v>
       </c>
@@ -7614,7 +7655,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="442" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A442" s="12" t="s">
         <v>9</v>
       </c>
@@ -7628,7 +7669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A443" s="10" t="s">
         <v>12</v>
       </c>
@@ -7642,7 +7683,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="444" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A444" s="12" t="s">
         <v>66</v>
       </c>
@@ -7656,7 +7697,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="445" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A445" s="10" t="s">
         <v>5</v>
       </c>
@@ -7670,7 +7711,7 @@
         <v>29.74</v>
       </c>
     </row>
-    <row r="446" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A446" s="12" t="s">
         <v>8</v>
       </c>
@@ -7684,7 +7725,7 @@
         <v>50.45</v>
       </c>
     </row>
-    <row r="447" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A447" s="10" t="s">
         <v>6</v>
       </c>
@@ -7698,7 +7739,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="448" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A448" s="12" t="s">
         <v>19</v>
       </c>
@@ -7712,7 +7753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A449" s="10" t="s">
         <v>23</v>
       </c>
@@ -7726,7 +7767,7 @@
         <v>53.71</v>
       </c>
     </row>
-    <row r="450" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A450" s="12" t="s">
         <v>66</v>
       </c>
@@ -7740,7 +7781,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="451" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A451" s="10" t="s">
         <v>9</v>
       </c>
@@ -7754,7 +7795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A452" s="12" t="s">
         <v>12</v>
       </c>
@@ -7768,7 +7809,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="453" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A453" s="10" t="s">
         <v>66</v>
       </c>
@@ -7782,7 +7823,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="454" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A454" s="12" t="s">
         <v>5</v>
       </c>
@@ -7796,7 +7837,7 @@
         <v>33.22</v>
       </c>
     </row>
-    <row r="455" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A455" s="10" t="s">
         <v>8</v>
       </c>
@@ -7810,7 +7851,7 @@
         <v>48.13</v>
       </c>
     </row>
-    <row r="456" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A456" s="12" t="s">
         <v>6</v>
       </c>
@@ -7824,7 +7865,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="457" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A457" s="10" t="s">
         <v>19</v>
       </c>
@@ -7838,7 +7879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A458" s="12" t="s">
         <v>23</v>
       </c>
@@ -7852,7 +7893,7 @@
         <v>62.09</v>
       </c>
     </row>
-    <row r="459" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A459" s="10" t="s">
         <v>66</v>
       </c>
@@ -7866,7 +7907,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="460" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A460" s="12" t="s">
         <v>9</v>
       </c>
@@ -7880,7 +7921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A461" s="10" t="s">
         <v>12</v>
       </c>
@@ -7894,7 +7935,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="462" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A462" s="12" t="s">
         <v>66</v>
       </c>
@@ -7908,7 +7949,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="463" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A463" s="10" t="s">
         <v>5</v>
       </c>
@@ -7922,7 +7963,7 @@
         <v>36.369999999999997</v>
       </c>
     </row>
-    <row r="464" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A464" s="12" t="s">
         <v>8</v>
       </c>
@@ -7936,7 +7977,7 @@
         <v>56.79</v>
       </c>
     </row>
-    <row r="465" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A465" s="10" t="s">
         <v>6</v>
       </c>
@@ -7950,7 +7991,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="466" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A466" s="12" t="s">
         <v>19</v>
       </c>
@@ -7964,7 +8005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A467" s="10" t="s">
         <v>23</v>
       </c>
@@ -7978,7 +8019,7 @@
         <v>54.81</v>
       </c>
     </row>
-    <row r="468" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A468" s="12" t="s">
         <v>66</v>
       </c>
@@ -7992,7 +8033,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="469" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A469" s="10" t="s">
         <v>9</v>
       </c>
@@ -8006,7 +8047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A470" s="12" t="s">
         <v>12</v>
       </c>
@@ -8020,7 +8061,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="471" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A471" s="10" t="s">
         <v>66</v>
       </c>
@@ -8034,7 +8075,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="472" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A472" s="12" t="s">
         <v>5</v>
       </c>
@@ -8048,7 +8089,7 @@
         <v>42.65</v>
       </c>
     </row>
-    <row r="473" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A473" s="10" t="s">
         <v>8</v>
       </c>
@@ -8062,7 +8103,7 @@
         <v>62.86</v>
       </c>
     </row>
-    <row r="474" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A474" s="12" t="s">
         <v>6</v>
       </c>
@@ -8076,7 +8117,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="475" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A475" s="10" t="s">
         <v>19</v>
       </c>
@@ -8090,7 +8131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A476" s="12" t="s">
         <v>23</v>
       </c>
@@ -8104,7 +8145,7 @@
         <v>42.43</v>
       </c>
     </row>
-    <row r="477" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A477" s="10" t="s">
         <v>66</v>
       </c>
@@ -8118,7 +8159,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="478" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A478" s="12" t="s">
         <v>9</v>
       </c>
@@ -8132,7 +8173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A479" s="10" t="s">
         <v>12</v>
       </c>
@@ -8146,7 +8187,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="480" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A480" s="12" t="s">
         <v>66</v>
       </c>
@@ -8160,7 +8201,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="481" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A481" s="10" t="s">
         <v>5</v>
       </c>
@@ -8174,7 +8215,7 @@
         <v>40.86</v>
       </c>
     </row>
-    <row r="482" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A482" s="12" t="s">
         <v>8</v>
       </c>
@@ -8188,7 +8229,7 @@
         <v>72.3</v>
       </c>
     </row>
-    <row r="483" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A483" s="10" t="s">
         <v>6</v>
       </c>
@@ -8202,7 +8243,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="484" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A484" s="12" t="s">
         <v>19</v>
       </c>
@@ -8216,7 +8257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A485" s="10" t="s">
         <v>23</v>
       </c>
@@ -8230,7 +8271,7 @@
         <v>35.049999999999997</v>
       </c>
     </row>
-    <row r="486" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A486" s="12" t="s">
         <v>66</v>
       </c>
@@ -8244,7 +8285,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="487" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A487" s="10" t="s">
         <v>9</v>
       </c>
@@ -8258,7 +8299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A488" s="12" t="s">
         <v>12</v>
       </c>
@@ -8272,7 +8313,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="489" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A489" s="10" t="s">
         <v>66</v>
       </c>
@@ -8286,7 +8327,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="490" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A490" s="12" t="s">
         <v>5</v>
       </c>
@@ -8300,7 +8341,7 @@
         <v>41.45</v>
       </c>
     </row>
-    <row r="491" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A491" s="10" t="s">
         <v>8</v>
       </c>
@@ -8314,7 +8355,7 @@
         <v>76.569999999999993</v>
       </c>
     </row>
-    <row r="492" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A492" s="12" t="s">
         <v>6</v>
       </c>
@@ -8328,7 +8369,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="493" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A493" s="10" t="s">
         <v>19</v>
       </c>
@@ -8342,7 +8383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A494" s="12" t="s">
         <v>23</v>
       </c>
@@ -8356,7 +8397,7 @@
         <v>34.619999999999997</v>
       </c>
     </row>
-    <row r="495" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A495" s="10" t="s">
         <v>66</v>
       </c>
@@ -8370,7 +8411,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="496" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A496" s="12" t="s">
         <v>9</v>
       </c>
@@ -8384,7 +8425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A497" s="10" t="s">
         <v>12</v>
       </c>
@@ -8398,7 +8439,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="498" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A498" s="12" t="s">
         <v>66</v>
       </c>
@@ -8412,7 +8453,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="499" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A499" s="10" t="s">
         <v>5</v>
       </c>
@@ -8426,7 +8467,7 @@
         <v>41.35</v>
       </c>
     </row>
-    <row r="500" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A500" s="12" t="s">
         <v>8</v>
       </c>
@@ -8440,7 +8481,7 @@
         <v>83.62</v>
       </c>
     </row>
-    <row r="501" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A501" s="10" t="s">
         <v>6</v>
       </c>
@@ -8454,7 +8495,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="502" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A502" s="12" t="s">
         <v>19</v>
       </c>
@@ -8468,7 +8509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A503" s="10" t="s">
         <v>23</v>
       </c>
@@ -8482,7 +8523,7 @@
         <v>27.39</v>
       </c>
     </row>
-    <row r="504" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A504" s="12" t="s">
         <v>66</v>
       </c>
@@ -8496,7 +8537,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="505" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A505" s="10" t="s">
         <v>9</v>
       </c>
@@ -8510,7 +8551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A506" s="12" t="s">
         <v>12</v>
       </c>
@@ -8524,7 +8565,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="507" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A507" s="10" t="s">
         <v>66</v>
       </c>
@@ -8538,7 +8579,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="508" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A508" s="12" t="s">
         <v>5</v>
       </c>
@@ -8552,7 +8593,7 @@
         <v>40.340000000000003</v>
       </c>
     </row>
-    <row r="509" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A509" s="10" t="s">
         <v>8</v>
       </c>
@@ -8566,7 +8607,7 @@
         <v>83.65</v>
       </c>
     </row>
-    <row r="510" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A510" s="12" t="s">
         <v>6</v>
       </c>
@@ -8580,7 +8621,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="511" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A511" s="10" t="s">
         <v>19</v>
       </c>
@@ -8594,7 +8635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A512" s="12" t="s">
         <v>23</v>
       </c>
@@ -8608,7 +8649,7 @@
         <v>24.72</v>
       </c>
     </row>
-    <row r="513" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A513" s="10" t="s">
         <v>66</v>
       </c>
@@ -8622,7 +8663,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="514" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A514" s="12" t="s">
         <v>9</v>
       </c>
@@ -8636,7 +8677,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="515" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A515" s="10" t="s">
         <v>12</v>
       </c>
@@ -8650,7 +8691,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="516" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A516" s="12" t="s">
         <v>66</v>
       </c>
@@ -8664,7 +8705,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="517" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A517" s="10" t="s">
         <v>5</v>
       </c>
@@ -8678,7 +8719,7 @@
         <v>37.119999999999997</v>
       </c>
     </row>
-    <row r="518" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A518" s="12" t="s">
         <v>8</v>
       </c>
@@ -8692,7 +8733,7 @@
         <v>71.349999999999994</v>
       </c>
     </row>
-    <row r="519" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A519" s="10" t="s">
         <v>6</v>
       </c>
@@ -8706,7 +8747,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="520" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A520" s="12" t="s">
         <v>19</v>
       </c>
@@ -8720,7 +8761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A521" s="10" t="s">
         <v>23</v>
       </c>
@@ -8734,7 +8775,7 @@
         <v>19.739999999999998</v>
       </c>
     </row>
-    <row r="522" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A522" s="12" t="s">
         <v>66</v>
       </c>
@@ -8748,7 +8789,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="523" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A523" s="10" t="s">
         <v>9</v>
       </c>
@@ -8762,7 +8803,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="524" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A524" s="12" t="s">
         <v>12</v>
       </c>
@@ -8776,7 +8817,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="525" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A525" s="10" t="s">
         <v>66</v>
       </c>
@@ -8790,7 +8831,7 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="526" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A526" s="12" t="s">
         <v>5</v>
       </c>
@@ -8804,7 +8845,7 @@
         <v>36.94</v>
       </c>
     </row>
-    <row r="527" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A527" s="10" t="s">
         <v>8</v>
       </c>
@@ -8818,7 +8859,7 @@
         <v>73.989999999999995</v>
       </c>
     </row>
-    <row r="528" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A528" s="12" t="s">
         <v>6</v>
       </c>
@@ -8832,7 +8873,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="529" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A529" s="10" t="s">
         <v>19</v>
       </c>
@@ -8846,7 +8887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A530" s="12" t="s">
         <v>23</v>
       </c>
@@ -8860,7 +8901,7 @@
         <v>17.84</v>
       </c>
     </row>
-    <row r="531" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A531" s="10" t="s">
         <v>66</v>
       </c>
@@ -8874,7 +8915,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="532" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A532" s="12" t="s">
         <v>9</v>
       </c>
@@ -8888,7 +8929,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="533" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A533" s="10" t="s">
         <v>12</v>
       </c>
@@ -8902,7 +8943,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="534" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A534" s="12" t="s">
         <v>66</v>
       </c>
@@ -8916,7 +8957,7 @@
         <v>2.34</v>
       </c>
     </row>
-    <row r="535" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A535" s="10" t="s">
         <v>5</v>
       </c>
@@ -8930,7 +8971,7 @@
         <v>41.48</v>
       </c>
     </row>
-    <row r="536" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A536" s="12" t="s">
         <v>8</v>
       </c>
@@ -8944,7 +8985,7 @@
         <v>70.010000000000005</v>
       </c>
     </row>
-    <row r="537" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A537" s="10" t="s">
         <v>6</v>
       </c>
@@ -8958,7 +8999,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="538" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A538" s="12" t="s">
         <v>19</v>
       </c>
@@ -8972,7 +9013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A539" s="10" t="s">
         <v>23</v>
       </c>
@@ -8986,7 +9027,7 @@
         <v>17.170000000000002</v>
       </c>
     </row>
-    <row r="540" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A540" s="12" t="s">
         <v>66</v>
       </c>
@@ -9000,7 +9041,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="541" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A541" s="10" t="s">
         <v>9</v>
       </c>
@@ -9014,7 +9055,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="542" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A542" s="12" t="s">
         <v>12</v>
       </c>
@@ -9028,7 +9069,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="543" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A543" s="10" t="s">
         <v>66</v>
       </c>
@@ -9042,7 +9083,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="544" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A544" s="12" t="s">
         <v>5</v>
       </c>
@@ -9056,7 +9097,7 @@
         <v>45.57</v>
       </c>
     </row>
-    <row r="545" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A545" s="10" t="s">
         <v>8</v>
       </c>
@@ -9070,7 +9111,7 @@
         <v>62.53</v>
       </c>
     </row>
-    <row r="546" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A546" s="12" t="s">
         <v>6</v>
       </c>
@@ -9084,7 +9125,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="547" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A547" s="10" t="s">
         <v>19</v>
       </c>
@@ -9098,7 +9139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A548" s="12" t="s">
         <v>23</v>
       </c>
@@ -9112,7 +9153,7 @@
         <v>16.29</v>
       </c>
     </row>
-    <row r="549" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A549" s="10" t="s">
         <v>66</v>
       </c>
@@ -9126,7 +9167,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="550" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A550" s="12" t="s">
         <v>9</v>
       </c>
@@ -9140,7 +9181,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="551" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A551" s="10" t="s">
         <v>12</v>
       </c>
@@ -9154,7 +9195,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="552" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A552" s="12" t="s">
         <v>66</v>
       </c>
@@ -9168,7 +9209,7 @@
         <v>3.69</v>
       </c>
     </row>
-    <row r="553" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A553" s="10" t="s">
         <v>5</v>
       </c>
@@ -9182,7 +9223,7 @@
         <v>41.82</v>
       </c>
     </row>
-    <row r="554" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A554" s="12" t="s">
         <v>8</v>
       </c>
@@ -9196,7 +9237,7 @@
         <v>52.73</v>
       </c>
     </row>
-    <row r="555" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A555" s="10" t="s">
         <v>6</v>
       </c>
@@ -9210,7 +9251,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="556" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A556" s="12" t="s">
         <v>19</v>
       </c>
@@ -9224,7 +9265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A557" s="10" t="s">
         <v>23</v>
       </c>
@@ -9238,7 +9279,7 @@
         <v>13.17</v>
       </c>
     </row>
-    <row r="558" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A558" s="12" t="s">
         <v>66</v>
       </c>
@@ -9252,7 +9293,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="559" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A559" s="10" t="s">
         <v>9</v>
       </c>
@@ -9266,7 +9307,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="560" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A560" s="12" t="s">
         <v>12</v>
       </c>
@@ -9280,7 +9321,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="561" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A561" s="10" t="s">
         <v>66</v>
       </c>
@@ -9294,7 +9335,7 @@
         <v>4.05</v>
       </c>
     </row>
-    <row r="562" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A562" s="12" t="s">
         <v>5</v>
       </c>
@@ -9308,7 +9349,7 @@
         <v>40.28</v>
       </c>
     </row>
-    <row r="563" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A563" s="10" t="s">
         <v>8</v>
       </c>
@@ -9322,7 +9363,7 @@
         <v>45.35</v>
       </c>
     </row>
-    <row r="564" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A564" s="12" t="s">
         <v>6</v>
       </c>
@@ -9336,7 +9377,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="565" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A565" s="10" t="s">
         <v>19</v>
       </c>
@@ -9350,7 +9391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A566" s="12" t="s">
         <v>23</v>
       </c>
@@ -9364,7 +9405,7 @@
         <v>12.33</v>
       </c>
     </row>
-    <row r="567" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A567" s="10" t="s">
         <v>66</v>
       </c>
@@ -9378,7 +9419,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="568" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A568" s="12" t="s">
         <v>9</v>
       </c>
@@ -9392,7 +9433,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="569" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A569" s="10" t="s">
         <v>12</v>
       </c>
@@ -9406,7 +9447,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="570" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A570" s="12" t="s">
         <v>66</v>
       </c>
@@ -9420,7 +9461,7 @@
         <v>4.1900000000000004</v>
       </c>
     </row>
-    <row r="571" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A571" s="10" t="s">
         <v>5</v>
       </c>
@@ -9434,7 +9475,7 @@
         <v>40.03</v>
       </c>
     </row>
-    <row r="572" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A572" s="12" t="s">
         <v>8</v>
       </c>
@@ -9448,7 +9489,7 @@
         <v>53.68</v>
       </c>
     </row>
-    <row r="573" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A573" s="10" t="s">
         <v>6</v>
       </c>
@@ -9462,7 +9503,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="574" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A574" s="12" t="s">
         <v>19</v>
       </c>
@@ -9476,7 +9517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A575" s="10" t="s">
         <v>23</v>
       </c>
@@ -9490,7 +9531,7 @@
         <v>11.01</v>
       </c>
     </row>
-    <row r="576" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A576" s="12" t="s">
         <v>66</v>
       </c>
@@ -9504,7 +9545,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="577" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A577" s="10" t="s">
         <v>9</v>
       </c>
@@ -9518,7 +9559,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="578" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A578" s="12" t="s">
         <v>12</v>
       </c>
@@ -9532,7 +9573,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="579" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A579" s="10" t="s">
         <v>66</v>
       </c>
@@ -9546,7 +9587,7 @@
         <v>4.22</v>
       </c>
     </row>
-    <row r="580" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A580" s="12" t="s">
         <v>5</v>
       </c>
@@ -9560,7 +9601,7 @@
         <v>32.92</v>
       </c>
     </row>
-    <row r="581" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A581" s="10" t="s">
         <v>8</v>
       </c>
@@ -9574,7 +9615,7 @@
         <v>61.09</v>
       </c>
     </row>
-    <row r="582" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A582" s="12" t="s">
         <v>6</v>
       </c>
@@ -9588,7 +9629,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="583" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A583" s="10" t="s">
         <v>19</v>
       </c>
@@ -9602,7 +9643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A584" s="12" t="s">
         <v>23</v>
       </c>
@@ -9616,7 +9657,7 @@
         <v>10.63</v>
       </c>
     </row>
-    <row r="585" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A585" s="10" t="s">
         <v>66</v>
       </c>
@@ -9630,7 +9671,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="586" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A586" s="12" t="s">
         <v>9</v>
       </c>
@@ -9644,7 +9685,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="587" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A587" s="10" t="s">
         <v>12</v>
       </c>
@@ -9658,7 +9699,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="588" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A588" s="12" t="s">
         <v>66</v>
       </c>
@@ -9672,7 +9713,7 @@
         <v>4.1900000000000004</v>
       </c>
     </row>
-    <row r="589" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A589" s="10" t="s">
         <v>5</v>
       </c>
@@ -9686,7 +9727,7 @@
         <v>30.09</v>
       </c>
     </row>
-    <row r="590" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A590" s="12" t="s">
         <v>8</v>
       </c>
@@ -9700,7 +9741,7 @@
         <v>67.959999999999994</v>
       </c>
     </row>
-    <row r="591" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A591" s="10" t="s">
         <v>6</v>
       </c>
@@ -9714,7 +9755,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="592" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A592" s="12" t="s">
         <v>19</v>
       </c>
@@ -9728,7 +9769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A593" s="10" t="s">
         <v>23</v>
       </c>
@@ -9742,7 +9783,7 @@
         <v>10.01</v>
       </c>
     </row>
-    <row r="594" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A594" s="12" t="s">
         <v>66</v>
       </c>
@@ -9756,7 +9797,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="595" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A595" s="10" t="s">
         <v>9</v>
       </c>
@@ -9770,7 +9811,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="596" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A596" s="12" t="s">
         <v>12</v>
       </c>
@@ -9784,7 +9825,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="597" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A597" s="10" t="s">
         <v>66</v>
       </c>
@@ -9798,7 +9839,7 @@
         <v>4.1399999999999997</v>
       </c>
     </row>
-    <row r="598" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A598" s="12" t="s">
         <v>5</v>
       </c>
@@ -9812,7 +9853,7 @@
         <v>26.24</v>
       </c>
     </row>
-    <row r="599" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A599" s="10" t="s">
         <v>8</v>
       </c>
@@ -9826,7 +9867,7 @@
         <v>62.24</v>
       </c>
     </row>
-    <row r="600" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A600" s="12" t="s">
         <v>6</v>
       </c>
@@ -9840,7 +9881,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="601" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A601" s="10" t="s">
         <v>19</v>
       </c>
@@ -9854,7 +9895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A602" s="12" t="s">
         <v>23</v>
       </c>
@@ -9868,7 +9909,7 @@
         <v>9.6199999999999992</v>
       </c>
     </row>
-    <row r="603" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A603" s="10" t="s">
         <v>66</v>
       </c>
@@ -9882,7 +9923,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="604" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A604" s="12" t="s">
         <v>9</v>
       </c>
@@ -9896,7 +9937,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="605" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A605" s="10" t="s">
         <v>12</v>
       </c>
@@ -9910,7 +9951,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="606" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A606" s="12" t="s">
         <v>66</v>
       </c>
@@ -9924,7 +9965,7 @@
         <v>4.2300000000000004</v>
       </c>
     </row>
-    <row r="607" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A607" s="10" t="s">
         <v>5</v>
       </c>
@@ -9938,7 +9979,7 @@
         <v>17.36</v>
       </c>
     </row>
-    <row r="608" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A608" s="12" t="s">
         <v>8</v>
       </c>
@@ -9952,7 +9993,7 @@
         <v>68.61</v>
       </c>
     </row>
-    <row r="609" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A609" s="10" t="s">
         <v>6</v>
       </c>
@@ -9966,7 +10007,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="610" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A610" s="12" t="s">
         <v>19</v>
       </c>
@@ -9980,7 +10021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A611" s="10" t="s">
         <v>23</v>
       </c>
@@ -9994,7 +10035,7 @@
         <v>8.9600000000000009</v>
       </c>
     </row>
-    <row r="612" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A612" s="12" t="s">
         <v>66</v>
       </c>
@@ -10008,7 +10049,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="613" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A613" s="10" t="s">
         <v>9</v>
       </c>
@@ -10022,7 +10063,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="614" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A614" s="12" t="s">
         <v>12</v>
       </c>
@@ -10036,7 +10077,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="615" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A615" s="10" t="s">
         <v>66</v>
       </c>
@@ -10050,7 +10091,7 @@
         <v>4.24</v>
       </c>
     </row>
-    <row r="616" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A616" s="12" t="s">
         <v>5</v>
       </c>
@@ -10064,7 +10105,7 @@
         <v>12.34</v>
       </c>
     </row>
-    <row r="617" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A617" s="10" t="s">
         <v>8</v>
       </c>
@@ -10078,7 +10119,7 @@
         <v>64.73</v>
       </c>
     </row>
-    <row r="618" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A618" s="12" t="s">
         <v>6</v>
       </c>
@@ -10092,7 +10133,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="619" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A619" s="10" t="s">
         <v>19</v>
       </c>
@@ -10106,7 +10147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A620" s="12" t="s">
         <v>23</v>
       </c>
@@ -10120,7 +10161,7 @@
         <v>8.44</v>
       </c>
     </row>
-    <row r="621" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A621" s="10" t="s">
         <v>66</v>
       </c>
@@ -10134,7 +10175,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="622" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A622" s="12" t="s">
         <v>9</v>
       </c>
@@ -10148,7 +10189,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="623" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A623" s="10" t="s">
         <v>12</v>
       </c>
@@ -10162,7 +10203,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="624" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A624" s="12" t="s">
         <v>66</v>
       </c>
@@ -10176,7 +10217,7 @@
         <v>4.12</v>
       </c>
     </row>
-    <row r="625" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A625" s="10" t="s">
         <v>5</v>
       </c>
@@ -10190,7 +10231,7 @@
         <v>12.94</v>
       </c>
     </row>
-    <row r="626" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A626" s="12" t="s">
         <v>8</v>
       </c>
@@ -10204,7 +10245,7 @@
         <v>69.73</v>
       </c>
     </row>
-    <row r="627" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A627" s="10" t="s">
         <v>6</v>
       </c>
@@ -10218,7 +10259,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="628" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A628" s="12" t="s">
         <v>19</v>
       </c>
@@ -10232,7 +10273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A629" s="10" t="s">
         <v>23</v>
       </c>
@@ -10246,7 +10287,7 @@
         <v>7.32</v>
       </c>
     </row>
-    <row r="630" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A630" s="12" t="s">
         <v>66</v>
       </c>
@@ -10260,7 +10301,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="631" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A631" s="10" t="s">
         <v>9</v>
       </c>
@@ -10274,7 +10315,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="632" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A632" s="12" t="s">
         <v>12</v>
       </c>
@@ -10288,7 +10329,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="633" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A633" s="10" t="s">
         <v>66</v>
       </c>
@@ -10302,7 +10343,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="634" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A634" s="12" t="s">
         <v>5</v>
       </c>
@@ -10316,7 +10357,7 @@
         <v>20.88</v>
       </c>
     </row>
-    <row r="635" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A635" s="10" t="s">
         <v>8</v>
       </c>
@@ -10330,7 +10371,7 @@
         <v>68.5</v>
       </c>
     </row>
-    <row r="636" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A636" s="12" t="s">
         <v>6</v>
       </c>
@@ -10344,7 +10385,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="637" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A637" s="10" t="s">
         <v>19</v>
       </c>
@@ -10358,7 +10399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A638" s="12" t="s">
         <v>23</v>
       </c>
@@ -10372,7 +10413,7 @@
         <v>10.28</v>
       </c>
     </row>
-    <row r="639" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A639" s="10" t="s">
         <v>66</v>
       </c>
@@ -10386,7 +10427,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="640" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A640" s="12" t="s">
         <v>9</v>
       </c>
@@ -10400,7 +10441,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="641" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A641" s="10" t="s">
         <v>12</v>
       </c>
@@ -10414,7 +10455,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="642" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A642" s="12" t="s">
         <v>66</v>
       </c>
@@ -10428,7 +10469,7 @@
         <v>3.59</v>
       </c>
     </row>
-    <row r="643" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A643" s="10" t="s">
         <v>5</v>
       </c>
@@ -10442,7 +10483,7 @@
         <v>12.84</v>
       </c>
     </row>
-    <row r="644" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A644" s="12" t="s">
         <v>8</v>
       </c>
@@ -10456,7 +10497,7 @@
         <v>57.3</v>
       </c>
     </row>
-    <row r="645" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A645" s="10" t="s">
         <v>6</v>
       </c>
@@ -10470,7 +10511,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="646" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A646" s="12" t="s">
         <v>19</v>
       </c>
@@ -10484,7 +10525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A647" s="10" t="s">
         <v>23</v>
       </c>
@@ -10498,7 +10539,7 @@
         <v>10.23</v>
       </c>
     </row>
-    <row r="648" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A648" s="12" t="s">
         <v>66</v>
       </c>
@@ -10512,7 +10553,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="649" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A649" s="10" t="s">
         <v>9</v>
       </c>
@@ -10526,7 +10567,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="650" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A650" s="12" t="s">
         <v>12</v>
       </c>
@@ -10540,7 +10581,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="651" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A651" s="10" t="s">
         <v>74</v>
       </c>
@@ -10554,7 +10595,7 @@
         <v>44.35</v>
       </c>
     </row>
-    <row r="652" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A652" s="12" t="s">
         <v>73</v>
       </c>
@@ -10568,7 +10609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A653" s="10" t="s">
         <v>74</v>
       </c>
@@ -10582,7 +10623,7 @@
         <v>48.38</v>
       </c>
     </row>
-    <row r="654" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A654" s="12" t="s">
         <v>73</v>
       </c>
@@ -10596,7 +10637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A655" s="10" t="s">
         <v>74</v>
       </c>
@@ -10610,7 +10651,7 @@
         <v>50.6</v>
       </c>
     </row>
-    <row r="656" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A656" s="12" t="s">
         <v>73</v>
       </c>
@@ -10624,7 +10665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A657" s="10" t="s">
         <v>74</v>
       </c>
@@ -10638,7 +10679,7 @@
         <v>50.97</v>
       </c>
     </row>
-    <row r="658" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A658" s="12" t="s">
         <v>73</v>
       </c>
@@ -10652,7 +10693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A659" s="10" t="s">
         <v>74</v>
       </c>
@@ -10666,7 +10707,7 @@
         <v>45.63</v>
       </c>
     </row>
-    <row r="660" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A660" s="12" t="s">
         <v>73</v>
       </c>
@@ -10680,7 +10721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A661" s="10" t="s">
         <v>74</v>
       </c>
@@ -10694,7 +10735,7 @@
         <v>49.15</v>
       </c>
     </row>
-    <row r="662" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="662" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A662" s="12" t="s">
         <v>73</v>
       </c>
@@ -10708,7 +10749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A663" s="10" t="s">
         <v>74</v>
       </c>
@@ -10722,7 +10763,7 @@
         <v>44.99</v>
       </c>
     </row>
-    <row r="664" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A664" s="12" t="s">
         <v>73</v>
       </c>
@@ -10736,7 +10777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A665" s="10" t="s">
         <v>74</v>
       </c>
@@ -10750,7 +10791,7 @@
         <v>46.28</v>
       </c>
     </row>
-    <row r="666" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A666" s="12" t="s">
         <v>73</v>
       </c>
@@ -10764,7 +10805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A667" s="10" t="s">
         <v>74</v>
       </c>
@@ -10778,7 +10819,7 @@
         <v>40.03</v>
       </c>
     </row>
-    <row r="668" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="668" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A668" s="12" t="s">
         <v>73</v>
       </c>
@@ -10792,7 +10833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A669" s="10" t="s">
         <v>74</v>
       </c>
@@ -10806,7 +10847,7 @@
         <v>44.96</v>
       </c>
     </row>
-    <row r="670" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A670" s="12" t="s">
         <v>73</v>
       </c>
@@ -10820,7 +10861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A671" s="10" t="s">
         <v>74</v>
       </c>
@@ -10834,7 +10875,7 @@
         <v>44.16</v>
       </c>
     </row>
-    <row r="672" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="672" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A672" s="12" t="s">
         <v>73</v>
       </c>
@@ -10848,7 +10889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A673" s="10" t="s">
         <v>74</v>
       </c>
@@ -10862,7 +10903,7 @@
         <v>45.73</v>
       </c>
     </row>
-    <row r="674" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A674" s="12" t="s">
         <v>73</v>
       </c>
@@ -10876,7 +10917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A675" s="10" t="s">
         <v>74</v>
       </c>
@@ -10890,7 +10931,7 @@
         <v>43.1</v>
       </c>
     </row>
-    <row r="676" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="676" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A676" s="12" t="s">
         <v>73</v>
       </c>
@@ -10904,7 +10945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A677" s="10" t="s">
         <v>74</v>
       </c>
@@ -10918,7 +10959,7 @@
         <v>42.14</v>
       </c>
     </row>
-    <row r="678" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="678" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A678" s="12" t="s">
         <v>73</v>
       </c>
@@ -10932,7 +10973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A679" s="10" t="s">
         <v>74</v>
       </c>
@@ -10946,7 +10987,7 @@
         <v>43.72</v>
       </c>
     </row>
-    <row r="680" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A680" s="12" t="s">
         <v>73</v>
       </c>
@@ -10960,7 +11001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A681" s="10" t="s">
         <v>74</v>
       </c>
@@ -10974,7 +11015,7 @@
         <v>46.38</v>
       </c>
     </row>
-    <row r="682" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="682" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A682" s="12" t="s">
         <v>73</v>
       </c>
@@ -10988,7 +11029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="683" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A683" s="10" t="s">
         <v>74</v>
       </c>
@@ -11002,7 +11043,7 @@
         <v>37.03</v>
       </c>
     </row>
-    <row r="684" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="684" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A684" s="12" t="s">
         <v>73</v>
       </c>
@@ -11016,7 +11057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="685" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A685" s="10" t="s">
         <v>74</v>
       </c>
@@ -11030,7 +11071,7 @@
         <v>37.76</v>
       </c>
     </row>
-    <row r="686" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="686" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A686" s="12" t="s">
         <v>73</v>
       </c>
@@ -11044,7 +11085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="687" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A687" s="10" t="s">
         <v>74</v>
       </c>
@@ -11058,7 +11099,7 @@
         <v>43.9</v>
       </c>
     </row>
-    <row r="688" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="688" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A688" s="12" t="s">
         <v>73</v>
       </c>
@@ -11072,7 +11113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="689" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A689" s="10" t="s">
         <v>74</v>
       </c>
@@ -11086,7 +11127,7 @@
         <v>38.14</v>
       </c>
     </row>
-    <row r="690" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="690" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A690" s="12" t="s">
         <v>73</v>
       </c>
@@ -11100,7 +11141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="691" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A691" s="10" t="s">
         <v>74</v>
       </c>
@@ -11114,7 +11155,7 @@
         <v>32.200000000000003</v>
       </c>
     </row>
-    <row r="692" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="692" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A692" s="12" t="s">
         <v>73</v>
       </c>
@@ -11128,7 +11169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="693" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A693" s="10" t="s">
         <v>74</v>
       </c>
@@ -11142,7 +11183,7 @@
         <v>42.79</v>
       </c>
     </row>
-    <row r="694" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="694" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A694" s="12" t="s">
         <v>73</v>
       </c>
@@ -11156,7 +11197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="695" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A695" s="10" t="s">
         <v>74</v>
       </c>
@@ -11170,7 +11211,7 @@
         <v>42.99</v>
       </c>
     </row>
-    <row r="696" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="696" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A696" s="12" t="s">
         <v>73</v>
       </c>
@@ -11184,7 +11225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="697" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A697" s="10" t="s">
         <v>74</v>
       </c>
@@ -11198,7 +11239,7 @@
         <v>51.25</v>
       </c>
     </row>
-    <row r="698" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="698" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A698" s="12" t="s">
         <v>73</v>
       </c>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC50501-3AD6-4A66-A646-90C8B61D7962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2661D1-4083-4F56-BD36-BD3A3A228423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="78">
   <si>
     <t>~TFM_INS-AT</t>
   </si>
@@ -321,9 +321,6 @@
   </si>
   <si>
     <t>Import</t>
-  </si>
-  <si>
-    <t>\I:</t>
   </si>
   <si>
     <t>UCE_max nuclear capacity</t>
@@ -821,8 +818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="AD11" sqref="AD11"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AD16" sqref="AD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -969,7 +966,7 @@
         <v>0.14275360852558924</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -1038,9 +1035,6 @@
       </c>
       <c r="AC7" t="s">
         <v>17</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>77</v>
       </c>
       <c r="AF7" t="s">
         <v>13</v>
@@ -1218,9 +1212,6 @@
       <c r="J10" s="4">
         <v>0.14275360852558924</v>
       </c>
-      <c r="U10" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="11" spans="1:38" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F11" t="s">
@@ -1238,31 +1229,14 @@
       <c r="J11" s="4">
         <v>0.21594436217582091</v>
       </c>
-      <c r="U11" t="s">
-        <v>76</v>
-      </c>
-      <c r="V11" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y11">
-        <v>1</v>
-      </c>
-      <c r="AB11">
-        <f>SUMIFS(historical_data_long!$D$3:$D$626,historical_data_long!$A$3:$A$626,Veda!$V11,historical_data_long!$C$3:$C$626,"GW",historical_data_long!$B$3:$B$626,2022)</f>
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <v>3</v>
-      </c>
-      <c r="AD11">
-        <f>AB11*2</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>26</v>
       </c>
+      <c r="U13" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
@@ -1274,6 +1248,36 @@
       <c r="D14" t="s">
         <v>3</v>
       </c>
+      <c r="U14" t="s">
+        <v>13</v>
+      </c>
+      <c r="V14" t="s">
+        <v>2</v>
+      </c>
+      <c r="W14" t="s">
+        <v>14</v>
+      </c>
+      <c r="X14" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z14">
+        <v>2022</v>
+      </c>
+      <c r="AA14">
+        <v>2050</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
@@ -1288,6 +1292,26 @@
       </c>
       <c r="L15" t="s">
         <v>30</v>
+      </c>
+      <c r="U15" t="s">
+        <v>75</v>
+      </c>
+      <c r="V15" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+      <c r="AB15">
+        <f>SUMIFS(historical_data_long!$D$3:$D$626,historical_data_long!$A$3:$A$626,Veda!$V15,historical_data_long!$C$3:$C$626,"GW",historical_data_long!$B$3:$B$626,2022)</f>
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>3</v>
+      </c>
+      <c r="AD15">
+        <f>AB15*2.5</f>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.45">

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2661D1-4083-4F56-BD36-BD3A3A228423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0F3CCF-2D10-4E24-A537-B6C3B5C85F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0F3CCF-2D10-4E24-A537-B6C3B5C85F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17454DFA-974F-4A6E-A78F-1E5EB7C1E45D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17454DFA-974F-4A6E-A78F-1E5EB7C1E45D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6119F7A-120E-4082-B4E5-F9666C1508DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6119F7A-120E-4082-B4E5-F9666C1508DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD9477B-CC34-42F0-AD54-88F6BB8427BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD9477B-CC34-42F0-AD54-88F6BB8427BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F26E25-F854-4B40-B0C9-84773A516F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="71">
   <si>
     <t>~TFM_INS-AT</t>
   </si>
@@ -188,43 +188,16 @@
     <t>START</t>
   </si>
   <si>
-    <t>Bioenergy + CCUS</t>
-  </si>
-  <si>
-    <t>Bioenergy - Cofiring</t>
-  </si>
-  <si>
-    <t>Bioenergy - Large scale unit</t>
-  </si>
-  <si>
-    <t>Bioenergy - Medium-scale CHP</t>
-  </si>
-  <si>
-    <t>Concentrating solar power</t>
-  </si>
-  <si>
-    <t>Fuel cell (distributed electricity generation)</t>
-  </si>
-  <si>
     <t>cset_cn</t>
   </si>
   <si>
     <t>other_indexes</t>
   </si>
   <si>
-    <t>Marine</t>
-  </si>
-  <si>
     <t>VDA_EMCB</t>
   </si>
   <si>
     <t>CO2</t>
-  </si>
-  <si>
-    <t>Oxyfuel + CCS</t>
-  </si>
-  <si>
-    <t>Solar photovoltaics - Buildings</t>
   </si>
   <si>
     <t>Solar photovoltaics - Large scale unit</t>
@@ -234,9 +207,6 @@
   </si>
   <si>
     <t>Wind onshore</t>
-  </si>
-  <si>
-    <t>CCGT - CHP</t>
   </si>
   <si>
     <t>~UC_T: FX</t>
@@ -258,9 +228,6 @@
   </si>
   <si>
     <t>ep*,EN*</t>
-  </si>
-  <si>
-    <t>Geothermal*</t>
   </si>
   <si>
     <t>COM_AGG</t>
@@ -329,6 +296,18 @@
     <t>UC_RHSRT~2050</t>
   </si>
   <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>g[_]*</t>
+  </si>
+  <si>
+    <t>prc_capact</t>
+  </si>
+  <si>
+    <t>Hydropower - large-scale unit</t>
+  </si>
+  <si>
     <t>geothermal</t>
   </si>
 </sst>
@@ -395,7 +374,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -417,6 +396,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF7F9FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,14 +452,12 @@
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -818,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AD16" sqref="AD16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -864,20 +847,20 @@
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="F2" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>65</v>
+      <c r="F2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.45">
@@ -885,18 +868,18 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" s="4">
+        <v>55</v>
+      </c>
+      <c r="G3" s="3">
         <v>0.52921203606135103</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>0.77363813512491642</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>0.29387335196920444</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <v>0.65763867133730136</v>
       </c>
       <c r="V3" t="s">
@@ -905,7 +888,7 @@
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -919,40 +902,40 @@
       <c r="F4" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>0.19733814732221869</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>0.62231700981598448</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="5">
+        <v>43</v>
+      </c>
+      <c r="D5" s="4">
         <f>IFERROR(VLOOKUP(B5,$F$3:$J$11,5,FALSE),"")</f>
         <v>0.31127604163438005</v>
       </c>
       <c r="F5" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>0.15844369919854487</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>0.2955149688458561</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>0.28000000000000003</v>
       </c>
       <c r="B6" t="s">
@@ -961,19 +944,19 @@
       <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <f>IFERROR(MIN(VLOOKUP(B6,$F$3:$J$11,5,FALSE),$A$6),"")</f>
         <v>0.14275360852558924</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4">
+        <v>70</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3">
         <v>0.79908675799086759</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="3">
         <v>0.96681069431997602</v>
       </c>
       <c r="U6" t="s">
@@ -990,23 +973,23 @@
       <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <f t="shared" ref="D7" si="0">IFERROR(VLOOKUP(B7,$F$3:$J$11,5,FALSE),"")</f>
         <v>0.21594436217582091</v>
       </c>
       <c r="F7" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>0.1712630286539932</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>0.36886258026147345</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>0.15125668935897063</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <v>0.31127604163438005</v>
       </c>
       <c r="U7" t="s">
@@ -1065,17 +1048,17 @@
       <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <f>IFERROR(VLOOKUP(B8,$F$3:$J$11,3,FALSE),"")</f>
         <v>0</v>
       </c>
       <c r="F8" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
       <c r="U8" t="s">
         <v>20</v>
       </c>
@@ -1085,15 +1068,15 @@
       <c r="W8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X8" s="3">
+      <c r="X8" s="2">
         <f>-1/8.76</f>
         <v>-0.11415525114155252</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="Z8" s="2">
         <f>VLOOKUP(V8,$F$3:$J$11,3,FALSE)</f>
         <v>0.62231700981598448</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AA8" s="2">
         <f>Z8*$AB$1</f>
         <v>0.68454871079758295</v>
       </c>
@@ -1113,7 +1096,7 @@
         <f>-1/8.76</f>
         <v>-0.11415525114155252</v>
       </c>
-      <c r="AI8" s="3">
+      <c r="AI8" s="2">
         <f>VLOOKUP(AG8,$F$3:$J$11,2,FALSE)</f>
         <v>0.19733814732221869</v>
       </c>
@@ -1132,16 +1115,16 @@
       <c r="F9" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>0.88232496194824972</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>8.2835036602159899</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>2.1681649145671975E-2</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
         <v>0.18947752518915301</v>
       </c>
       <c r="U9" t="s">
@@ -1153,15 +1136,15 @@
       <c r="W9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X9" s="3">
+      <c r="X9" s="2">
         <f>-1/8.76</f>
         <v>-0.11415525114155252</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="Z9" s="2">
         <f>VLOOKUP(V9,$F$3:$J$11,3,FALSE)</f>
         <v>0.2955149688458561</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AA9" s="2">
         <f>Z9*$AB$1</f>
         <v>0.32506646573044173</v>
       </c>
@@ -1181,7 +1164,7 @@
         <f>-1/8.76</f>
         <v>-0.11415525114155252</v>
       </c>
-      <c r="AI9" s="3">
+      <c r="AI9" s="2">
         <f>VLOOKUP(AG9,$F$3:$J$11,2,FALSE)</f>
         <v>0.15844369919854487</v>
       </c>
@@ -1200,16 +1183,16 @@
       <c r="F10" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>4.1511000415110001E-2</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>0.14134611593860083</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <v>4.0424449979244499E-2</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="3">
         <v>0.14275360852558924</v>
       </c>
     </row>
@@ -1217,16 +1200,16 @@
       <c r="F11" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>0.15298675050527735</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <v>0.21801705559203086</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <v>0.15299618343829349</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="3">
         <v>0.21594436217582091</v>
       </c>
     </row>
@@ -1276,7 +1259,7 @@
         <v>17</v>
       </c>
       <c r="AD14" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.45">
@@ -1288,13 +1271,13 @@
       </c>
       <c r="D15" s="1" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,L15:L28)</f>
-        <v>Bioenergy + CCUS,Bioenergy - Cofiring,Bioenergy - Large scale unit,Bioenergy - Medium-scale CHP,Concentrating solar power,Fuel cell (distributed electricity generation),Marine,Oxyfuel + CCS,Solar photovoltaics - Buildings,Solar photovoltaics - Large scale unit,Wind offshore,Wind onshore,CCGT - CHP,Geothermal*</v>
-      </c>
-      <c r="L15" t="s">
-        <v>30</v>
+        <v>Hydropower - large-scale unit,Solar photovoltaics - Large scale unit,Wind offshore,Wind onshore</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="U15" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="V15" t="s">
         <v>19</v>
@@ -1315,42 +1298,34 @@
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="L16" t="s">
-        <v>31</v>
+      <c r="L16" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="L17" t="s">
-        <v>32</v>
+      <c r="L17" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="L18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="L19" t="s">
-        <v>34</v>
+      <c r="L18" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>26</v>
       </c>
-      <c r="L20" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E21" t="s">
         <v>28</v>
@@ -1358,19 +1333,19 @@
       <c r="F21" t="s">
         <v>14</v>
       </c>
-      <c r="L21" t="s">
-        <v>38</v>
+      <c r="G21" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E22">
         <f>I22*3.6</f>
@@ -1379,19 +1354,16 @@
       <c r="I22">
         <v>94</v>
       </c>
-      <c r="L22" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E23">
         <f>I23*3.6</f>
@@ -1400,19 +1372,16 @@
       <c r="I23">
         <v>55</v>
       </c>
-      <c r="L23" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E24">
         <f>I24*3.6</f>
@@ -1421,50 +1390,41 @@
       <c r="I24">
         <v>70</v>
       </c>
-      <c r="L24" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D25" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
-      <c r="L25" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D26" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E26">
         <v>-1</v>
       </c>
-      <c r="L26" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E27">
         <v>0.03</v>
@@ -1473,18 +1433,32 @@
         <f>C27</f>
         <v>co2captured</v>
       </c>
-      <c r="L27" s="2" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="L28" t="s">
-        <v>54</v>
+      <c r="B28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28">
+        <v>50</v>
+      </c>
+      <c r="G28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29">
+        <v>8.76</v>
+      </c>
+      <c r="G29" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.45">
       <c r="E35" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.45">
@@ -1492,7 +1466,7 @@
         <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D36" t="s">
         <v>2</v>
@@ -1506,10 +1480,10 @@
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B37" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -1528,10 +1502,10 @@
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -1569,27 +1543,27 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B3" s="10">
         <v>2000</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D3" s="11">
         <v>1.39</v>
@@ -1603,7 +1577,7 @@
         <v>2000</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D4" s="13">
         <v>26.28</v>
@@ -1617,7 +1591,7 @@
         <v>2000</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D5" s="11">
         <v>101.36</v>
@@ -1631,7 +1605,7 @@
         <v>2000</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D6" s="13">
         <v>44.2</v>
@@ -1645,7 +1619,7 @@
         <v>2000</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D7" s="11">
         <v>0</v>
@@ -1659,7 +1633,7 @@
         <v>2000</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D8" s="13">
         <v>91.43</v>
@@ -1667,13 +1641,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B9" s="10">
         <v>2000</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D9" s="11">
         <v>4.7</v>
@@ -1687,7 +1661,7 @@
         <v>2000</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D10" s="13">
         <v>0.02</v>
@@ -1701,7 +1675,7 @@
         <v>2000</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D11" s="11">
         <v>0.56000000000000005</v>
@@ -1709,13 +1683,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B12" s="12">
         <v>2001</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D12" s="13">
         <v>1.83</v>
@@ -1729,7 +1703,7 @@
         <v>2001</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D13" s="11">
         <v>31.73</v>
@@ -1743,7 +1717,7 @@
         <v>2001</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D14" s="13">
         <v>104.19</v>
@@ -1757,7 +1731,7 @@
         <v>2001</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D15" s="11">
         <v>46.81</v>
@@ -1771,7 +1745,7 @@
         <v>2001</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D16" s="13">
         <v>0</v>
@@ -1785,7 +1759,7 @@
         <v>2001</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D17" s="11">
         <v>81.63</v>
@@ -1793,13 +1767,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B18" s="12">
         <v>2001</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D18" s="13">
         <v>4.51</v>
@@ -1813,7 +1787,7 @@
         <v>2001</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D19" s="11">
         <v>0.02</v>
@@ -1827,7 +1801,7 @@
         <v>2001</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D20" s="13">
         <v>1.18</v>
@@ -1835,13 +1809,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B21" s="10">
         <v>2002</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D21" s="11">
         <v>2.71</v>
@@ -1855,7 +1829,7 @@
         <v>2002</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D22" s="13">
         <v>35.450000000000003</v>
@@ -1869,7 +1843,7 @@
         <v>2002</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D23" s="11">
         <v>99.41</v>
@@ -1883,7 +1857,7 @@
         <v>2002</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D24" s="13">
         <v>39.520000000000003</v>
@@ -1897,7 +1871,7 @@
         <v>2002</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D25" s="11">
         <v>0</v>
@@ -1911,7 +1885,7 @@
         <v>2002</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D26" s="13">
         <v>94.36</v>
@@ -1919,13 +1893,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B27" s="10">
         <v>2002</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D27" s="11">
         <v>4.66</v>
@@ -1939,7 +1913,7 @@
         <v>2002</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D28" s="13">
         <v>0.02</v>
@@ -1953,7 +1927,7 @@
         <v>2002</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D29" s="11">
         <v>1.4</v>
@@ -1961,13 +1935,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B30" s="12">
         <v>2003</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D30" s="13">
         <v>3.37</v>
@@ -1981,7 +1955,7 @@
         <v>2003</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D31" s="11">
         <v>38.81</v>
@@ -1995,7 +1969,7 @@
         <v>2003</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D32" s="13">
         <v>117.3</v>
@@ -2009,7 +1983,7 @@
         <v>2003</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D33" s="11">
         <v>36.67</v>
@@ -2023,7 +1997,7 @@
         <v>2003</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D34" s="13">
         <v>0</v>
@@ -2037,7 +2011,7 @@
         <v>2003</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D35" s="11">
         <v>83.3</v>
@@ -2045,13 +2019,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B36" s="12">
         <v>2003</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D36" s="13">
         <v>5.34</v>
@@ -2065,7 +2039,7 @@
         <v>2003</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D37" s="11">
         <v>0.02</v>
@@ -2079,7 +2053,7 @@
         <v>2003</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D38" s="13">
         <v>1.46</v>
@@ -2087,13 +2061,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B39" s="10">
         <v>2004</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D39" s="11">
         <v>4.22</v>
@@ -2107,7 +2081,7 @@
         <v>2004</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D40" s="13">
         <v>45.52</v>
@@ -2121,7 +2095,7 @@
         <v>2004</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D41" s="11">
         <v>129.84</v>
@@ -2135,7 +2109,7 @@
         <v>2004</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D42" s="13">
         <v>42.34</v>
@@ -2149,7 +2123,7 @@
         <v>2004</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D43" s="11">
         <v>0</v>
@@ -2163,7 +2137,7 @@
         <v>2004</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D44" s="13">
         <v>64.48</v>
@@ -2171,13 +2145,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B45" s="10">
         <v>2004</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D45" s="11">
         <v>5.44</v>
@@ -2191,7 +2165,7 @@
         <v>2004</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D46" s="13">
         <v>0.03</v>
@@ -2205,7 +2179,7 @@
         <v>2004</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D47" s="11">
         <v>1.84</v>
@@ -2213,13 +2187,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B48" s="12">
         <v>2005</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D48" s="13">
         <v>4.67</v>
@@ -2233,7 +2207,7 @@
         <v>2005</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D49" s="11">
         <v>43.61</v>
@@ -2247,7 +2221,7 @@
         <v>2005</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D50" s="13">
         <v>149.33000000000001</v>
@@ -2261,7 +2235,7 @@
         <v>2005</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D51" s="11">
         <v>36.07</v>
@@ -2275,7 +2249,7 @@
         <v>2005</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D52" s="13">
         <v>0</v>
@@ -2289,7 +2263,7 @@
         <v>2005</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D53" s="11">
         <v>53.26</v>
@@ -2297,13 +2271,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B54" s="12">
         <v>2005</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D54" s="13">
         <v>5.32</v>
@@ -2317,7 +2291,7 @@
         <v>2005</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D55" s="11">
         <v>0.03</v>
@@ -2331,7 +2305,7 @@
         <v>2005</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D56" s="13">
         <v>2.34</v>
@@ -2339,13 +2313,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B57" s="10">
         <v>2006</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D57" s="11">
         <v>5.1100000000000003</v>
@@ -2359,7 +2333,7 @@
         <v>2006</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D58" s="13">
         <v>44.21</v>
@@ -2373,7 +2347,7 @@
         <v>2006</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D59" s="11">
         <v>158.13999999999999</v>
@@ -2387,7 +2361,7 @@
         <v>2006</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D60" s="13">
         <v>36.99</v>
@@ -2401,7 +2375,7 @@
         <v>2006</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D61" s="11">
         <v>0</v>
@@ -2415,7 +2389,7 @@
         <v>2006</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D62" s="13">
         <v>52.62</v>
@@ -2423,13 +2397,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B63" s="10">
         <v>2006</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D63" s="11">
         <v>5.53</v>
@@ -2443,7 +2417,7 @@
         <v>2006</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D64" s="13">
         <v>0.04</v>
@@ -2457,7 +2431,7 @@
         <v>2006</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D65" s="11">
         <v>2.97</v>
@@ -2465,13 +2439,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B66" s="12">
         <v>2007</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D66" s="13">
         <v>5.26</v>
@@ -2485,7 +2459,7 @@
         <v>2007</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D67" s="11">
         <v>44.11</v>
@@ -2499,7 +2473,7 @@
         <v>2007</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D68" s="13">
         <v>172.71</v>
@@ -2513,7 +2487,7 @@
         <v>2007</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D69" s="11">
         <v>32.82</v>
@@ -2527,7 +2501,7 @@
         <v>2007</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D70" s="13">
         <v>0</v>
@@ -2541,7 +2515,7 @@
         <v>2007</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D71" s="11">
         <v>41.63</v>
@@ -2549,13 +2523,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B72" s="12">
         <v>2007</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D72" s="13">
         <v>5.57</v>
@@ -2569,7 +2543,7 @@
         <v>2007</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D73" s="11">
         <v>0.04</v>
@@ -2583,7 +2557,7 @@
         <v>2007</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D74" s="13">
         <v>4.03</v>
@@ -2591,13 +2565,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B75" s="10">
         <v>2008</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D75" s="11">
         <v>5.97</v>
@@ -2611,7 +2585,7 @@
         <v>2008</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D76" s="13">
         <v>43.07</v>
@@ -2625,7 +2599,7 @@
         <v>2008</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D77" s="11">
         <v>172.77</v>
@@ -2639,7 +2613,7 @@
         <v>2008</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D78" s="13">
         <v>41.62</v>
@@ -2653,7 +2627,7 @@
         <v>2008</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D79" s="11">
         <v>0</v>
@@ -2667,7 +2641,7 @@
         <v>2008</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D80" s="13">
         <v>37.57</v>
@@ -2675,13 +2649,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B81" s="10">
         <v>2008</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D81" s="11">
         <v>5.52</v>
@@ -2695,7 +2669,7 @@
         <v>2008</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D82" s="13">
         <v>0.19</v>
@@ -2709,7 +2683,7 @@
         <v>2008</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D83" s="11">
         <v>4.8600000000000003</v>
@@ -2717,13 +2691,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B84" s="12">
         <v>2009</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D84" s="13">
         <v>7.56</v>
@@ -2737,7 +2711,7 @@
         <v>2009</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D85" s="11">
         <v>39.74</v>
@@ -2751,7 +2725,7 @@
         <v>2009</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D86" s="13">
         <v>147.36000000000001</v>
@@ -2765,7 +2739,7 @@
         <v>2009</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D87" s="11">
         <v>49.14</v>
@@ -2779,7 +2753,7 @@
         <v>2009</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D88" s="13">
         <v>0</v>
@@ -2793,7 +2767,7 @@
         <v>2009</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D89" s="11">
         <v>30</v>
@@ -2801,13 +2775,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B90" s="12">
         <v>2009</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D90" s="13">
         <v>5.34</v>
@@ -2821,7 +2795,7 @@
         <v>2009</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D91" s="11">
         <v>0.68</v>
@@ -2835,7 +2809,7 @@
         <v>2009</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D92" s="13">
         <v>6.54</v>
@@ -2843,13 +2817,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A93" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B93" s="10">
         <v>2010</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D93" s="11">
         <v>9.44</v>
@@ -2863,7 +2837,7 @@
         <v>2010</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D94" s="13">
         <v>39.729999999999997</v>
@@ -2877,7 +2851,7 @@
         <v>2010</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D95" s="11">
         <v>152.81</v>
@@ -2891,7 +2865,7 @@
         <v>2010</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D96" s="13">
         <v>51.12</v>
@@ -2905,7 +2879,7 @@
         <v>2010</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D97" s="11">
         <v>0</v>
@@ -2919,7 +2893,7 @@
         <v>2010</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D98" s="13">
         <v>27.12</v>
@@ -2927,13 +2901,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A99" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B99" s="10">
         <v>2010</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D99" s="11">
         <v>5.38</v>
@@ -2947,7 +2921,7 @@
         <v>2010</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D100" s="13">
         <v>1.91</v>
@@ -2961,7 +2935,7 @@
         <v>2010</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D101" s="11">
         <v>9.1199999999999992</v>
@@ -2969,13 +2943,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A102" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B102" s="12">
         <v>2011</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D102" s="13">
         <v>10.83</v>
@@ -2989,7 +2963,7 @@
         <v>2011</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D103" s="11">
         <v>44.73</v>
@@ -3003,7 +2977,7 @@
         <v>2011</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D104" s="13">
         <v>144.6</v>
@@ -3017,7 +2991,7 @@
         <v>2011</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D105" s="11">
         <v>45.82</v>
@@ -3031,7 +3005,7 @@
         <v>2011</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D106" s="13">
         <v>0</v>
@@ -3045,7 +3019,7 @@
         <v>2011</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D107" s="11">
         <v>26.09</v>
@@ -3053,13 +3027,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A108" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B108" s="12">
         <v>2011</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D108" s="13">
         <v>5.65</v>
@@ -3073,7 +3047,7 @@
         <v>2011</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D109" s="11">
         <v>10.8</v>
@@ -3087,7 +3061,7 @@
         <v>2011</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D110" s="13">
         <v>9.85</v>
@@ -3095,13 +3069,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A111" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B111" s="10">
         <v>2012</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D111" s="11">
         <v>12.49</v>
@@ -3115,7 +3089,7 @@
         <v>2012</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D112" s="13">
         <v>49.14</v>
@@ -3129,7 +3103,7 @@
         <v>2012</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D113" s="11">
         <v>129.13999999999999</v>
@@ -3143,7 +3117,7 @@
         <v>2012</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D114" s="13">
         <v>41.87</v>
@@ -3157,7 +3131,7 @@
         <v>2012</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D115" s="11">
         <v>0</v>
@@ -3171,7 +3145,7 @@
         <v>2012</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D116" s="13">
         <v>24.75</v>
@@ -3179,13 +3153,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A117" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B117" s="10">
         <v>2012</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D117" s="11">
         <v>5.59</v>
@@ -3199,7 +3173,7 @@
         <v>2012</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D118" s="13">
         <v>18.86</v>
@@ -3213,7 +3187,7 @@
         <v>2012</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D119" s="11">
         <v>13.41</v>
@@ -3221,13 +3195,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A120" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B120" s="12">
         <v>2013</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D120" s="13">
         <v>17.079999999999998</v>
@@ -3241,7 +3215,7 @@
         <v>2013</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D121" s="11">
         <v>45.1</v>
@@ -3255,7 +3229,7 @@
         <v>2013</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D122" s="13">
         <v>108.91</v>
@@ -3269,7 +3243,7 @@
         <v>2013</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D123" s="11">
         <v>52.77</v>
@@ -3283,7 +3257,7 @@
         <v>2013</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D124" s="13">
         <v>0</v>
@@ -3297,7 +3271,7 @@
         <v>2013</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D125" s="11">
         <v>20.010000000000002</v>
@@ -3305,13 +3279,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A126" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B126" s="12">
         <v>2013</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D126" s="13">
         <v>5.66</v>
@@ -3325,7 +3299,7 @@
         <v>2013</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D127" s="11">
         <v>21.59</v>
@@ -3339,7 +3313,7 @@
         <v>2013</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D128" s="13">
         <v>14.9</v>
@@ -3347,13 +3321,13 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A129" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B129" s="10">
         <v>2014</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D129" s="11">
         <v>18.72</v>
@@ -3367,7 +3341,7 @@
         <v>2014</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D130" s="13">
         <v>43.45</v>
@@ -3381,7 +3355,7 @@
         <v>2014</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D131" s="11">
         <v>93.66</v>
@@ -3395,7 +3369,7 @@
         <v>2014</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D132" s="13">
         <v>58.55</v>
@@ -3409,7 +3383,7 @@
         <v>2014</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D133" s="11">
         <v>0</v>
@@ -3423,7 +3397,7 @@
         <v>2014</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D134" s="13">
         <v>18.739999999999998</v>
@@ -3431,13 +3405,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A135" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B135" s="10">
         <v>2014</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D135" s="11">
         <v>5.92</v>
@@ -3451,7 +3425,7 @@
         <v>2014</v>
       </c>
       <c r="C136" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D136" s="13">
         <v>22.31</v>
@@ -3465,7 +3439,7 @@
         <v>2014</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D137" s="11">
         <v>15.18</v>
@@ -3473,13 +3447,13 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A138" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B138" s="12">
         <v>2015</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D138" s="13">
         <v>19.39</v>
@@ -3493,7 +3467,7 @@
         <v>2015</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D139" s="11">
         <v>43.2</v>
@@ -3507,7 +3481,7 @@
         <v>2015</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D140" s="13">
         <v>110.88</v>
@@ -3521,7 +3495,7 @@
         <v>2015</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D141" s="11">
         <v>45.54</v>
@@ -3535,7 +3509,7 @@
         <v>2015</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D142" s="13">
         <v>0</v>
@@ -3549,7 +3523,7 @@
         <v>2015</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D143" s="11">
         <v>16.73</v>
@@ -3557,13 +3531,13 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A144" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B144" s="12">
         <v>2015</v>
       </c>
       <c r="C144" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D144" s="13">
         <v>6.18</v>
@@ -3577,7 +3551,7 @@
         <v>2015</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D145" s="11">
         <v>22.94</v>
@@ -3591,7 +3565,7 @@
         <v>2015</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D146" s="13">
         <v>14.84</v>
@@ -3599,13 +3573,13 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A147" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B147" s="10">
         <v>2016</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D147" s="11">
         <v>19.5</v>
@@ -3619,7 +3593,7 @@
         <v>2016</v>
       </c>
       <c r="C148" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D148" s="13">
         <v>35.61</v>
@@ -3633,7 +3607,7 @@
         <v>2016</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D149" s="11">
         <v>126.17</v>
@@ -3647,7 +3621,7 @@
         <v>2016</v>
       </c>
       <c r="C150" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D150" s="13">
         <v>42.43</v>
@@ -3661,7 +3635,7 @@
         <v>2016</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D151" s="11">
         <v>0</v>
@@ -3675,7 +3649,7 @@
         <v>2016</v>
       </c>
       <c r="C152" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D152" s="13">
         <v>16.16</v>
@@ -3683,13 +3657,13 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A153" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B153" s="10">
         <v>2016</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D153" s="11">
         <v>6.29</v>
@@ -3703,7 +3677,7 @@
         <v>2016</v>
       </c>
       <c r="C154" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D154" s="13">
         <v>22.1</v>
@@ -3717,7 +3691,7 @@
         <v>2016</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D155" s="11">
         <v>17.690000000000001</v>
@@ -3725,13 +3699,13 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A156" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B156" s="12">
         <v>2017</v>
       </c>
       <c r="C156" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D156" s="13">
         <v>19.37</v>
@@ -3745,7 +3719,7 @@
         <v>2017</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D157" s="11">
         <v>32.630000000000003</v>
@@ -3759,7 +3733,7 @@
         <v>2017</v>
       </c>
       <c r="C158" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D158" s="13">
         <v>140.36000000000001</v>
@@ -3773,7 +3747,7 @@
         <v>2017</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D159" s="11">
         <v>36.200000000000003</v>
@@ -3787,7 +3761,7 @@
         <v>2017</v>
       </c>
       <c r="C160" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D160" s="13">
         <v>0</v>
@@ -3801,7 +3775,7 @@
         <v>2017</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D161" s="11">
         <v>15.21</v>
@@ -3809,13 +3783,13 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A162" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B162" s="12">
         <v>2017</v>
       </c>
       <c r="C162" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D162" s="13">
         <v>6.2</v>
@@ -3829,7 +3803,7 @@
         <v>2017</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D163" s="11">
         <v>24.38</v>
@@ -3843,7 +3817,7 @@
         <v>2017</v>
       </c>
       <c r="C164" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D164" s="13">
         <v>17.739999999999998</v>
@@ -3851,13 +3825,13 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A165" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B165" s="10">
         <v>2018</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D165" s="11">
         <v>19.14</v>
@@ -3871,7 +3845,7 @@
         <v>2018</v>
       </c>
       <c r="C166" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D166" s="13">
         <v>28.47</v>
@@ -3885,7 +3859,7 @@
         <v>2018</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D167" s="11">
         <v>128.56</v>
@@ -3899,7 +3873,7 @@
         <v>2018</v>
       </c>
       <c r="C168" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D168" s="13">
         <v>48.79</v>
@@ -3913,7 +3887,7 @@
         <v>2018</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D169" s="11">
         <v>0</v>
@@ -3927,7 +3901,7 @@
         <v>2018</v>
       </c>
       <c r="C170" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D170" s="13">
         <v>14.62</v>
@@ -3935,13 +3909,13 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A171" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B171" s="10">
         <v>2018</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D171" s="11">
         <v>6.11</v>
@@ -3955,7 +3929,7 @@
         <v>2018</v>
       </c>
       <c r="C172" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D172" s="13">
         <v>22.65</v>
@@ -3969,7 +3943,7 @@
         <v>2018</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D173" s="11">
         <v>17.72</v>
@@ -3977,13 +3951,13 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A174" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B174" s="12">
         <v>2019</v>
       </c>
       <c r="C174" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D174" s="13">
         <v>19.55</v>
@@ -3997,7 +3971,7 @@
         <v>2019</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D175" s="11">
         <v>18.84</v>
@@ -4011,7 +3985,7 @@
         <v>2019</v>
       </c>
       <c r="C176" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D176" s="13">
         <v>141.69999999999999</v>
@@ -4025,7 +3999,7 @@
         <v>2019</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D177" s="11">
         <v>46.32</v>
@@ -4039,7 +4013,7 @@
         <v>2019</v>
       </c>
       <c r="C178" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D178" s="13">
         <v>0</v>
@@ -4053,7 +4027,7 @@
         <v>2019</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D179" s="11">
         <v>13.62</v>
@@ -4061,13 +4035,13 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A180" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B180" s="12">
         <v>2019</v>
       </c>
       <c r="C180" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D180" s="13">
         <v>6.07</v>
@@ -4081,7 +4055,7 @@
         <v>2019</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D181" s="11">
         <v>23.69</v>
@@ -4095,7 +4069,7 @@
         <v>2019</v>
       </c>
       <c r="C182" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D182" s="13">
         <v>20.2</v>
@@ -4103,13 +4077,13 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A183" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B183" s="10">
         <v>2020</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D183" s="11">
         <v>19.62</v>
@@ -4123,7 +4097,7 @@
         <v>2020</v>
       </c>
       <c r="C184" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D184" s="13">
         <v>13.38</v>
@@ -4137,7 +4111,7 @@
         <v>2020</v>
       </c>
       <c r="C185" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D185" s="11">
         <v>133.69999999999999</v>
@@ -4151,7 +4125,7 @@
         <v>2020</v>
       </c>
       <c r="C186" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D186" s="13">
         <v>47.55</v>
@@ -4165,7 +4139,7 @@
         <v>2020</v>
       </c>
       <c r="C187" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D187" s="11">
         <v>0</v>
@@ -4179,7 +4153,7 @@
         <v>2020</v>
       </c>
       <c r="C188" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D188" s="13">
         <v>12.83</v>
@@ -4187,13 +4161,13 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A189" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B189" s="10">
         <v>2020</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D189" s="11">
         <v>6.03</v>
@@ -4207,7 +4181,7 @@
         <v>2020</v>
       </c>
       <c r="C190" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D190" s="13">
         <v>24.94</v>
@@ -4221,7 +4195,7 @@
         <v>2020</v>
       </c>
       <c r="C191" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D191" s="11">
         <v>18.760000000000002</v>
@@ -4229,13 +4203,13 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A192" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B192" s="12">
         <v>2021</v>
       </c>
       <c r="C192" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D192" s="13">
         <v>19.059999999999999</v>
@@ -4249,7 +4223,7 @@
         <v>2021</v>
       </c>
       <c r="C193" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D193" s="11">
         <v>14.02</v>
@@ -4263,7 +4237,7 @@
         <v>2021</v>
       </c>
       <c r="C194" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D194" s="13">
         <v>144.01</v>
@@ -4277,7 +4251,7 @@
         <v>2021</v>
       </c>
       <c r="C195" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D195" s="11">
         <v>45.39</v>
@@ -4291,7 +4265,7 @@
         <v>2021</v>
       </c>
       <c r="C196" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D196" s="13">
         <v>0</v>
@@ -4305,7 +4279,7 @@
         <v>2021</v>
       </c>
       <c r="C197" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D197" s="11">
         <v>11.13</v>
@@ -4313,13 +4287,13 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A198" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B198" s="12">
         <v>2021</v>
       </c>
       <c r="C198" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D198" s="13">
         <v>5.91</v>
@@ -4333,7 +4307,7 @@
         <v>2021</v>
       </c>
       <c r="C199" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D199" s="11">
         <v>25.04</v>
@@ -4347,7 +4321,7 @@
         <v>2021</v>
       </c>
       <c r="C200" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D200" s="13">
         <v>20.93</v>
@@ -4355,13 +4329,13 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A201" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B201" s="10">
         <v>2022</v>
       </c>
       <c r="C201" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D201" s="11">
         <v>17.61</v>
@@ -4375,7 +4349,7 @@
         <v>2022</v>
       </c>
       <c r="C202" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D202" s="13">
         <v>22.61</v>
@@ -4389,7 +4363,7 @@
         <v>2022</v>
       </c>
       <c r="C203" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D203" s="11">
         <v>141.47</v>
@@ -4403,7 +4377,7 @@
         <v>2022</v>
       </c>
       <c r="C204" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D204" s="13">
         <v>28.4</v>
@@ -4417,7 +4391,7 @@
         <v>2022</v>
       </c>
       <c r="C205" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D205" s="11">
         <v>0</v>
@@ -4431,7 +4405,7 @@
         <v>2022</v>
       </c>
       <c r="C206" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D206" s="13">
         <v>15.63</v>
@@ -4439,13 +4413,13 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A207" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B207" s="10">
         <v>2022</v>
       </c>
       <c r="C207" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D207" s="11">
         <v>5.84</v>
@@ -4459,7 +4433,7 @@
         <v>2022</v>
       </c>
       <c r="C208" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D208" s="13">
         <v>28.12</v>
@@ -4473,7 +4447,7 @@
         <v>2022</v>
       </c>
       <c r="C209" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D209" s="11">
         <v>20.28</v>
@@ -4481,13 +4455,13 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A210" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B210" s="12">
         <v>2023</v>
       </c>
       <c r="C210" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D210" s="13">
         <v>16.61</v>
@@ -4501,7 +4475,7 @@
         <v>2023</v>
       </c>
       <c r="C211" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D211" s="11">
         <v>13.9</v>
@@ -4515,7 +4489,7 @@
         <v>2023</v>
       </c>
       <c r="C212" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D212" s="13">
         <v>118.34</v>
@@ -4529,7 +4503,7 @@
         <v>2023</v>
       </c>
       <c r="C213" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D213" s="11">
         <v>37.94</v>
@@ -4543,7 +4517,7 @@
         <v>2023</v>
       </c>
       <c r="C214" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D214" s="13">
         <v>0</v>
@@ -4557,7 +4531,7 @@
         <v>2023</v>
       </c>
       <c r="C215" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D215" s="11">
         <v>15.54</v>
@@ -4565,13 +4539,13 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A216" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B216" s="12">
         <v>2023</v>
       </c>
       <c r="C216" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D216" s="13">
         <v>5.73</v>
@@ -4585,7 +4559,7 @@
         <v>2023</v>
       </c>
       <c r="C217" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D217" s="11">
         <v>31.01</v>
@@ -4599,7 +4573,7 @@
         <v>2023</v>
       </c>
       <c r="C218" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D218" s="13">
         <v>23.51</v>
@@ -4607,13 +4581,13 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A219" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B219" s="10">
         <v>2000</v>
       </c>
       <c r="C219" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D219" s="11">
         <v>0.4</v>
@@ -4627,7 +4601,7 @@
         <v>2000</v>
       </c>
       <c r="C220" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D220" s="13">
         <v>8.67</v>
@@ -4641,7 +4615,7 @@
         <v>2000</v>
       </c>
       <c r="C221" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D221" s="11">
         <v>53.35</v>
@@ -4655,7 +4629,7 @@
         <v>2000</v>
       </c>
       <c r="C222" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D222" s="13">
         <v>16.39</v>
@@ -4669,7 +4643,7 @@
         <v>2000</v>
       </c>
       <c r="C223" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D223" s="11"/>
     </row>
@@ -4681,7 +4655,7 @@
         <v>2000</v>
       </c>
       <c r="C224" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D224" s="13">
         <v>1.26</v>
@@ -4689,13 +4663,13 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A225" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B225" s="10">
         <v>2000</v>
       </c>
       <c r="C225" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D225" s="11">
         <v>0.73</v>
@@ -4709,7 +4683,7 @@
         <v>2000</v>
       </c>
       <c r="C226" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D226" s="13">
         <v>0.02</v>
@@ -4723,7 +4697,7 @@
         <v>2000</v>
       </c>
       <c r="C227" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D227" s="11">
         <v>0.36</v>
@@ -4731,13 +4705,13 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A228" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B228" s="12">
         <v>2001</v>
       </c>
       <c r="C228" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D228" s="13">
         <v>0.42</v>
@@ -4751,7 +4725,7 @@
         <v>2001</v>
       </c>
       <c r="C229" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D229" s="11">
         <v>8.6</v>
@@ -4765,7 +4739,7 @@
         <v>2001</v>
       </c>
       <c r="C230" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D230" s="13">
         <v>53.57</v>
@@ -4779,7 +4753,7 @@
         <v>2001</v>
       </c>
       <c r="C231" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D231" s="11">
         <v>16.46</v>
@@ -4793,7 +4767,7 @@
         <v>2001</v>
       </c>
       <c r="C232" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D232" s="13"/>
     </row>
@@ -4805,7 +4779,7 @@
         <v>2001</v>
       </c>
       <c r="C233" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D233" s="11">
         <v>1.36</v>
@@ -4813,13 +4787,13 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A234" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B234" s="12">
         <v>2001</v>
       </c>
       <c r="C234" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D234" s="13">
         <v>0.73</v>
@@ -4833,7 +4807,7 @@
         <v>2001</v>
       </c>
       <c r="C235" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D235" s="11">
         <v>0.02</v>
@@ -4847,7 +4821,7 @@
         <v>2001</v>
       </c>
       <c r="C236" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D236" s="13">
         <v>0.66</v>
@@ -4855,13 +4829,13 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A237" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B237" s="10">
         <v>2002</v>
       </c>
       <c r="C237" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D237" s="11">
         <v>0.51</v>
@@ -4875,7 +4849,7 @@
         <v>2002</v>
       </c>
       <c r="C238" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D238" s="13">
         <v>8.6</v>
@@ -4889,7 +4863,7 @@
         <v>2002</v>
       </c>
       <c r="C239" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D239" s="11">
         <v>53.54</v>
@@ -4903,7 +4877,7 @@
         <v>2002</v>
       </c>
       <c r="C240" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D240" s="13">
         <v>16.559999999999999</v>
@@ -4917,7 +4891,7 @@
         <v>2002</v>
       </c>
       <c r="C241" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D241" s="11"/>
     </row>
@@ -4929,7 +4903,7 @@
         <v>2002</v>
       </c>
       <c r="C242" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D242" s="13">
         <v>1.36</v>
@@ -4937,13 +4911,13 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A243" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B243" s="10">
         <v>2002</v>
       </c>
       <c r="C243" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D243" s="11">
         <v>0.86</v>
@@ -4957,7 +4931,7 @@
         <v>2002</v>
       </c>
       <c r="C244" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D244" s="13">
         <v>0.02</v>
@@ -4971,7 +4945,7 @@
         <v>2002</v>
       </c>
       <c r="C245" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D245" s="11">
         <v>0.78</v>
@@ -4979,13 +4953,13 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A246" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B246" s="12">
         <v>2003</v>
       </c>
       <c r="C246" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D246" s="13">
         <v>0.64</v>
@@ -4999,7 +4973,7 @@
         <v>2003</v>
       </c>
       <c r="C247" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D247" s="11">
         <v>8.6</v>
@@ -5013,7 +4987,7 @@
         <v>2003</v>
       </c>
       <c r="C248" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D248" s="13">
         <v>54.78</v>
@@ -5027,7 +5001,7 @@
         <v>2003</v>
       </c>
       <c r="C249" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D249" s="11">
         <v>16.7</v>
@@ -5041,7 +5015,7 @@
         <v>2003</v>
       </c>
       <c r="C250" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D250" s="13"/>
     </row>
@@ -5053,7 +5027,7 @@
         <v>2003</v>
       </c>
       <c r="C251" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D251" s="11">
         <v>1.36</v>
@@ -5061,13 +5035,13 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A252" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B252" s="12">
         <v>2003</v>
       </c>
       <c r="C252" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D252" s="13">
         <v>0.93</v>
@@ -5081,7 +5055,7 @@
         <v>2003</v>
       </c>
       <c r="C253" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D253" s="11">
         <v>0.03</v>
@@ -5095,7 +5069,7 @@
         <v>2003</v>
       </c>
       <c r="C254" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D254" s="13">
         <v>0.87</v>
@@ -5103,13 +5077,13 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A255" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B255" s="10">
         <v>2004</v>
       </c>
       <c r="C255" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D255" s="11">
         <v>0.65</v>
@@ -5123,7 +5097,7 @@
         <v>2004</v>
       </c>
       <c r="C256" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D256" s="13">
         <v>8.35</v>
@@ -5137,7 +5111,7 @@
         <v>2004</v>
       </c>
       <c r="C257" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D257" s="11">
         <v>57.62</v>
@@ -5151,7 +5125,7 @@
         <v>2004</v>
       </c>
       <c r="C258" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D258" s="13">
         <v>16.79</v>
@@ -5165,7 +5139,7 @@
         <v>2004</v>
       </c>
       <c r="C259" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D259" s="11"/>
     </row>
@@ -5177,7 +5151,7 @@
         <v>2004</v>
       </c>
       <c r="C260" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D260" s="13">
         <v>1.36</v>
@@ -5185,13 +5159,13 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A261" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B261" s="10">
         <v>2004</v>
       </c>
       <c r="C261" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D261" s="11">
         <v>0.87</v>
@@ -5205,7 +5179,7 @@
         <v>2004</v>
       </c>
       <c r="C262" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D262" s="13">
         <v>0.03</v>
@@ -5219,7 +5193,7 @@
         <v>2004</v>
       </c>
       <c r="C263" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D263" s="11">
         <v>1.1299999999999999</v>
@@ -5227,13 +5201,13 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A264" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B264" s="12">
         <v>2005</v>
       </c>
       <c r="C264" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D264" s="13">
         <v>0.64</v>
@@ -5247,7 +5221,7 @@
         <v>2005</v>
       </c>
       <c r="C265" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D265" s="11">
         <v>8.6999999999999993</v>
@@ -5261,7 +5235,7 @@
         <v>2005</v>
       </c>
       <c r="C266" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D266" s="13">
         <v>60.79</v>
@@ -5275,7 +5249,7 @@
         <v>2005</v>
       </c>
       <c r="C267" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D267" s="11">
         <v>17.04</v>
@@ -5289,7 +5263,7 @@
         <v>2005</v>
       </c>
       <c r="C268" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D268" s="13"/>
     </row>
@@ -5301,7 +5275,7 @@
         <v>2005</v>
       </c>
       <c r="C269" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D269" s="11">
         <v>1.44</v>
@@ -5309,13 +5283,13 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A270" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B270" s="12">
         <v>2005</v>
       </c>
       <c r="C270" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D270" s="13">
         <v>0.9</v>
@@ -5329,7 +5303,7 @@
         <v>2005</v>
       </c>
       <c r="C271" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D271" s="11">
         <v>0.03</v>
@@ -5343,7 +5317,7 @@
         <v>2005</v>
       </c>
       <c r="C272" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D272" s="13">
         <v>1.63</v>
@@ -5351,13 +5325,13 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A273" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B273" s="10">
         <v>2006</v>
       </c>
       <c r="C273" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D273" s="11">
         <v>0.65</v>
@@ -5371,7 +5345,7 @@
         <v>2006</v>
       </c>
       <c r="C274" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D274" s="13">
         <v>8.6999999999999993</v>
@@ -5385,7 +5359,7 @@
         <v>2006</v>
       </c>
       <c r="C275" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D275" s="11">
         <v>64.31</v>
@@ -5399,7 +5373,7 @@
         <v>2006</v>
       </c>
       <c r="C276" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D276" s="13">
         <v>17.11</v>
@@ -5413,7 +5387,7 @@
         <v>2006</v>
       </c>
       <c r="C277" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D277" s="11"/>
     </row>
@@ -5425,7 +5399,7 @@
         <v>2006</v>
       </c>
       <c r="C278" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D278" s="13">
         <v>1.44</v>
@@ -5433,13 +5407,13 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A279" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B279" s="10">
         <v>2006</v>
       </c>
       <c r="C279" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D279" s="11">
         <v>0.92</v>
@@ -5453,7 +5427,7 @@
         <v>2006</v>
       </c>
       <c r="C280" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D280" s="13">
         <v>0.05</v>
@@ -5467,7 +5441,7 @@
         <v>2006</v>
       </c>
       <c r="C281" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D281" s="11">
         <v>1.9</v>
@@ -5475,13 +5449,13 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A282" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B282" s="12">
         <v>2007</v>
       </c>
       <c r="C282" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D282" s="13">
         <v>0.69</v>
@@ -5495,7 +5469,7 @@
         <v>2007</v>
       </c>
       <c r="C283" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D283" s="11">
         <v>8.6999999999999993</v>
@@ -5509,7 +5483,7 @@
         <v>2007</v>
       </c>
       <c r="C284" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D284" s="13">
         <v>67.459999999999994</v>
@@ -5523,7 +5497,7 @@
         <v>2007</v>
       </c>
       <c r="C285" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D285" s="11">
         <v>17.16</v>
@@ -5537,7 +5511,7 @@
         <v>2007</v>
       </c>
       <c r="C286" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D286" s="13"/>
     </row>
@@ -5549,7 +5523,7 @@
         <v>2007</v>
       </c>
       <c r="C287" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D287" s="11">
         <v>1.44</v>
@@ -5557,13 +5531,13 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A288" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B288" s="12">
         <v>2007</v>
       </c>
       <c r="C288" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D288" s="13">
         <v>0.94</v>
@@ -5577,7 +5551,7 @@
         <v>2007</v>
       </c>
       <c r="C289" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D289" s="11">
         <v>0.11</v>
@@ -5591,7 +5565,7 @@
         <v>2007</v>
       </c>
       <c r="C290" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D290" s="13">
         <v>2.7</v>
@@ -5599,13 +5573,13 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A291" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B291" s="10">
         <v>2008</v>
       </c>
       <c r="C291" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D291" s="11">
         <v>0.88</v>
@@ -5619,7 +5593,7 @@
         <v>2008</v>
       </c>
       <c r="C292" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D292" s="13">
         <v>8.06</v>
@@ -5633,7 +5607,7 @@
         <v>2008</v>
       </c>
       <c r="C293" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D293" s="11">
         <v>70.95</v>
@@ -5647,7 +5621,7 @@
         <v>2008</v>
       </c>
       <c r="C294" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D294" s="13">
         <v>17.32</v>
@@ -5661,7 +5635,7 @@
         <v>2008</v>
       </c>
       <c r="C295" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D295" s="11"/>
     </row>
@@ -5673,7 +5647,7 @@
         <v>2008</v>
       </c>
       <c r="C296" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D296" s="13">
         <v>1.44</v>
@@ -5681,13 +5655,13 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A297" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B297" s="10">
         <v>2008</v>
       </c>
       <c r="C297" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D297" s="11">
         <v>0.95</v>
@@ -5701,7 +5675,7 @@
         <v>2008</v>
       </c>
       <c r="C298" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D298" s="13">
         <v>0.48</v>
@@ -5715,7 +5689,7 @@
         <v>2008</v>
       </c>
       <c r="C299" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D299" s="11">
         <v>3.53</v>
@@ -5723,13 +5697,13 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A300" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B300" s="12">
         <v>2009</v>
       </c>
       <c r="C300" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D300" s="13">
         <v>1.17</v>
@@ -5743,7 +5717,7 @@
         <v>2009</v>
       </c>
       <c r="C301" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D301" s="11">
         <v>8.7200000000000006</v>
@@ -5757,7 +5731,7 @@
         <v>2009</v>
       </c>
       <c r="C302" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D302" s="13">
         <v>71.14</v>
@@ -5771,7 +5745,7 @@
         <v>2009</v>
       </c>
       <c r="C303" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D303" s="11">
         <v>17.41</v>
@@ -5785,7 +5759,7 @@
         <v>2009</v>
       </c>
       <c r="C304" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D304" s="13"/>
     </row>
@@ -5797,7 +5771,7 @@
         <v>2009</v>
       </c>
       <c r="C305" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D305" s="11">
         <v>1.44</v>
@@ -5805,13 +5779,13 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A306" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B306" s="12">
         <v>2009</v>
       </c>
       <c r="C306" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D306" s="13">
         <v>1.05</v>
@@ -5825,7 +5799,7 @@
         <v>2009</v>
       </c>
       <c r="C307" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D307" s="11">
         <v>1.26</v>
@@ -5839,7 +5813,7 @@
         <v>2009</v>
       </c>
       <c r="C308" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D308" s="13">
         <v>4.88</v>
@@ -5847,13 +5821,13 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A309" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B309" s="10">
         <v>2010</v>
       </c>
       <c r="C309" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D309" s="11">
         <v>1.47</v>
@@ -5867,7 +5841,7 @@
         <v>2010</v>
       </c>
       <c r="C310" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D310" s="13">
         <v>9.9700000000000006</v>
@@ -5881,7 +5855,7 @@
         <v>2010</v>
       </c>
       <c r="C311" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D311" s="11">
         <v>72.459999999999994</v>
@@ -5895,7 +5869,7 @@
         <v>2010</v>
       </c>
       <c r="C312" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D312" s="13">
         <v>17.559999999999999</v>
@@ -5909,7 +5883,7 @@
         <v>2010</v>
       </c>
       <c r="C313" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D313" s="11"/>
     </row>
@@ -5921,7 +5895,7 @@
         <v>2010</v>
       </c>
       <c r="C314" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D314" s="13">
         <v>1.44</v>
@@ -5929,13 +5903,13 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A315" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B315" s="10">
         <v>2010</v>
       </c>
       <c r="C315" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D315" s="11">
         <v>1.0900000000000001</v>
@@ -5949,7 +5923,7 @@
         <v>2010</v>
       </c>
       <c r="C316" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D316" s="13">
         <v>3.6</v>
@@ -5963,7 +5937,7 @@
         <v>2010</v>
       </c>
       <c r="C317" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D317" s="11">
         <v>5.79</v>
@@ -5971,13 +5945,13 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A318" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B318" s="12">
         <v>2011</v>
       </c>
       <c r="C318" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D318" s="13">
         <v>1.89</v>
@@ -5991,7 +5965,7 @@
         <v>2011</v>
       </c>
       <c r="C319" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D319" s="11">
         <v>9.9700000000000006</v>
@@ -6005,7 +5979,7 @@
         <v>2011</v>
       </c>
       <c r="C320" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D320" s="13">
         <v>73.33</v>
@@ -6019,7 +5993,7 @@
         <v>2011</v>
       </c>
       <c r="C321" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D321" s="11">
         <v>17.78</v>
@@ -6033,7 +6007,7 @@
         <v>2011</v>
       </c>
       <c r="C322" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D322" s="13"/>
     </row>
@@ -6045,7 +6019,7 @@
         <v>2011</v>
       </c>
       <c r="C323" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D323" s="11">
         <v>1.44</v>
@@ -6053,13 +6027,13 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A324" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B324" s="12">
         <v>2011</v>
       </c>
       <c r="C324" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D324" s="13">
         <v>1.1000000000000001</v>
@@ -6073,7 +6047,7 @@
         <v>2011</v>
       </c>
       <c r="C325" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D325" s="11">
         <v>13.14</v>
@@ -6087,7 +6061,7 @@
         <v>2011</v>
       </c>
       <c r="C326" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D326" s="13">
         <v>6.92</v>
@@ -6095,13 +6069,13 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A327" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B327" s="10">
         <v>2012</v>
       </c>
       <c r="C327" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D327" s="11">
         <v>2.8</v>
@@ -6115,7 +6089,7 @@
         <v>2012</v>
       </c>
       <c r="C328" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D328" s="13">
         <v>9.9700000000000006</v>
@@ -6129,7 +6103,7 @@
         <v>2012</v>
       </c>
       <c r="C329" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D329" s="11">
         <v>73.22</v>
@@ -6143,7 +6117,7 @@
         <v>2012</v>
       </c>
       <c r="C330" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D330" s="13">
         <v>17.920000000000002</v>
@@ -6157,7 +6131,7 @@
         <v>2012</v>
       </c>
       <c r="C331" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D331" s="11"/>
     </row>
@@ -6169,7 +6143,7 @@
         <v>2012</v>
       </c>
       <c r="C332" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D332" s="13">
         <v>1.44</v>
@@ -6177,13 +6151,13 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A333" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B333" s="10">
         <v>2012</v>
       </c>
       <c r="C333" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D333" s="11">
         <v>1.1000000000000001</v>
@@ -6197,7 +6171,7 @@
         <v>2012</v>
       </c>
       <c r="C334" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D334" s="13">
         <v>16.79</v>
@@ -6211,7 +6185,7 @@
         <v>2012</v>
       </c>
       <c r="C335" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D335" s="11">
         <v>8.1</v>
@@ -6219,13 +6193,13 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A336" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B336" s="12">
         <v>2013</v>
       </c>
       <c r="C336" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D336" s="13">
         <v>2.93</v>
@@ -6239,7 +6213,7 @@
         <v>2013</v>
       </c>
       <c r="C337" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D337" s="11">
         <v>9.9700000000000006</v>
@@ -6253,7 +6227,7 @@
         <v>2013</v>
       </c>
       <c r="C338" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D338" s="13">
         <v>70.95</v>
@@ -6267,7 +6241,7 @@
         <v>2013</v>
       </c>
       <c r="C339" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D339" s="11">
         <v>18.05</v>
@@ -6281,7 +6255,7 @@
         <v>2013</v>
       </c>
       <c r="C340" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D340" s="13"/>
     </row>
@@ -6293,7 +6267,7 @@
         <v>2013</v>
       </c>
       <c r="C341" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D341" s="11">
         <v>1.44</v>
@@ -6301,13 +6275,13 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A342" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B342" s="12">
         <v>2013</v>
       </c>
       <c r="C342" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D342" s="13">
         <v>1.1499999999999999</v>
@@ -6321,7 +6295,7 @@
         <v>2013</v>
       </c>
       <c r="C343" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D343" s="11">
         <v>18.190000000000001</v>
@@ -6335,7 +6309,7 @@
         <v>2013</v>
       </c>
       <c r="C344" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D344" s="13">
         <v>8.5399999999999991</v>
@@ -6343,13 +6317,13 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A345" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B345" s="10">
         <v>2014</v>
       </c>
       <c r="C345" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D345" s="11">
         <v>2.95</v>
@@ -6363,7 +6337,7 @@
         <v>2014</v>
       </c>
       <c r="C346" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D346" s="13">
         <v>9.83</v>
@@ -6377,7 +6351,7 @@
         <v>2014</v>
       </c>
       <c r="C347" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D347" s="11">
         <v>67.48</v>
@@ -6391,7 +6365,7 @@
         <v>2014</v>
       </c>
       <c r="C348" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D348" s="13">
         <v>18.12</v>
@@ -6405,7 +6379,7 @@
         <v>2014</v>
       </c>
       <c r="C349" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D349" s="11"/>
     </row>
@@ -6417,7 +6391,7 @@
         <v>2014</v>
       </c>
       <c r="C350" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D350" s="13">
         <v>1.44</v>
@@ -6425,13 +6399,13 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A351" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B351" s="10">
         <v>2014</v>
       </c>
       <c r="C351" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D351" s="11">
         <v>1.18</v>
@@ -6445,7 +6419,7 @@
         <v>2014</v>
       </c>
       <c r="C352" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D352" s="13">
         <v>18.600000000000001</v>
@@ -6459,7 +6433,7 @@
         <v>2014</v>
       </c>
       <c r="C353" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D353" s="11">
         <v>8.68</v>
@@ -6467,13 +6441,13 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A354" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B354" s="12">
         <v>2015</v>
       </c>
       <c r="C354" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D354" s="13">
         <v>2.95</v>
@@ -6487,7 +6461,7 @@
         <v>2015</v>
       </c>
       <c r="C355" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D355" s="11">
         <v>9.69</v>
@@ -6501,7 +6475,7 @@
         <v>2015</v>
       </c>
       <c r="C356" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D356" s="13">
         <v>61.81</v>
@@ -6515,7 +6489,7 @@
         <v>2015</v>
       </c>
       <c r="C357" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D357" s="11">
         <v>18.239999999999998</v>
@@ -6529,7 +6503,7 @@
         <v>2015</v>
       </c>
       <c r="C358" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D358" s="13"/>
     </row>
@@ -6541,7 +6515,7 @@
         <v>2015</v>
       </c>
       <c r="C359" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D359" s="11">
         <v>1.44</v>
@@ -6549,13 +6523,13 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A360" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B360" s="12">
         <v>2015</v>
       </c>
       <c r="C360" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D360" s="13">
         <v>1.18</v>
@@ -6569,7 +6543,7 @@
         <v>2015</v>
       </c>
       <c r="C361" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D361" s="11">
         <v>18.91</v>
@@ -6583,7 +6557,7 @@
         <v>2015</v>
       </c>
       <c r="C362" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D362" s="13">
         <v>9.14</v>
@@ -6591,13 +6565,13 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A363" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B363" s="10">
         <v>2016</v>
       </c>
       <c r="C363" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D363" s="11">
         <v>3.03</v>
@@ -6611,7 +6585,7 @@
         <v>2016</v>
       </c>
       <c r="C364" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D364" s="13">
         <v>8.7100000000000009</v>
@@ -6625,7 +6599,7 @@
         <v>2016</v>
       </c>
       <c r="C365" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D365" s="11">
         <v>58.22</v>
@@ -6639,7 +6613,7 @@
         <v>2016</v>
       </c>
       <c r="C366" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D366" s="13">
         <v>18.32</v>
@@ -6653,7 +6627,7 @@
         <v>2016</v>
       </c>
       <c r="C367" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D367" s="11"/>
     </row>
@@ -6665,7 +6639,7 @@
         <v>2016</v>
       </c>
       <c r="C368" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D368" s="13">
         <v>1.44</v>
@@ -6673,13 +6647,13 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A369" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B369" s="10">
         <v>2016</v>
       </c>
       <c r="C369" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D369" s="11">
         <v>1.18</v>
@@ -6693,7 +6667,7 @@
         <v>2016</v>
       </c>
       <c r="C370" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D370" s="13">
         <v>19.29</v>
@@ -6707,7 +6681,7 @@
         <v>2016</v>
       </c>
       <c r="C371" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D371" s="11">
         <v>9.3800000000000008</v>
@@ -6715,13 +6689,13 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A372" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B372" s="12">
         <v>2017</v>
       </c>
       <c r="C372" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D372" s="13">
         <v>3.04</v>
@@ -6735,7 +6709,7 @@
         <v>2017</v>
       </c>
       <c r="C373" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D373" s="11">
         <v>8.5500000000000007</v>
@@ -6749,7 +6723,7 @@
         <v>2017</v>
       </c>
       <c r="C374" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D374" s="13">
         <v>57.4</v>
@@ -6763,7 +6737,7 @@
         <v>2017</v>
       </c>
       <c r="C375" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D375" s="11">
         <v>18.489999999999998</v>
@@ -6777,7 +6751,7 @@
         <v>2017</v>
       </c>
       <c r="C376" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D376" s="13"/>
     </row>
@@ -6789,7 +6763,7 @@
         <v>2017</v>
       </c>
       <c r="C377" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D377" s="11">
         <v>1.44</v>
@@ -6797,13 +6771,13 @@
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A378" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B378" s="12">
         <v>2017</v>
       </c>
       <c r="C378" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D378" s="13">
         <v>1.18</v>
@@ -6817,7 +6791,7 @@
         <v>2017</v>
       </c>
       <c r="C379" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D379" s="11">
         <v>19.690000000000001</v>
@@ -6831,7 +6805,7 @@
         <v>2017</v>
       </c>
       <c r="C380" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D380" s="13">
         <v>9.74</v>
@@ -6839,13 +6813,13 @@
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A381" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B381" s="10">
         <v>2018</v>
       </c>
       <c r="C381" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D381" s="11">
         <v>3.08</v>
@@ -6859,7 +6833,7 @@
         <v>2018</v>
       </c>
       <c r="C382" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D382" s="13">
         <v>8.5500000000000007</v>
@@ -6873,7 +6847,7 @@
         <v>2018</v>
       </c>
       <c r="C383" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D383" s="11">
         <v>57.35</v>
@@ -6887,7 +6861,7 @@
         <v>2018</v>
       </c>
       <c r="C384" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D384" s="13">
         <v>18.559999999999999</v>
@@ -6901,7 +6875,7 @@
         <v>2018</v>
       </c>
       <c r="C385" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D385" s="11"/>
     </row>
@@ -6913,7 +6887,7 @@
         <v>2018</v>
       </c>
       <c r="C386" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D386" s="13">
         <v>1.44</v>
@@ -6921,13 +6895,13 @@
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A387" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B387" s="10">
         <v>2018</v>
       </c>
       <c r="C387" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D387" s="11">
         <v>1.18</v>
@@ -6941,7 +6915,7 @@
         <v>2018</v>
       </c>
       <c r="C388" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D388" s="13">
         <v>20.11</v>
@@ -6955,7 +6929,7 @@
         <v>2018</v>
       </c>
       <c r="C389" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D389" s="11">
         <v>10.23</v>
@@ -6963,13 +6937,13 @@
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A390" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B390" s="12">
         <v>2019</v>
       </c>
       <c r="C390" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D390" s="13">
         <v>3.06</v>
@@ -6983,7 +6957,7 @@
         <v>2019</v>
       </c>
       <c r="C391" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D391" s="11">
         <v>8.5500000000000007</v>
@@ -6997,7 +6971,7 @@
         <v>2019</v>
       </c>
       <c r="C392" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D392" s="13">
         <v>57.41</v>
@@ -7011,7 +6985,7 @@
         <v>2019</v>
       </c>
       <c r="C393" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D393" s="11">
         <v>18.600000000000001</v>
@@ -7025,7 +6999,7 @@
         <v>2019</v>
       </c>
       <c r="C394" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D394" s="13"/>
     </row>
@@ -7037,7 +7011,7 @@
         <v>2019</v>
       </c>
       <c r="C395" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D395" s="11">
         <v>1.44</v>
@@ -7045,13 +7019,13 @@
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A396" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B396" s="12">
         <v>2019</v>
       </c>
       <c r="C396" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D396" s="13">
         <v>1.1599999999999999</v>
@@ -7065,7 +7039,7 @@
         <v>2019</v>
       </c>
       <c r="C397" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D397" s="11">
         <v>20.87</v>
@@ -7079,7 +7053,7 @@
         <v>2019</v>
       </c>
       <c r="C398" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D398" s="13">
         <v>10.68</v>
@@ -7087,13 +7061,13 @@
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A399" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B399" s="10">
         <v>2020</v>
       </c>
       <c r="C399" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D399" s="11">
         <v>3.04</v>
@@ -7107,7 +7081,7 @@
         <v>2020</v>
       </c>
       <c r="C400" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D400" s="13">
         <v>7.74</v>
@@ -7121,7 +7095,7 @@
         <v>2020</v>
       </c>
       <c r="C401" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D401" s="11">
         <v>56.24</v>
@@ -7135,7 +7109,7 @@
         <v>2020</v>
       </c>
       <c r="C402" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D402" s="13">
         <v>18.75</v>
@@ -7149,7 +7123,7 @@
         <v>2020</v>
       </c>
       <c r="C403" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D403" s="11"/>
     </row>
@@ -7161,7 +7135,7 @@
         <v>2020</v>
       </c>
       <c r="C404" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D404" s="13">
         <v>1.44</v>
@@ -7169,13 +7143,13 @@
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A405" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B405" s="10">
         <v>2020</v>
       </c>
       <c r="C405" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D405" s="11">
         <v>1.17</v>
@@ -7189,7 +7163,7 @@
         <v>2020</v>
       </c>
       <c r="C406" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D406" s="13">
         <v>21.66</v>
@@ -7203,7 +7177,7 @@
         <v>2020</v>
       </c>
       <c r="C407" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D407" s="11">
         <v>10.87</v>
@@ -7211,13 +7185,13 @@
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A408" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B408" s="12">
         <v>2021</v>
       </c>
       <c r="C408" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D408" s="13">
         <v>3</v>
@@ -7231,7 +7205,7 @@
         <v>2021</v>
       </c>
       <c r="C409" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D409" s="11">
         <v>6.81</v>
@@ -7245,7 +7219,7 @@
         <v>2021</v>
       </c>
       <c r="C410" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D410" s="13">
         <v>55.63</v>
@@ -7259,7 +7233,7 @@
         <v>2021</v>
       </c>
       <c r="C411" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D411" s="11">
         <v>18.809999999999999</v>
@@ -7273,7 +7247,7 @@
         <v>2021</v>
       </c>
       <c r="C412" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D412" s="13"/>
     </row>
@@ -7285,7 +7259,7 @@
         <v>2021</v>
       </c>
       <c r="C413" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D413" s="11">
         <v>1.44</v>
@@ -7293,13 +7267,13 @@
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A414" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B414" s="12">
         <v>2021</v>
       </c>
       <c r="C414" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D414" s="13">
         <v>1.19</v>
@@ -7313,7 +7287,7 @@
         <v>2021</v>
       </c>
       <c r="C415" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D415" s="11">
         <v>22.6</v>
@@ -7327,7 +7301,7 @@
         <v>2021</v>
       </c>
       <c r="C416" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D416" s="13">
         <v>11.25</v>
@@ -7335,13 +7309,13 @@
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A417" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B417" s="10">
         <v>2022</v>
       </c>
       <c r="C417" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D417" s="11">
         <v>3</v>
@@ -7355,7 +7329,7 @@
         <v>2022</v>
       </c>
       <c r="C418" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D418" s="13">
         <v>6.81</v>
@@ -7369,7 +7343,7 @@
         <v>2022</v>
       </c>
       <c r="C419" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D419" s="11">
         <v>56.32</v>
@@ -7383,7 +7357,7 @@
         <v>2022</v>
       </c>
       <c r="C420" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D420" s="13">
         <v>18.93</v>
@@ -7397,7 +7371,7 @@
         <v>2022</v>
       </c>
       <c r="C421" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D421" s="11"/>
     </row>
@@ -7409,7 +7383,7 @@
         <v>2022</v>
       </c>
       <c r="C422" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D422" s="13">
         <v>1.44</v>
@@ -7417,13 +7391,13 @@
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A423" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B423" s="10">
         <v>2022</v>
       </c>
       <c r="C423" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D423" s="11">
         <v>1.17</v>
@@ -7437,7 +7411,7 @@
         <v>2022</v>
       </c>
       <c r="C424" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D424" s="13">
         <v>24.56</v>
@@ -7451,7 +7425,7 @@
         <v>2022</v>
       </c>
       <c r="C425" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D425" s="11">
         <v>11.82</v>
@@ -7459,13 +7433,13 @@
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A426" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B426" s="12">
         <v>2023</v>
       </c>
       <c r="C426" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D426" s="13">
         <v>3.04</v>
@@ -7479,7 +7453,7 @@
         <v>2023</v>
       </c>
       <c r="C427" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D427" s="11">
         <v>6.17</v>
@@ -7493,7 +7467,7 @@
         <v>2023</v>
       </c>
       <c r="C428" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D428" s="13">
         <v>57.28</v>
@@ -7507,7 +7481,7 @@
         <v>2023</v>
       </c>
       <c r="C429" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D429" s="11">
         <v>18.850000000000001</v>
@@ -7521,7 +7495,7 @@
         <v>2023</v>
       </c>
       <c r="C430" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D430" s="13"/>
     </row>
@@ -7533,7 +7507,7 @@
         <v>2023</v>
       </c>
       <c r="C431" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D431" s="11">
         <v>1.44</v>
@@ -7541,13 +7515,13 @@
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A432" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B432" s="12">
         <v>2023</v>
       </c>
       <c r="C432" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D432" s="13">
         <v>1.17</v>
@@ -7561,7 +7535,7 @@
         <v>2023</v>
       </c>
       <c r="C433" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D433" s="11">
         <v>29.8</v>
@@ -7575,7 +7549,7 @@
         <v>2023</v>
       </c>
       <c r="C434" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D434" s="13">
         <v>12.31</v>
@@ -7583,13 +7557,13 @@
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A435" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B435" s="10">
         <v>2000</v>
       </c>
       <c r="C435" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D435" s="11">
         <v>0.3</v>
@@ -7603,7 +7577,7 @@
         <v>2000</v>
       </c>
       <c r="C436" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D436" s="13">
         <v>24.64</v>
@@ -7617,7 +7591,7 @@
         <v>2000</v>
       </c>
       <c r="C437" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D437" s="11">
         <v>49.08</v>
@@ -7631,7 +7605,7 @@
         <v>2000</v>
       </c>
       <c r="C438" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D438" s="13">
         <v>1.05</v>
@@ -7645,7 +7619,7 @@
         <v>2000</v>
       </c>
       <c r="C439" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D439" s="11">
         <v>0</v>
@@ -7659,7 +7633,7 @@
         <v>2000</v>
       </c>
       <c r="C440" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D440" s="13">
         <v>60.16</v>
@@ -7667,13 +7641,13 @@
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A441" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B441" s="10">
         <v>2000</v>
       </c>
       <c r="C441" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D441" s="11">
         <v>0.18</v>
@@ -7687,7 +7661,7 @@
         <v>2000</v>
       </c>
       <c r="C442" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D442" s="13">
         <v>0</v>
@@ -7701,7 +7675,7 @@
         <v>2000</v>
       </c>
       <c r="C443" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D443" s="11">
         <v>0.01</v>
@@ -7709,13 +7683,13 @@
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A444" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B444" s="12">
         <v>2001</v>
       </c>
       <c r="C444" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D444" s="13">
         <v>0.4</v>
@@ -7729,7 +7703,7 @@
         <v>2001</v>
       </c>
       <c r="C445" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D445" s="11">
         <v>29.74</v>
@@ -7743,7 +7717,7 @@
         <v>2001</v>
       </c>
       <c r="C446" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D446" s="13">
         <v>50.45</v>
@@ -7757,7 +7731,7 @@
         <v>2001</v>
       </c>
       <c r="C447" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D447" s="11">
         <v>1.1100000000000001</v>
@@ -7771,7 +7745,7 @@
         <v>2001</v>
       </c>
       <c r="C448" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D448" s="13">
         <v>0</v>
@@ -7785,7 +7759,7 @@
         <v>2001</v>
       </c>
       <c r="C449" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D449" s="11">
         <v>53.71</v>
@@ -7793,13 +7767,13 @@
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A450" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B450" s="12">
         <v>2001</v>
       </c>
       <c r="C450" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D450" s="13">
         <v>0.17</v>
@@ -7813,7 +7787,7 @@
         <v>2001</v>
       </c>
       <c r="C451" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D451" s="11">
         <v>0</v>
@@ -7827,7 +7801,7 @@
         <v>2001</v>
       </c>
       <c r="C452" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D452" s="13">
         <v>0.01</v>
@@ -7835,13 +7809,13 @@
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A453" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B453" s="10">
         <v>2002</v>
       </c>
       <c r="C453" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D453" s="11">
         <v>0.59</v>
@@ -7855,7 +7829,7 @@
         <v>2002</v>
       </c>
       <c r="C454" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D454" s="13">
         <v>33.22</v>
@@ -7869,7 +7843,7 @@
         <v>2002</v>
       </c>
       <c r="C455" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D455" s="11">
         <v>48.13</v>
@@ -7883,7 +7857,7 @@
         <v>2002</v>
       </c>
       <c r="C456" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D456" s="13">
         <v>0.94</v>
@@ -7897,7 +7871,7 @@
         <v>2002</v>
       </c>
       <c r="C457" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D457" s="11">
         <v>0</v>
@@ -7911,7 +7885,7 @@
         <v>2002</v>
       </c>
       <c r="C458" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D458" s="13">
         <v>62.09</v>
@@ -7919,13 +7893,13 @@
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A459" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B459" s="10">
         <v>2002</v>
       </c>
       <c r="C459" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D459" s="11">
         <v>0.18</v>
@@ -7939,7 +7913,7 @@
         <v>2002</v>
       </c>
       <c r="C460" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D460" s="13">
         <v>0</v>
@@ -7953,7 +7927,7 @@
         <v>2002</v>
       </c>
       <c r="C461" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D461" s="11">
         <v>0.02</v>
@@ -7961,13 +7935,13 @@
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A462" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B462" s="12">
         <v>2003</v>
       </c>
       <c r="C462" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D462" s="13">
         <v>0.73</v>
@@ -7981,7 +7955,7 @@
         <v>2003</v>
       </c>
       <c r="C463" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D463" s="11">
         <v>36.369999999999997</v>
@@ -7995,7 +7969,7 @@
         <v>2003</v>
       </c>
       <c r="C464" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D464" s="13">
         <v>56.79</v>
@@ -8009,7 +7983,7 @@
         <v>2003</v>
       </c>
       <c r="C465" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D465" s="11">
         <v>0.87</v>
@@ -8023,7 +7997,7 @@
         <v>2003</v>
       </c>
       <c r="C466" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D466" s="13">
         <v>0</v>
@@ -8037,7 +8011,7 @@
         <v>2003</v>
       </c>
       <c r="C467" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D467" s="11">
         <v>54.81</v>
@@ -8045,13 +8019,13 @@
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A468" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B468" s="12">
         <v>2003</v>
       </c>
       <c r="C468" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D468" s="13">
         <v>0.2</v>
@@ -8065,7 +8039,7 @@
         <v>2003</v>
       </c>
       <c r="C469" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D469" s="11">
         <v>0</v>
@@ -8079,7 +8053,7 @@
         <v>2003</v>
       </c>
       <c r="C470" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D470" s="13">
         <v>0.02</v>
@@ -8087,13 +8061,13 @@
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A471" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B471" s="10">
         <v>2004</v>
       </c>
       <c r="C471" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D471" s="11">
         <v>0.91</v>
@@ -8107,7 +8081,7 @@
         <v>2004</v>
       </c>
       <c r="C472" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D472" s="13">
         <v>42.65</v>
@@ -8121,7 +8095,7 @@
         <v>2004</v>
       </c>
       <c r="C473" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D473" s="11">
         <v>62.86</v>
@@ -8135,7 +8109,7 @@
         <v>2004</v>
       </c>
       <c r="C474" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D474" s="13">
         <v>1.01</v>
@@ -8149,7 +8123,7 @@
         <v>2004</v>
       </c>
       <c r="C475" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D475" s="11">
         <v>0</v>
@@ -8163,7 +8137,7 @@
         <v>2004</v>
       </c>
       <c r="C476" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D476" s="13">
         <v>42.43</v>
@@ -8171,13 +8145,13 @@
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A477" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B477" s="10">
         <v>2004</v>
       </c>
       <c r="C477" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D477" s="11">
         <v>0.2</v>
@@ -8191,7 +8165,7 @@
         <v>2004</v>
       </c>
       <c r="C478" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D478" s="13">
         <v>0</v>
@@ -8205,7 +8179,7 @@
         <v>2004</v>
       </c>
       <c r="C479" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D479" s="11">
         <v>0.02</v>
@@ -8213,13 +8187,13 @@
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A480" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B480" s="12">
         <v>2005</v>
       </c>
       <c r="C480" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D480" s="13">
         <v>1.01</v>
@@ -8233,7 +8207,7 @@
         <v>2005</v>
       </c>
       <c r="C481" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D481" s="11">
         <v>40.86</v>
@@ -8247,7 +8221,7 @@
         <v>2005</v>
       </c>
       <c r="C482" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D482" s="13">
         <v>72.3</v>
@@ -8261,7 +8235,7 @@
         <v>2005</v>
       </c>
       <c r="C483" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D483" s="11">
         <v>0.86</v>
@@ -8275,7 +8249,7 @@
         <v>2005</v>
       </c>
       <c r="C484" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D484" s="13">
         <v>0</v>
@@ -8289,7 +8263,7 @@
         <v>2005</v>
       </c>
       <c r="C485" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D485" s="11">
         <v>35.049999999999997</v>
@@ -8297,13 +8271,13 @@
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A486" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B486" s="12">
         <v>2005</v>
       </c>
       <c r="C486" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D486" s="13">
         <v>0.2</v>
@@ -8317,7 +8291,7 @@
         <v>2005</v>
       </c>
       <c r="C487" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D487" s="11">
         <v>0</v>
@@ -8331,7 +8305,7 @@
         <v>2005</v>
       </c>
       <c r="C488" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D488" s="13">
         <v>0.03</v>
@@ -8339,13 +8313,13 @@
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A489" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B489" s="10">
         <v>2006</v>
       </c>
       <c r="C489" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D489" s="11">
         <v>1.1000000000000001</v>
@@ -8359,7 +8333,7 @@
         <v>2006</v>
       </c>
       <c r="C490" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D490" s="13">
         <v>41.45</v>
@@ -8373,7 +8347,7 @@
         <v>2006</v>
       </c>
       <c r="C491" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D491" s="11">
         <v>76.569999999999993</v>
@@ -8387,7 +8361,7 @@
         <v>2006</v>
       </c>
       <c r="C492" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D492" s="13">
         <v>0.88</v>
@@ -8401,7 +8375,7 @@
         <v>2006</v>
       </c>
       <c r="C493" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D493" s="11">
         <v>0</v>
@@ -8415,7 +8389,7 @@
         <v>2006</v>
       </c>
       <c r="C494" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D494" s="13">
         <v>34.619999999999997</v>
@@ -8423,13 +8397,13 @@
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A495" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B495" s="10">
         <v>2006</v>
       </c>
       <c r="C495" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D495" s="11">
         <v>0.21</v>
@@ -8443,7 +8417,7 @@
         <v>2006</v>
       </c>
       <c r="C496" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D496" s="13">
         <v>0</v>
@@ -8457,7 +8431,7 @@
         <v>2006</v>
       </c>
       <c r="C497" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D497" s="11">
         <v>0.04</v>
@@ -8465,13 +8439,13 @@
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A498" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B498" s="12">
         <v>2007</v>
       </c>
       <c r="C498" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D498" s="13">
         <v>1.1399999999999999</v>
@@ -8485,7 +8459,7 @@
         <v>2007</v>
       </c>
       <c r="C499" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D499" s="11">
         <v>41.35</v>
@@ -8499,7 +8473,7 @@
         <v>2007</v>
       </c>
       <c r="C500" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D500" s="13">
         <v>83.62</v>
@@ -8513,7 +8487,7 @@
         <v>2007</v>
       </c>
       <c r="C501" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D501" s="11">
         <v>0.78</v>
@@ -8527,7 +8501,7 @@
         <v>2007</v>
       </c>
       <c r="C502" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D502" s="13">
         <v>0</v>
@@ -8541,7 +8515,7 @@
         <v>2007</v>
       </c>
       <c r="C503" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D503" s="11">
         <v>27.39</v>
@@ -8549,13 +8523,13 @@
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A504" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B504" s="12">
         <v>2007</v>
       </c>
       <c r="C504" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D504" s="13">
         <v>0.21</v>
@@ -8569,7 +8543,7 @@
         <v>2007</v>
       </c>
       <c r="C505" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D505" s="11">
         <v>0</v>
@@ -8583,7 +8557,7 @@
         <v>2007</v>
       </c>
       <c r="C506" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D506" s="13">
         <v>0.05</v>
@@ -8591,13 +8565,13 @@
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A507" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B507" s="10">
         <v>2008</v>
       </c>
       <c r="C507" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D507" s="11">
         <v>1.29</v>
@@ -8611,7 +8585,7 @@
         <v>2008</v>
       </c>
       <c r="C508" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D508" s="13">
         <v>40.340000000000003</v>
@@ -8625,7 +8599,7 @@
         <v>2008</v>
       </c>
       <c r="C509" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D509" s="11">
         <v>83.65</v>
@@ -8639,7 +8613,7 @@
         <v>2008</v>
       </c>
       <c r="C510" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D510" s="13">
         <v>0.99</v>
@@ -8653,7 +8627,7 @@
         <v>2008</v>
       </c>
       <c r="C511" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D511" s="11">
         <v>0</v>
@@ -8667,7 +8641,7 @@
         <v>2008</v>
       </c>
       <c r="C512" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D512" s="13">
         <v>24.72</v>
@@ -8675,13 +8649,13 @@
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A513" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B513" s="10">
         <v>2008</v>
       </c>
       <c r="C513" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D513" s="11">
         <v>0.21</v>
@@ -8695,7 +8669,7 @@
         <v>2008</v>
       </c>
       <c r="C514" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D514" s="13">
         <v>0.01</v>
@@ -8709,7 +8683,7 @@
         <v>2008</v>
       </c>
       <c r="C515" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D515" s="11">
         <v>0.06</v>
@@ -8717,13 +8691,13 @@
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A516" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B516" s="12">
         <v>2009</v>
       </c>
       <c r="C516" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D516" s="13">
         <v>1.63</v>
@@ -8737,7 +8711,7 @@
         <v>2009</v>
       </c>
       <c r="C517" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D517" s="11">
         <v>37.119999999999997</v>
@@ -8751,7 +8725,7 @@
         <v>2009</v>
       </c>
       <c r="C518" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D518" s="13">
         <v>71.349999999999994</v>
@@ -8765,7 +8739,7 @@
         <v>2009</v>
       </c>
       <c r="C519" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D519" s="11">
         <v>1.17</v>
@@ -8779,7 +8753,7 @@
         <v>2009</v>
       </c>
       <c r="C520" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D520" s="13">
         <v>0</v>
@@ -8793,7 +8767,7 @@
         <v>2009</v>
       </c>
       <c r="C521" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D521" s="11">
         <v>19.739999999999998</v>
@@ -8801,13 +8775,13 @@
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A522" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B522" s="12">
         <v>2009</v>
       </c>
       <c r="C522" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D522" s="13">
         <v>0.2</v>
@@ -8821,7 +8795,7 @@
         <v>2009</v>
       </c>
       <c r="C523" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D523" s="11">
         <v>0.03</v>
@@ -8835,7 +8809,7 @@
         <v>2009</v>
       </c>
       <c r="C524" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D524" s="13">
         <v>0.08</v>
@@ -8843,13 +8817,13 @@
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A525" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B525" s="10">
         <v>2010</v>
       </c>
       <c r="C525" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D525" s="11">
         <v>2.04</v>
@@ -8863,7 +8837,7 @@
         <v>2010</v>
       </c>
       <c r="C526" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D526" s="13">
         <v>36.94</v>
@@ -8877,7 +8851,7 @@
         <v>2010</v>
       </c>
       <c r="C527" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D527" s="11">
         <v>73.989999999999995</v>
@@ -8891,7 +8865,7 @@
         <v>2010</v>
       </c>
       <c r="C528" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D528" s="13">
         <v>1.21</v>
@@ -8905,7 +8879,7 @@
         <v>2010</v>
       </c>
       <c r="C529" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D529" s="11">
         <v>0</v>
@@ -8919,7 +8893,7 @@
         <v>2010</v>
       </c>
       <c r="C530" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D530" s="13">
         <v>17.84</v>
@@ -8927,13 +8901,13 @@
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A531" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B531" s="10">
         <v>2010</v>
       </c>
       <c r="C531" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D531" s="11">
         <v>0.2</v>
@@ -8947,7 +8921,7 @@
         <v>2010</v>
       </c>
       <c r="C532" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D532" s="13">
         <v>0.09</v>
@@ -8961,7 +8935,7 @@
         <v>2010</v>
       </c>
       <c r="C533" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D533" s="11">
         <v>0.11</v>
@@ -8969,13 +8943,13 @@
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A534" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B534" s="12">
         <v>2011</v>
       </c>
       <c r="C534" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D534" s="13">
         <v>2.34</v>
@@ -8989,7 +8963,7 @@
         <v>2011</v>
       </c>
       <c r="C535" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D535" s="11">
         <v>41.48</v>
@@ -9003,7 +8977,7 @@
         <v>2011</v>
       </c>
       <c r="C536" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D536" s="13">
         <v>70.010000000000005</v>
@@ -9017,7 +8991,7 @@
         <v>2011</v>
       </c>
       <c r="C537" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D537" s="11">
         <v>1.0900000000000001</v>
@@ -9031,7 +9005,7 @@
         <v>2011</v>
       </c>
       <c r="C538" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D538" s="13">
         <v>0</v>
@@ -9045,7 +9019,7 @@
         <v>2011</v>
       </c>
       <c r="C539" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D539" s="11">
         <v>17.170000000000002</v>
@@ -9053,13 +9027,13 @@
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A540" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B540" s="12">
         <v>2011</v>
       </c>
       <c r="C540" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D540" s="13">
         <v>0.21</v>
@@ -9073,7 +9047,7 @@
         <v>2011</v>
       </c>
       <c r="C541" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D541" s="11">
         <v>0.51</v>
@@ -9087,7 +9061,7 @@
         <v>2011</v>
       </c>
       <c r="C542" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D542" s="13">
         <v>0.12</v>
@@ -9095,13 +9069,13 @@
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A543" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B543" s="10">
         <v>2012</v>
       </c>
       <c r="C543" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D543" s="11">
         <v>2.7</v>
@@ -9115,7 +9089,7 @@
         <v>2012</v>
       </c>
       <c r="C544" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D544" s="13">
         <v>45.57</v>
@@ -9129,7 +9103,7 @@
         <v>2012</v>
       </c>
       <c r="C545" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D545" s="11">
         <v>62.53</v>
@@ -9143,7 +9117,7 @@
         <v>2012</v>
       </c>
       <c r="C546" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D546" s="13">
         <v>0.99</v>
@@ -9157,7 +9131,7 @@
         <v>2012</v>
       </c>
       <c r="C547" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D547" s="11">
         <v>0</v>
@@ -9171,7 +9145,7 @@
         <v>2012</v>
       </c>
       <c r="C548" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D548" s="13">
         <v>16.29</v>
@@ -9179,13 +9153,13 @@
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A549" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B549" s="10">
         <v>2012</v>
       </c>
       <c r="C549" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D549" s="11">
         <v>0.21</v>
@@ -9199,7 +9173,7 @@
         <v>2012</v>
       </c>
       <c r="C550" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D550" s="13">
         <v>0.9</v>
@@ -9213,7 +9187,7 @@
         <v>2012</v>
       </c>
       <c r="C551" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D551" s="11">
         <v>0.16</v>
@@ -9221,13 +9195,13 @@
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A552" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B552" s="12">
         <v>2013</v>
       </c>
       <c r="C552" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D552" s="13">
         <v>3.69</v>
@@ -9241,7 +9215,7 @@
         <v>2013</v>
       </c>
       <c r="C553" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D553" s="11">
         <v>41.82</v>
@@ -9255,7 +9229,7 @@
         <v>2013</v>
       </c>
       <c r="C554" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D554" s="13">
         <v>52.73</v>
@@ -9269,7 +9243,7 @@
         <v>2013</v>
       </c>
       <c r="C555" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D555" s="11">
         <v>1.25</v>
@@ -9283,7 +9257,7 @@
         <v>2013</v>
       </c>
       <c r="C556" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D556" s="13">
         <v>0</v>
@@ -9297,7 +9271,7 @@
         <v>2013</v>
       </c>
       <c r="C557" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D557" s="11">
         <v>13.17</v>
@@ -9305,13 +9279,13 @@
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A558" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B558" s="12">
         <v>2013</v>
       </c>
       <c r="C558" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D558" s="13">
         <v>0.21</v>
@@ -9325,7 +9299,7 @@
         <v>2013</v>
       </c>
       <c r="C559" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D559" s="11">
         <v>1.03</v>
@@ -9339,7 +9313,7 @@
         <v>2013</v>
       </c>
       <c r="C560" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D560" s="13">
         <v>0.18</v>
@@ -9347,13 +9321,13 @@
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A561" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B561" s="10">
         <v>2014</v>
       </c>
       <c r="C561" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D561" s="11">
         <v>4.05</v>
@@ -9367,7 +9341,7 @@
         <v>2014</v>
       </c>
       <c r="C562" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D562" s="13">
         <v>40.28</v>
@@ -9381,7 +9355,7 @@
         <v>2014</v>
       </c>
       <c r="C563" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D563" s="11">
         <v>45.35</v>
@@ -9395,7 +9369,7 @@
         <v>2014</v>
       </c>
       <c r="C564" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D564" s="13">
         <v>1.39</v>
@@ -9409,7 +9383,7 @@
         <v>2014</v>
       </c>
       <c r="C565" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D565" s="11">
         <v>0</v>
@@ -9423,7 +9397,7 @@
         <v>2014</v>
       </c>
       <c r="C566" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D566" s="13">
         <v>12.33</v>
@@ -9431,13 +9405,13 @@
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A567" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B567" s="10">
         <v>2014</v>
       </c>
       <c r="C567" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D567" s="11">
         <v>0.22</v>
@@ -9451,7 +9425,7 @@
         <v>2014</v>
       </c>
       <c r="C568" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D568" s="13">
         <v>1.06</v>
@@ -9465,7 +9439,7 @@
         <v>2014</v>
       </c>
       <c r="C569" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D569" s="11">
         <v>0.19</v>
@@ -9473,13 +9447,13 @@
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A570" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B570" s="12">
         <v>2015</v>
       </c>
       <c r="C570" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D570" s="13">
         <v>4.1900000000000004</v>
@@ -9493,7 +9467,7 @@
         <v>2015</v>
       </c>
       <c r="C571" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D571" s="11">
         <v>40.03</v>
@@ -9507,7 +9481,7 @@
         <v>2015</v>
       </c>
       <c r="C572" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D572" s="13">
         <v>53.68</v>
@@ -9521,7 +9495,7 @@
         <v>2015</v>
       </c>
       <c r="C573" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D573" s="11">
         <v>1.08</v>
@@ -9535,7 +9509,7 @@
         <v>2015</v>
       </c>
       <c r="C574" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D574" s="13">
         <v>0</v>
@@ -9549,7 +9523,7 @@
         <v>2015</v>
       </c>
       <c r="C575" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D575" s="11">
         <v>11.01</v>
@@ -9557,13 +9531,13 @@
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A576" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B576" s="12">
         <v>2015</v>
       </c>
       <c r="C576" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D576" s="13">
         <v>0.23</v>
@@ -9577,7 +9551,7 @@
         <v>2015</v>
       </c>
       <c r="C577" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D577" s="11">
         <v>1.0900000000000001</v>
@@ -9591,7 +9565,7 @@
         <v>2015</v>
       </c>
       <c r="C578" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D578" s="13">
         <v>0.18</v>
@@ -9599,13 +9573,13 @@
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A579" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B579" s="10">
         <v>2016</v>
       </c>
       <c r="C579" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D579" s="11">
         <v>4.22</v>
@@ -9619,7 +9593,7 @@
         <v>2016</v>
       </c>
       <c r="C580" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D580" s="13">
         <v>32.92</v>
@@ -9633,7 +9607,7 @@
         <v>2016</v>
       </c>
       <c r="C581" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D581" s="11">
         <v>61.09</v>
@@ -9647,7 +9621,7 @@
         <v>2016</v>
       </c>
       <c r="C582" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D582" s="13">
         <v>1.01</v>
@@ -9661,7 +9635,7 @@
         <v>2016</v>
       </c>
       <c r="C583" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D583" s="11">
         <v>0</v>
@@ -9675,7 +9649,7 @@
         <v>2016</v>
       </c>
       <c r="C584" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D584" s="13">
         <v>10.63</v>
@@ -9683,13 +9657,13 @@
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A585" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B585" s="10">
         <v>2016</v>
       </c>
       <c r="C585" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D585" s="11">
         <v>0.24</v>
@@ -9703,7 +9677,7 @@
         <v>2016</v>
       </c>
       <c r="C586" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D586" s="13">
         <v>1.05</v>
@@ -9717,7 +9691,7 @@
         <v>2016</v>
       </c>
       <c r="C587" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D587" s="11">
         <v>0.22</v>
@@ -9725,13 +9699,13 @@
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A588" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B588" s="12">
         <v>2017</v>
       </c>
       <c r="C588" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D588" s="13">
         <v>4.1900000000000004</v>
@@ -9745,7 +9719,7 @@
         <v>2017</v>
       </c>
       <c r="C589" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D589" s="11">
         <v>30.09</v>
@@ -9759,7 +9733,7 @@
         <v>2017</v>
       </c>
       <c r="C590" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D590" s="13">
         <v>67.959999999999994</v>
@@ -9773,7 +9747,7 @@
         <v>2017</v>
       </c>
       <c r="C591" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D591" s="11">
         <v>0.86</v>
@@ -9787,7 +9761,7 @@
         <v>2017</v>
       </c>
       <c r="C592" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D592" s="13">
         <v>0</v>
@@ -9801,7 +9775,7 @@
         <v>2017</v>
       </c>
       <c r="C593" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D593" s="11">
         <v>10.01</v>
@@ -9809,13 +9783,13 @@
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A594" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B594" s="12">
         <v>2017</v>
       </c>
       <c r="C594" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D594" s="13">
         <v>0.23</v>
@@ -9829,7 +9803,7 @@
         <v>2017</v>
       </c>
       <c r="C595" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D595" s="11">
         <v>1.1599999999999999</v>
@@ -9843,7 +9817,7 @@
         <v>2017</v>
       </c>
       <c r="C596" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D596" s="13">
         <v>0.22</v>
@@ -9851,13 +9825,13 @@
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A597" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B597" s="10">
         <v>2018</v>
       </c>
       <c r="C597" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D597" s="11">
         <v>4.1399999999999997</v>
@@ -9871,7 +9845,7 @@
         <v>2018</v>
       </c>
       <c r="C598" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D598" s="13">
         <v>26.24</v>
@@ -9885,7 +9859,7 @@
         <v>2018</v>
       </c>
       <c r="C599" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D599" s="11">
         <v>62.24</v>
@@ -9899,7 +9873,7 @@
         <v>2018</v>
       </c>
       <c r="C600" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D600" s="13">
         <v>1.1599999999999999</v>
@@ -9913,7 +9887,7 @@
         <v>2018</v>
       </c>
       <c r="C601" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D601" s="11">
         <v>0</v>
@@ -9927,7 +9901,7 @@
         <v>2018</v>
       </c>
       <c r="C602" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D602" s="13">
         <v>9.6199999999999992</v>
@@ -9935,13 +9909,13 @@
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A603" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B603" s="10">
         <v>2018</v>
       </c>
       <c r="C603" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D603" s="11">
         <v>0.23</v>
@@ -9955,7 +9929,7 @@
         <v>2018</v>
       </c>
       <c r="C604" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D604" s="13">
         <v>1.08</v>
@@ -9969,7 +9943,7 @@
         <v>2018</v>
       </c>
       <c r="C605" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D605" s="11">
         <v>0.22</v>
@@ -9977,13 +9951,13 @@
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A606" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B606" s="12">
         <v>2019</v>
       </c>
       <c r="C606" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D606" s="13">
         <v>4.2300000000000004</v>
@@ -9997,7 +9971,7 @@
         <v>2019</v>
       </c>
       <c r="C607" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D607" s="11">
         <v>17.36</v>
@@ -10011,7 +9985,7 @@
         <v>2019</v>
       </c>
       <c r="C608" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D608" s="13">
         <v>68.61</v>
@@ -10025,7 +9999,7 @@
         <v>2019</v>
       </c>
       <c r="C609" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D609" s="11">
         <v>1.1000000000000001</v>
@@ -10039,7 +10013,7 @@
         <v>2019</v>
       </c>
       <c r="C610" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D610" s="13">
         <v>0</v>
@@ -10053,7 +10027,7 @@
         <v>2019</v>
       </c>
       <c r="C611" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D611" s="11">
         <v>8.9600000000000009</v>
@@ -10061,13 +10035,13 @@
     </row>
     <row r="612" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A612" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B612" s="12">
         <v>2019</v>
       </c>
       <c r="C612" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D612" s="13">
         <v>0.23</v>
@@ -10081,7 +10055,7 @@
         <v>2019</v>
       </c>
       <c r="C613" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D613" s="11">
         <v>1.1299999999999999</v>
@@ -10095,7 +10069,7 @@
         <v>2019</v>
       </c>
       <c r="C614" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D614" s="13">
         <v>0.25</v>
@@ -10103,13 +10077,13 @@
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A615" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B615" s="10">
         <v>2020</v>
       </c>
       <c r="C615" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D615" s="11">
         <v>4.24</v>
@@ -10123,7 +10097,7 @@
         <v>2020</v>
       </c>
       <c r="C616" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D616" s="13">
         <v>12.34</v>
@@ -10137,7 +10111,7 @@
         <v>2020</v>
       </c>
       <c r="C617" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D617" s="11">
         <v>64.73</v>
@@ -10151,7 +10125,7 @@
         <v>2020</v>
       </c>
       <c r="C618" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D618" s="13">
         <v>1.1299999999999999</v>
@@ -10165,7 +10139,7 @@
         <v>2020</v>
       </c>
       <c r="C619" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D619" s="11">
         <v>0</v>
@@ -10179,7 +10153,7 @@
         <v>2020</v>
       </c>
       <c r="C620" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D620" s="13">
         <v>8.44</v>
@@ -10187,13 +10161,13 @@
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A621" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B621" s="10">
         <v>2020</v>
       </c>
       <c r="C621" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D621" s="11">
         <v>0.23</v>
@@ -10207,7 +10181,7 @@
         <v>2020</v>
       </c>
       <c r="C622" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D622" s="13">
         <v>1.19</v>
@@ -10221,7 +10195,7 @@
         <v>2020</v>
       </c>
       <c r="C623" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D623" s="11">
         <v>0.23</v>
@@ -10229,13 +10203,13 @@
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A624" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B624" s="12">
         <v>2021</v>
       </c>
       <c r="C624" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D624" s="13">
         <v>4.12</v>
@@ -10249,7 +10223,7 @@
         <v>2021</v>
       </c>
       <c r="C625" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D625" s="11">
         <v>12.94</v>
@@ -10263,7 +10237,7 @@
         <v>2021</v>
       </c>
       <c r="C626" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D626" s="13">
         <v>69.73</v>
@@ -10277,7 +10251,7 @@
         <v>2021</v>
       </c>
       <c r="C627" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D627" s="11">
         <v>1.08</v>
@@ -10291,7 +10265,7 @@
         <v>2021</v>
       </c>
       <c r="C628" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D628" s="13">
         <v>0</v>
@@ -10305,7 +10279,7 @@
         <v>2021</v>
       </c>
       <c r="C629" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D629" s="11">
         <v>7.32</v>
@@ -10313,13 +10287,13 @@
     </row>
     <row r="630" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A630" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B630" s="12">
         <v>2021</v>
       </c>
       <c r="C630" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D630" s="13">
         <v>0.22</v>
@@ -10333,7 +10307,7 @@
         <v>2021</v>
       </c>
       <c r="C631" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D631" s="11">
         <v>1.19</v>
@@ -10347,7 +10321,7 @@
         <v>2021</v>
       </c>
       <c r="C632" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D632" s="13">
         <v>0.26</v>
@@ -10355,13 +10329,13 @@
     </row>
     <row r="633" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A633" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B633" s="10">
         <v>2022</v>
       </c>
       <c r="C633" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D633" s="11">
         <v>3.81</v>
@@ -10375,7 +10349,7 @@
         <v>2022</v>
       </c>
       <c r="C634" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D634" s="13">
         <v>20.88</v>
@@ -10389,7 +10363,7 @@
         <v>2022</v>
       </c>
       <c r="C635" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D635" s="11">
         <v>68.5</v>
@@ -10403,7 +10377,7 @@
         <v>2022</v>
       </c>
       <c r="C636" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D636" s="13">
         <v>0.67</v>
@@ -10417,7 +10391,7 @@
         <v>2022</v>
       </c>
       <c r="C637" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D637" s="11">
         <v>0</v>
@@ -10431,7 +10405,7 @@
         <v>2022</v>
       </c>
       <c r="C638" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D638" s="13">
         <v>10.28</v>
@@ -10439,13 +10413,13 @@
     </row>
     <row r="639" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A639" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B639" s="10">
         <v>2022</v>
       </c>
       <c r="C639" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D639" s="11">
         <v>0.22</v>
@@ -10459,7 +10433,7 @@
         <v>2022</v>
       </c>
       <c r="C640" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D640" s="13">
         <v>1.34</v>
@@ -10473,7 +10447,7 @@
         <v>2022</v>
       </c>
       <c r="C641" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D641" s="11">
         <v>0.25</v>
@@ -10481,13 +10455,13 @@
     </row>
     <row r="642" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A642" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B642" s="12">
         <v>2023</v>
       </c>
       <c r="C642" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D642" s="13">
         <v>3.59</v>
@@ -10501,7 +10475,7 @@
         <v>2023</v>
       </c>
       <c r="C643" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D643" s="11">
         <v>12.84</v>
@@ -10515,7 +10489,7 @@
         <v>2023</v>
       </c>
       <c r="C644" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D644" s="13">
         <v>57.3</v>
@@ -10529,7 +10503,7 @@
         <v>2023</v>
       </c>
       <c r="C645" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D645" s="11">
         <v>0.9</v>
@@ -10543,7 +10517,7 @@
         <v>2023</v>
       </c>
       <c r="C646" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D646" s="13">
         <v>0</v>
@@ -10557,7 +10531,7 @@
         <v>2023</v>
       </c>
       <c r="C647" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D647" s="11">
         <v>10.23</v>
@@ -10565,13 +10539,13 @@
     </row>
     <row r="648" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A648" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B648" s="12">
         <v>2023</v>
       </c>
       <c r="C648" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D648" s="13">
         <v>0.22</v>
@@ -10585,7 +10559,7 @@
         <v>2023</v>
       </c>
       <c r="C649" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D649" s="11">
         <v>1.47</v>
@@ -10599,7 +10573,7 @@
         <v>2023</v>
       </c>
       <c r="C650" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D650" s="13">
         <v>0.28999999999999998</v>
@@ -10607,13 +10581,13 @@
     </row>
     <row r="651" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A651" s="10" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B651" s="10">
         <v>2000</v>
       </c>
       <c r="C651" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D651" s="11">
         <v>44.35</v>
@@ -10621,13 +10595,13 @@
     </row>
     <row r="652" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A652" s="12" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B652" s="12">
         <v>2000</v>
       </c>
       <c r="C652" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D652" s="13">
         <v>0</v>
@@ -10635,13 +10609,13 @@
     </row>
     <row r="653" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A653" s="10" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B653" s="10">
         <v>2001</v>
       </c>
       <c r="C653" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D653" s="11">
         <v>48.38</v>
@@ -10649,13 +10623,13 @@
     </row>
     <row r="654" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A654" s="12" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B654" s="12">
         <v>2001</v>
       </c>
       <c r="C654" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D654" s="13">
         <v>0</v>
@@ -10663,13 +10637,13 @@
     </row>
     <row r="655" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A655" s="10" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B655" s="10">
         <v>2002</v>
       </c>
       <c r="C655" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D655" s="11">
         <v>50.6</v>
@@ -10677,13 +10651,13 @@
     </row>
     <row r="656" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A656" s="12" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B656" s="12">
         <v>2002</v>
       </c>
       <c r="C656" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D656" s="13">
         <v>0</v>
@@ -10691,13 +10665,13 @@
     </row>
     <row r="657" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A657" s="10" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B657" s="10">
         <v>2003</v>
       </c>
       <c r="C657" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D657" s="11">
         <v>50.97</v>
@@ -10705,13 +10679,13 @@
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A658" s="12" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B658" s="12">
         <v>2003</v>
       </c>
       <c r="C658" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D658" s="13">
         <v>0</v>
@@ -10719,13 +10693,13 @@
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A659" s="10" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B659" s="10">
         <v>2004</v>
       </c>
       <c r="C659" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D659" s="11">
         <v>45.63</v>
@@ -10733,13 +10707,13 @@
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A660" s="12" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B660" s="12">
         <v>2004</v>
       </c>
       <c r="C660" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D660" s="13">
         <v>0</v>
@@ -10747,13 +10721,13 @@
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A661" s="10" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B661" s="10">
         <v>2005</v>
       </c>
       <c r="C661" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D661" s="11">
         <v>49.15</v>
@@ -10761,13 +10735,13 @@
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A662" s="12" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B662" s="12">
         <v>2005</v>
       </c>
       <c r="C662" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D662" s="13">
         <v>0</v>
@@ -10775,13 +10749,13 @@
     </row>
     <row r="663" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A663" s="10" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B663" s="10">
         <v>2006</v>
       </c>
       <c r="C663" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D663" s="11">
         <v>44.99</v>
@@ -10789,13 +10763,13 @@
     </row>
     <row r="664" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A664" s="12" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B664" s="12">
         <v>2006</v>
       </c>
       <c r="C664" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D664" s="13">
         <v>0</v>
@@ -10803,13 +10777,13 @@
     </row>
     <row r="665" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A665" s="10" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B665" s="10">
         <v>2007</v>
       </c>
       <c r="C665" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D665" s="11">
         <v>46.28</v>
@@ -10817,13 +10791,13 @@
     </row>
     <row r="666" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A666" s="12" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B666" s="12">
         <v>2007</v>
       </c>
       <c r="C666" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D666" s="13">
         <v>0</v>
@@ -10831,13 +10805,13 @@
     </row>
     <row r="667" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A667" s="10" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B667" s="10">
         <v>2008</v>
       </c>
       <c r="C667" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D667" s="11">
         <v>40.03</v>
@@ -10845,13 +10819,13 @@
     </row>
     <row r="668" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A668" s="12" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B668" s="12">
         <v>2008</v>
       </c>
       <c r="C668" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D668" s="13">
         <v>0</v>
@@ -10859,13 +10833,13 @@
     </row>
     <row r="669" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A669" s="10" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B669" s="10">
         <v>2009</v>
       </c>
       <c r="C669" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D669" s="11">
         <v>44.96</v>
@@ -10873,13 +10847,13 @@
     </row>
     <row r="670" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A670" s="12" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B670" s="12">
         <v>2009</v>
       </c>
       <c r="C670" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D670" s="13">
         <v>0</v>
@@ -10887,13 +10861,13 @@
     </row>
     <row r="671" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A671" s="10" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B671" s="10">
         <v>2010</v>
       </c>
       <c r="C671" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D671" s="11">
         <v>44.16</v>
@@ -10901,13 +10875,13 @@
     </row>
     <row r="672" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A672" s="12" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B672" s="12">
         <v>2010</v>
       </c>
       <c r="C672" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D672" s="13">
         <v>0</v>
@@ -10915,13 +10889,13 @@
     </row>
     <row r="673" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A673" s="10" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B673" s="10">
         <v>2011</v>
       </c>
       <c r="C673" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D673" s="11">
         <v>45.73</v>
@@ -10929,13 +10903,13 @@
     </row>
     <row r="674" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A674" s="12" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B674" s="12">
         <v>2011</v>
       </c>
       <c r="C674" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D674" s="13">
         <v>0</v>
@@ -10943,13 +10917,13 @@
     </row>
     <row r="675" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A675" s="10" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B675" s="10">
         <v>2012</v>
       </c>
       <c r="C675" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D675" s="11">
         <v>43.1</v>
@@ -10957,13 +10931,13 @@
     </row>
     <row r="676" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A676" s="12" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B676" s="12">
         <v>2012</v>
       </c>
       <c r="C676" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D676" s="13">
         <v>0</v>
@@ -10971,13 +10945,13 @@
     </row>
     <row r="677" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A677" s="10" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B677" s="10">
         <v>2013</v>
       </c>
       <c r="C677" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D677" s="11">
         <v>42.14</v>
@@ -10985,13 +10959,13 @@
     </row>
     <row r="678" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A678" s="12" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B678" s="12">
         <v>2013</v>
       </c>
       <c r="C678" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D678" s="13">
         <v>0</v>
@@ -10999,13 +10973,13 @@
     </row>
     <row r="679" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A679" s="10" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B679" s="10">
         <v>2014</v>
       </c>
       <c r="C679" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D679" s="11">
         <v>43.72</v>
@@ -11013,13 +10987,13 @@
     </row>
     <row r="680" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A680" s="12" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B680" s="12">
         <v>2014</v>
       </c>
       <c r="C680" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D680" s="13">
         <v>0</v>
@@ -11027,13 +11001,13 @@
     </row>
     <row r="681" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A681" s="10" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B681" s="10">
         <v>2015</v>
       </c>
       <c r="C681" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D681" s="11">
         <v>46.38</v>
@@ -11041,13 +11015,13 @@
     </row>
     <row r="682" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A682" s="12" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B682" s="12">
         <v>2015</v>
       </c>
       <c r="C682" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D682" s="13">
         <v>0</v>
@@ -11055,13 +11029,13 @@
     </row>
     <row r="683" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A683" s="10" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B683" s="10">
         <v>2016</v>
       </c>
       <c r="C683" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D683" s="11">
         <v>37.03</v>
@@ -11069,13 +11043,13 @@
     </row>
     <row r="684" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A684" s="12" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B684" s="12">
         <v>2016</v>
       </c>
       <c r="C684" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D684" s="13">
         <v>0</v>
@@ -11083,13 +11057,13 @@
     </row>
     <row r="685" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A685" s="10" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B685" s="10">
         <v>2017</v>
       </c>
       <c r="C685" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D685" s="11">
         <v>37.76</v>
@@ -11097,13 +11071,13 @@
     </row>
     <row r="686" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A686" s="12" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B686" s="12">
         <v>2017</v>
       </c>
       <c r="C686" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D686" s="13">
         <v>0</v>
@@ -11111,13 +11085,13 @@
     </row>
     <row r="687" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A687" s="10" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B687" s="10">
         <v>2018</v>
       </c>
       <c r="C687" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D687" s="11">
         <v>43.9</v>
@@ -11125,13 +11099,13 @@
     </row>
     <row r="688" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A688" s="12" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B688" s="12">
         <v>2018</v>
       </c>
       <c r="C688" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D688" s="13">
         <v>0</v>
@@ -11139,13 +11113,13 @@
     </row>
     <row r="689" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A689" s="10" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B689" s="10">
         <v>2019</v>
       </c>
       <c r="C689" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D689" s="11">
         <v>38.14</v>
@@ -11153,13 +11127,13 @@
     </row>
     <row r="690" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A690" s="12" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B690" s="12">
         <v>2019</v>
       </c>
       <c r="C690" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D690" s="13">
         <v>0</v>
@@ -11167,13 +11141,13 @@
     </row>
     <row r="691" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A691" s="10" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B691" s="10">
         <v>2020</v>
       </c>
       <c r="C691" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D691" s="11">
         <v>32.200000000000003</v>
@@ -11181,13 +11155,13 @@
     </row>
     <row r="692" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A692" s="12" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B692" s="12">
         <v>2020</v>
       </c>
       <c r="C692" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D692" s="13">
         <v>0</v>
@@ -11195,13 +11169,13 @@
     </row>
     <row r="693" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A693" s="10" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B693" s="10">
         <v>2021</v>
       </c>
       <c r="C693" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D693" s="11">
         <v>42.79</v>
@@ -11209,13 +11183,13 @@
     </row>
     <row r="694" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A694" s="12" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B694" s="12">
         <v>2021</v>
       </c>
       <c r="C694" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D694" s="13">
         <v>0</v>
@@ -11223,13 +11197,13 @@
     </row>
     <row r="695" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A695" s="10" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B695" s="10">
         <v>2022</v>
       </c>
       <c r="C695" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D695" s="11">
         <v>42.99</v>
@@ -11237,13 +11211,13 @@
     </row>
     <row r="696" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A696" s="12" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B696" s="12">
         <v>2022</v>
       </c>
       <c r="C696" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D696" s="13">
         <v>0</v>
@@ -11251,13 +11225,13 @@
     </row>
     <row r="697" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A697" s="10" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B697" s="10">
         <v>2023</v>
       </c>
       <c r="C697" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D697" s="11">
         <v>51.25</v>
@@ -11265,13 +11239,13 @@
     </row>
     <row r="698" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A698" s="12" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B698" s="12">
         <v>2023</v>
       </c>
       <c r="C698" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D698" s="13">
         <v>0</v>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F26E25-F854-4B40-B0C9-84773A516F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707B521A-30A1-4FEF-A093-6EBC49F956A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707B521A-30A1-4FEF-A093-6EBC49F956A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98AD77B9-00DD-42BC-9443-9D7CB24DBF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98AD77B9-00DD-42BC-9443-9D7CB24DBF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D231429-23F9-43A1-8ABB-B76C048BA330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D231429-23F9-43A1-8ABB-B76C048BA330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A2CA70-73AE-4A1B-9649-7D3EDAD9444D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A2CA70-73AE-4A1B-9649-7D3EDAD9444D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2ADC80-5090-48D4-A763-2ADE83ABFDC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFE0B0EB-20E7-4090-AE63-0F51471FB00B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F902FFA0-E1CE-4E6E-8119-38C1420E578C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -618,7 +618,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9405C057-5199-2C95-B1B4-C78A1A313A39}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{140B6347-BEB8-56A1-41AF-C48A0E245F24}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F902FFA0-E1CE-4E6E-8119-38C1420E578C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4C1D68A-C3FB-49E6-9AF6-E1E632EFFC73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -618,7 +618,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{140B6347-BEB8-56A1-41AF-C48A0E245F24}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39B1709F-8471-6028-164B-82A49FCA43AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4C1D68A-C3FB-49E6-9AF6-E1E632EFFC73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FCED9E8-9450-4364-BE52-085FCC9DAD80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -618,7 +618,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39B1709F-8471-6028-164B-82A49FCA43AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F855C87-4E0B-A24B-78CE-218E6E1152D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FCED9E8-9450-4364-BE52-085FCC9DAD80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D835E8E-FB2E-4B3B-93CF-B3997581F012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -618,7 +618,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F855C87-4E0B-A24B-78CE-218E6E1152D1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D89501CD-9695-F104-9DEB-2D6B7D0BE234}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D835E8E-FB2E-4B3B-93CF-B3997581F012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3A1F366-06AF-405B-BC0A-36C18A434858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -618,7 +618,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D89501CD-9695-F104-9DEB-2D6B7D0BE234}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33F54EBF-88FA-86C7-F16A-B28690B6B494}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3A1F366-06AF-405B-BC0A-36C18A434858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{216A9934-DFB0-40F0-A8E6-9EDCDE358959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -618,7 +618,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33F54EBF-88FA-86C7-F16A-B28690B6B494}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCAA459B-E3A4-94A8-6B09-FC6A0E049B93}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{216A9934-DFB0-40F0-A8E6-9EDCDE358959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0864134-8128-4D89-A1B4-1BE97BF7BC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -618,7 +618,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCAA459B-E3A4-94A8-6B09-FC6A0E049B93}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{024BEC83-E741-9BDB-9AC2-083D111A2BE9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0864134-8128-4D89-A1B4-1BE97BF7BC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{289E9B4D-24C1-4D7C-9A71-9E5C731C891A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -618,7 +618,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{024BEC83-E741-9BDB-9AC2-083D111A2BE9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8F89264-E26C-5804-77EA-B6C8C19068E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{289E9B4D-24C1-4D7C-9A71-9E5C731C891A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{738F0BF0-D781-4172-B8AB-ED8586EFDB0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -618,7 +618,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8F89264-E26C-5804-77EA-B6C8C19068E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6508DD11-5E60-A75C-401C-E7B1732ECA3F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{738F0BF0-D781-4172-B8AB-ED8586EFDB0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{281B0FF3-D80F-4D61-A84A-1FD084BD39E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Veda" sheetId="1" r:id="rId1"/>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="91">
   <si>
     <t>~TFM_INS-AT</t>
   </si>
@@ -348,7 +348,16 @@
     <t>~UC_T: uc_rhsrt</t>
   </si>
   <si>
+    <t>\I: solar</t>
+  </si>
+  <si>
+    <t>\I: wind</t>
+  </si>
+  <si>
     <t>geothermal</t>
+  </si>
+  <si>
+    <t>windon</t>
   </si>
   <si>
     <t>BUILD RATE ASSUMPTIONS</t>
@@ -618,7 +627,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6508DD11-5E60-A75C-401C-E7B1732ECA3F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65B259F3-C533-4439-D3F3-F623F67115BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -972,8 +981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V3" sqref="V3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1110,17 +1119,17 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="4" t="str">
         <f>IFERROR(MIN(VLOOKUP(B6,$F$3:$J$11,5,FALSE),$A$6),"")</f>
-        <v>0.14275360852558924</v>
+        <v/>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -1139,14 +1148,14 @@
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="4" t="str">
         <f t="shared" ref="D7" si="0">IFERROR(VLOOKUP(B7,$F$3:$J$11,5,FALSE),"")</f>
-        <v>0.21594436217582091</v>
+        <v/>
       </c>
       <c r="F7" t="s">
         <v>6</v>
@@ -1369,7 +1378,7 @@
     </row>
     <row r="11" spans="1:38" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F11" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="G11" s="3">
         <v>0.15298675050527735</v>
@@ -1703,7 +1712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{320A1887-1B0C-44A8-9658-90FD86FEE0A5}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -1718,7 +1727,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -1730,12 +1739,12 @@
     </row>
     <row r="9" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B9" s="10" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B10" s="17" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>70</v>
@@ -1764,7 +1773,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B11" s="18" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C11" s="19">
         <v>7</v>
@@ -2097,7 +2106,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="12" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B11" s="12">
         <v>2000</v>
@@ -2223,7 +2232,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="14" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B20" s="14">
         <v>2001</v>
@@ -2349,7 +2358,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="12" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B29" s="12">
         <v>2002</v>
@@ -2475,7 +2484,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="14" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B38" s="14">
         <v>2003</v>
@@ -2601,7 +2610,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="12" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B47" s="12">
         <v>2004</v>
@@ -2727,7 +2736,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" s="14" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B56" s="14">
         <v>2005</v>
@@ -2853,7 +2862,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" s="12" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B65" s="12">
         <v>2006</v>
@@ -2979,7 +2988,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" s="14" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B74" s="14">
         <v>2007</v>
@@ -3105,7 +3114,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" s="12" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B83" s="12">
         <v>2008</v>
@@ -3231,7 +3240,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92" s="14" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B92" s="14">
         <v>2009</v>
@@ -3357,7 +3366,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A101" s="12" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B101" s="12">
         <v>2010</v>
@@ -3483,7 +3492,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A110" s="14" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B110" s="14">
         <v>2011</v>
@@ -3609,7 +3618,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A119" s="12" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B119" s="12">
         <v>2012</v>
@@ -3735,7 +3744,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A128" s="14" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B128" s="14">
         <v>2013</v>
@@ -3861,7 +3870,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A137" s="12" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B137" s="12">
         <v>2014</v>
@@ -3987,7 +3996,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A146" s="14" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B146" s="14">
         <v>2015</v>
@@ -4113,7 +4122,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A155" s="12" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B155" s="12">
         <v>2016</v>
@@ -4239,7 +4248,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A164" s="14" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B164" s="14">
         <v>2017</v>
@@ -4365,7 +4374,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A173" s="12" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B173" s="12">
         <v>2018</v>
@@ -4491,7 +4500,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A182" s="14" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B182" s="14">
         <v>2019</v>
@@ -4617,7 +4626,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A191" s="12" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B191" s="12">
         <v>2020</v>
@@ -4743,7 +4752,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A200" s="14" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B200" s="14">
         <v>2021</v>
@@ -4869,7 +4878,7 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A209" s="12" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B209" s="12">
         <v>2022</v>
@@ -4995,7 +5004,7 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A218" s="14" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B218" s="14">
         <v>2023</v>
@@ -5119,7 +5128,7 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A227" s="12" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B227" s="12">
         <v>2000</v>
@@ -5243,7 +5252,7 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A236" s="14" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B236" s="14">
         <v>2001</v>
@@ -5367,7 +5376,7 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A245" s="12" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B245" s="12">
         <v>2002</v>
@@ -5491,7 +5500,7 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A254" s="14" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B254" s="14">
         <v>2003</v>
@@ -5615,7 +5624,7 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A263" s="12" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B263" s="12">
         <v>2004</v>
@@ -5739,7 +5748,7 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A272" s="14" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B272" s="14">
         <v>2005</v>
@@ -5863,7 +5872,7 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A281" s="12" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B281" s="12">
         <v>2006</v>
@@ -5987,7 +5996,7 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A290" s="14" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B290" s="14">
         <v>2007</v>
@@ -6111,7 +6120,7 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A299" s="12" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B299" s="12">
         <v>2008</v>
@@ -6235,7 +6244,7 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A308" s="14" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B308" s="14">
         <v>2009</v>
@@ -6359,7 +6368,7 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A317" s="12" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B317" s="12">
         <v>2010</v>
@@ -6483,7 +6492,7 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A326" s="14" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B326" s="14">
         <v>2011</v>
@@ -6607,7 +6616,7 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A335" s="12" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B335" s="12">
         <v>2012</v>
@@ -6731,7 +6740,7 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A344" s="14" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B344" s="14">
         <v>2013</v>
@@ -6855,7 +6864,7 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A353" s="12" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B353" s="12">
         <v>2014</v>
@@ -6979,7 +6988,7 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A362" s="14" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B362" s="14">
         <v>2015</v>
@@ -7103,7 +7112,7 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A371" s="12" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B371" s="12">
         <v>2016</v>
@@ -7227,7 +7236,7 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A380" s="14" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B380" s="14">
         <v>2017</v>
@@ -7351,7 +7360,7 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A389" s="12" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B389" s="12">
         <v>2018</v>
@@ -7475,7 +7484,7 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A398" s="14" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B398" s="14">
         <v>2019</v>
@@ -7599,7 +7608,7 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A407" s="12" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B407" s="12">
         <v>2020</v>
@@ -7723,7 +7732,7 @@
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A416" s="14" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B416" s="14">
         <v>2021</v>
@@ -7847,7 +7856,7 @@
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A425" s="12" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B425" s="12">
         <v>2022</v>
@@ -7971,7 +7980,7 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A434" s="14" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B434" s="14">
         <v>2023</v>
@@ -8097,7 +8106,7 @@
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A443" s="12" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B443" s="12">
         <v>2000</v>
@@ -8223,7 +8232,7 @@
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A452" s="14" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B452" s="14">
         <v>2001</v>
@@ -8349,7 +8358,7 @@
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A461" s="12" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B461" s="12">
         <v>2002</v>
@@ -8475,7 +8484,7 @@
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A470" s="14" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B470" s="14">
         <v>2003</v>
@@ -8601,7 +8610,7 @@
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A479" s="12" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B479" s="12">
         <v>2004</v>
@@ -8727,7 +8736,7 @@
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A488" s="14" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B488" s="14">
         <v>2005</v>
@@ -8853,7 +8862,7 @@
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A497" s="12" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B497" s="12">
         <v>2006</v>
@@ -8979,7 +8988,7 @@
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A506" s="14" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B506" s="14">
         <v>2007</v>
@@ -9105,7 +9114,7 @@
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A515" s="12" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B515" s="12">
         <v>2008</v>
@@ -9231,7 +9240,7 @@
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A524" s="14" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B524" s="14">
         <v>2009</v>
@@ -9357,7 +9366,7 @@
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A533" s="12" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B533" s="12">
         <v>2010</v>
@@ -9483,7 +9492,7 @@
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A542" s="14" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B542" s="14">
         <v>2011</v>
@@ -9609,7 +9618,7 @@
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A551" s="12" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B551" s="12">
         <v>2012</v>
@@ -9735,7 +9744,7 @@
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A560" s="14" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B560" s="14">
         <v>2013</v>
@@ -9861,7 +9870,7 @@
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A569" s="12" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B569" s="12">
         <v>2014</v>
@@ -9987,7 +9996,7 @@
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A578" s="14" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B578" s="14">
         <v>2015</v>
@@ -10113,7 +10122,7 @@
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A587" s="12" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B587" s="12">
         <v>2016</v>
@@ -10239,7 +10248,7 @@
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A596" s="14" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B596" s="14">
         <v>2017</v>
@@ -10365,7 +10374,7 @@
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A605" s="12" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B605" s="12">
         <v>2018</v>
@@ -10491,7 +10500,7 @@
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A614" s="14" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B614" s="14">
         <v>2019</v>
@@ -10617,7 +10626,7 @@
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A623" s="12" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B623" s="12">
         <v>2020</v>
@@ -10743,7 +10752,7 @@
     </row>
     <row r="632" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A632" s="14" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B632" s="14">
         <v>2021</v>
@@ -10869,7 +10878,7 @@
     </row>
     <row r="641" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A641" s="12" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B641" s="12">
         <v>2022</v>
@@ -10995,7 +11004,7 @@
     </row>
     <row r="650" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A650" s="14" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B650" s="14">
         <v>2023</v>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{281B0FF3-D80F-4D61-A84A-1FD084BD39E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{44CB46F8-0829-4072-AEA6-0223EAB1EBF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -627,7 +627,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65B259F3-C533-4439-D3F3-F623F67115BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A70668FD-01CF-F266-6A4E-22CABDE0C865}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CCB62A2-9963-41EE-923B-83A97C844C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BA5E83D-4B91-4966-AE61-7459777D0F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BA5E83D-4B91-4966-AE61-7459777D0F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1FDAFF3-CC72-4FBE-87F2-ED44C06D6F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1FDAFF3-CC72-4FBE-87F2-ED44C06D6F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{60F84A57-9057-42AF-B69D-B3AA5A2B1EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60F84A57-9057-42AF-B69D-B3AA5A2B1EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{17AB63C8-172B-4F28-A223-B6EA3006882A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17AB63C8-172B-4F28-A223-B6EA3006882A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7AB2380-D280-4D6F-A08A-1B3F0CB9D538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Veda" sheetId="1" r:id="rId1"/>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="91">
   <si>
     <t>~TFM_INS-AT</t>
   </si>
@@ -352,6 +352,9 @@
   </si>
   <si>
     <t>\I: wind</t>
+  </si>
+  <si>
+    <t>wind*</t>
   </si>
   <si>
     <t>geothermal</t>
@@ -830,8 +833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -978,7 +981,7 @@
         <v/>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -1227,7 +1230,7 @@
     </row>
     <row r="11" spans="1:38" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G11" s="3">
         <v>0.15298675050527735</v>
@@ -1545,7 +1548,7 @@
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D40" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="E40">
         <v>-1</v>
@@ -1561,8 +1564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{320A1887-1B0C-44A8-9658-90FD86FEE0A5}">
   <dimension ref="A9:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1581,12 +1584,12 @@
   <sheetData>
     <row r="9" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
         <v>70</v>
@@ -1615,7 +1618,7 @@
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C11">
         <v>7</v>
@@ -1717,8 +1720,8 @@
         <v>uce_buildrate_wind</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" ref="C21:C23" si="1">A21</f>
-        <v>wind</v>
+        <f>A21&amp;"*"</f>
+        <v>wind*</v>
       </c>
       <c r="D21" t="s">
         <v>81</v>
@@ -1747,7 +1750,7 @@
         <v>uce_buildrate_hydro</v>
       </c>
       <c r="C22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C22:C23" si="1">A22</f>
         <v>hydro</v>
       </c>
       <c r="D22" t="s">
@@ -1941,7 +1944,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B10">
         <v>2000</v>
@@ -2067,7 +2070,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B19">
         <v>2001</v>
@@ -2193,7 +2196,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B28">
         <v>2002</v>
@@ -2319,7 +2322,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B37">
         <v>2003</v>
@@ -2445,7 +2448,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B46">
         <v>2004</v>
@@ -2571,7 +2574,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B55">
         <v>2005</v>
@@ -2697,7 +2700,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B64">
         <v>2006</v>
@@ -2823,7 +2826,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B73">
         <v>2007</v>
@@ -2949,7 +2952,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>2008</v>
@@ -3075,7 +3078,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B91">
         <v>2009</v>
@@ -3201,7 +3204,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B100">
         <v>2010</v>
@@ -3327,7 +3330,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B109">
         <v>2011</v>
@@ -3453,7 +3456,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B118">
         <v>2012</v>
@@ -3579,7 +3582,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B127">
         <v>2013</v>
@@ -3705,7 +3708,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B136">
         <v>2014</v>
@@ -3831,7 +3834,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B145">
         <v>2015</v>
@@ -3957,7 +3960,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B154">
         <v>2016</v>
@@ -4083,7 +4086,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B163">
         <v>2017</v>
@@ -4209,7 +4212,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B172">
         <v>2018</v>
@@ -4335,7 +4338,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B181">
         <v>2019</v>
@@ -4461,7 +4464,7 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B190">
         <v>2020</v>
@@ -4587,7 +4590,7 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B199">
         <v>2021</v>
@@ -4713,7 +4716,7 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B208">
         <v>2022</v>
@@ -4839,7 +4842,7 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B217">
         <v>2023</v>
@@ -4962,7 +4965,7 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B226">
         <v>2000</v>
@@ -5085,7 +5088,7 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B235">
         <v>2001</v>
@@ -5208,7 +5211,7 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B244">
         <v>2002</v>
@@ -5331,7 +5334,7 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B253">
         <v>2003</v>
@@ -5454,7 +5457,7 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B262">
         <v>2004</v>
@@ -5577,7 +5580,7 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A271" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B271">
         <v>2005</v>
@@ -5700,7 +5703,7 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A280" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B280">
         <v>2006</v>
@@ -5823,7 +5826,7 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A289" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B289">
         <v>2007</v>
@@ -5946,7 +5949,7 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A298" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B298">
         <v>2008</v>
@@ -6069,7 +6072,7 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A307" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B307">
         <v>2009</v>
@@ -6192,7 +6195,7 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A316" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B316">
         <v>2010</v>
@@ -6315,7 +6318,7 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A325" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B325">
         <v>2011</v>
@@ -6438,7 +6441,7 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A334" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B334">
         <v>2012</v>
@@ -6561,7 +6564,7 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A343" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B343">
         <v>2013</v>
@@ -6684,7 +6687,7 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A352" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B352">
         <v>2014</v>
@@ -6807,7 +6810,7 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A361" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B361">
         <v>2015</v>
@@ -6930,7 +6933,7 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A370" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B370">
         <v>2016</v>
@@ -7053,7 +7056,7 @@
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A379" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B379">
         <v>2017</v>
@@ -7176,7 +7179,7 @@
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A388" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B388">
         <v>2018</v>
@@ -7299,7 +7302,7 @@
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A397" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B397">
         <v>2019</v>
@@ -7422,7 +7425,7 @@
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A406" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B406">
         <v>2020</v>
@@ -7545,7 +7548,7 @@
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A415" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B415">
         <v>2021</v>
@@ -7668,7 +7671,7 @@
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A424" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B424">
         <v>2022</v>
@@ -7791,7 +7794,7 @@
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A433" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B433">
         <v>2023</v>
@@ -7917,7 +7920,7 @@
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A442" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B442">
         <v>2000</v>
@@ -8043,7 +8046,7 @@
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A451" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B451">
         <v>2001</v>
@@ -8169,7 +8172,7 @@
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A460" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B460">
         <v>2002</v>
@@ -8295,7 +8298,7 @@
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A469" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B469">
         <v>2003</v>
@@ -8421,7 +8424,7 @@
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A478" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B478">
         <v>2004</v>
@@ -8547,7 +8550,7 @@
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A487" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B487">
         <v>2005</v>
@@ -8673,7 +8676,7 @@
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A496" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B496">
         <v>2006</v>
@@ -8799,7 +8802,7 @@
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A505" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B505">
         <v>2007</v>
@@ -8925,7 +8928,7 @@
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A514" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B514">
         <v>2008</v>
@@ -9051,7 +9054,7 @@
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A523" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B523">
         <v>2009</v>
@@ -9177,7 +9180,7 @@
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A532" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B532">
         <v>2010</v>
@@ -9303,7 +9306,7 @@
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A541" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B541">
         <v>2011</v>
@@ -9429,7 +9432,7 @@
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A550" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B550">
         <v>2012</v>
@@ -9555,7 +9558,7 @@
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A559" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B559">
         <v>2013</v>
@@ -9681,7 +9684,7 @@
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A568" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B568">
         <v>2014</v>
@@ -9807,7 +9810,7 @@
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A577" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B577">
         <v>2015</v>
@@ -9933,7 +9936,7 @@
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A586" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B586">
         <v>2016</v>
@@ -10059,7 +10062,7 @@
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A595" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B595">
         <v>2017</v>
@@ -10185,7 +10188,7 @@
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A604" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B604">
         <v>2018</v>
@@ -10311,7 +10314,7 @@
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A613" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B613">
         <v>2019</v>
@@ -10437,7 +10440,7 @@
     </row>
     <row r="622" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A622" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B622">
         <v>2020</v>
@@ -10563,7 +10566,7 @@
     </row>
     <row r="631" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A631" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B631">
         <v>2021</v>
@@ -10689,7 +10692,7 @@
     </row>
     <row r="640" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A640" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B640">
         <v>2022</v>
@@ -10815,7 +10818,7 @@
     </row>
     <row r="649" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A649" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B649">
         <v>2023</v>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7AB2380-D280-4D6F-A08A-1B3F0CB9D538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8A1088F-5E77-4BCE-8B58-5DD3021E31F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8A1088F-5E77-4BCE-8B58-5DD3021E31F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{060462E9-B55D-487C-B6C4-CB7EE1D939D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{060462E9-B55D-487C-B6C4-CB7EE1D939D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A987A75-05E9-4148-8FE8-E77F42AB3B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A987A75-05E9-4148-8FE8-E77F42AB3B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9968F274-881F-4B0D-9D45-F540E0230634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9968F274-881F-4B0D-9D45-F540E0230634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{20B665DB-9BD3-4842-9116-A73D1486A4BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20B665DB-9BD3-4842-9116-A73D1486A4BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3150ADE-4093-4221-B559-3C3A39A39761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3150ADE-4093-4221-B559-3C3A39A39761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15D44BA4-CD2F-4BA4-910E-258F08E6CE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15D44BA4-CD2F-4BA4-910E-258F08E6CE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{353F9CBA-C40A-4091-AC9E-05381F0B21DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{353F9CBA-C40A-4091-AC9E-05381F0B21DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{87D1569B-043D-4BE3-A15A-3B23CC2BFA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87D1569B-043D-4BE3-A15A-3B23CC2BFA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{411543A7-55F0-4B8E-8FA3-9B83FD5A19A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{411543A7-55F0-4B8E-8FA3-9B83FD5A19A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{821164C5-3001-442C-BE57-B35D42A7EF29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{821164C5-3001-442C-BE57-B35D42A7EF29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C738BFF4-0C27-4A80-B5E7-BCAD12C6EC60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C738BFF4-0C27-4A80-B5E7-BCAD12C6EC60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{262DCF91-ADCB-410C-B769-22DCFC5E06EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{262DCF91-ADCB-410C-B769-22DCFC5E06EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{19252601-49D8-4F2F-8479-362043363AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19252601-49D8-4F2F-8479-362043363AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5ADEFBA-A1DE-4A0E-9920-7C0834426D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5ADEFBA-A1DE-4A0E-9920-7C0834426D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6D25E1F-DAFE-47D4-B7B7-D701295E9C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6D25E1F-DAFE-47D4-B7B7-D701295E9C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0226C6C-A3AC-4788-B1D2-16E067044111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0226C6C-A3AC-4788-B1D2-16E067044111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C67869A6-7AE7-420D-9276-E785DB651540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C67869A6-7AE7-420D-9276-E785DB651540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDDDC65C-7C09-48AB-A013-4E06FD1678ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDDDC65C-7C09-48AB-A013-4E06FD1678ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA226D55-BC92-40AE-8B78-AC38BAA4EAB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA226D55-BC92-40AE-8B78-AC38BAA4EAB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{220B6DFE-C93B-4676-AFCA-991FF8CFB36E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{220B6DFE-C93B-4676-AFCA-991FF8CFB36E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4F80923-5BB6-41D8-83B1-B4FC9BBA0B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Veda" sheetId="1" r:id="rId1"/>
@@ -833,9 +833,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -875,7 +873,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AD1">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.45">
@@ -1134,7 +1132,7 @@
       </c>
       <c r="AJ8">
         <f>AI8*$AD$1</f>
-        <v>0.17760433258999683</v>
+        <v>3.9467629464443738E-2</v>
       </c>
       <c r="AK8">
         <v>0</v>
@@ -1202,7 +1200,7 @@
       </c>
       <c r="AJ9">
         <f>AI9*$AD$1</f>
-        <v>0.14259932927869037</v>
+        <v>3.1688739839708976E-2</v>
       </c>
       <c r="AK9">
         <v>0</v>
@@ -1564,7 +1562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{320A1887-1B0C-44A8-9658-90FD86FEE0A5}">
   <dimension ref="A9:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4F80923-5BB6-41D8-83B1-B4FC9BBA0B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F16D7C42-AA39-4360-A794-55164DCAEE3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F16D7C42-AA39-4360-A794-55164DCAEE3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDB94F78-13AD-4C96-ABE8-9CE27CDC6C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDB94F78-13AD-4C96-ABE8-9CE27CDC6C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDE7F33E-8FDA-429C-9470-90ECC625331F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDE7F33E-8FDA-429C-9470-90ECC625331F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{379D9293-DDBE-42DA-AAB4-01DC8A86A8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{379D9293-DDBE-42DA-AAB4-01DC8A86A8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF630EEC-3D47-452F-B05F-365604768B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="92">
   <si>
     <t>~TFM_INS-AT</t>
   </si>
@@ -294,9 +294,6 @@
     <t>UCE_max nuclear capacity</t>
   </si>
   <si>
-    <t>UC_RHSRT~2050</t>
-  </si>
-  <si>
     <t>life</t>
   </si>
   <si>
@@ -357,6 +354,12 @@
     <t>wind*</t>
   </si>
   <si>
+    <t>~UC_T: 2050</t>
+  </si>
+  <si>
+    <t>base-year nuclear capacity</t>
+  </si>
+  <si>
     <t>geothermal</t>
   </si>
   <si>
@@ -379,7 +382,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -429,8 +432,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -447,6 +466,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -477,13 +501,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -494,10 +519,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="4"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Heading 3" xfId="2" builtinId="18"/>
     <cellStyle name="Heading 4" xfId="3" builtinId="19"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -833,7 +861,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -969,7 +999,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -979,7 +1009,7 @@
         <v/>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -998,7 +1028,7 @@
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -1228,7 +1258,7 @@
     </row>
     <row r="11" spans="1:38" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G11" s="3">
         <v>0.15298675050527735</v>
@@ -1248,7 +1278,7 @@
         <v>26</v>
       </c>
       <c r="U13" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.45">
@@ -1288,9 +1318,6 @@
       <c r="AC14" t="s">
         <v>17</v>
       </c>
-      <c r="AD14" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
@@ -1304,7 +1331,7 @@
         <v>Hydropower - large-scale unit,Solar photovoltaics - Large scale unit,Wind offshore,Wind onshore</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="U15" t="s">
         <v>64</v>
@@ -1316,15 +1343,18 @@
         <v>1</v>
       </c>
       <c r="AB15">
+        <f>AE15*2.5</f>
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>3</v>
+      </c>
+      <c r="AE15" s="11">
         <f>SUMIFS(historical_data_long!$D$3:$D$626,historical_data_long!$A$3:$A$626,Veda!$V15,historical_data_long!$C$3:$C$626,"GW",historical_data_long!$B$3:$B$626,2022)</f>
         <v>0</v>
       </c>
-      <c r="AC15">
-        <v>3</v>
-      </c>
-      <c r="AD15">
-        <f>AB15*2.5</f>
-        <v>0</v>
+      <c r="AF15" s="10" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.45">
@@ -1466,24 +1496,24 @@
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E28">
         <v>50</v>
       </c>
       <c r="G28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E29">
         <v>8.76</v>
       </c>
       <c r="G29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.45">
@@ -1546,7 +1576,7 @@
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E40">
         <v>-1</v>
@@ -1554,7 +1584,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1563,7 +1594,7 @@
   <dimension ref="A9:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1582,41 +1613,41 @@
   <sheetData>
     <row r="9" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" t="s">
         <v>70</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>71</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>72</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>73</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>74</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>75</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>76</v>
-      </c>
-      <c r="J10" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C11">
         <v>7</v>
@@ -1650,7 +1681,7 @@
     </row>
     <row r="18" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B18" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -1658,16 +1689,16 @@
         <v>48</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>80</v>
       </c>
       <c r="F19" s="8">
         <v>2025</v>
@@ -1692,7 +1723,7 @@
         <v>solar</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1722,7 +1753,7 @@
         <v>wind*</v>
       </c>
       <c r="D21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1752,7 +1783,7 @@
         <v>hydro</v>
       </c>
       <c r="D22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1782,7 +1813,7 @@
         <v>nuclear</v>
       </c>
       <c r="D23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1942,7 +1973,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B10">
         <v>2000</v>
@@ -2068,7 +2099,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B19">
         <v>2001</v>
@@ -2194,7 +2225,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B28">
         <v>2002</v>
@@ -2320,7 +2351,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B37">
         <v>2003</v>
@@ -2446,7 +2477,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B46">
         <v>2004</v>
@@ -2572,7 +2603,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B55">
         <v>2005</v>
@@ -2698,7 +2729,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B64">
         <v>2006</v>
@@ -2824,7 +2855,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B73">
         <v>2007</v>
@@ -2950,7 +2981,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>2008</v>
@@ -3076,7 +3107,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B91">
         <v>2009</v>
@@ -3202,7 +3233,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B100">
         <v>2010</v>
@@ -3328,7 +3359,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B109">
         <v>2011</v>
@@ -3454,7 +3485,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B118">
         <v>2012</v>
@@ -3580,7 +3611,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B127">
         <v>2013</v>
@@ -3706,7 +3737,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B136">
         <v>2014</v>
@@ -3832,7 +3863,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B145">
         <v>2015</v>
@@ -3958,7 +3989,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B154">
         <v>2016</v>
@@ -4084,7 +4115,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B163">
         <v>2017</v>
@@ -4210,7 +4241,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B172">
         <v>2018</v>
@@ -4336,7 +4367,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B181">
         <v>2019</v>
@@ -4462,7 +4493,7 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B190">
         <v>2020</v>
@@ -4588,7 +4619,7 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B199">
         <v>2021</v>
@@ -4714,7 +4745,7 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B208">
         <v>2022</v>
@@ -4840,7 +4871,7 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B217">
         <v>2023</v>
@@ -4963,7 +4994,7 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B226">
         <v>2000</v>
@@ -5086,7 +5117,7 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B235">
         <v>2001</v>
@@ -5209,7 +5240,7 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B244">
         <v>2002</v>
@@ -5332,7 +5363,7 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B253">
         <v>2003</v>
@@ -5455,7 +5486,7 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B262">
         <v>2004</v>
@@ -5578,7 +5609,7 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A271" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B271">
         <v>2005</v>
@@ -5701,7 +5732,7 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A280" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B280">
         <v>2006</v>
@@ -5824,7 +5855,7 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A289" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B289">
         <v>2007</v>
@@ -5947,7 +5978,7 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A298" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B298">
         <v>2008</v>
@@ -6070,7 +6101,7 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A307" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B307">
         <v>2009</v>
@@ -6193,7 +6224,7 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A316" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B316">
         <v>2010</v>
@@ -6316,7 +6347,7 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A325" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B325">
         <v>2011</v>
@@ -6439,7 +6470,7 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A334" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B334">
         <v>2012</v>
@@ -6562,7 +6593,7 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A343" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B343">
         <v>2013</v>
@@ -6685,7 +6716,7 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A352" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B352">
         <v>2014</v>
@@ -6808,7 +6839,7 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A361" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B361">
         <v>2015</v>
@@ -6931,7 +6962,7 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A370" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B370">
         <v>2016</v>
@@ -7054,7 +7085,7 @@
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A379" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B379">
         <v>2017</v>
@@ -7177,7 +7208,7 @@
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A388" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B388">
         <v>2018</v>
@@ -7300,7 +7331,7 @@
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A397" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B397">
         <v>2019</v>
@@ -7423,7 +7454,7 @@
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A406" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B406">
         <v>2020</v>
@@ -7546,7 +7577,7 @@
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A415" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B415">
         <v>2021</v>
@@ -7669,7 +7700,7 @@
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A424" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B424">
         <v>2022</v>
@@ -7792,7 +7823,7 @@
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A433" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B433">
         <v>2023</v>
@@ -7918,7 +7949,7 @@
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A442" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B442">
         <v>2000</v>
@@ -8044,7 +8075,7 @@
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A451" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B451">
         <v>2001</v>
@@ -8170,7 +8201,7 @@
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A460" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B460">
         <v>2002</v>
@@ -8296,7 +8327,7 @@
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A469" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B469">
         <v>2003</v>
@@ -8422,7 +8453,7 @@
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A478" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B478">
         <v>2004</v>
@@ -8548,7 +8579,7 @@
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A487" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B487">
         <v>2005</v>
@@ -8674,7 +8705,7 @@
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A496" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B496">
         <v>2006</v>
@@ -8800,7 +8831,7 @@
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A505" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B505">
         <v>2007</v>
@@ -8926,7 +8957,7 @@
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A514" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B514">
         <v>2008</v>
@@ -9052,7 +9083,7 @@
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A523" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B523">
         <v>2009</v>
@@ -9178,7 +9209,7 @@
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A532" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B532">
         <v>2010</v>
@@ -9304,7 +9335,7 @@
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A541" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B541">
         <v>2011</v>
@@ -9430,7 +9461,7 @@
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A550" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B550">
         <v>2012</v>
@@ -9556,7 +9587,7 @@
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A559" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B559">
         <v>2013</v>
@@ -9682,7 +9713,7 @@
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A568" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B568">
         <v>2014</v>
@@ -9808,7 +9839,7 @@
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A577" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B577">
         <v>2015</v>
@@ -9934,7 +9965,7 @@
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A586" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B586">
         <v>2016</v>
@@ -10060,7 +10091,7 @@
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A595" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B595">
         <v>2017</v>
@@ -10186,7 +10217,7 @@
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A604" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B604">
         <v>2018</v>
@@ -10312,7 +10343,7 @@
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A613" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B613">
         <v>2019</v>
@@ -10438,7 +10469,7 @@
     </row>
     <row r="622" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A622" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B622">
         <v>2020</v>
@@ -10564,7 +10595,7 @@
     </row>
     <row r="631" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A631" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B631">
         <v>2021</v>
@@ -10690,7 +10721,7 @@
     </row>
     <row r="640" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A640" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B640">
         <v>2022</v>
@@ -10816,7 +10847,7 @@
     </row>
     <row r="649" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A649" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B649">
         <v>2023</v>
